--- a/17Lands.xlsx
+++ b/17Lands.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MTGAToolScraping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\17lands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B1E34A5-7C75-4C41-8B6F-68DFD7D4B5DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5E0120-2C9C-410B-A375-38A53A6CAD11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{8943F25A-5914-4368-9FD9-3EAA21A0D66A}"/>
+    <workbookView xWindow="2160" yWindow="3255" windowWidth="21600" windowHeight="11385" xr2:uid="{8943F25A-5914-4368-9FD9-3EAA21A0D66A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="279">
   <si>
     <t>Name</t>
   </si>
@@ -1242,6 +1242,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1272,7 +1275,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1283,22 +1286,22 @@
         <v>11</v>
       </c>
       <c r="D2" s="2">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="E2" s="2">
-        <v>1.7</v>
+        <v>1.44</v>
       </c>
       <c r="F2" s="2">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="G2" s="2">
-        <v>1.77</v>
+        <v>1.26</v>
       </c>
       <c r="H2" s="2">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="I2" s="3">
-        <v>0.53500000000000003</v>
+        <v>0.505</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1312,25 +1315,25 @@
         <v>13</v>
       </c>
       <c r="D3" s="2">
-        <v>573</v>
+        <v>1157</v>
       </c>
       <c r="E3" s="2">
-        <v>5.12</v>
+        <v>6.19</v>
       </c>
       <c r="F3" s="2">
-        <v>28</v>
+        <v>148</v>
       </c>
       <c r="G3" s="2">
-        <v>6.96</v>
+        <v>8.68</v>
       </c>
       <c r="H3" s="2">
-        <v>87</v>
+        <v>251</v>
       </c>
       <c r="I3" s="3">
-        <v>0.59799999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>0.56200000000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -1341,25 +1344,25 @@
         <v>13</v>
       </c>
       <c r="D4" s="2">
-        <v>230</v>
+        <v>488</v>
       </c>
       <c r="E4" s="2">
-        <v>2.16</v>
+        <v>2.21</v>
       </c>
       <c r="F4" s="2">
-        <v>56</v>
+        <v>124</v>
       </c>
       <c r="G4" s="2">
-        <v>2.41</v>
+        <v>2.6</v>
       </c>
       <c r="H4" s="2">
-        <v>440</v>
+        <v>507</v>
       </c>
       <c r="I4" s="3">
-        <v>0.51400000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.57399999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -1370,25 +1373,25 @@
         <v>16</v>
       </c>
       <c r="D5" s="2">
-        <v>1591</v>
+        <v>3096</v>
       </c>
       <c r="E5" s="2">
-        <v>6.16</v>
+        <v>5.8</v>
       </c>
       <c r="F5" s="2">
-        <v>114</v>
+        <v>224</v>
       </c>
       <c r="G5" s="2">
-        <v>9.9600000000000009</v>
+        <v>8.81</v>
       </c>
       <c r="H5" s="2">
-        <v>329</v>
+        <v>505</v>
       </c>
       <c r="I5" s="3">
-        <v>0.54700000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.52300000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1399,25 +1402,25 @@
         <v>16</v>
       </c>
       <c r="D6" s="2">
-        <v>700</v>
+        <v>1466</v>
       </c>
       <c r="E6" s="2">
-        <v>2.56</v>
+        <v>2.92</v>
       </c>
       <c r="F6" s="2">
-        <v>109</v>
+        <v>304</v>
       </c>
       <c r="G6" s="2">
-        <v>3.36</v>
+        <v>3.57</v>
       </c>
       <c r="H6" s="2">
-        <v>778</v>
+        <v>1166</v>
       </c>
       <c r="I6" s="3">
-        <v>0.56299999999999994</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.56699999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -1428,25 +1431,25 @@
         <v>16</v>
       </c>
       <c r="D7" s="2">
-        <v>1762</v>
+        <v>3362</v>
       </c>
       <c r="E7" s="2">
-        <v>8.0299999999999994</v>
+        <v>7.91</v>
       </c>
       <c r="F7" s="2">
-        <v>161</v>
+        <v>303</v>
       </c>
       <c r="G7" s="2">
-        <v>11.52</v>
+        <v>11.94</v>
       </c>
       <c r="H7" s="2">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="I7" s="3">
-        <v>0.48499999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.48099999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -1457,25 +1460,25 @@
         <v>16</v>
       </c>
       <c r="D8" s="2">
-        <v>1792</v>
+        <v>3352</v>
       </c>
       <c r="E8" s="2">
-        <v>9.64</v>
+        <v>9.5299999999999994</v>
       </c>
       <c r="F8" s="2">
-        <v>267</v>
+        <v>560</v>
       </c>
       <c r="G8" s="2">
-        <v>12.97</v>
+        <v>12.43</v>
       </c>
       <c r="H8" s="2">
-        <v>48</v>
+        <v>186</v>
       </c>
       <c r="I8" s="3">
-        <v>0.438</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.505</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -1486,25 +1489,25 @@
         <v>11</v>
       </c>
       <c r="D9" s="2">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E9" s="2">
-        <v>2.4300000000000002</v>
+        <v>1.42</v>
       </c>
       <c r="F9" s="2">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="G9" s="2">
-        <v>2.5</v>
+        <v>1.37</v>
       </c>
       <c r="H9" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I9" s="3">
-        <v>0.51700000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.55800000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -1515,22 +1518,22 @@
         <v>22</v>
       </c>
       <c r="D10" s="2">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
       </c>
       <c r="F10" s="2">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
       </c>
       <c r="H10" s="2">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="I10" s="3">
-        <v>0.5</v>
+        <v>0.54400000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1544,16 +1547,16 @@
         <v>13</v>
       </c>
       <c r="D11" s="2">
-        <v>555</v>
+        <v>1191</v>
       </c>
       <c r="E11" s="2">
-        <v>8.6300000000000008</v>
+        <v>8.89</v>
       </c>
       <c r="F11" s="2">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="G11" s="2">
-        <v>12.97</v>
+        <v>12.61</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
@@ -1562,7 +1565,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
@@ -1573,25 +1576,25 @@
         <v>16</v>
       </c>
       <c r="D12" s="2">
-        <v>1840</v>
+        <v>3230</v>
       </c>
       <c r="E12" s="2">
-        <v>7.77</v>
+        <v>6.46</v>
       </c>
       <c r="F12" s="2">
-        <v>469</v>
+        <v>739</v>
       </c>
       <c r="G12" s="2">
-        <v>8.84</v>
+        <v>8</v>
       </c>
       <c r="H12" s="2">
-        <v>1350</v>
+        <v>1694</v>
       </c>
       <c r="I12" s="3">
-        <v>0.53600000000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.54400000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -1602,25 +1605,25 @@
         <v>16</v>
       </c>
       <c r="D13" s="2">
-        <v>1238</v>
+        <v>2845</v>
       </c>
       <c r="E13" s="2">
-        <v>3.91</v>
+        <v>5.03</v>
       </c>
       <c r="F13" s="2">
-        <v>170</v>
+        <v>535</v>
       </c>
       <c r="G13" s="2">
-        <v>5.28</v>
+        <v>6.59</v>
       </c>
       <c r="H13" s="2">
-        <v>733</v>
+        <v>1394</v>
       </c>
       <c r="I13" s="3">
-        <v>0.51400000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>0.55900000000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
@@ -1631,25 +1634,25 @@
         <v>16</v>
       </c>
       <c r="D14" s="2">
-        <v>1733</v>
+        <v>3373</v>
       </c>
       <c r="E14" s="2">
-        <v>6.64</v>
+        <v>7.85</v>
       </c>
       <c r="F14" s="2">
-        <v>88</v>
+        <v>318</v>
       </c>
       <c r="G14" s="2">
-        <v>10.53</v>
+        <v>11.47</v>
       </c>
       <c r="H14" s="2">
-        <v>46</v>
+        <v>135</v>
       </c>
       <c r="I14" s="3">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.46700000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -1660,22 +1663,22 @@
         <v>11</v>
       </c>
       <c r="D15" s="2">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
       </c>
       <c r="F15" s="2">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
       </c>
       <c r="H15" s="2">
-        <v>152</v>
+        <v>258</v>
       </c>
       <c r="I15" s="3">
-        <v>0.63200000000000001</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1689,25 +1692,25 @@
         <v>13</v>
       </c>
       <c r="D16" s="2">
-        <v>350</v>
+        <v>556</v>
       </c>
       <c r="E16" s="2">
-        <v>2.88</v>
+        <v>2.62</v>
       </c>
       <c r="F16" s="2">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="G16" s="2">
-        <v>3.35</v>
+        <v>3.24</v>
       </c>
       <c r="H16" s="2">
-        <v>471</v>
+        <v>576</v>
       </c>
       <c r="I16" s="3">
-        <v>0.56299999999999994</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.52600000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -1718,16 +1721,16 @@
         <v>11</v>
       </c>
       <c r="D17" s="2">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="E17" s="2">
-        <v>1.84</v>
+        <v>1.77</v>
       </c>
       <c r="F17" s="2">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="G17" s="2">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
@@ -1736,7 +1739,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>31</v>
       </c>
@@ -1747,25 +1750,25 @@
         <v>22</v>
       </c>
       <c r="D18" s="2">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E18" s="2">
         <v>1</v>
       </c>
       <c r="F18" s="2">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
       </c>
       <c r="H18" s="2">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="I18" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.58199999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>32</v>
       </c>
@@ -1776,25 +1779,25 @@
         <v>11</v>
       </c>
       <c r="D19" s="2">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="E19" s="2">
-        <v>1.77</v>
+        <v>1.51</v>
       </c>
       <c r="F19" s="2">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="G19" s="2">
-        <v>1.57</v>
+        <v>1.43</v>
       </c>
       <c r="H19" s="2">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="I19" s="3">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.60199999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>33</v>
       </c>
@@ -1805,25 +1808,25 @@
         <v>16</v>
       </c>
       <c r="D20" s="2">
-        <v>1775</v>
+        <v>3367</v>
       </c>
       <c r="E20" s="2">
-        <v>8.17</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="F20" s="2">
-        <v>165</v>
+        <v>435</v>
       </c>
       <c r="G20" s="2">
-        <v>11.21</v>
+        <v>10.99</v>
       </c>
       <c r="H20" s="2">
-        <v>310</v>
+        <v>521</v>
       </c>
       <c r="I20" s="3">
-        <v>0.51900000000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>0.52400000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>34</v>
       </c>
@@ -1834,25 +1837,25 @@
         <v>11</v>
       </c>
       <c r="D21" s="2">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="E21" s="2">
-        <v>1.72</v>
+        <v>1.44</v>
       </c>
       <c r="F21" s="2">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="G21" s="2">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="H21" s="2">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="I21" s="3">
-        <v>0.48099999999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.495</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
@@ -1863,25 +1866,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="2">
-        <v>1595</v>
+        <v>3043</v>
       </c>
       <c r="E22" s="2">
-        <v>5.33</v>
+        <v>5.17</v>
       </c>
       <c r="F22" s="2">
-        <v>188</v>
+        <v>464</v>
       </c>
       <c r="G22" s="2">
-        <v>6.94</v>
+        <v>7.24</v>
       </c>
       <c r="H22" s="2">
-        <v>862</v>
+        <v>1289</v>
       </c>
       <c r="I22" s="3">
-        <v>0.53500000000000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>0.54800000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>36</v>
       </c>
@@ -1892,22 +1895,22 @@
         <v>13</v>
       </c>
       <c r="D23" s="2">
-        <v>421</v>
+        <v>673</v>
       </c>
       <c r="E23" s="2">
-        <v>3.24</v>
+        <v>3.04</v>
       </c>
       <c r="F23" s="2">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="G23" s="2">
-        <v>3.45</v>
+        <v>3.61</v>
       </c>
       <c r="H23" s="2">
-        <v>597</v>
+        <v>719</v>
       </c>
       <c r="I23" s="3">
-        <v>0.53400000000000003</v>
+        <v>0.57899999999999996</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1921,25 +1924,25 @@
         <v>16</v>
       </c>
       <c r="D24" s="2">
-        <v>1560</v>
+        <v>3084</v>
       </c>
       <c r="E24" s="2">
-        <v>5.47</v>
+        <v>5.77</v>
       </c>
       <c r="F24" s="2">
-        <v>120</v>
+        <v>339</v>
       </c>
       <c r="G24" s="2">
-        <v>8.16</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="H24" s="2">
-        <v>538</v>
+        <v>887</v>
       </c>
       <c r="I24" s="3">
-        <v>0.53900000000000003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.55700000000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>38</v>
       </c>
@@ -1950,25 +1953,25 @@
         <v>16</v>
       </c>
       <c r="D25" s="2">
-        <v>1395</v>
+        <v>2927</v>
       </c>
       <c r="E25" s="2">
-        <v>4.5599999999999996</v>
+        <v>5.18</v>
       </c>
       <c r="F25" s="2">
-        <v>88</v>
+        <v>239</v>
       </c>
       <c r="G25" s="2">
-        <v>7.06</v>
+        <v>8.01</v>
       </c>
       <c r="H25" s="2">
-        <v>532</v>
+        <v>634</v>
       </c>
       <c r="I25" s="3">
-        <v>0.55300000000000005</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.54700000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>39</v>
       </c>
@@ -1979,25 +1982,25 @@
         <v>13</v>
       </c>
       <c r="D26" s="2">
-        <v>567</v>
+        <v>1074</v>
       </c>
       <c r="E26" s="2">
-        <v>5.99</v>
+        <v>5.77</v>
       </c>
       <c r="F26" s="2">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="G26" s="2">
-        <v>8.92</v>
+        <v>8.91</v>
       </c>
       <c r="H26" s="2">
-        <v>150</v>
+        <v>235</v>
       </c>
       <c r="I26" s="3">
-        <v>0.49299999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.57399999999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>40</v>
       </c>
@@ -2008,22 +2011,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="2">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
       </c>
       <c r="F27" s="2">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
       </c>
       <c r="H27" s="2">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="I27" s="3">
-        <v>0.59</v>
+        <v>0.54700000000000004</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2037,25 +2040,25 @@
         <v>13</v>
       </c>
       <c r="D28" s="2">
-        <v>633</v>
+        <v>1140</v>
       </c>
       <c r="E28" s="2">
-        <v>7.46</v>
+        <v>7.73</v>
       </c>
       <c r="F28" s="2">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="G28" s="2">
-        <v>11.21</v>
+        <v>11.62</v>
       </c>
       <c r="H28" s="2">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="I28" s="3">
-        <v>0.57099999999999995</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.47799999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>42</v>
       </c>
@@ -2066,25 +2069,25 @@
         <v>13</v>
       </c>
       <c r="D29" s="2">
-        <v>554</v>
+        <v>1006</v>
       </c>
       <c r="E29" s="2">
-        <v>4.5</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="F29" s="2">
-        <v>140</v>
+        <v>272</v>
       </c>
       <c r="G29" s="2">
-        <v>5.56</v>
+        <v>5.73</v>
       </c>
       <c r="H29" s="2">
-        <v>767</v>
+        <v>1010</v>
       </c>
       <c r="I29" s="3">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.56399999999999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>43</v>
       </c>
@@ -2095,25 +2098,25 @@
         <v>16</v>
       </c>
       <c r="D30" s="2">
-        <v>1752</v>
+        <v>3300</v>
       </c>
       <c r="E30" s="2">
-        <v>7.34</v>
+        <v>7.12</v>
       </c>
       <c r="F30" s="2">
-        <v>139</v>
+        <v>271</v>
       </c>
       <c r="G30" s="2">
-        <v>11.11</v>
+        <v>10.34</v>
       </c>
       <c r="H30" s="2">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="I30" s="3">
-        <v>0.48499999999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.46300000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>44</v>
       </c>
@@ -2124,25 +2127,25 @@
         <v>16</v>
       </c>
       <c r="D31" s="2">
-        <v>1499</v>
+        <v>3370</v>
       </c>
       <c r="E31" s="2">
-        <v>4.95</v>
+        <v>7.2</v>
       </c>
       <c r="F31" s="2">
-        <v>76</v>
+        <v>386</v>
       </c>
       <c r="G31" s="2">
-        <v>7.62</v>
+        <v>10.27</v>
       </c>
       <c r="H31" s="2">
-        <v>368</v>
+        <v>707</v>
       </c>
       <c r="I31" s="3">
-        <v>0.52700000000000002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.55900000000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>45</v>
       </c>
@@ -2153,25 +2156,25 @@
         <v>16</v>
       </c>
       <c r="D32" s="2">
-        <v>1660</v>
+        <v>3209</v>
       </c>
       <c r="E32" s="2">
-        <v>6.14</v>
+        <v>5.9</v>
       </c>
       <c r="F32" s="2">
-        <v>221</v>
+        <v>503</v>
       </c>
       <c r="G32" s="2">
-        <v>8</v>
+        <v>7.79</v>
       </c>
       <c r="H32" s="2">
-        <v>1059</v>
+        <v>1362</v>
       </c>
       <c r="I32" s="3">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>46</v>
       </c>
@@ -2182,25 +2185,25 @@
         <v>13</v>
       </c>
       <c r="D33" s="2">
-        <v>220</v>
+        <v>443</v>
       </c>
       <c r="E33" s="2">
-        <v>1.96</v>
+        <v>2.09</v>
       </c>
       <c r="F33" s="2">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="G33" s="2">
-        <v>2.02</v>
+        <v>2.48</v>
       </c>
       <c r="H33" s="2">
-        <v>353</v>
+        <v>558</v>
       </c>
       <c r="I33" s="3">
         <v>0.55200000000000005</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>47</v>
       </c>
@@ -2211,25 +2214,25 @@
         <v>16</v>
       </c>
       <c r="D34" s="2">
-        <v>862</v>
+        <v>1517</v>
       </c>
       <c r="E34" s="2">
-        <v>3.02</v>
+        <v>2.88</v>
       </c>
       <c r="F34" s="2">
-        <v>127</v>
+        <v>299</v>
       </c>
       <c r="G34" s="2">
-        <v>3.81</v>
+        <v>3.79</v>
       </c>
       <c r="H34" s="2">
-        <v>712</v>
+        <v>1250</v>
       </c>
       <c r="I34" s="3">
-        <v>0.503</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.56200000000000006</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>48</v>
       </c>
@@ -2240,22 +2243,22 @@
         <v>16</v>
       </c>
       <c r="D35" s="2">
-        <v>1870</v>
+        <v>3298</v>
       </c>
       <c r="E35" s="2">
         <v>8.3800000000000008</v>
       </c>
       <c r="F35" s="2">
-        <v>284</v>
+        <v>497</v>
       </c>
       <c r="G35" s="2">
-        <v>10.91</v>
+        <v>11.11</v>
       </c>
       <c r="H35" s="2">
-        <v>256</v>
+        <v>522</v>
       </c>
       <c r="I35" s="3">
-        <v>0.496</v>
+        <v>0.55400000000000005</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2269,25 +2272,25 @@
         <v>13</v>
       </c>
       <c r="D36" s="2">
-        <v>433</v>
+        <v>848</v>
       </c>
       <c r="E36" s="2">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="F36" s="2">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="G36" s="2">
-        <v>5.36</v>
+        <v>4.63</v>
       </c>
       <c r="H36" s="2">
-        <v>273</v>
+        <v>466</v>
       </c>
       <c r="I36" s="3">
-        <v>0.50900000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.54300000000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>50</v>
       </c>
@@ -2298,25 +2301,25 @@
         <v>11</v>
       </c>
       <c r="D37" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E37" s="2">
-        <v>1.5</v>
+        <v>1.32</v>
       </c>
       <c r="F37" s="2">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G37" s="2">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H37" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I37" s="3">
-        <v>0.60399999999999998</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.54400000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>51</v>
       </c>
@@ -2327,22 +2330,22 @@
         <v>16</v>
       </c>
       <c r="D38" s="2">
-        <v>1664</v>
+        <v>2858</v>
       </c>
       <c r="E38" s="2">
-        <v>5.2</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="F38" s="2">
-        <v>220</v>
+        <v>449</v>
       </c>
       <c r="G38" s="2">
-        <v>6.65</v>
+        <v>6.84</v>
       </c>
       <c r="H38" s="2">
-        <v>926</v>
+        <v>1308</v>
       </c>
       <c r="I38" s="3">
-        <v>0.52700000000000002</v>
+        <v>0.55900000000000005</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2356,25 +2359,25 @@
         <v>13</v>
       </c>
       <c r="D39" s="2">
-        <v>320</v>
+        <v>528</v>
       </c>
       <c r="E39" s="2">
-        <v>2.91</v>
+        <v>2.48</v>
       </c>
       <c r="F39" s="2">
-        <v>81</v>
+        <v>147</v>
       </c>
       <c r="G39" s="2">
-        <v>3.28</v>
+        <v>2.93</v>
       </c>
       <c r="H39" s="2">
-        <v>468</v>
+        <v>625</v>
       </c>
       <c r="I39" s="3">
-        <v>0.54300000000000004</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.56599999999999995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>54</v>
       </c>
@@ -2385,25 +2388,25 @@
         <v>22</v>
       </c>
       <c r="D40" s="2">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E40" s="2">
         <v>1</v>
       </c>
       <c r="F40" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G40" s="2">
         <v>1</v>
       </c>
       <c r="H40" s="2">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="I40" s="3">
-        <v>0.58499999999999996</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.56599999999999995</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>55</v>
       </c>
@@ -2414,25 +2417,25 @@
         <v>16</v>
       </c>
       <c r="D41" s="2">
-        <v>662</v>
+        <v>1509</v>
       </c>
       <c r="E41" s="2">
-        <v>2.4900000000000002</v>
+        <v>2.85</v>
       </c>
       <c r="F41" s="2">
-        <v>139</v>
+        <v>345</v>
       </c>
       <c r="G41" s="2">
-        <v>3.05</v>
+        <v>3.59</v>
       </c>
       <c r="H41" s="2">
-        <v>955</v>
+        <v>1386</v>
       </c>
       <c r="I41" s="3">
-        <v>0.58799999999999997</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.56399999999999995</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>56</v>
       </c>
@@ -2443,25 +2446,25 @@
         <v>16</v>
       </c>
       <c r="D42" s="2">
-        <v>1808</v>
+        <v>3387</v>
       </c>
       <c r="E42" s="2">
-        <v>7.58</v>
+        <v>7.45</v>
       </c>
       <c r="F42" s="2">
-        <v>239</v>
+        <v>506</v>
       </c>
       <c r="G42" s="2">
-        <v>10.27</v>
+        <v>10.19</v>
       </c>
       <c r="H42" s="2">
-        <v>486</v>
+        <v>848</v>
       </c>
       <c r="I42" s="3">
-        <v>0.54500000000000004</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.53400000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>57</v>
       </c>
@@ -2472,25 +2475,25 @@
         <v>16</v>
       </c>
       <c r="D43" s="2">
-        <v>1676</v>
+        <v>3183</v>
       </c>
       <c r="E43" s="2">
-        <v>7.86</v>
+        <v>6.23</v>
       </c>
       <c r="F43" s="2">
-        <v>410</v>
+        <v>742</v>
       </c>
       <c r="G43" s="2">
-        <v>9.3699999999999992</v>
+        <v>7.27</v>
       </c>
       <c r="H43" s="2">
-        <v>1548</v>
+        <v>1903</v>
       </c>
       <c r="I43" s="3">
-        <v>0.60899999999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.56799999999999995</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>58</v>
       </c>
@@ -2501,25 +2504,25 @@
         <v>11</v>
       </c>
       <c r="D44" s="2">
+        <v>112</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1.63</v>
+      </c>
+      <c r="F44" s="2">
         <v>67</v>
       </c>
-      <c r="E44" s="2">
-        <v>1.99</v>
-      </c>
-      <c r="F44" s="2">
-        <v>33</v>
-      </c>
       <c r="G44" s="2">
-        <v>1.88</v>
+        <v>1.55</v>
       </c>
       <c r="H44" s="2">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="I44" s="3">
-        <v>0.495</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.55700000000000005</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>59</v>
       </c>
@@ -2530,22 +2533,22 @@
         <v>11</v>
       </c>
       <c r="D45" s="2">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="E45" s="2">
-        <v>1.87</v>
+        <v>1.61</v>
       </c>
       <c r="F45" s="2">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="G45" s="2">
-        <v>1.75</v>
+        <v>1.63</v>
       </c>
       <c r="H45" s="2">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="I45" s="3">
-        <v>0.58299999999999996</v>
+        <v>0.56899999999999995</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2559,25 +2562,25 @@
         <v>13</v>
       </c>
       <c r="D46" s="2">
-        <v>345</v>
+        <v>586</v>
       </c>
       <c r="E46" s="2">
-        <v>3.04</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="F46" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="G46" s="2">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="H46" s="2">
-        <v>711</v>
+        <v>594</v>
       </c>
       <c r="I46" s="3">
-        <v>0.56299999999999994</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.58799999999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>61</v>
       </c>
@@ -2588,22 +2591,22 @@
         <v>11</v>
       </c>
       <c r="D47" s="2">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="E47" s="2">
-        <v>1.84</v>
+        <v>1.61</v>
       </c>
       <c r="F47" s="2">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="G47" s="2">
-        <v>1.66</v>
+        <v>1.48</v>
       </c>
       <c r="H47" s="2">
-        <v>213</v>
+        <v>377</v>
       </c>
       <c r="I47" s="3">
-        <v>0.59599999999999997</v>
+        <v>0.55200000000000005</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2617,25 +2620,25 @@
         <v>13</v>
       </c>
       <c r="D48" s="2">
-        <v>400</v>
+        <v>707</v>
       </c>
       <c r="E48" s="2">
-        <v>3.37</v>
+        <v>3.06</v>
       </c>
       <c r="F48" s="2">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="G48" s="2">
-        <v>4.29</v>
+        <v>3.87</v>
       </c>
       <c r="H48" s="2">
-        <v>222</v>
+        <v>362</v>
       </c>
       <c r="I48" s="3">
-        <v>0.56799999999999995</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.52800000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>63</v>
       </c>
@@ -2646,22 +2649,22 @@
         <v>11</v>
       </c>
       <c r="D49" s="2">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="E49" s="2">
         <v>1</v>
       </c>
       <c r="F49" s="2">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="G49" s="2">
         <v>1</v>
       </c>
       <c r="H49" s="2">
-        <v>194</v>
+        <v>302</v>
       </c>
       <c r="I49" s="3">
-        <v>0.57699999999999996</v>
+        <v>0.58299999999999996</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2675,22 +2678,22 @@
         <v>13</v>
       </c>
       <c r="D50" s="2">
-        <v>351</v>
+        <v>530</v>
       </c>
       <c r="E50" s="2">
-        <v>2.95</v>
+        <v>2.59</v>
       </c>
       <c r="F50" s="2">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c r="G50" s="2">
-        <v>3.83</v>
+        <v>3.22</v>
       </c>
       <c r="H50" s="2">
-        <v>729</v>
+        <v>660</v>
       </c>
       <c r="I50" s="3">
-        <v>0.59499999999999997</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2704,25 +2707,25 @@
         <v>13</v>
       </c>
       <c r="D51" s="2">
-        <v>427</v>
+        <v>789</v>
       </c>
       <c r="E51" s="2">
-        <v>3.57</v>
+        <v>3.37</v>
       </c>
       <c r="F51" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="G51" s="2">
-        <v>4.59</v>
+        <v>4.51</v>
       </c>
       <c r="H51" s="2">
-        <v>387</v>
+        <v>589</v>
       </c>
       <c r="I51" s="3">
-        <v>0.58699999999999997</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.59299999999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>66</v>
       </c>
@@ -2733,25 +2736,25 @@
         <v>22</v>
       </c>
       <c r="D52" s="2">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="E52" s="2">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="F52" s="2">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="G52" s="2">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="H52" s="2">
         <v>15</v>
       </c>
       <c r="I52" s="3">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.53300000000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>67</v>
       </c>
@@ -2762,25 +2765,25 @@
         <v>16</v>
       </c>
       <c r="D53" s="2">
-        <v>1765</v>
+        <v>3254</v>
       </c>
       <c r="E53" s="2">
-        <v>6.75</v>
+        <v>7.24</v>
       </c>
       <c r="F53" s="2">
-        <v>163</v>
+        <v>337</v>
       </c>
       <c r="G53" s="2">
-        <v>9.84</v>
+        <v>10.35</v>
       </c>
       <c r="H53" s="2">
-        <v>450</v>
+        <v>303</v>
       </c>
       <c r="I53" s="3">
-        <v>0.56699999999999995</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.48499999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>68</v>
       </c>
@@ -2791,25 +2794,25 @@
         <v>16</v>
       </c>
       <c r="D54" s="2">
-        <v>1782</v>
+        <v>3385</v>
       </c>
       <c r="E54" s="2">
-        <v>8.7200000000000006</v>
+        <v>6.86</v>
       </c>
       <c r="F54" s="2">
-        <v>660</v>
+        <v>1317</v>
       </c>
       <c r="G54" s="2">
-        <v>9.27</v>
+        <v>7.21</v>
       </c>
       <c r="H54" s="2">
-        <v>1442</v>
+        <v>2136</v>
       </c>
       <c r="I54" s="3">
-        <v>0.61799999999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.55600000000000005</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>69</v>
       </c>
@@ -2820,25 +2823,25 @@
         <v>11</v>
       </c>
       <c r="D55" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="E55" s="2">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="F55" s="2">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="G55" s="2">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="H55" s="2">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="I55" s="3">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.59599999999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>70</v>
       </c>
@@ -2849,25 +2852,25 @@
         <v>11</v>
       </c>
       <c r="D56" s="2">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="E56" s="2">
-        <v>1.87</v>
+        <v>1.55</v>
       </c>
       <c r="F56" s="2">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G56" s="2">
-        <v>1.78</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="H56" s="2">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I56" s="3">
-        <v>0.67700000000000005</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>71</v>
       </c>
@@ -2878,25 +2881,25 @@
         <v>16</v>
       </c>
       <c r="D57" s="2">
-        <v>1640</v>
+        <v>3320</v>
       </c>
       <c r="E57" s="2">
-        <v>6.01</v>
+        <v>7.13</v>
       </c>
       <c r="F57" s="2">
-        <v>126</v>
+        <v>420</v>
       </c>
       <c r="G57" s="2">
-        <v>9.35</v>
+        <v>9.89</v>
       </c>
       <c r="H57" s="2">
-        <v>334</v>
+        <v>629</v>
       </c>
       <c r="I57" s="3">
-        <v>0.53900000000000003</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.52100000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>72</v>
       </c>
@@ -2907,22 +2910,22 @@
         <v>16</v>
       </c>
       <c r="D58" s="2">
-        <v>1622</v>
+        <v>2872</v>
       </c>
       <c r="E58" s="2">
-        <v>5.33</v>
+        <v>5.32</v>
       </c>
       <c r="F58" s="2">
-        <v>209</v>
+        <v>415</v>
       </c>
       <c r="G58" s="2">
-        <v>7.02</v>
+        <v>7.43</v>
       </c>
       <c r="H58" s="2">
-        <v>943</v>
+        <v>1137</v>
       </c>
       <c r="I58" s="3">
-        <v>0.57299999999999995</v>
+        <v>0.54400000000000004</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2936,22 +2939,22 @@
         <v>13</v>
       </c>
       <c r="D59" s="2">
-        <v>627</v>
+        <v>1141</v>
       </c>
       <c r="E59" s="2">
-        <v>8.1300000000000008</v>
+        <v>7.73</v>
       </c>
       <c r="F59" s="2">
-        <v>161</v>
+        <v>251</v>
       </c>
       <c r="G59" s="2">
-        <v>10.9</v>
+        <v>10.51</v>
       </c>
       <c r="H59" s="2">
-        <v>95</v>
+        <v>257</v>
       </c>
       <c r="I59" s="3">
-        <v>0.6</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -2965,25 +2968,25 @@
         <v>16</v>
       </c>
       <c r="D60" s="2">
-        <v>1718</v>
+        <v>3056</v>
       </c>
       <c r="E60" s="2">
-        <v>5.98</v>
+        <v>5.87</v>
       </c>
       <c r="F60" s="2">
-        <v>287</v>
+        <v>552</v>
       </c>
       <c r="G60" s="2">
-        <v>7.64</v>
+        <v>7.58</v>
       </c>
       <c r="H60" s="2">
-        <v>1119</v>
+        <v>1338</v>
       </c>
       <c r="I60" s="3">
-        <v>0.59799999999999998</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>0.55900000000000005</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>75</v>
       </c>
@@ -2994,25 +2997,25 @@
         <v>13</v>
       </c>
       <c r="D61" s="2">
-        <v>610</v>
+        <v>1123</v>
       </c>
       <c r="E61" s="2">
-        <v>8.2799999999999994</v>
+        <v>6.52</v>
       </c>
       <c r="F61" s="2">
-        <v>187</v>
+        <v>302</v>
       </c>
       <c r="G61" s="2">
-        <v>9.9499999999999993</v>
+        <v>8.2200000000000006</v>
       </c>
       <c r="H61" s="2">
-        <v>526</v>
+        <v>860</v>
       </c>
       <c r="I61" s="3">
-        <v>0.63100000000000001</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.54700000000000004</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>76</v>
       </c>
@@ -3023,25 +3026,25 @@
         <v>16</v>
       </c>
       <c r="D62" s="2">
-        <v>1543</v>
+        <v>2633</v>
       </c>
       <c r="E62" s="2">
-        <v>4.6900000000000004</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="F62" s="2">
-        <v>229</v>
+        <v>405</v>
       </c>
       <c r="G62" s="2">
-        <v>6.28</v>
+        <v>6.34</v>
       </c>
       <c r="H62" s="2">
-        <v>1107</v>
+        <v>1183</v>
       </c>
       <c r="I62" s="3">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.50700000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>77</v>
       </c>
@@ -3052,22 +3055,22 @@
         <v>16</v>
       </c>
       <c r="D63" s="2">
-        <v>1740</v>
+        <v>3296</v>
       </c>
       <c r="E63" s="2">
-        <v>6.61</v>
+        <v>6.39</v>
       </c>
       <c r="F63" s="2">
-        <v>437</v>
+        <v>819</v>
       </c>
       <c r="G63" s="2">
-        <v>7.85</v>
+        <v>7.75</v>
       </c>
       <c r="H63" s="2">
-        <v>1996</v>
+        <v>2162</v>
       </c>
       <c r="I63" s="3">
-        <v>0.58299999999999996</v>
+        <v>0.54500000000000004</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3081,22 +3084,22 @@
         <v>13</v>
       </c>
       <c r="D64" s="2">
-        <v>360</v>
+        <v>716</v>
       </c>
       <c r="E64" s="2">
-        <v>2.93</v>
+        <v>2.96</v>
       </c>
       <c r="F64" s="2">
-        <v>70</v>
+        <v>155</v>
       </c>
       <c r="G64" s="2">
-        <v>3.29</v>
+        <v>3.72</v>
       </c>
       <c r="H64" s="2">
-        <v>406</v>
+        <v>599</v>
       </c>
       <c r="I64" s="3">
-        <v>0.56899999999999995</v>
+        <v>0.56299999999999994</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -3110,25 +3113,25 @@
         <v>16</v>
       </c>
       <c r="D65" s="2">
-        <v>1720</v>
+        <v>3296</v>
       </c>
       <c r="E65" s="2">
-        <v>7.09</v>
+        <v>7.02</v>
       </c>
       <c r="F65" s="2">
-        <v>419</v>
+        <v>1053</v>
       </c>
       <c r="G65" s="2">
-        <v>8.51</v>
+        <v>8.11</v>
       </c>
       <c r="H65" s="2">
-        <v>1623</v>
+        <v>2429</v>
       </c>
       <c r="I65" s="3">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.55700000000000005</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>80</v>
       </c>
@@ -3139,25 +3142,25 @@
         <v>16</v>
       </c>
       <c r="D66" s="2">
-        <v>1011</v>
+        <v>2320</v>
       </c>
       <c r="E66" s="2">
-        <v>3.25</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="F66" s="2">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="G66" s="2">
-        <v>4.28</v>
+        <v>6.42</v>
       </c>
       <c r="H66" s="2">
-        <v>345</v>
+        <v>513</v>
       </c>
       <c r="I66" s="3">
-        <v>0.55900000000000005</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>81</v>
       </c>
@@ -3168,25 +3171,25 @@
         <v>11</v>
       </c>
       <c r="D67" s="2">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="E67" s="2">
         <v>1</v>
       </c>
       <c r="F67" s="2">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="G67" s="2">
         <v>1</v>
       </c>
       <c r="H67" s="2">
-        <v>168</v>
+        <v>242</v>
       </c>
       <c r="I67" s="3">
-        <v>0.56499999999999995</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>0.55800000000000005</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>82</v>
       </c>
@@ -3197,25 +3200,25 @@
         <v>13</v>
       </c>
       <c r="D68" s="2">
-        <v>199</v>
+        <v>446</v>
       </c>
       <c r="E68" s="2">
-        <v>2.13</v>
+        <v>1.99</v>
       </c>
       <c r="F68" s="2">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="G68" s="2">
-        <v>2.52</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="H68" s="2">
-        <v>407</v>
+        <v>468</v>
       </c>
       <c r="I68" s="3">
-        <v>0.60199999999999998</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.56799999999999995</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>83</v>
       </c>
@@ -3226,25 +3229,25 @@
         <v>16</v>
       </c>
       <c r="D69" s="2">
-        <v>1762</v>
+        <v>2835</v>
       </c>
       <c r="E69" s="2">
-        <v>6.48</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="F69" s="2">
-        <v>565</v>
+        <v>643</v>
       </c>
       <c r="G69" s="2">
-        <v>7.17</v>
+        <v>6.14</v>
       </c>
       <c r="H69" s="2">
-        <v>1977</v>
+        <v>1926</v>
       </c>
       <c r="I69" s="3">
-        <v>0.58499999999999996</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.55600000000000005</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>84</v>
       </c>
@@ -3255,25 +3258,25 @@
         <v>13</v>
       </c>
       <c r="D70" s="2">
-        <v>288</v>
+        <v>594</v>
       </c>
       <c r="E70" s="2">
-        <v>2.72</v>
+        <v>2.63</v>
       </c>
       <c r="F70" s="2">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="G70" s="2">
-        <v>3.38</v>
+        <v>3.05</v>
       </c>
       <c r="H70" s="2">
-        <v>464</v>
+        <v>664</v>
       </c>
       <c r="I70" s="3">
-        <v>0.60599999999999998</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.59499999999999997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>85</v>
       </c>
@@ -3284,25 +3287,25 @@
         <v>16</v>
       </c>
       <c r="D71" s="2">
-        <v>683</v>
+        <v>1809</v>
       </c>
       <c r="E71" s="2">
-        <v>2.5099999999999998</v>
+        <v>3.38</v>
       </c>
       <c r="F71" s="2">
-        <v>38</v>
+        <v>164</v>
       </c>
       <c r="G71" s="2">
-        <v>3.39</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="H71" s="2">
-        <v>273</v>
+        <v>701</v>
       </c>
       <c r="I71" s="3">
-        <v>0.64100000000000001</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.52900000000000003</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>86</v>
       </c>
@@ -3313,25 +3316,25 @@
         <v>11</v>
       </c>
       <c r="D72" s="2">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="E72" s="2">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="F72" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G72" s="2">
         <v>1.51</v>
       </c>
       <c r="H72" s="2">
-        <v>265</v>
+        <v>215</v>
       </c>
       <c r="I72" s="3">
-        <v>0.56599999999999995</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.54400000000000004</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>87</v>
       </c>
@@ -3342,25 +3345,25 @@
         <v>16</v>
       </c>
       <c r="D73" s="2">
-        <v>1029</v>
+        <v>2320</v>
       </c>
       <c r="E73" s="2">
-        <v>3.42</v>
+        <v>4.09</v>
       </c>
       <c r="F73" s="2">
-        <v>80</v>
+        <v>296</v>
       </c>
       <c r="G73" s="2">
-        <v>4.8</v>
+        <v>5.76</v>
       </c>
       <c r="H73" s="2">
-        <v>434</v>
+        <v>1037</v>
       </c>
       <c r="I73" s="3">
-        <v>0.55300000000000005</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.54900000000000004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>88</v>
       </c>
@@ -3371,25 +3374,25 @@
         <v>16</v>
       </c>
       <c r="D74" s="2">
-        <v>1754</v>
+        <v>3305</v>
       </c>
       <c r="E74" s="2">
-        <v>7.49</v>
+        <v>7.32</v>
       </c>
       <c r="F74" s="2">
-        <v>180</v>
+        <v>382</v>
       </c>
       <c r="G74" s="2">
-        <v>10.49</v>
+        <v>10.54</v>
       </c>
       <c r="H74" s="2">
-        <v>340</v>
+        <v>374</v>
       </c>
       <c r="I74" s="3">
-        <v>0.56799999999999995</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.55100000000000005</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>89</v>
       </c>
@@ -3400,25 +3403,25 @@
         <v>16</v>
       </c>
       <c r="D75" s="2">
-        <v>1708</v>
+        <v>3156</v>
       </c>
       <c r="E75" s="2">
-        <v>5.89</v>
+        <v>5.78</v>
       </c>
       <c r="F75" s="2">
-        <v>327</v>
+        <v>740</v>
       </c>
       <c r="G75" s="2">
-        <v>7.19</v>
+        <v>7.21</v>
       </c>
       <c r="H75" s="2">
-        <v>1516</v>
+        <v>2237</v>
       </c>
       <c r="I75" s="3">
-        <v>0.57899999999999996</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>0.57399999999999995</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>90</v>
       </c>
@@ -3429,25 +3432,25 @@
         <v>11</v>
       </c>
       <c r="D76" s="2">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="E76" s="2">
-        <v>1.56</v>
+        <v>1.27</v>
       </c>
       <c r="F76" s="2">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G76" s="2">
-        <v>1.63</v>
+        <v>1.24</v>
       </c>
       <c r="H76" s="2">
-        <v>204</v>
+        <v>111</v>
       </c>
       <c r="I76" s="3">
-        <v>0.57399999999999995</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.48599999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>92</v>
       </c>
@@ -3458,25 +3461,25 @@
         <v>16</v>
       </c>
       <c r="D77" s="2">
-        <v>673</v>
+        <v>1057</v>
       </c>
       <c r="E77" s="2">
+        <v>2.12</v>
+      </c>
+      <c r="F77" s="2">
+        <v>391</v>
+      </c>
+      <c r="G77" s="2">
         <v>2.3199999999999998</v>
       </c>
-      <c r="F77" s="2">
-        <v>353</v>
-      </c>
-      <c r="G77" s="2">
-        <v>2.63</v>
-      </c>
       <c r="H77" s="2">
-        <v>2392</v>
+        <v>1590</v>
       </c>
       <c r="I77" s="3">
-        <v>0.56999999999999995</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.56200000000000006</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>93</v>
       </c>
@@ -3487,25 +3490,25 @@
         <v>16</v>
       </c>
       <c r="D78" s="2">
-        <v>1018</v>
+        <v>2214</v>
       </c>
       <c r="E78" s="2">
-        <v>3.56</v>
+        <v>4.04</v>
       </c>
       <c r="F78" s="2">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="G78" s="2">
-        <v>5.08</v>
+        <v>6.36</v>
       </c>
       <c r="H78" s="2">
-        <v>643</v>
+        <v>530</v>
       </c>
       <c r="I78" s="3">
-        <v>0.53300000000000003</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.55500000000000005</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>94</v>
       </c>
@@ -3516,25 +3519,25 @@
         <v>13</v>
       </c>
       <c r="D79" s="2">
-        <v>432</v>
+        <v>524</v>
       </c>
       <c r="E79" s="2">
-        <v>3.43</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F79" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="G79" s="2">
-        <v>4.09</v>
+        <v>2.9</v>
       </c>
       <c r="H79" s="2">
-        <v>893</v>
+        <v>375</v>
       </c>
       <c r="I79" s="3">
-        <v>0.53800000000000003</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.50900000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>95</v>
       </c>
@@ -3545,22 +3548,22 @@
         <v>11</v>
       </c>
       <c r="D80" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="E80" s="2">
-        <v>1.81</v>
+        <v>1.7</v>
       </c>
       <c r="F80" s="2">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="G80" s="2">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="H80" s="2">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="I80" s="3">
-        <v>0.57099999999999995</v>
+        <v>0.56399999999999995</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3574,22 +3577,22 @@
         <v>13</v>
       </c>
       <c r="D81" s="2">
-        <v>451</v>
+        <v>539</v>
       </c>
       <c r="E81" s="2">
-        <v>3.52</v>
+        <v>2.54</v>
       </c>
       <c r="F81" s="2">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="G81" s="2">
-        <v>4.38</v>
+        <v>2.97</v>
       </c>
       <c r="H81" s="2">
-        <v>1015</v>
+        <v>436</v>
       </c>
       <c r="I81" s="3">
-        <v>0.54400000000000004</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3603,25 +3606,25 @@
         <v>13</v>
       </c>
       <c r="D82" s="2">
-        <v>641</v>
+        <v>911</v>
       </c>
       <c r="E82" s="2">
-        <v>7.58</v>
+        <v>4</v>
       </c>
       <c r="F82" s="2">
-        <v>198</v>
+        <v>128</v>
       </c>
       <c r="G82" s="2">
-        <v>8.93</v>
+        <v>5.41</v>
       </c>
       <c r="H82" s="2">
-        <v>454</v>
+        <v>336</v>
       </c>
       <c r="I82" s="3">
-        <v>0.57699999999999996</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>0.55400000000000005</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>98</v>
       </c>
@@ -3632,22 +3635,22 @@
         <v>22</v>
       </c>
       <c r="D83" s="2">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E83" s="2">
         <v>1</v>
       </c>
       <c r="F83" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G83" s="2">
         <v>1</v>
       </c>
       <c r="H83" s="2">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="I83" s="3">
-        <v>0.50700000000000001</v>
+        <v>0.55600000000000005</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3661,25 +3664,25 @@
         <v>13</v>
       </c>
       <c r="D84" s="2">
-        <v>566</v>
+        <v>1006</v>
       </c>
       <c r="E84" s="2">
-        <v>6.22</v>
+        <v>5.81</v>
       </c>
       <c r="F84" s="2">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="G84" s="2">
-        <v>9.06</v>
+        <v>8.86</v>
       </c>
       <c r="H84" s="2">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="I84" s="3">
-        <v>0.46400000000000002</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.50600000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>100</v>
       </c>
@@ -3690,22 +3693,22 @@
         <v>11</v>
       </c>
       <c r="D85" s="2">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="E85" s="2">
         <v>1</v>
       </c>
       <c r="F85" s="2">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="G85" s="2">
         <v>1</v>
       </c>
       <c r="H85" s="2">
-        <v>209</v>
+        <v>286</v>
       </c>
       <c r="I85" s="3">
-        <v>0.56899999999999995</v>
+        <v>0.55900000000000005</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3719,25 +3722,25 @@
         <v>13</v>
       </c>
       <c r="D86" s="2">
-        <v>262</v>
+        <v>395</v>
       </c>
       <c r="E86" s="2">
         <v>2.17</v>
       </c>
       <c r="F86" s="2">
-        <v>144</v>
+        <v>189</v>
       </c>
       <c r="G86" s="2">
-        <v>2.37</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="H86" s="2">
-        <v>1058</v>
+        <v>939</v>
       </c>
       <c r="I86" s="3">
-        <v>0.54700000000000004</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>102</v>
       </c>
@@ -3748,25 +3751,25 @@
         <v>16</v>
       </c>
       <c r="D87" s="2">
-        <v>1811</v>
+        <v>3441</v>
       </c>
       <c r="E87" s="2">
-        <v>9.49</v>
+        <v>9.18</v>
       </c>
       <c r="F87" s="2">
-        <v>438</v>
+        <v>678</v>
       </c>
       <c r="G87" s="2">
-        <v>11.77</v>
+        <v>11.81</v>
       </c>
       <c r="H87" s="2">
-        <v>349</v>
+        <v>437</v>
       </c>
       <c r="I87" s="3">
-        <v>0.54400000000000004</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.52200000000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>103</v>
       </c>
@@ -3777,25 +3780,25 @@
         <v>16</v>
       </c>
       <c r="D88" s="2">
-        <v>1680</v>
+        <v>2956</v>
       </c>
       <c r="E88" s="2">
-        <v>5.7</v>
+        <v>5.36</v>
       </c>
       <c r="F88" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G88" s="2">
-        <v>8.34</v>
+        <v>8.83</v>
       </c>
       <c r="H88" s="2">
-        <v>562</v>
+        <v>333</v>
       </c>
       <c r="I88" s="3">
-        <v>0.52300000000000002</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>104</v>
       </c>
@@ -3806,25 +3809,25 @@
         <v>16</v>
       </c>
       <c r="D89" s="2">
-        <v>1657</v>
+        <v>3091</v>
       </c>
       <c r="E89" s="2">
-        <v>6.16</v>
+        <v>5.76</v>
       </c>
       <c r="F89" s="2">
-        <v>405</v>
+        <v>574</v>
       </c>
       <c r="G89" s="2">
-        <v>7.72</v>
+        <v>7.65</v>
       </c>
       <c r="H89" s="2">
-        <v>2160</v>
+        <v>1738</v>
       </c>
       <c r="I89" s="3">
-        <v>0.55800000000000005</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.54500000000000004</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>105</v>
       </c>
@@ -3835,22 +3838,22 @@
         <v>16</v>
       </c>
       <c r="D90" s="2">
-        <v>1746</v>
+        <v>3211</v>
       </c>
       <c r="E90" s="2">
-        <v>7.46</v>
+        <v>6.38</v>
       </c>
       <c r="F90" s="2">
-        <v>538</v>
+        <v>784</v>
       </c>
       <c r="G90" s="2">
-        <v>8.93</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="H90" s="2">
-        <v>2380</v>
+        <v>2204</v>
       </c>
       <c r="I90" s="3">
-        <v>0.54700000000000004</v>
+        <v>0.54400000000000004</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3864,25 +3867,25 @@
         <v>13</v>
       </c>
       <c r="D91" s="2">
-        <v>390</v>
+        <v>463</v>
       </c>
       <c r="E91" s="2">
-        <v>2.96</v>
+        <v>2.19</v>
       </c>
       <c r="F91" s="2">
-        <v>185</v>
+        <v>139</v>
       </c>
       <c r="G91" s="2">
-        <v>3.46</v>
+        <v>2.52</v>
       </c>
       <c r="H91" s="2">
-        <v>1307</v>
+        <v>672</v>
       </c>
       <c r="I91" s="3">
-        <v>0.56299999999999994</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.56699999999999995</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>107</v>
       </c>
@@ -3893,25 +3896,25 @@
         <v>16</v>
       </c>
       <c r="D92" s="2">
-        <v>1744</v>
+        <v>3248</v>
       </c>
       <c r="E92" s="2">
-        <v>8.14</v>
+        <v>6.99</v>
       </c>
       <c r="F92" s="2">
-        <v>383</v>
+        <v>454</v>
       </c>
       <c r="G92" s="2">
-        <v>10.47</v>
+        <v>9.59</v>
       </c>
       <c r="H92" s="2">
-        <v>1089</v>
+        <v>979</v>
       </c>
       <c r="I92" s="3">
-        <v>0.54100000000000004</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.50900000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>108</v>
       </c>
@@ -3922,25 +3925,25 @@
         <v>16</v>
       </c>
       <c r="D93" s="2">
-        <v>1800</v>
+        <v>3255</v>
       </c>
       <c r="E93" s="2">
-        <v>7.58</v>
+        <v>7.16</v>
       </c>
       <c r="F93" s="2">
-        <v>192</v>
+        <v>263</v>
       </c>
       <c r="G93" s="2">
-        <v>10.72</v>
+        <v>10.69</v>
       </c>
       <c r="H93" s="2">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="I93" s="3">
-        <v>0.48399999999999999</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.51200000000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>109</v>
       </c>
@@ -3951,25 +3954,25 @@
         <v>16</v>
       </c>
       <c r="D94" s="2">
-        <v>1237</v>
+        <v>2065</v>
       </c>
       <c r="E94" s="2">
-        <v>4.2699999999999996</v>
+        <v>3.84</v>
       </c>
       <c r="F94" s="2">
-        <v>127</v>
+        <v>174</v>
       </c>
       <c r="G94" s="2">
-        <v>6.15</v>
+        <v>6.04</v>
       </c>
       <c r="H94" s="2">
-        <v>739</v>
+        <v>551</v>
       </c>
       <c r="I94" s="3">
-        <v>0.54300000000000004</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.53400000000000003</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>110</v>
       </c>
@@ -3980,25 +3983,25 @@
         <v>16</v>
       </c>
       <c r="D95" s="2">
-        <v>1584</v>
+        <v>2580</v>
       </c>
       <c r="E95" s="2">
-        <v>5.45</v>
+        <v>4.32</v>
       </c>
       <c r="F95" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G95" s="2">
-        <v>7.01</v>
+        <v>6.3</v>
       </c>
       <c r="H95" s="2">
-        <v>1627</v>
+        <v>953</v>
       </c>
       <c r="I95" s="3">
-        <v>0.54900000000000004</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.50800000000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>111</v>
       </c>
@@ -4009,25 +4012,25 @@
         <v>16</v>
       </c>
       <c r="D96" s="2">
-        <v>1437</v>
+        <v>2536</v>
       </c>
       <c r="E96" s="2">
-        <v>4.83</v>
+        <v>4.42</v>
       </c>
       <c r="F96" s="2">
-        <v>215</v>
+        <v>253</v>
       </c>
       <c r="G96" s="2">
-        <v>7.11</v>
+        <v>6.81</v>
       </c>
       <c r="H96" s="2">
-        <v>1072</v>
+        <v>765</v>
       </c>
       <c r="I96" s="3">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.53700000000000003</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>112</v>
       </c>
@@ -4038,25 +4041,25 @@
         <v>16</v>
       </c>
       <c r="D97" s="2">
-        <v>1852</v>
+        <v>3416</v>
       </c>
       <c r="E97" s="2">
-        <v>9.25</v>
+        <v>8.94</v>
       </c>
       <c r="F97" s="2">
-        <v>426</v>
+        <v>606</v>
       </c>
       <c r="G97" s="2">
-        <v>11.59</v>
+        <v>11.81</v>
       </c>
       <c r="H97" s="2">
-        <v>420</v>
+        <v>304</v>
       </c>
       <c r="I97" s="3">
-        <v>0.57099999999999995</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.57199999999999995</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>113</v>
       </c>
@@ -4067,25 +4070,25 @@
         <v>11</v>
       </c>
       <c r="D98" s="2">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E98" s="2">
-        <v>1.57</v>
+        <v>1.26</v>
       </c>
       <c r="F98" s="2">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="G98" s="2">
-        <v>1.54</v>
+        <v>1.3</v>
       </c>
       <c r="H98" s="2">
-        <v>424</v>
+        <v>338</v>
       </c>
       <c r="I98" s="3">
-        <v>0.55700000000000005</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.54700000000000004</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>114</v>
       </c>
@@ -4096,22 +4099,22 @@
         <v>11</v>
       </c>
       <c r="D99" s="2">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="E99" s="2">
-        <v>2.04</v>
+        <v>1.52</v>
       </c>
       <c r="F99" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G99" s="2">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H99" s="2">
-        <v>350</v>
+        <v>175</v>
       </c>
       <c r="I99" s="3">
-        <v>0.57399999999999995</v>
+        <v>0.53700000000000003</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4125,25 +4128,25 @@
         <v>13</v>
       </c>
       <c r="D100" s="2">
-        <v>204</v>
+        <v>351</v>
       </c>
       <c r="E100" s="2">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="F100" s="2">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="G100" s="2">
-        <v>2.16</v>
+        <v>2.13</v>
       </c>
       <c r="H100" s="2">
-        <v>689</v>
+        <v>594</v>
       </c>
       <c r="I100" s="3">
-        <v>0.55900000000000005</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.52700000000000002</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>116</v>
       </c>
@@ -4154,25 +4157,25 @@
         <v>11</v>
       </c>
       <c r="D101" s="2">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="E101" s="2">
-        <v>1.58</v>
+        <v>1.34</v>
       </c>
       <c r="F101" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G101" s="2">
-        <v>1.62</v>
+        <v>1.31</v>
       </c>
       <c r="H101" s="2">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="I101" s="3">
-        <v>0.55100000000000005</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>117</v>
       </c>
@@ -4186,22 +4189,22 @@
         <v>32</v>
       </c>
       <c r="E102" s="2">
-        <v>1.41</v>
+        <v>1</v>
       </c>
       <c r="F102" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G102" s="2">
-        <v>1.38</v>
+        <v>1</v>
       </c>
       <c r="H102" s="2">
-        <v>262</v>
+        <v>109</v>
       </c>
       <c r="I102" s="3">
-        <v>0.57299999999999995</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.46800000000000003</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>118</v>
       </c>
@@ -4212,25 +4215,25 @@
         <v>16</v>
       </c>
       <c r="D103" s="2">
-        <v>1699</v>
+        <v>2615</v>
       </c>
       <c r="E103" s="2">
-        <v>7.37</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="F103" s="2">
-        <v>530</v>
+        <v>481</v>
       </c>
       <c r="G103" s="2">
-        <v>8.77</v>
+        <v>6.07</v>
       </c>
       <c r="H103" s="2">
-        <v>2301</v>
+        <v>1649</v>
       </c>
       <c r="I103" s="3">
-        <v>0.57099999999999995</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.55700000000000005</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>119</v>
       </c>
@@ -4241,25 +4244,25 @@
         <v>16</v>
       </c>
       <c r="D104" s="2">
-        <v>1350</v>
+        <v>1859</v>
       </c>
       <c r="E104" s="2">
-        <v>4.1100000000000003</v>
+        <v>3.21</v>
       </c>
       <c r="F104" s="2">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="G104" s="2">
-        <v>4.68</v>
+        <v>4</v>
       </c>
       <c r="H104" s="2">
-        <v>2944</v>
+        <v>2087</v>
       </c>
       <c r="I104" s="3">
-        <v>0.55600000000000005</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.55800000000000005</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>120</v>
       </c>
@@ -4270,25 +4273,25 @@
         <v>13</v>
       </c>
       <c r="D105" s="2">
-        <v>595</v>
+        <v>821</v>
       </c>
       <c r="E105" s="2">
-        <v>6.5</v>
+        <v>3.46</v>
       </c>
       <c r="F105" s="2">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="G105" s="2">
-        <v>6.44</v>
+        <v>3.91</v>
       </c>
       <c r="H105" s="2">
-        <v>1971</v>
+        <v>1403</v>
       </c>
       <c r="I105" s="3">
-        <v>0.55800000000000005</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.56200000000000006</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>121</v>
       </c>
@@ -4299,22 +4302,22 @@
         <v>16</v>
       </c>
       <c r="D106" s="2">
-        <v>1723</v>
+        <v>2777</v>
       </c>
       <c r="E106" s="2">
-        <v>6.09</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="F106" s="2">
-        <v>424</v>
+        <v>449</v>
       </c>
       <c r="G106" s="2">
-        <v>7.59</v>
+        <v>6.5</v>
       </c>
       <c r="H106" s="2">
-        <v>1694</v>
+        <v>1248</v>
       </c>
       <c r="I106" s="3">
-        <v>0.54700000000000004</v>
+        <v>0.56399999999999995</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4328,25 +4331,25 @@
         <v>13</v>
       </c>
       <c r="D107" s="2">
-        <v>582</v>
+        <v>1148</v>
       </c>
       <c r="E107" s="2">
-        <v>7.91</v>
+        <v>7.98</v>
       </c>
       <c r="F107" s="2">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="G107" s="2">
-        <v>11.34</v>
+        <v>11.8</v>
       </c>
       <c r="H107" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I107" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.39500000000000002</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>123</v>
       </c>
@@ -4357,25 +4360,25 @@
         <v>13</v>
       </c>
       <c r="D108" s="2">
-        <v>229</v>
+        <v>384</v>
       </c>
       <c r="E108" s="2">
-        <v>2.2799999999999998</v>
+        <v>1.92</v>
       </c>
       <c r="F108" s="2">
-        <v>111</v>
+        <v>176</v>
       </c>
       <c r="G108" s="2">
-        <v>2.59</v>
+        <v>2.23</v>
       </c>
       <c r="H108" s="2">
-        <v>929</v>
+        <v>823</v>
       </c>
       <c r="I108" s="3">
-        <v>0.56699999999999995</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>124</v>
       </c>
@@ -4386,25 +4389,25 @@
         <v>16</v>
       </c>
       <c r="D109" s="2">
-        <v>1693</v>
+        <v>3294</v>
       </c>
       <c r="E109" s="2">
-        <v>6.68</v>
+        <v>6.37</v>
       </c>
       <c r="F109" s="2">
-        <v>380</v>
+        <v>680</v>
       </c>
       <c r="G109" s="2">
-        <v>8.49</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="H109" s="2">
-        <v>1759</v>
+        <v>1682</v>
       </c>
       <c r="I109" s="3">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.54500000000000004</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>125</v>
       </c>
@@ -4415,25 +4418,25 @@
         <v>16</v>
       </c>
       <c r="D110" s="2">
-        <v>1290</v>
+        <v>2310</v>
       </c>
       <c r="E110" s="2">
-        <v>4.0999999999999996</v>
+        <v>4.07</v>
       </c>
       <c r="F110" s="2">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="G110" s="2">
-        <v>5.98</v>
+        <v>6.6</v>
       </c>
       <c r="H110" s="2">
-        <v>843</v>
+        <v>554</v>
       </c>
       <c r="I110" s="3">
-        <v>0.57799999999999996</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.56499999999999995</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>126</v>
       </c>
@@ -4444,25 +4447,25 @@
         <v>11</v>
       </c>
       <c r="D111" s="2">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="E111" s="2">
-        <v>2.0099999999999998</v>
+        <v>1.54</v>
       </c>
       <c r="F111" s="2">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="G111" s="2">
-        <v>2.92</v>
+        <v>1.52</v>
       </c>
       <c r="H111" s="2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I111" s="3">
-        <v>0.53300000000000003</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>127</v>
       </c>
@@ -4473,22 +4476,22 @@
         <v>11</v>
       </c>
       <c r="D112" s="2">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E112" s="2">
-        <v>2.13</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="F112" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G112" s="2">
-        <v>2.29</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="H112" s="2">
-        <v>429</v>
+        <v>208</v>
       </c>
       <c r="I112" s="3">
-        <v>0.55200000000000005</v>
+        <v>0.52400000000000002</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -4502,25 +4505,25 @@
         <v>16</v>
       </c>
       <c r="D113" s="2">
-        <v>1672</v>
+        <v>3229</v>
       </c>
       <c r="E113" s="2">
-        <v>5.97</v>
+        <v>7.16</v>
       </c>
       <c r="F113" s="2">
-        <v>85</v>
+        <v>317</v>
       </c>
       <c r="G113" s="2">
-        <v>9.06</v>
+        <v>10.210000000000001</v>
       </c>
       <c r="H113" s="2">
-        <v>195</v>
+        <v>614</v>
       </c>
       <c r="I113" s="3">
-        <v>0.51800000000000002</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>0.59099999999999997</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>130</v>
       </c>
@@ -4531,25 +4534,25 @@
         <v>16</v>
       </c>
       <c r="D114" s="2">
-        <v>1644</v>
+        <v>3283</v>
       </c>
       <c r="E114" s="2">
-        <v>5.97</v>
+        <v>7.21</v>
       </c>
       <c r="F114" s="2">
-        <v>155</v>
+        <v>473</v>
       </c>
       <c r="G114" s="2">
-        <v>7.9</v>
+        <v>9.44</v>
       </c>
       <c r="H114" s="2">
-        <v>504</v>
+        <v>780</v>
       </c>
       <c r="I114" s="3">
-        <v>0.51800000000000002</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>0.51900000000000002</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>131</v>
       </c>
@@ -4560,25 +4563,25 @@
         <v>16</v>
       </c>
       <c r="D115" s="2">
-        <v>1709</v>
+        <v>3332</v>
       </c>
       <c r="E115" s="2">
-        <v>8.59</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="F115" s="2">
-        <v>148</v>
+        <v>326</v>
       </c>
       <c r="G115" s="2">
-        <v>12.35</v>
+        <v>12.21</v>
       </c>
       <c r="H115" s="2">
-        <v>120</v>
+        <v>195</v>
       </c>
       <c r="I115" s="3">
-        <v>0.58299999999999996</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.56899999999999995</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>132</v>
       </c>
@@ -4589,25 +4592,25 @@
         <v>11</v>
       </c>
       <c r="D116" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="E116" s="2">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="F116" s="2">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="G116" s="2">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="H116" s="2">
-        <v>225</v>
+        <v>297</v>
       </c>
       <c r="I116" s="3">
-        <v>0.55600000000000005</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>0.58599999999999997</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>133</v>
       </c>
@@ -4618,25 +4621,25 @@
         <v>16</v>
       </c>
       <c r="D117" s="2">
-        <v>1215</v>
+        <v>2725</v>
       </c>
       <c r="E117" s="2">
-        <v>4.13</v>
+        <v>4.76</v>
       </c>
       <c r="F117" s="2">
-        <v>111</v>
+        <v>333</v>
       </c>
       <c r="G117" s="2">
-        <v>6.01</v>
+        <v>6.69</v>
       </c>
       <c r="H117" s="2">
-        <v>594</v>
+        <v>964</v>
       </c>
       <c r="I117" s="3">
-        <v>0.52700000000000002</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.54800000000000004</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>134</v>
       </c>
@@ -4647,25 +4650,25 @@
         <v>13</v>
       </c>
       <c r="D118" s="2">
-        <v>328</v>
+        <v>682</v>
       </c>
       <c r="E118" s="2">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="F118" s="2">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="G118" s="2">
-        <v>3.86</v>
+        <v>3.71</v>
       </c>
       <c r="H118" s="2">
-        <v>253</v>
+        <v>394</v>
       </c>
       <c r="I118" s="3">
-        <v>0.53400000000000003</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.56899999999999995</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>135</v>
       </c>
@@ -4676,25 +4679,25 @@
         <v>13</v>
       </c>
       <c r="D119" s="2">
-        <v>616</v>
+        <v>1140</v>
       </c>
       <c r="E119" s="2">
-        <v>8.56</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="F119" s="2">
-        <v>110</v>
+        <v>214</v>
       </c>
       <c r="G119" s="2">
-        <v>12.16</v>
+        <v>11.44</v>
       </c>
       <c r="H119" s="2">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="I119" s="3">
-        <v>0.40500000000000003</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.54700000000000004</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>136</v>
       </c>
@@ -4705,25 +4708,25 @@
         <v>16</v>
       </c>
       <c r="D120" s="2">
-        <v>1637</v>
+        <v>3449</v>
       </c>
       <c r="E120" s="2">
-        <v>7.27</v>
+        <v>8.43</v>
       </c>
       <c r="F120" s="2">
-        <v>108</v>
+        <v>402</v>
       </c>
       <c r="G120" s="2">
-        <v>11.06</v>
+        <v>11.89</v>
       </c>
       <c r="H120" s="2">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="I120" s="3">
-        <v>0.56699999999999995</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.57599999999999996</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>137</v>
       </c>
@@ -4734,25 +4737,25 @@
         <v>22</v>
       </c>
       <c r="D121" s="2">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E121" s="2">
         <v>1</v>
       </c>
       <c r="F121" s="2">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="G121" s="2">
         <v>1</v>
       </c>
       <c r="H121" s="2">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c r="I121" s="3">
-        <v>0.628</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.60599999999999998</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>138</v>
       </c>
@@ -4763,25 +4766,25 @@
         <v>16</v>
       </c>
       <c r="D122" s="2">
-        <v>1605</v>
+        <v>3153</v>
       </c>
       <c r="E122" s="2">
-        <v>5.42</v>
+        <v>5.85</v>
       </c>
       <c r="F122" s="2">
-        <v>84</v>
+        <v>267</v>
       </c>
       <c r="G122" s="2">
-        <v>8.4499999999999993</v>
+        <v>8.86</v>
       </c>
       <c r="H122" s="2">
-        <v>353</v>
+        <v>725</v>
       </c>
       <c r="I122" s="3">
-        <v>0.54400000000000004</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>0.55900000000000005</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>139</v>
       </c>
@@ -4792,25 +4795,25 @@
         <v>13</v>
       </c>
       <c r="D123" s="2">
-        <v>564</v>
+        <v>967</v>
       </c>
       <c r="E123" s="2">
-        <v>4.92</v>
+        <v>4.53</v>
       </c>
       <c r="F123" s="2">
-        <v>115</v>
+        <v>216</v>
       </c>
       <c r="G123" s="2">
-        <v>6.51</v>
+        <v>5.98</v>
       </c>
       <c r="H123" s="2">
-        <v>565</v>
+        <v>772</v>
       </c>
       <c r="I123" s="3">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.55600000000000005</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>140</v>
       </c>
@@ -4821,25 +4824,25 @@
         <v>13</v>
       </c>
       <c r="D124" s="2">
-        <v>595</v>
+        <v>1145</v>
       </c>
       <c r="E124" s="2">
-        <v>7.87</v>
+        <v>7.8</v>
       </c>
       <c r="F124" s="2">
-        <v>74</v>
+        <v>182</v>
       </c>
       <c r="G124" s="2">
-        <v>11.42</v>
+        <v>10.68</v>
       </c>
       <c r="H124" s="2">
-        <v>101</v>
+        <v>226</v>
       </c>
       <c r="I124" s="3">
-        <v>0.47499999999999998</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.51800000000000002</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>141</v>
       </c>
@@ -4850,25 +4853,25 @@
         <v>11</v>
       </c>
       <c r="D125" s="2">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="E125" s="2">
-        <v>2.0299999999999998</v>
+        <v>1.74</v>
       </c>
       <c r="F125" s="2">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G125" s="2">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="H125" s="2">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="I125" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.55600000000000005</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>142</v>
       </c>
@@ -4879,22 +4882,22 @@
         <v>11</v>
       </c>
       <c r="D126" s="2">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="E126" s="2">
-        <v>1.94</v>
+        <v>1.64</v>
       </c>
       <c r="F126" s="2">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G126" s="2">
-        <v>1.81</v>
+        <v>1.74</v>
       </c>
       <c r="H126" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I126" s="3">
-        <v>0.52200000000000002</v>
+        <v>0.54500000000000004</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -4908,25 +4911,25 @@
         <v>16</v>
       </c>
       <c r="D127" s="2">
-        <v>1803</v>
+        <v>3392</v>
       </c>
       <c r="E127" s="2">
-        <v>9.0299999999999994</v>
+        <v>9.32</v>
       </c>
       <c r="F127" s="2">
-        <v>252</v>
+        <v>574</v>
       </c>
       <c r="G127" s="2">
-        <v>11.84</v>
+        <v>12.09</v>
       </c>
       <c r="H127" s="2">
-        <v>240</v>
+        <v>403</v>
       </c>
       <c r="I127" s="3">
-        <v>0.47899999999999998</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.54800000000000004</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>144</v>
       </c>
@@ -4937,25 +4940,25 @@
         <v>11</v>
       </c>
       <c r="D128" s="2">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="E128" s="2">
-        <v>2.04</v>
+        <v>1.58</v>
       </c>
       <c r="F128" s="2">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="G128" s="2">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="H128" s="2">
+        <v>1</v>
+      </c>
+      <c r="I128" s="3">
         <v>0</v>
       </c>
-      <c r="I128" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>145</v>
       </c>
@@ -4966,22 +4969,22 @@
         <v>11</v>
       </c>
       <c r="D129" s="2">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="E129" s="2">
         <v>1</v>
       </c>
       <c r="F129" s="2">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="G129" s="2">
         <v>1</v>
       </c>
       <c r="H129" s="2">
-        <v>210</v>
+        <v>159</v>
       </c>
       <c r="I129" s="3">
-        <v>0.58099999999999996</v>
+        <v>0.50900000000000001</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4995,22 +4998,22 @@
         <v>13</v>
       </c>
       <c r="D130" s="2">
+        <v>970</v>
+      </c>
+      <c r="E130" s="2">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="F130" s="2">
+        <v>191</v>
+      </c>
+      <c r="G130" s="2">
+        <v>5.59</v>
+      </c>
+      <c r="H130" s="2">
         <v>606</v>
       </c>
-      <c r="E130" s="2">
-        <v>6.76</v>
-      </c>
-      <c r="F130" s="2">
-        <v>141</v>
-      </c>
-      <c r="G130" s="2">
-        <v>8.11</v>
-      </c>
-      <c r="H130" s="2">
-        <v>420</v>
-      </c>
       <c r="I130" s="3">
-        <v>0.51200000000000001</v>
+        <v>0.53800000000000003</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5024,25 +5027,25 @@
         <v>13</v>
       </c>
       <c r="D131" s="2">
-        <v>239</v>
+        <v>599</v>
       </c>
       <c r="E131" s="2">
-        <v>2.17</v>
+        <v>3.1</v>
       </c>
       <c r="F131" s="2">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="G131" s="2">
-        <v>2.54</v>
+        <v>3.98</v>
       </c>
       <c r="H131" s="2">
-        <v>140</v>
+        <v>264</v>
       </c>
       <c r="I131" s="3">
-        <v>0.46400000000000002</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.52300000000000002</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>148</v>
       </c>
@@ -5053,25 +5056,25 @@
         <v>16</v>
       </c>
       <c r="D132" s="2">
-        <v>1383</v>
+        <v>2575</v>
       </c>
       <c r="E132" s="2">
-        <v>4.53</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="F132" s="2">
-        <v>187</v>
+        <v>366</v>
       </c>
       <c r="G132" s="2">
-        <v>6.22</v>
+        <v>6.31</v>
       </c>
       <c r="H132" s="2">
-        <v>829</v>
+        <v>1127</v>
       </c>
       <c r="I132" s="3">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.55300000000000005</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>149</v>
       </c>
@@ -5082,25 +5085,25 @@
         <v>16</v>
       </c>
       <c r="D133" s="2">
-        <v>1246</v>
+        <v>3046</v>
       </c>
       <c r="E133" s="2">
-        <v>4.18</v>
+        <v>5.71</v>
       </c>
       <c r="F133" s="2">
-        <v>116</v>
+        <v>395</v>
       </c>
       <c r="G133" s="2">
-        <v>5.7</v>
+        <v>7.88</v>
       </c>
       <c r="H133" s="2">
-        <v>630</v>
+        <v>1095</v>
       </c>
       <c r="I133" s="3">
-        <v>0.50800000000000001</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.55200000000000005</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>150</v>
       </c>
@@ -5111,25 +5114,25 @@
         <v>11</v>
       </c>
       <c r="D134" s="2">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="E134" s="2">
         <v>1</v>
       </c>
       <c r="F134" s="2">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="G134" s="2">
         <v>1</v>
       </c>
       <c r="H134" s="2">
-        <v>96</v>
+        <v>234</v>
       </c>
       <c r="I134" s="3">
-        <v>0.56299999999999994</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.54300000000000004</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>151</v>
       </c>
@@ -5140,22 +5143,22 @@
         <v>16</v>
       </c>
       <c r="D135" s="2">
-        <v>1741</v>
+        <v>3313</v>
       </c>
       <c r="E135" s="2">
-        <v>7.26</v>
+        <v>7.2</v>
       </c>
       <c r="F135" s="2">
-        <v>280</v>
+        <v>585</v>
       </c>
       <c r="G135" s="2">
-        <v>9.0399999999999991</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="H135" s="2">
-        <v>966</v>
+        <v>1394</v>
       </c>
       <c r="I135" s="3">
-        <v>0.51300000000000001</v>
+        <v>0.55700000000000005</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5169,25 +5172,25 @@
         <v>13</v>
       </c>
       <c r="D136" s="2">
-        <v>410</v>
+        <v>707</v>
       </c>
       <c r="E136" s="2">
-        <v>3.52</v>
+        <v>3.18</v>
       </c>
       <c r="F136" s="2">
-        <v>87</v>
+        <v>169</v>
       </c>
       <c r="G136" s="2">
-        <v>4.32</v>
+        <v>3.76</v>
       </c>
       <c r="H136" s="2">
-        <v>377</v>
+        <v>648</v>
       </c>
       <c r="I136" s="3">
-        <v>0.52300000000000002</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.56899999999999995</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>153</v>
       </c>
@@ -5198,25 +5201,25 @@
         <v>16</v>
       </c>
       <c r="D137" s="2">
-        <v>1030</v>
+        <v>2521</v>
       </c>
       <c r="E137" s="2">
-        <v>3.29</v>
+        <v>4.26</v>
       </c>
       <c r="F137" s="2">
-        <v>46</v>
+        <v>156</v>
       </c>
       <c r="G137" s="2">
-        <v>4.67</v>
+        <v>6.9</v>
       </c>
       <c r="H137" s="2">
-        <v>262</v>
+        <v>508</v>
       </c>
       <c r="I137" s="3">
-        <v>0.53800000000000003</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.57099999999999995</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>154</v>
       </c>
@@ -5227,25 +5230,25 @@
         <v>16</v>
       </c>
       <c r="D138" s="2">
-        <v>1502</v>
+        <v>2718</v>
       </c>
       <c r="E138" s="2">
-        <v>4.8</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="F138" s="2">
-        <v>223</v>
+        <v>429</v>
       </c>
       <c r="G138" s="2">
-        <v>6.12</v>
+        <v>6.59</v>
       </c>
       <c r="H138" s="2">
-        <v>1012</v>
+        <v>1330</v>
       </c>
       <c r="I138" s="3">
-        <v>0.53200000000000003</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.56100000000000005</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>155</v>
       </c>
@@ -5256,25 +5259,25 @@
         <v>22</v>
       </c>
       <c r="D139" s="2">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E139" s="2">
-        <v>1.53</v>
+        <v>1.2</v>
       </c>
       <c r="F139" s="2">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G139" s="2">
-        <v>1.65</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="H139" s="2">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="I139" s="3">
-        <v>0.53100000000000003</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>0.55900000000000005</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>156</v>
       </c>
@@ -5285,25 +5288,25 @@
         <v>16</v>
       </c>
       <c r="D140" s="2">
-        <v>621</v>
+        <v>1367</v>
       </c>
       <c r="E140" s="2">
-        <v>2.2599999999999998</v>
+        <v>2.54</v>
       </c>
       <c r="F140" s="2">
-        <v>153</v>
+        <v>347</v>
       </c>
       <c r="G140" s="2">
-        <v>2.6</v>
+        <v>2.99</v>
       </c>
       <c r="H140" s="2">
-        <v>872</v>
+        <v>1287</v>
       </c>
       <c r="I140" s="3">
-        <v>0.53800000000000003</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.55800000000000005</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>157</v>
       </c>
@@ -5314,25 +5317,25 @@
         <v>16</v>
       </c>
       <c r="D141" s="2">
-        <v>876</v>
+        <v>1696</v>
       </c>
       <c r="E141" s="2">
-        <v>2.96</v>
+        <v>3.08</v>
       </c>
       <c r="F141" s="2">
-        <v>134</v>
+        <v>303</v>
       </c>
       <c r="G141" s="2">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="H141" s="2">
-        <v>808</v>
+        <v>1250</v>
       </c>
       <c r="I141" s="3">
-        <v>0.54800000000000004</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.56899999999999995</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>158</v>
       </c>
@@ -5343,25 +5346,25 @@
         <v>16</v>
       </c>
       <c r="D142" s="2">
-        <v>1772</v>
+        <v>3196</v>
       </c>
       <c r="E142" s="2">
-        <v>6.56</v>
+        <v>6.49</v>
       </c>
       <c r="F142" s="2">
-        <v>180</v>
+        <v>398</v>
       </c>
       <c r="G142" s="2">
-        <v>8.9700000000000006</v>
+        <v>8.24</v>
       </c>
       <c r="H142" s="2">
-        <v>265</v>
+        <v>378</v>
       </c>
       <c r="I142" s="3">
-        <v>0.57399999999999995</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>159</v>
       </c>
@@ -5372,22 +5375,22 @@
         <v>13</v>
       </c>
       <c r="D143" s="2">
-        <v>617</v>
+        <v>1216</v>
       </c>
       <c r="E143" s="2">
-        <v>7.37</v>
+        <v>7.3</v>
       </c>
       <c r="F143" s="2">
-        <v>73</v>
+        <v>174</v>
       </c>
       <c r="G143" s="2">
-        <v>11.04</v>
+        <v>10.7</v>
       </c>
       <c r="H143" s="2">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="I143" s="3">
-        <v>0.53800000000000003</v>
+        <v>0.56499999999999995</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5401,25 +5404,25 @@
         <v>13</v>
       </c>
       <c r="D144" s="2">
-        <v>236</v>
+        <v>413</v>
       </c>
       <c r="E144" s="2">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="F144" s="2">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="G144" s="2">
-        <v>2.02</v>
+        <v>2.17</v>
       </c>
       <c r="H144" s="2">
-        <v>334</v>
+        <v>572</v>
       </c>
       <c r="I144" s="3">
-        <v>0.50600000000000001</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.57199999999999995</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>161</v>
       </c>
@@ -5430,25 +5433,25 @@
         <v>11</v>
       </c>
       <c r="D145" s="2">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E145" s="2">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="F145" s="2">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G145" s="2">
-        <v>1.39</v>
+        <v>1.22</v>
       </c>
       <c r="H145" s="2">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="I145" s="3">
-        <v>0.57099999999999995</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.56699999999999995</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>162</v>
       </c>
@@ -5459,25 +5462,25 @@
         <v>13</v>
       </c>
       <c r="D146" s="2">
-        <v>211</v>
+        <v>399</v>
       </c>
       <c r="E146" s="2">
-        <v>2.21</v>
+        <v>1.98</v>
       </c>
       <c r="F146" s="2">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="G146" s="2">
-        <v>2.2799999999999998</v>
+        <v>2.25</v>
       </c>
       <c r="H146" s="2">
-        <v>548</v>
+        <v>492</v>
       </c>
       <c r="I146" s="3">
-        <v>0.52400000000000002</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.53300000000000003</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>163</v>
       </c>
@@ -5488,25 +5491,25 @@
         <v>16</v>
       </c>
       <c r="D147" s="2">
-        <v>1664</v>
+        <v>3155</v>
       </c>
       <c r="E147" s="2">
-        <v>5.51</v>
+        <v>5.8</v>
       </c>
       <c r="F147" s="2">
-        <v>177</v>
+        <v>375</v>
       </c>
       <c r="G147" s="2">
-        <v>7.41</v>
+        <v>7.64</v>
       </c>
       <c r="H147" s="2">
-        <v>555</v>
+        <v>784</v>
       </c>
       <c r="I147" s="3">
-        <v>0.51700000000000002</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>164</v>
       </c>
@@ -5517,25 +5520,25 @@
         <v>11</v>
       </c>
       <c r="D148" s="2">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="E148" s="2">
-        <v>1.51</v>
+        <v>1.35</v>
       </c>
       <c r="F148" s="2">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="G148" s="2">
-        <v>1.62</v>
+        <v>1.27</v>
       </c>
       <c r="H148" s="2">
-        <v>163</v>
+        <v>215</v>
       </c>
       <c r="I148" s="3">
-        <v>0.56399999999999995</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.53500000000000003</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>165</v>
       </c>
@@ -5546,22 +5549,22 @@
         <v>16</v>
       </c>
       <c r="D149" s="2">
-        <v>1834</v>
+        <v>2658</v>
       </c>
       <c r="E149" s="2">
-        <v>7.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F149" s="2">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="G149" s="2">
-        <v>9.42</v>
+        <v>6.47</v>
       </c>
       <c r="H149" s="2">
-        <v>537</v>
+        <v>583</v>
       </c>
       <c r="I149" s="3">
-        <v>0.48199999999999998</v>
+        <v>0.58099999999999996</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5575,25 +5578,25 @@
         <v>13</v>
       </c>
       <c r="D150" s="2">
-        <v>248</v>
+        <v>447</v>
       </c>
       <c r="E150" s="2">
-        <v>2.29</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="F150" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="G150" s="2">
-        <v>2.67</v>
+        <v>2.35</v>
       </c>
       <c r="H150" s="2">
-        <v>539</v>
+        <v>520</v>
       </c>
       <c r="I150" s="3">
-        <v>0.56399999999999995</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.56200000000000006</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>168</v>
       </c>
@@ -5604,25 +5607,25 @@
         <v>16</v>
       </c>
       <c r="D151" s="2">
-        <v>1759</v>
+        <v>3160</v>
       </c>
       <c r="E151" s="2">
-        <v>6.64</v>
+        <v>5.98</v>
       </c>
       <c r="F151" s="2">
-        <v>367</v>
+        <v>567</v>
       </c>
       <c r="G151" s="2">
-        <v>8.11</v>
+        <v>7.66</v>
       </c>
       <c r="H151" s="2">
-        <v>1411</v>
+        <v>1469</v>
       </c>
       <c r="I151" s="3">
-        <v>0.52400000000000002</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.55800000000000005</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>169</v>
       </c>
@@ -5633,25 +5636,25 @@
         <v>13</v>
       </c>
       <c r="D152" s="2">
-        <v>479</v>
+        <v>935</v>
       </c>
       <c r="E152" s="2">
-        <v>3.67</v>
+        <v>4.04</v>
       </c>
       <c r="F152" s="2">
-        <v>125</v>
+        <v>306</v>
       </c>
       <c r="G152" s="2">
-        <v>4.34</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="H152" s="2">
-        <v>696</v>
+        <v>1020</v>
       </c>
       <c r="I152" s="3">
-        <v>0.54600000000000004</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.56899999999999995</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>170</v>
       </c>
@@ -5662,25 +5665,25 @@
         <v>11</v>
       </c>
       <c r="D153" s="2">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="E153" s="2">
         <v>1</v>
       </c>
       <c r="F153" s="2">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="G153" s="2">
         <v>1</v>
       </c>
       <c r="H153" s="2">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="I153" s="3">
-        <v>0.61499999999999999</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.58499999999999996</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>171</v>
       </c>
@@ -5691,25 +5694,25 @@
         <v>16</v>
       </c>
       <c r="D154" s="2">
-        <v>1785</v>
+        <v>3451</v>
       </c>
       <c r="E154" s="2">
-        <v>8.42</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="F154" s="2">
-        <v>329</v>
+        <v>420</v>
       </c>
       <c r="G154" s="2">
-        <v>11.02</v>
+        <v>11.99</v>
       </c>
       <c r="H154" s="2">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="I154" s="3">
-        <v>0.56499999999999995</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.47699999999999998</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>172</v>
       </c>
@@ -5720,22 +5723,22 @@
         <v>16</v>
       </c>
       <c r="D155" s="2">
-        <v>839</v>
+        <v>1297</v>
       </c>
       <c r="E155" s="2">
-        <v>2.75</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F155" s="2">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="G155" s="2">
         <v>3.31</v>
       </c>
       <c r="H155" s="2">
-        <v>1215</v>
+        <v>942</v>
       </c>
       <c r="I155" s="3">
-        <v>0.56200000000000006</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5749,25 +5752,25 @@
         <v>13</v>
       </c>
       <c r="D156" s="2">
-        <v>640</v>
+        <v>913</v>
       </c>
       <c r="E156" s="2">
-        <v>7.32</v>
+        <v>3.99</v>
       </c>
       <c r="F156" s="2">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="G156" s="2">
-        <v>9.75</v>
+        <v>6.34</v>
       </c>
       <c r="H156" s="2">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="I156" s="3">
-        <v>0.56399999999999995</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.52800000000000002</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>174</v>
       </c>
@@ -5778,25 +5781,25 @@
         <v>16</v>
       </c>
       <c r="D157" s="2">
-        <v>1571</v>
+        <v>2952</v>
       </c>
       <c r="E157" s="2">
-        <v>5.35</v>
+        <v>5.29</v>
       </c>
       <c r="F157" s="2">
-        <v>195</v>
+        <v>375</v>
       </c>
       <c r="G157" s="2">
-        <v>7.52</v>
+        <v>7.34</v>
       </c>
       <c r="H157" s="2">
-        <v>845</v>
+        <v>1081</v>
       </c>
       <c r="I157" s="3">
-        <v>0.54200000000000004</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.55900000000000005</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>175</v>
       </c>
@@ -5807,25 +5810,25 @@
         <v>16</v>
       </c>
       <c r="D158" s="2">
-        <v>859</v>
+        <v>2060</v>
       </c>
       <c r="E158" s="2">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="F158" s="2">
-        <v>69</v>
+        <v>205</v>
       </c>
       <c r="G158" s="2">
-        <v>4</v>
+        <v>5.07</v>
       </c>
       <c r="H158" s="2">
-        <v>436</v>
+        <v>830</v>
       </c>
       <c r="I158" s="3">
-        <v>0.52300000000000002</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>176</v>
       </c>
@@ -5836,25 +5839,25 @@
         <v>16</v>
       </c>
       <c r="D159" s="2">
-        <v>1721</v>
+        <v>3252</v>
       </c>
       <c r="E159" s="2">
-        <v>7.43</v>
+        <v>7.17</v>
       </c>
       <c r="F159" s="2">
-        <v>241</v>
+        <v>454</v>
       </c>
       <c r="G159" s="2">
-        <v>9.59</v>
+        <v>9.8699999999999992</v>
       </c>
       <c r="H159" s="2">
-        <v>685</v>
+        <v>707</v>
       </c>
       <c r="I159" s="3">
-        <v>0.55300000000000005</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.55900000000000005</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>177</v>
       </c>
@@ -5865,25 +5868,25 @@
         <v>13</v>
       </c>
       <c r="D160" s="2">
-        <v>587</v>
+        <v>933</v>
       </c>
       <c r="E160" s="2">
-        <v>7.72</v>
+        <v>4.16</v>
       </c>
       <c r="F160" s="2">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="G160" s="2">
-        <v>8.69</v>
+        <v>6.03</v>
       </c>
       <c r="H160" s="2">
-        <v>567</v>
+        <v>247</v>
       </c>
       <c r="I160" s="3">
-        <v>0.52400000000000002</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.56699999999999995</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>178</v>
       </c>
@@ -5894,25 +5897,25 @@
         <v>11</v>
       </c>
       <c r="D161" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E161" s="2">
-        <v>1.95</v>
+        <v>1.23</v>
       </c>
       <c r="F161" s="2">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="G161" s="2">
-        <v>1.96</v>
+        <v>1.21</v>
       </c>
       <c r="H161" s="2">
-        <v>276</v>
+        <v>194</v>
       </c>
       <c r="I161" s="3">
-        <v>0.47799999999999998</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.57699999999999996</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>179</v>
       </c>
@@ -5923,25 +5926,25 @@
         <v>22</v>
       </c>
       <c r="D162" s="2">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E162" s="2">
         <v>1</v>
       </c>
       <c r="F162" s="2">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="G162" s="2">
         <v>1</v>
       </c>
       <c r="H162" s="2">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="I162" s="3">
-        <v>0.55600000000000005</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.58199999999999996</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>180</v>
       </c>
@@ -5952,22 +5955,22 @@
         <v>16</v>
       </c>
       <c r="D163" s="2">
-        <v>1505</v>
+        <v>3505</v>
       </c>
       <c r="E163" s="2">
-        <v>5.09</v>
+        <v>7.14</v>
       </c>
       <c r="F163" s="2">
-        <v>67</v>
+        <v>328</v>
       </c>
       <c r="G163" s="2">
-        <v>8.1300000000000008</v>
+        <v>10.57</v>
       </c>
       <c r="H163" s="2">
-        <v>258</v>
+        <v>394</v>
       </c>
       <c r="I163" s="3">
-        <v>0.56200000000000006</v>
+        <v>0.59399999999999997</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5981,25 +5984,25 @@
         <v>13</v>
       </c>
       <c r="D164" s="2">
-        <v>280</v>
+        <v>465</v>
       </c>
       <c r="E164" s="2">
-        <v>2.4900000000000002</v>
+        <v>2.17</v>
       </c>
       <c r="F164" s="2">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="G164" s="2">
-        <v>2.52</v>
+        <v>2.7</v>
       </c>
       <c r="H164" s="2">
-        <v>601</v>
+        <v>576</v>
       </c>
       <c r="I164" s="3">
-        <v>0.56399999999999995</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.56799999999999995</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>182</v>
       </c>
@@ -6010,25 +6013,25 @@
         <v>13</v>
       </c>
       <c r="D165" s="2">
-        <v>483</v>
+        <v>982</v>
       </c>
       <c r="E165" s="2">
-        <v>4.83</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="F165" s="2">
-        <v>111</v>
+        <v>176</v>
       </c>
       <c r="G165" s="2">
-        <v>6.32</v>
+        <v>5.85</v>
       </c>
       <c r="H165" s="2">
-        <v>594</v>
+        <v>614</v>
       </c>
       <c r="I165" s="3">
-        <v>0.53900000000000003</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.55400000000000005</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>183</v>
       </c>
@@ -6039,25 +6042,25 @@
         <v>11</v>
       </c>
       <c r="D166" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="E166" s="2">
-        <v>1.45</v>
+        <v>1.32</v>
       </c>
       <c r="F166" s="2">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="G166" s="2">
-        <v>1.5</v>
+        <v>1.37</v>
       </c>
       <c r="H166" s="2">
-        <v>212</v>
+        <v>259</v>
       </c>
       <c r="I166" s="3">
-        <v>0.54700000000000004</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.60599999999999998</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>184</v>
       </c>
@@ -6068,25 +6071,25 @@
         <v>16</v>
       </c>
       <c r="D167" s="2">
-        <v>1306</v>
+        <v>3062</v>
       </c>
       <c r="E167" s="2">
-        <v>4.2</v>
+        <v>5.65</v>
       </c>
       <c r="F167" s="2">
-        <v>109</v>
+        <v>419</v>
       </c>
       <c r="G167" s="2">
-        <v>6.28</v>
+        <v>7.74</v>
       </c>
       <c r="H167" s="2">
-        <v>637</v>
+        <v>1160</v>
       </c>
       <c r="I167" s="3">
-        <v>0.55900000000000005</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>0.59399999999999997</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>185</v>
       </c>
@@ -6097,25 +6100,25 @@
         <v>13</v>
       </c>
       <c r="D168" s="2">
-        <v>431</v>
+        <v>541</v>
       </c>
       <c r="E168" s="2">
-        <v>3.56</v>
+        <v>2.39</v>
       </c>
       <c r="F168" s="2">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="G168" s="2">
-        <v>4.05</v>
+        <v>2.84</v>
       </c>
       <c r="H168" s="2">
-        <v>926</v>
+        <v>636</v>
       </c>
       <c r="I168" s="3">
-        <v>0.54300000000000004</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.59099999999999997</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>186</v>
       </c>
@@ -6126,25 +6129,25 @@
         <v>13</v>
       </c>
       <c r="D169" s="2">
-        <v>565</v>
+        <v>1034</v>
       </c>
       <c r="E169" s="2">
-        <v>5.77</v>
+        <v>5.68</v>
       </c>
       <c r="F169" s="2">
-        <v>120</v>
+        <v>247</v>
       </c>
       <c r="G169" s="2">
-        <v>7.6</v>
+        <v>7.1</v>
       </c>
       <c r="H169" s="2">
-        <v>536</v>
+        <v>854</v>
       </c>
       <c r="I169" s="3">
-        <v>0.55800000000000005</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.56599999999999995</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>187</v>
       </c>
@@ -6155,25 +6158,25 @@
         <v>11</v>
       </c>
       <c r="D170" s="2">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="E170" s="2">
-        <v>1.92</v>
+        <v>1.6</v>
       </c>
       <c r="F170" s="2">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G170" s="2">
-        <v>2.0299999999999998</v>
+        <v>1.89</v>
       </c>
       <c r="H170" s="2">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="I170" s="3">
-        <v>0.56799999999999995</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.59099999999999997</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>188</v>
       </c>
@@ -6184,25 +6187,25 @@
         <v>16</v>
       </c>
       <c r="D171" s="2">
-        <v>1061</v>
+        <v>1691</v>
       </c>
       <c r="E171" s="2">
-        <v>3.41</v>
+        <v>3.25</v>
       </c>
       <c r="F171" s="2">
-        <v>238</v>
+        <v>398</v>
       </c>
       <c r="G171" s="2">
         <v>4.12</v>
       </c>
       <c r="H171" s="2">
-        <v>1360</v>
+        <v>1493</v>
       </c>
       <c r="I171" s="3">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.56100000000000005</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>189</v>
       </c>
@@ -6213,25 +6216,25 @@
         <v>22</v>
       </c>
       <c r="D172" s="2">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="E172" s="2">
         <v>1</v>
       </c>
       <c r="F172" s="2">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="G172" s="2">
         <v>1</v>
       </c>
       <c r="H172" s="2">
-        <v>107</v>
+        <v>173</v>
       </c>
       <c r="I172" s="3">
-        <v>0.60699999999999998</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>0.56100000000000005</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>190</v>
       </c>
@@ -6242,25 +6245,25 @@
         <v>11</v>
       </c>
       <c r="D173" s="2">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="E173" s="2">
-        <v>1.58</v>
+        <v>1.43</v>
       </c>
       <c r="F173" s="2">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="G173" s="2">
-        <v>1.75</v>
+        <v>1.23</v>
       </c>
       <c r="H173" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="I173" s="3">
-        <v>0.51700000000000002</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.52900000000000003</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>191</v>
       </c>
@@ -6271,25 +6274,25 @@
         <v>16</v>
       </c>
       <c r="D174" s="2">
-        <v>1771</v>
+        <v>3351</v>
       </c>
       <c r="E174" s="2">
-        <v>8.44</v>
+        <v>8.56</v>
       </c>
       <c r="F174" s="2">
-        <v>327</v>
+        <v>454</v>
       </c>
       <c r="G174" s="2">
-        <v>10.98</v>
+        <v>11.5</v>
       </c>
       <c r="H174" s="2">
-        <v>178</v>
+        <v>350</v>
       </c>
       <c r="I174" s="3">
-        <v>0.46600000000000003</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.54600000000000004</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>192</v>
       </c>
@@ -6300,25 +6303,25 @@
         <v>16</v>
       </c>
       <c r="D175" s="2">
-        <v>1606</v>
+        <v>2548</v>
       </c>
       <c r="E175" s="2">
-        <v>5.25</v>
+        <v>4.32</v>
       </c>
       <c r="F175" s="2">
-        <v>337</v>
+        <v>454</v>
       </c>
       <c r="G175" s="2">
-        <v>6.07</v>
+        <v>5.67</v>
       </c>
       <c r="H175" s="2">
-        <v>1547</v>
+        <v>1516</v>
       </c>
       <c r="I175" s="3">
-        <v>0.54200000000000004</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.56200000000000006</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>193</v>
       </c>
@@ -6329,25 +6332,25 @@
         <v>16</v>
       </c>
       <c r="D176" s="2">
-        <v>1776</v>
+        <v>3187</v>
       </c>
       <c r="E176" s="2">
-        <v>6.36</v>
+        <v>6.66</v>
       </c>
       <c r="F176" s="2">
-        <v>157</v>
+        <v>291</v>
       </c>
       <c r="G176" s="2">
-        <v>9.27</v>
+        <v>9.7899999999999991</v>
       </c>
       <c r="H176" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="I176" s="3">
-        <v>0.53900000000000003</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.56899999999999995</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>194</v>
       </c>
@@ -6358,25 +6361,25 @@
         <v>16</v>
       </c>
       <c r="D177" s="2">
-        <v>1668</v>
+        <v>3081</v>
       </c>
       <c r="E177" s="2">
-        <v>5.45</v>
+        <v>5.79</v>
       </c>
       <c r="F177" s="2">
-        <v>176</v>
+        <v>317</v>
       </c>
       <c r="G177" s="2">
-        <v>7.57</v>
+        <v>8.33</v>
       </c>
       <c r="H177" s="2">
-        <v>652</v>
+        <v>809</v>
       </c>
       <c r="I177" s="3">
-        <v>0.502</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>0.55300000000000005</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>195</v>
       </c>
@@ -6387,25 +6390,25 @@
         <v>13</v>
       </c>
       <c r="D178" s="2">
-        <v>317</v>
+        <v>487</v>
       </c>
       <c r="E178" s="2">
-        <v>2.65</v>
+        <v>2.34</v>
       </c>
       <c r="F178" s="2">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="G178" s="2">
-        <v>3.06</v>
+        <v>2.83</v>
       </c>
       <c r="H178" s="2">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="I178" s="3">
-        <v>0.55600000000000005</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.57099999999999995</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>196</v>
       </c>
@@ -6416,22 +6419,22 @@
         <v>16</v>
       </c>
       <c r="D179" s="2">
-        <v>1758</v>
+        <v>3365</v>
       </c>
       <c r="E179" s="2">
-        <v>9.7100000000000009</v>
+        <v>9.8699999999999992</v>
       </c>
       <c r="F179" s="2">
-        <v>303</v>
+        <v>645</v>
       </c>
       <c r="G179" s="2">
-        <v>12.62</v>
+        <v>12.67</v>
       </c>
       <c r="H179" s="2">
-        <v>146</v>
+        <v>243</v>
       </c>
       <c r="I179" s="3">
-        <v>0.53400000000000003</v>
+        <v>0.54700000000000004</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -6445,25 +6448,25 @@
         <v>13</v>
       </c>
       <c r="D180" s="2">
-        <v>380</v>
+        <v>540</v>
       </c>
       <c r="E180" s="2">
-        <v>3.03</v>
+        <v>2.7</v>
       </c>
       <c r="F180" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="G180" s="2">
-        <v>3.74</v>
+        <v>3.05</v>
       </c>
       <c r="H180" s="2">
-        <v>565</v>
+        <v>482</v>
       </c>
       <c r="I180" s="3">
-        <v>0.54200000000000004</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.57699999999999996</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>198</v>
       </c>
@@ -6474,25 +6477,25 @@
         <v>16</v>
       </c>
       <c r="D181" s="2">
-        <v>1659</v>
+        <v>3158</v>
       </c>
       <c r="E181" s="2">
-        <v>6</v>
+        <v>5.86</v>
       </c>
       <c r="F181" s="2">
-        <v>296</v>
+        <v>536</v>
       </c>
       <c r="G181" s="2">
-        <v>7.55</v>
+        <v>7.75</v>
       </c>
       <c r="H181" s="2">
-        <v>1542</v>
+        <v>1676</v>
       </c>
       <c r="I181" s="3">
-        <v>0.55100000000000005</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>199</v>
       </c>
@@ -6503,25 +6506,25 @@
         <v>11</v>
       </c>
       <c r="D182" s="2">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="E182" s="2">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="F182" s="2">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="G182" s="2">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="H182" s="2">
-        <v>249</v>
+        <v>294</v>
       </c>
       <c r="I182" s="3">
-        <v>0.55400000000000005</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>0.57799999999999996</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>200</v>
       </c>
@@ -6532,25 +6535,25 @@
         <v>11</v>
       </c>
       <c r="D183" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="E183" s="2">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="F183" s="2">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="G183" s="2">
-        <v>1.46</v>
+        <v>1.28</v>
       </c>
       <c r="H183" s="2">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="I183" s="3">
-        <v>0.58699999999999997</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.58199999999999996</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>201</v>
       </c>
@@ -6561,25 +6564,25 @@
         <v>16</v>
       </c>
       <c r="D184" s="2">
-        <v>1733</v>
+        <v>3191</v>
       </c>
       <c r="E184" s="2">
-        <v>6.87</v>
+        <v>6.67</v>
       </c>
       <c r="F184" s="2">
-        <v>149</v>
+        <v>310</v>
       </c>
       <c r="G184" s="2">
-        <v>9.52</v>
+        <v>9.2799999999999994</v>
       </c>
       <c r="H184" s="2">
-        <v>293</v>
+        <v>473</v>
       </c>
       <c r="I184" s="3">
-        <v>0.54300000000000004</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.56399999999999995</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>202</v>
       </c>
@@ -6590,25 +6593,25 @@
         <v>16</v>
       </c>
       <c r="D185" s="2">
-        <v>1724</v>
+        <v>3316</v>
       </c>
       <c r="E185" s="2">
-        <v>8.0399999999999991</v>
+        <v>7.94</v>
       </c>
       <c r="F185" s="2">
-        <v>163</v>
+        <v>274</v>
       </c>
       <c r="G185" s="2">
-        <v>11.57</v>
+        <v>11.47</v>
       </c>
       <c r="H185" s="2">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="I185" s="3">
-        <v>0.42199999999999999</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>203</v>
       </c>
@@ -6619,25 +6622,25 @@
         <v>11</v>
       </c>
       <c r="D186" s="2">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="E186" s="2">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="F186" s="2">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="G186" s="2">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="H186" s="2">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="I186" s="3">
-        <v>0.53400000000000003</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.58599999999999997</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>204</v>
       </c>
@@ -6648,25 +6651,25 @@
         <v>11</v>
       </c>
       <c r="D187" s="2">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="E187" s="2">
-        <v>1.98</v>
+        <v>1.44</v>
       </c>
       <c r="F187" s="2">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="G187" s="2">
-        <v>1.88</v>
+        <v>1.45</v>
       </c>
       <c r="H187" s="2">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="I187" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.55400000000000005</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>206</v>
       </c>
@@ -6677,22 +6680,22 @@
         <v>11</v>
       </c>
       <c r="D188" s="2">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="E188" s="2">
-        <v>1.85</v>
+        <v>1.6</v>
       </c>
       <c r="F188" s="2">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="G188" s="2">
-        <v>2.08</v>
+        <v>1.5</v>
       </c>
       <c r="H188" s="2">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="I188" s="3">
-        <v>0.6</v>
+        <v>0.52600000000000002</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -6706,25 +6709,25 @@
         <v>13</v>
       </c>
       <c r="D189" s="2">
-        <v>363</v>
+        <v>716</v>
       </c>
       <c r="E189" s="2">
-        <v>3.03</v>
+        <v>3.12</v>
       </c>
       <c r="F189" s="2">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="G189" s="2">
-        <v>3.42</v>
+        <v>3.74</v>
       </c>
       <c r="H189" s="2">
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="I189" s="3">
-        <v>0.64100000000000001</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.60199999999999998</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>210</v>
       </c>
@@ -6735,25 +6738,25 @@
         <v>11</v>
       </c>
       <c r="D190" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="E190" s="2">
         <v>1</v>
       </c>
       <c r="F190" s="2">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G190" s="2">
         <v>1</v>
       </c>
       <c r="H190" s="2">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="I190" s="3">
-        <v>0.52900000000000003</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.41499999999999998</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>212</v>
       </c>
@@ -6764,25 +6767,25 @@
         <v>11</v>
       </c>
       <c r="D191" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="E191" s="2">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="F191" s="2">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="G191" s="2">
-        <v>1.68</v>
+        <v>1.5</v>
       </c>
       <c r="H191" s="2">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="I191" s="3">
-        <v>0.57399999999999995</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>0.52100000000000002</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>214</v>
       </c>
@@ -6793,25 +6796,25 @@
         <v>22</v>
       </c>
       <c r="D192" s="2">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E192" s="2">
         <v>1</v>
       </c>
       <c r="F192" s="2">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="G192" s="2">
         <v>1</v>
       </c>
       <c r="H192" s="2">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="I192" s="3">
-        <v>0.63400000000000001</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>0.628</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>216</v>
       </c>
@@ -6822,25 +6825,25 @@
         <v>13</v>
       </c>
       <c r="D193" s="2">
-        <v>199</v>
+        <v>564</v>
       </c>
       <c r="E193" s="2">
-        <v>2.02</v>
+        <v>2.68</v>
       </c>
       <c r="F193" s="2">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="G193" s="2">
-        <v>2.06</v>
+        <v>2.92</v>
       </c>
       <c r="H193" s="2">
-        <v>123</v>
+        <v>300</v>
       </c>
       <c r="I193" s="3">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.56699999999999995</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>217</v>
       </c>
@@ -6851,22 +6854,22 @@
         <v>13</v>
       </c>
       <c r="D194" s="2">
-        <v>220</v>
+        <v>562</v>
       </c>
       <c r="E194" s="2">
-        <v>1.93</v>
+        <v>2.59</v>
       </c>
       <c r="F194" s="2">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="G194" s="2">
-        <v>2.21</v>
+        <v>2.67</v>
       </c>
       <c r="H194" s="2">
-        <v>263</v>
+        <v>446</v>
       </c>
       <c r="I194" s="3">
-        <v>0.60799999999999998</v>
+        <v>0.53400000000000003</v>
       </c>
     </row>
     <row r="195" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -6880,25 +6883,25 @@
         <v>13</v>
       </c>
       <c r="D195" s="2">
-        <v>199</v>
+        <v>568</v>
       </c>
       <c r="E195" s="2">
-        <v>1.97</v>
+        <v>2.54</v>
       </c>
       <c r="F195" s="2">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="G195" s="2">
-        <v>2.29</v>
+        <v>3.05</v>
       </c>
       <c r="H195" s="2">
-        <v>124</v>
+        <v>249</v>
       </c>
       <c r="I195" s="3">
-        <v>0.51600000000000001</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>221</v>
       </c>
@@ -6909,22 +6912,22 @@
         <v>11</v>
       </c>
       <c r="D196" s="2">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="E196" s="2">
         <v>1</v>
       </c>
       <c r="F196" s="2">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="G196" s="2">
         <v>1</v>
       </c>
       <c r="H196" s="2">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="I196" s="3">
-        <v>0.65</v>
+        <v>0.621</v>
       </c>
     </row>
     <row r="197" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -6938,25 +6941,25 @@
         <v>13</v>
       </c>
       <c r="D197" s="2">
-        <v>287</v>
+        <v>723</v>
       </c>
       <c r="E197" s="2">
-        <v>2.23</v>
+        <v>3.12</v>
       </c>
       <c r="F197" s="2">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="G197" s="2">
-        <v>2.81</v>
+        <v>3.56</v>
       </c>
       <c r="H197" s="2">
-        <v>126</v>
+        <v>216</v>
       </c>
       <c r="I197" s="3">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.57399999999999995</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>224</v>
       </c>
@@ -6967,25 +6970,25 @@
         <v>22</v>
       </c>
       <c r="D198" s="2">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E198" s="2">
         <v>1</v>
       </c>
       <c r="F198" s="2">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="G198" s="2">
         <v>1</v>
       </c>
       <c r="H198" s="2">
-        <v>105</v>
+        <v>164</v>
       </c>
       <c r="I198" s="3">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.58499999999999996</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>225</v>
       </c>
@@ -6996,25 +6999,25 @@
         <v>22</v>
       </c>
       <c r="D199" s="2">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="E199" s="2">
         <v>1</v>
       </c>
       <c r="F199" s="2">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G199" s="2">
         <v>1</v>
       </c>
       <c r="H199" s="2">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="I199" s="3">
-        <v>0.53600000000000003</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.59599999999999997</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>226</v>
       </c>
@@ -7025,22 +7028,22 @@
         <v>22</v>
       </c>
       <c r="D200" s="2">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E200" s="2">
         <v>1</v>
       </c>
       <c r="F200" s="2">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G200" s="2">
         <v>1</v>
       </c>
       <c r="H200" s="2">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="I200" s="3">
-        <v>0.54400000000000004</v>
+        <v>0.58299999999999996</v>
       </c>
     </row>
     <row r="201" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7054,22 +7057,22 @@
         <v>13</v>
       </c>
       <c r="D201" s="2">
-        <v>299</v>
+        <v>476</v>
       </c>
       <c r="E201" s="2">
-        <v>2.6</v>
+        <v>2.34</v>
       </c>
       <c r="F201" s="2">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="G201" s="2">
-        <v>3.19</v>
+        <v>2.74</v>
       </c>
       <c r="H201" s="2">
-        <v>590</v>
+        <v>355</v>
       </c>
       <c r="I201" s="3">
-        <v>0.55600000000000005</v>
+        <v>0.53800000000000003</v>
       </c>
     </row>
     <row r="202" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7083,22 +7086,22 @@
         <v>13</v>
       </c>
       <c r="D202" s="2">
-        <v>308</v>
+        <v>885</v>
       </c>
       <c r="E202" s="2">
-        <v>2.38</v>
+        <v>3.76</v>
       </c>
       <c r="F202" s="2">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="G202" s="2">
-        <v>3.29</v>
+        <v>5.54</v>
       </c>
       <c r="H202" s="2">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="I202" s="3">
-        <v>0.433</v>
+        <v>0.55700000000000005</v>
       </c>
     </row>
     <row r="203" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7112,25 +7115,25 @@
         <v>13</v>
       </c>
       <c r="D203" s="2">
-        <v>242</v>
+        <v>645</v>
       </c>
       <c r="E203" s="2">
-        <v>2.21</v>
+        <v>2.79</v>
       </c>
       <c r="F203" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="G203" s="2">
-        <v>2.54</v>
+        <v>3.36</v>
       </c>
       <c r="H203" s="2">
-        <v>246</v>
+        <v>286</v>
       </c>
       <c r="I203" s="3">
-        <v>0.48799999999999999</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.52400000000000002</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>231</v>
       </c>
@@ -7141,22 +7144,22 @@
         <v>11</v>
       </c>
       <c r="D204" s="2">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="E204" s="2">
-        <v>1.8</v>
+        <v>1.54</v>
       </c>
       <c r="F204" s="2">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="G204" s="2">
-        <v>2</v>
+        <v>1.51</v>
       </c>
       <c r="H204" s="2">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="I204" s="3">
-        <v>0.48899999999999999</v>
+        <v>0.55700000000000005</v>
       </c>
     </row>
     <row r="205" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7170,25 +7173,25 @@
         <v>13</v>
       </c>
       <c r="D205" s="2">
-        <v>238</v>
+        <v>685</v>
       </c>
       <c r="E205" s="2">
-        <v>2.17</v>
+        <v>3.1</v>
       </c>
       <c r="F205" s="2">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="G205" s="2">
-        <v>2.57</v>
+        <v>3.63</v>
       </c>
       <c r="H205" s="2">
-        <v>130</v>
+        <v>259</v>
       </c>
       <c r="I205" s="3">
-        <v>0.54600000000000004</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>0.55200000000000005</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>233</v>
       </c>
@@ -7199,22 +7202,22 @@
         <v>13</v>
       </c>
       <c r="D206" s="2">
-        <v>286</v>
+        <v>712</v>
       </c>
       <c r="E206" s="2">
-        <v>2.52</v>
+        <v>2.96</v>
       </c>
       <c r="F206" s="2">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="G206" s="2">
-        <v>3.5</v>
+        <v>3.86</v>
       </c>
       <c r="H206" s="2">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="I206" s="3">
-        <v>0.59199999999999997</v>
+        <v>0.54100000000000004</v>
       </c>
     </row>
     <row r="207" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7228,22 +7231,22 @@
         <v>13</v>
       </c>
       <c r="D207" s="2">
-        <v>191</v>
+        <v>553</v>
       </c>
       <c r="E207" s="2">
-        <v>1.91</v>
+        <v>2.5</v>
       </c>
       <c r="F207" s="2">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="G207" s="2">
-        <v>2.0299999999999998</v>
+        <v>2.8</v>
       </c>
       <c r="H207" s="2">
-        <v>181</v>
+        <v>571</v>
       </c>
       <c r="I207" s="3">
-        <v>0.47</v>
+        <v>0.59899999999999998</v>
       </c>
     </row>
     <row r="208" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7257,22 +7260,22 @@
         <v>13</v>
       </c>
       <c r="D208" s="2">
-        <v>257</v>
+        <v>624</v>
       </c>
       <c r="E208" s="2">
-        <v>2.37</v>
+        <v>2.65</v>
       </c>
       <c r="F208" s="2">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="G208" s="2">
-        <v>2.92</v>
+        <v>3.37</v>
       </c>
       <c r="H208" s="2">
-        <v>401</v>
+        <v>578</v>
       </c>
       <c r="I208" s="3">
-        <v>0.621</v>
+        <v>0.61099999999999999</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7286,25 +7289,25 @@
         <v>13</v>
       </c>
       <c r="D209" s="2">
-        <v>286</v>
+        <v>388</v>
       </c>
       <c r="E209" s="2">
-        <v>2.4</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="F209" s="2">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G209" s="2">
-        <v>2.77</v>
+        <v>2.6</v>
       </c>
       <c r="H209" s="2">
-        <v>534</v>
+        <v>442</v>
       </c>
       <c r="I209" s="3">
-        <v>0.53600000000000003</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>237</v>
       </c>
@@ -7315,22 +7318,22 @@
         <v>13</v>
       </c>
       <c r="D210" s="2">
-        <v>306</v>
+        <v>736</v>
       </c>
       <c r="E210" s="2">
-        <v>2.68</v>
+        <v>3.13</v>
       </c>
       <c r="F210" s="2">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="G210" s="2">
-        <v>3.32</v>
+        <v>4.04</v>
       </c>
       <c r="H210" s="2">
-        <v>132</v>
+        <v>325</v>
       </c>
       <c r="I210" s="3">
-        <v>0.48499999999999999</v>
+        <v>0.56899999999999995</v>
       </c>
     </row>
     <row r="211" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7344,22 +7347,22 @@
         <v>13</v>
       </c>
       <c r="D211" s="2">
-        <v>285</v>
+        <v>608</v>
       </c>
       <c r="E211" s="2">
-        <v>2.58</v>
+        <v>2.7</v>
       </c>
       <c r="F211" s="2">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="G211" s="2">
-        <v>2.85</v>
+        <v>3.37</v>
       </c>
       <c r="H211" s="2">
-        <v>171</v>
+        <v>529</v>
       </c>
       <c r="I211" s="3">
-        <v>0.54400000000000004</v>
+        <v>0.57499999999999996</v>
       </c>
     </row>
     <row r="212" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7373,22 +7376,22 @@
         <v>13</v>
       </c>
       <c r="D212" s="2">
-        <v>196</v>
+        <v>490</v>
       </c>
       <c r="E212" s="2">
-        <v>1.78</v>
+        <v>2.33</v>
       </c>
       <c r="F212" s="2">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="G212" s="2">
-        <v>2.19</v>
+        <v>2.62</v>
       </c>
       <c r="H212" s="2">
-        <v>162</v>
+        <v>513</v>
       </c>
       <c r="I212" s="3">
-        <v>0.53700000000000003</v>
+        <v>0.54600000000000004</v>
       </c>
     </row>
     <row r="213" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7402,22 +7405,22 @@
         <v>13</v>
       </c>
       <c r="D213" s="2">
-        <v>221</v>
+        <v>609</v>
       </c>
       <c r="E213" s="2">
-        <v>2.02</v>
+        <v>2.62</v>
       </c>
       <c r="F213" s="2">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="G213" s="2">
-        <v>2.63</v>
+        <v>3.26</v>
       </c>
       <c r="H213" s="2">
-        <v>120</v>
+        <v>373</v>
       </c>
       <c r="I213" s="3">
-        <v>0.57499999999999996</v>
+        <v>0.56599999999999995</v>
       </c>
     </row>
     <row r="214" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7431,22 +7434,22 @@
         <v>13</v>
       </c>
       <c r="D214" s="2">
-        <v>168</v>
+        <v>524</v>
       </c>
       <c r="E214" s="2">
-        <v>1.88</v>
+        <v>2.4</v>
       </c>
       <c r="F214" s="2">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="G214" s="2">
-        <v>2.09</v>
+        <v>2.76</v>
       </c>
       <c r="H214" s="2">
-        <v>95</v>
+        <v>343</v>
       </c>
       <c r="I214" s="3">
-        <v>0.55800000000000005</v>
+        <v>0.56599999999999995</v>
       </c>
     </row>
     <row r="215" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7460,25 +7463,25 @@
         <v>13</v>
       </c>
       <c r="D215" s="2">
-        <v>226</v>
+        <v>531</v>
       </c>
       <c r="E215" s="2">
-        <v>1.99</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="F215" s="2">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="G215" s="2">
-        <v>2.21</v>
+        <v>3.13</v>
       </c>
       <c r="H215" s="2">
-        <v>271</v>
+        <v>478</v>
       </c>
       <c r="I215" s="3">
-        <v>0.50600000000000001</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.54200000000000004</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>243</v>
       </c>
@@ -7489,22 +7492,22 @@
         <v>13</v>
       </c>
       <c r="D216" s="2">
-        <v>187</v>
+        <v>575</v>
       </c>
       <c r="E216" s="2">
-        <v>1.89</v>
+        <v>2.46</v>
       </c>
       <c r="F216" s="2">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="G216" s="2">
-        <v>2.1</v>
+        <v>3.04</v>
       </c>
       <c r="H216" s="2">
-        <v>86</v>
+        <v>358</v>
       </c>
       <c r="I216" s="3">
-        <v>0.48799999999999999</v>
+        <v>0.53400000000000003</v>
       </c>
     </row>
     <row r="217" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7516,25 +7519,25 @@
         <v>13</v>
       </c>
       <c r="D217" s="2">
-        <v>269</v>
+        <v>619</v>
       </c>
       <c r="E217" s="2">
-        <v>2.4300000000000002</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="F217" s="2">
-        <v>66</v>
+        <v>174</v>
       </c>
       <c r="G217" s="2">
-        <v>3.17</v>
+        <v>3.21</v>
       </c>
       <c r="H217" s="2">
-        <v>471</v>
+        <v>867</v>
       </c>
       <c r="I217" s="3">
-        <v>0.54400000000000004</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.56699999999999995</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>245</v>
       </c>
@@ -7543,25 +7546,25 @@
         <v>16</v>
       </c>
       <c r="D218" s="2">
-        <v>1655</v>
+        <v>3248</v>
       </c>
       <c r="E218" s="2">
-        <v>5.78</v>
+        <v>7.04</v>
       </c>
       <c r="F218" s="2">
-        <v>105</v>
+        <v>402</v>
       </c>
       <c r="G218" s="2">
-        <v>9.35</v>
+        <v>9.76</v>
       </c>
       <c r="H218" s="2">
-        <v>260</v>
+        <v>542</v>
       </c>
       <c r="I218" s="3">
-        <v>0.54600000000000004</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.52800000000000002</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>246</v>
       </c>
@@ -7570,25 +7573,25 @@
         <v>13</v>
       </c>
       <c r="D219" s="2">
-        <v>313</v>
+        <v>570</v>
       </c>
       <c r="E219" s="2">
-        <v>2.5</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="F219" s="2">
-        <v>92</v>
+        <v>155</v>
       </c>
       <c r="G219" s="2">
-        <v>3.13</v>
+        <v>3.22</v>
       </c>
       <c r="H219" s="2">
-        <v>694</v>
+        <v>661</v>
       </c>
       <c r="I219" s="3">
-        <v>0.52900000000000003</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.51900000000000002</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>247</v>
       </c>
@@ -7597,25 +7600,25 @@
         <v>16</v>
       </c>
       <c r="D220" s="2">
-        <v>1783</v>
+        <v>3398</v>
       </c>
       <c r="E220" s="2">
-        <v>8.6</v>
+        <v>7.83</v>
       </c>
       <c r="F220" s="2">
-        <v>462</v>
+        <v>906</v>
       </c>
       <c r="G220" s="2">
-        <v>10.57</v>
+        <v>10</v>
       </c>
       <c r="H220" s="2">
-        <v>1134</v>
+        <v>1837</v>
       </c>
       <c r="I220" s="3">
-        <v>0.504</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.55700000000000005</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>248</v>
       </c>
@@ -7624,25 +7627,25 @@
         <v>16</v>
       </c>
       <c r="D221" s="2">
-        <v>1608</v>
+        <v>3140</v>
       </c>
       <c r="E221" s="2">
         <v>5.05</v>
       </c>
       <c r="F221" s="2">
-        <v>431</v>
+        <v>993</v>
       </c>
       <c r="G221" s="2">
-        <v>6.66</v>
+        <v>6.45</v>
       </c>
       <c r="H221" s="2">
-        <v>2197</v>
+        <v>3457</v>
       </c>
       <c r="I221" s="3">
-        <v>0.55500000000000005</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.56100000000000005</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>249</v>
       </c>
@@ -7651,22 +7654,22 @@
         <v>16</v>
       </c>
       <c r="D222" s="2">
-        <v>1465</v>
+        <v>3382</v>
       </c>
       <c r="E222" s="2">
-        <v>4.49</v>
+        <v>7.65</v>
       </c>
       <c r="F222" s="2">
-        <v>66</v>
+        <v>823</v>
       </c>
       <c r="G222" s="2">
-        <v>7.32</v>
+        <v>9.61</v>
       </c>
       <c r="H222" s="2">
-        <v>270</v>
+        <v>1520</v>
       </c>
       <c r="I222" s="3">
-        <v>0.52200000000000002</v>
+        <v>0.55200000000000005</v>
       </c>
     </row>
     <row r="223" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7678,25 +7681,25 @@
         <v>13</v>
       </c>
       <c r="D223" s="2">
-        <v>306</v>
+        <v>685</v>
       </c>
       <c r="E223" s="2">
-        <v>2.73</v>
+        <v>3.04</v>
       </c>
       <c r="F223" s="2">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="G223" s="2">
-        <v>3.63</v>
+        <v>3.93</v>
       </c>
       <c r="H223" s="2">
-        <v>208</v>
+        <v>590</v>
       </c>
       <c r="I223" s="3">
-        <v>0.58699999999999997</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.56899999999999995</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>251</v>
       </c>
@@ -7705,25 +7708,25 @@
         <v>13</v>
       </c>
       <c r="D224" s="2">
-        <v>590</v>
+        <v>1110</v>
       </c>
       <c r="E224" s="2">
-        <v>8.2200000000000006</v>
+        <v>7.05</v>
       </c>
       <c r="F224" s="2">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="G224" s="2">
-        <v>11.64</v>
+        <v>11.01</v>
       </c>
       <c r="H224" s="2">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I224" s="3">
-        <v>0.46500000000000002</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.64700000000000002</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>252</v>
       </c>
@@ -7732,25 +7735,25 @@
         <v>16</v>
       </c>
       <c r="D225" s="2">
-        <v>1734</v>
+        <v>3493</v>
       </c>
       <c r="E225" s="2">
-        <v>7.54</v>
+        <v>7.62</v>
       </c>
       <c r="F225" s="2">
-        <v>272</v>
+        <v>722</v>
       </c>
       <c r="G225" s="2">
-        <v>10.06</v>
+        <v>10.01</v>
       </c>
       <c r="H225" s="2">
-        <v>701</v>
+        <v>1198</v>
       </c>
       <c r="I225" s="3">
-        <v>0.505</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.53800000000000003</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>253</v>
       </c>
@@ -7759,22 +7762,22 @@
         <v>16</v>
       </c>
       <c r="D226" s="2">
-        <v>1730</v>
+        <v>3364</v>
       </c>
       <c r="E226" s="2">
-        <v>5.82</v>
+        <v>8.61</v>
       </c>
       <c r="F226" s="2">
-        <v>54</v>
+        <v>493</v>
       </c>
       <c r="G226" s="2">
-        <v>9.83</v>
+        <v>11.72</v>
       </c>
       <c r="H226" s="2">
-        <v>60</v>
+        <v>174</v>
       </c>
       <c r="I226" s="3">
-        <v>0.5</v>
+        <v>0.46600000000000003</v>
       </c>
     </row>
     <row r="227" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7786,25 +7789,25 @@
         <v>13</v>
       </c>
       <c r="D227" s="2">
-        <v>497</v>
+        <v>848</v>
       </c>
       <c r="E227" s="2">
-        <v>3.53</v>
+        <v>3.54</v>
       </c>
       <c r="F227" s="2">
-        <v>149</v>
+        <v>331</v>
       </c>
       <c r="G227" s="2">
-        <v>4.33</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="H227" s="2">
-        <v>825</v>
+        <v>1176</v>
       </c>
       <c r="I227" s="3">
-        <v>0.56599999999999995</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.54700000000000004</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>255</v>
       </c>
@@ -7813,25 +7816,25 @@
         <v>16</v>
       </c>
       <c r="D228" s="2">
-        <v>1517</v>
+        <v>3306</v>
       </c>
       <c r="E228" s="2">
-        <v>5.19</v>
+        <v>6.38</v>
       </c>
       <c r="F228" s="2">
-        <v>97</v>
+        <v>393</v>
       </c>
       <c r="G228" s="2">
-        <v>7.97</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="H228" s="2">
-        <v>359</v>
+        <v>708</v>
       </c>
       <c r="I228" s="3">
-        <v>0.50700000000000001</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.55100000000000005</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>256</v>
       </c>
@@ -7840,25 +7843,25 @@
         <v>16</v>
       </c>
       <c r="D229" s="2">
-        <v>1763</v>
+        <v>3370</v>
       </c>
       <c r="E229" s="2">
-        <v>6.94</v>
+        <v>8.14</v>
       </c>
       <c r="F229" s="2">
-        <v>95</v>
+        <v>403</v>
       </c>
       <c r="G229" s="2">
-        <v>10.130000000000001</v>
+        <v>11.29</v>
       </c>
       <c r="H229" s="2">
-        <v>131</v>
+        <v>245</v>
       </c>
       <c r="I229" s="3">
-        <v>0.47299999999999998</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.44900000000000001</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>257</v>
       </c>
@@ -7867,22 +7870,22 @@
         <v>16</v>
       </c>
       <c r="D230" s="2">
-        <v>1382</v>
+        <v>2549</v>
       </c>
       <c r="E230" s="2">
-        <v>3.98</v>
+        <v>4.04</v>
       </c>
       <c r="F230" s="2">
-        <v>342</v>
+        <v>672</v>
       </c>
       <c r="G230" s="2">
-        <v>5.3</v>
+        <v>5.54</v>
       </c>
       <c r="H230" s="2">
-        <v>2203</v>
+        <v>2902</v>
       </c>
       <c r="I230" s="3">
-        <v>0.56499999999999995</v>
+        <v>0.56100000000000005</v>
       </c>
     </row>
     <row r="231" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7894,25 +7897,25 @@
         <v>13</v>
       </c>
       <c r="D231" s="2">
-        <v>464</v>
+        <v>1126</v>
       </c>
       <c r="E231" s="2">
-        <v>3.69</v>
+        <v>7.14</v>
       </c>
       <c r="F231" s="2">
-        <v>19</v>
+        <v>205</v>
       </c>
       <c r="G231" s="2">
-        <v>5.63</v>
+        <v>9.74</v>
       </c>
       <c r="H231" s="2">
-        <v>105</v>
+        <v>348</v>
       </c>
       <c r="I231" s="3">
-        <v>0.495</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.50900000000000001</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>259</v>
       </c>
@@ -7921,22 +7924,22 @@
         <v>16</v>
       </c>
       <c r="D232" s="2">
-        <v>1720</v>
+        <v>3337</v>
       </c>
       <c r="E232" s="2">
-        <v>6.45</v>
+        <v>8.23</v>
       </c>
       <c r="F232" s="2">
-        <v>104</v>
+        <v>485</v>
       </c>
       <c r="G232" s="2">
-        <v>10.02</v>
+        <v>11.1</v>
       </c>
       <c r="H232" s="2">
-        <v>138</v>
+        <v>439</v>
       </c>
       <c r="I232" s="3">
-        <v>0.48599999999999999</v>
+        <v>0.52800000000000002</v>
       </c>
     </row>
     <row r="233" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7948,25 +7951,25 @@
         <v>13</v>
       </c>
       <c r="D233" s="2">
-        <v>415</v>
+        <v>1125</v>
       </c>
       <c r="E233" s="2">
-        <v>3.16</v>
+        <v>6.25</v>
       </c>
       <c r="F233" s="2">
-        <v>34</v>
+        <v>393</v>
       </c>
       <c r="G233" s="2">
-        <v>4.32</v>
+        <v>7.5</v>
       </c>
       <c r="H233" s="2">
-        <v>155</v>
+        <v>1063</v>
       </c>
       <c r="I233" s="3">
-        <v>0.626</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.54800000000000004</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>261</v>
       </c>
@@ -7975,22 +7978,22 @@
         <v>11</v>
       </c>
       <c r="D234" s="2">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="E234" s="2">
-        <v>1.58</v>
+        <v>1.19</v>
       </c>
       <c r="F234" s="2">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G234" s="2">
-        <v>2.25</v>
+        <v>1.06</v>
       </c>
       <c r="H234" s="2">
-        <v>0</v>
-      </c>
-      <c r="I234" s="2" t="s">
-        <v>24</v>
+        <v>5</v>
+      </c>
+      <c r="I234" s="3">
+        <v>0.4</v>
       </c>
     </row>
     <row r="235" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -8002,25 +8005,25 @@
         <v>13</v>
       </c>
       <c r="D235" s="2">
-        <v>375</v>
+        <v>654</v>
       </c>
       <c r="E235" s="2">
-        <v>3.05</v>
+        <v>2.93</v>
       </c>
       <c r="F235" s="2">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="G235" s="2">
-        <v>4.3600000000000003</v>
+        <v>3.88</v>
       </c>
       <c r="H235" s="2">
-        <v>411</v>
+        <v>493</v>
       </c>
       <c r="I235" s="3">
-        <v>0.50900000000000001</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.55800000000000005</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>263</v>
       </c>
@@ -8029,25 +8032,25 @@
         <v>11</v>
       </c>
       <c r="D236" s="2">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="E236" s="2">
-        <v>1.0900000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="F236" s="2">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="G236" s="2">
-        <v>1.0900000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="H236" s="2">
-        <v>300</v>
+        <v>439</v>
       </c>
       <c r="I236" s="3">
-        <v>0.53700000000000003</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.58799999999999997</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>264</v>
       </c>
@@ -8056,22 +8059,22 @@
         <v>16</v>
       </c>
       <c r="D237" s="2">
-        <v>1787</v>
+        <v>3324</v>
       </c>
       <c r="E237" s="2">
-        <v>7.44</v>
+        <v>7.7</v>
       </c>
       <c r="F237" s="2">
-        <v>183</v>
+        <v>334</v>
       </c>
       <c r="G237" s="2">
-        <v>10.91</v>
+        <v>10.94</v>
       </c>
       <c r="H237" s="2">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="I237" s="3">
-        <v>0.45600000000000002</v>
+        <v>0.52300000000000002</v>
       </c>
     </row>
     <row r="238" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -8083,25 +8086,25 @@
         <v>13</v>
       </c>
       <c r="D238" s="2">
-        <v>371</v>
+        <v>894</v>
       </c>
       <c r="E238" s="2">
-        <v>3.35</v>
+        <v>4.07</v>
       </c>
       <c r="F238" s="2">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="G238" s="2">
-        <v>4.28</v>
+        <v>5.53</v>
       </c>
       <c r="H238" s="2">
-        <v>200</v>
+        <v>498</v>
       </c>
       <c r="I238" s="3">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.55200000000000005</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>266</v>
       </c>
@@ -8112,25 +8115,25 @@
         <v>11</v>
       </c>
       <c r="D239" s="2">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="E239" s="2">
-        <v>1.87</v>
+        <v>1.38</v>
       </c>
       <c r="F239" s="2">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G239" s="2">
-        <v>1.76</v>
+        <v>1.41</v>
       </c>
       <c r="H239" s="2">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="I239" s="3">
-        <v>0.51700000000000002</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.47299999999999998</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>267</v>
       </c>
@@ -8141,25 +8144,25 @@
         <v>11</v>
       </c>
       <c r="D240" s="2">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="E240" s="2">
-        <v>1.79</v>
+        <v>1.41</v>
       </c>
       <c r="F240" s="2">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G240" s="2">
-        <v>2</v>
+        <v>1.42</v>
       </c>
       <c r="H240" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I240" s="3">
-        <v>0.51900000000000002</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.55300000000000005</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>268</v>
       </c>
@@ -8170,25 +8173,25 @@
         <v>11</v>
       </c>
       <c r="D241" s="2">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="E241" s="2">
-        <v>1.86</v>
+        <v>1.39</v>
       </c>
       <c r="F241" s="2">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="G241" s="2">
-        <v>2.44</v>
+        <v>1.37</v>
       </c>
       <c r="H241" s="2">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="I241" s="3">
-        <v>0.47199999999999998</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.53900000000000003</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>269</v>
       </c>
@@ -8199,25 +8202,25 @@
         <v>11</v>
       </c>
       <c r="D242" s="2">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="E242" s="2">
-        <v>1.89</v>
+        <v>1.38</v>
       </c>
       <c r="F242" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G242" s="2">
-        <v>2.02</v>
+        <v>1.32</v>
       </c>
       <c r="H242" s="2">
-        <v>435</v>
+        <v>148</v>
       </c>
       <c r="I242" s="3">
-        <v>0.58599999999999997</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.51400000000000001</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>270</v>
       </c>
@@ -8228,25 +8231,25 @@
         <v>11</v>
       </c>
       <c r="D243" s="2">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="E243" s="2">
-        <v>2</v>
+        <v>1.29</v>
       </c>
       <c r="F243" s="2">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="G243" s="2">
-        <v>2.21</v>
+        <v>1.35</v>
       </c>
       <c r="H243" s="2">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="I243" s="3">
-        <v>0.59399999999999997</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.64500000000000002</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>271</v>
       </c>
@@ -8257,25 +8260,25 @@
         <v>16</v>
       </c>
       <c r="D244" s="2">
-        <v>1798</v>
+        <v>3293</v>
       </c>
       <c r="E244" s="2">
-        <v>8.2799999999999994</v>
+        <v>8.14</v>
       </c>
       <c r="F244" s="2">
-        <v>215</v>
+        <v>340</v>
       </c>
       <c r="G244" s="2">
-        <v>11.51</v>
+        <v>11.59</v>
       </c>
       <c r="H244" s="2">
-        <v>485</v>
+        <v>580</v>
       </c>
       <c r="I244" s="3">
-        <v>0.50700000000000001</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>272</v>
       </c>
@@ -8284,25 +8287,25 @@
         <v>11</v>
       </c>
       <c r="D245" s="2">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E245" s="2">
-        <v>1.4</v>
+        <v>1.21</v>
       </c>
       <c r="F245" s="2">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G245" s="2">
-        <v>1.43</v>
+        <v>1.21</v>
       </c>
       <c r="H245" s="2">
-        <v>191</v>
+        <v>141</v>
       </c>
       <c r="I245" s="3">
-        <v>0.51800000000000002</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.53900000000000003</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>273</v>
       </c>
@@ -8313,25 +8316,25 @@
         <v>16</v>
       </c>
       <c r="D246" s="2">
-        <v>1795</v>
+        <v>3255</v>
       </c>
       <c r="E246" s="2">
-        <v>8.1300000000000008</v>
+        <v>8</v>
       </c>
       <c r="F246" s="2">
-        <v>335</v>
+        <v>474</v>
       </c>
       <c r="G246" s="2">
-        <v>10.58</v>
+        <v>11.02</v>
       </c>
       <c r="H246" s="2">
-        <v>1136</v>
+        <v>920</v>
       </c>
       <c r="I246" s="3">
-        <v>0.55300000000000005</v>
-      </c>
-    </row>
-    <row r="247" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.56799999999999995</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>274</v>
       </c>
@@ -8342,25 +8345,25 @@
         <v>16</v>
       </c>
       <c r="D247" s="2">
-        <v>1677</v>
+        <v>3433</v>
       </c>
       <c r="E247" s="2">
-        <v>8.19</v>
+        <v>8.07</v>
       </c>
       <c r="F247" s="2">
-        <v>223</v>
+        <v>418</v>
       </c>
       <c r="G247" s="2">
-        <v>10.89</v>
+        <v>11.19</v>
       </c>
       <c r="H247" s="2">
-        <v>716</v>
+        <v>796</v>
       </c>
       <c r="I247" s="3">
-        <v>0.55600000000000005</v>
-      </c>
-    </row>
-    <row r="248" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.54900000000000004</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>275</v>
       </c>
@@ -8371,25 +8374,25 @@
         <v>16</v>
       </c>
       <c r="D248" s="2">
-        <v>1792</v>
+        <v>3389</v>
       </c>
       <c r="E248" s="2">
-        <v>8.27</v>
+        <v>8.1</v>
       </c>
       <c r="F248" s="2">
-        <v>352</v>
+        <v>644</v>
       </c>
       <c r="G248" s="2">
-        <v>10.42</v>
+        <v>10.48</v>
       </c>
       <c r="H248" s="2">
-        <v>1508</v>
+        <v>1645</v>
       </c>
       <c r="I248" s="3">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>276</v>
       </c>
@@ -8400,25 +8403,25 @@
         <v>13</v>
       </c>
       <c r="D249" s="2">
-        <v>588</v>
+        <v>1126</v>
       </c>
       <c r="E249" s="2">
-        <v>8.31</v>
+        <v>7.25</v>
       </c>
       <c r="F249" s="2">
-        <v>152</v>
+        <v>211</v>
       </c>
       <c r="G249" s="2">
-        <v>10.99</v>
+        <v>9.64</v>
       </c>
       <c r="H249" s="2">
-        <v>253</v>
+        <v>349</v>
       </c>
       <c r="I249" s="3">
-        <v>0.54900000000000004</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.52700000000000002</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>278</v>
       </c>
@@ -8429,22 +8432,22 @@
         <v>16</v>
       </c>
       <c r="D250" s="2">
-        <v>1739</v>
+        <v>3332</v>
       </c>
       <c r="E250" s="2">
-        <v>8.3000000000000007</v>
+        <v>7.69</v>
       </c>
       <c r="F250" s="2">
-        <v>413</v>
+        <v>516</v>
       </c>
       <c r="G250" s="2">
-        <v>10.27</v>
+        <v>10.67</v>
       </c>
       <c r="H250" s="2">
-        <v>1868</v>
+        <v>1051</v>
       </c>
       <c r="I250" s="3">
-        <v>0.55200000000000005</v>
+        <v>0.52400000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/17Lands.xlsx
+++ b/17Lands.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\17lands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5E0120-2C9C-410B-A375-38A53A6CAD11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080C3203-B1F5-4C76-AFD3-DD4B63778902}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="3255" windowWidth="21600" windowHeight="11385" xr2:uid="{8943F25A-5914-4368-9FD9-3EAA21A0D66A}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{8943F25A-5914-4368-9FD9-3EAA21A0D66A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="279">
   <si>
     <t>Name</t>
   </si>
@@ -1286,22 +1286,22 @@
         <v>11</v>
       </c>
       <c r="D2" s="2">
-        <v>112</v>
+        <v>167</v>
       </c>
       <c r="E2" s="2">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="F2" s="2">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="G2" s="2">
-        <v>1.26</v>
+        <v>1.36</v>
       </c>
       <c r="H2" s="2">
-        <v>204</v>
+        <v>292</v>
       </c>
       <c r="I2" s="3">
-        <v>0.505</v>
+        <v>0.51700000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1315,22 +1315,22 @@
         <v>13</v>
       </c>
       <c r="D3" s="2">
-        <v>1157</v>
+        <v>1704</v>
       </c>
       <c r="E3" s="2">
-        <v>6.19</v>
+        <v>6.29</v>
       </c>
       <c r="F3" s="2">
-        <v>148</v>
+        <v>247</v>
       </c>
       <c r="G3" s="2">
-        <v>8.68</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="H3" s="2">
-        <v>251</v>
+        <v>402</v>
       </c>
       <c r="I3" s="3">
-        <v>0.56200000000000006</v>
+        <v>0.56499999999999995</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1344,22 +1344,22 @@
         <v>13</v>
       </c>
       <c r="D4" s="2">
-        <v>488</v>
+        <v>718</v>
       </c>
       <c r="E4" s="2">
-        <v>2.21</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="F4" s="2">
-        <v>124</v>
+        <v>188</v>
       </c>
       <c r="G4" s="2">
         <v>2.6</v>
       </c>
       <c r="H4" s="2">
-        <v>507</v>
+        <v>870</v>
       </c>
       <c r="I4" s="3">
-        <v>0.57399999999999995</v>
+        <v>0.58299999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1373,22 +1373,22 @@
         <v>16</v>
       </c>
       <c r="D5" s="2">
-        <v>3096</v>
+        <v>4625</v>
       </c>
       <c r="E5" s="2">
-        <v>5.8</v>
+        <v>5.81</v>
       </c>
       <c r="F5" s="2">
-        <v>224</v>
+        <v>345</v>
       </c>
       <c r="G5" s="2">
-        <v>8.81</v>
+        <v>8.89</v>
       </c>
       <c r="H5" s="2">
-        <v>505</v>
+        <v>742</v>
       </c>
       <c r="I5" s="3">
-        <v>0.52300000000000002</v>
+        <v>0.51300000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1402,22 +1402,22 @@
         <v>16</v>
       </c>
       <c r="D6" s="2">
-        <v>1466</v>
+        <v>2215</v>
       </c>
       <c r="E6" s="2">
         <v>2.92</v>
       </c>
       <c r="F6" s="2">
-        <v>304</v>
+        <v>495</v>
       </c>
       <c r="G6" s="2">
-        <v>3.57</v>
+        <v>3.53</v>
       </c>
       <c r="H6" s="2">
-        <v>1166</v>
+        <v>1852</v>
       </c>
       <c r="I6" s="3">
-        <v>0.56699999999999995</v>
+        <v>0.55900000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1431,22 +1431,22 @@
         <v>16</v>
       </c>
       <c r="D7" s="2">
-        <v>3362</v>
+        <v>5004</v>
       </c>
       <c r="E7" s="2">
-        <v>7.91</v>
+        <v>7.92</v>
       </c>
       <c r="F7" s="2">
-        <v>303</v>
+        <v>460</v>
       </c>
       <c r="G7" s="2">
-        <v>11.94</v>
+        <v>11.87</v>
       </c>
       <c r="H7" s="2">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="I7" s="3">
-        <v>0.48099999999999998</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1460,22 +1460,22 @@
         <v>16</v>
       </c>
       <c r="D8" s="2">
-        <v>3352</v>
+        <v>4994</v>
       </c>
       <c r="E8" s="2">
-        <v>9.5299999999999994</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="F8" s="2">
-        <v>560</v>
+        <v>874</v>
       </c>
       <c r="G8" s="2">
-        <v>12.43</v>
+        <v>12.42</v>
       </c>
       <c r="H8" s="2">
-        <v>186</v>
+        <v>285</v>
       </c>
       <c r="I8" s="3">
-        <v>0.505</v>
+        <v>0.51600000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1489,19 +1489,19 @@
         <v>11</v>
       </c>
       <c r="D9" s="2">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="E9" s="2">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="F9" s="2">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="G9" s="2">
-        <v>1.37</v>
+        <v>1.52</v>
       </c>
       <c r="H9" s="2">
-        <v>199</v>
+        <v>292</v>
       </c>
       <c r="I9" s="3">
         <v>0.55800000000000005</v>
@@ -1518,22 +1518,22 @@
         <v>22</v>
       </c>
       <c r="D10" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
       </c>
       <c r="F10" s="2">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
       </c>
       <c r="H10" s="2">
-        <v>136</v>
+        <v>186</v>
       </c>
       <c r="I10" s="3">
-        <v>0.54400000000000004</v>
+        <v>0.54800000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1547,22 +1547,22 @@
         <v>13</v>
       </c>
       <c r="D11" s="2">
-        <v>1191</v>
+        <v>1767</v>
       </c>
       <c r="E11" s="2">
-        <v>8.89</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="F11" s="2">
-        <v>219</v>
+        <v>339</v>
       </c>
       <c r="G11" s="2">
         <v>12.61</v>
       </c>
       <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>24</v>
+        <v>5</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.4</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1576,22 +1576,22 @@
         <v>16</v>
       </c>
       <c r="D12" s="2">
-        <v>3230</v>
+        <v>4846</v>
       </c>
       <c r="E12" s="2">
         <v>6.46</v>
       </c>
       <c r="F12" s="2">
-        <v>739</v>
+        <v>1202</v>
       </c>
       <c r="G12" s="2">
-        <v>8</v>
+        <v>7.87</v>
       </c>
       <c r="H12" s="2">
-        <v>1694</v>
+        <v>2740</v>
       </c>
       <c r="I12" s="3">
-        <v>0.54400000000000004</v>
+        <v>0.54500000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1605,22 +1605,22 @@
         <v>16</v>
       </c>
       <c r="D13" s="2">
-        <v>2845</v>
+        <v>4266</v>
       </c>
       <c r="E13" s="2">
         <v>5.03</v>
       </c>
       <c r="F13" s="2">
-        <v>535</v>
+        <v>874</v>
       </c>
       <c r="G13" s="2">
-        <v>6.59</v>
+        <v>6.47</v>
       </c>
       <c r="H13" s="2">
-        <v>1394</v>
+        <v>2274</v>
       </c>
       <c r="I13" s="3">
-        <v>0.55900000000000005</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1634,22 +1634,22 @@
         <v>16</v>
       </c>
       <c r="D14" s="2">
-        <v>3373</v>
+        <v>5038</v>
       </c>
       <c r="E14" s="2">
-        <v>7.85</v>
+        <v>7.87</v>
       </c>
       <c r="F14" s="2">
-        <v>318</v>
+        <v>483</v>
       </c>
       <c r="G14" s="2">
-        <v>11.47</v>
+        <v>11.52</v>
       </c>
       <c r="H14" s="2">
-        <v>135</v>
+        <v>218</v>
       </c>
       <c r="I14" s="3">
-        <v>0.46700000000000003</v>
+        <v>0.48199999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1663,22 +1663,22 @@
         <v>11</v>
       </c>
       <c r="D15" s="2">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
       </c>
       <c r="F15" s="2">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
       </c>
       <c r="H15" s="2">
-        <v>258</v>
+        <v>388</v>
       </c>
       <c r="I15" s="3">
-        <v>0.55000000000000004</v>
+        <v>0.57499999999999996</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1692,22 +1692,22 @@
         <v>13</v>
       </c>
       <c r="D16" s="2">
-        <v>556</v>
+        <v>803</v>
       </c>
       <c r="E16" s="2">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="F16" s="2">
-        <v>145</v>
+        <v>218</v>
       </c>
       <c r="G16" s="2">
-        <v>3.24</v>
+        <v>3.28</v>
       </c>
       <c r="H16" s="2">
-        <v>576</v>
+        <v>914</v>
       </c>
       <c r="I16" s="3">
-        <v>0.52600000000000002</v>
+        <v>0.53600000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1721,16 +1721,16 @@
         <v>11</v>
       </c>
       <c r="D17" s="2">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="E17" s="2">
+        <v>1.84</v>
+      </c>
+      <c r="F17" s="2">
+        <v>30</v>
+      </c>
+      <c r="G17" s="2">
         <v>1.77</v>
-      </c>
-      <c r="F17" s="2">
-        <v>24</v>
-      </c>
-      <c r="G17" s="2">
-        <v>1.75</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
@@ -1750,22 +1750,22 @@
         <v>22</v>
       </c>
       <c r="D18" s="2">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E18" s="2">
         <v>1</v>
       </c>
       <c r="F18" s="2">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
       </c>
       <c r="H18" s="2">
-        <v>134</v>
+        <v>181</v>
       </c>
       <c r="I18" s="3">
-        <v>0.58199999999999996</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1779,22 +1779,22 @@
         <v>11</v>
       </c>
       <c r="D19" s="2">
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="E19" s="2">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="F19" s="2">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G19" s="2">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="H19" s="2">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="I19" s="3">
-        <v>0.60199999999999998</v>
+        <v>0.59699999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1808,22 +1808,22 @@
         <v>16</v>
       </c>
       <c r="D20" s="2">
-        <v>3367</v>
+        <v>5012</v>
       </c>
       <c r="E20" s="2">
-        <v>8.1199999999999992</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="F20" s="2">
-        <v>435</v>
+        <v>651</v>
       </c>
       <c r="G20" s="2">
         <v>10.99</v>
       </c>
       <c r="H20" s="2">
-        <v>521</v>
+        <v>808</v>
       </c>
       <c r="I20" s="3">
-        <v>0.52400000000000002</v>
+        <v>0.53200000000000003</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1837,22 +1837,22 @@
         <v>11</v>
       </c>
       <c r="D21" s="2">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="E21" s="2">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="F21" s="2">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="G21" s="2">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="H21" s="2">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="I21" s="3">
-        <v>0.495</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1866,22 +1866,22 @@
         <v>16</v>
       </c>
       <c r="D22" s="2">
-        <v>3043</v>
+        <v>4485</v>
       </c>
       <c r="E22" s="2">
-        <v>5.17</v>
+        <v>5.14</v>
       </c>
       <c r="F22" s="2">
-        <v>464</v>
+        <v>681</v>
       </c>
       <c r="G22" s="2">
-        <v>7.24</v>
+        <v>7.14</v>
       </c>
       <c r="H22" s="2">
-        <v>1289</v>
+        <v>1906</v>
       </c>
       <c r="I22" s="3">
-        <v>0.54800000000000004</v>
+        <v>0.54500000000000004</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1895,22 +1895,22 @@
         <v>13</v>
       </c>
       <c r="D23" s="2">
-        <v>673</v>
+        <v>1018</v>
       </c>
       <c r="E23" s="2">
-        <v>3.04</v>
+        <v>3.05</v>
       </c>
       <c r="F23" s="2">
-        <v>189</v>
+        <v>296</v>
       </c>
       <c r="G23" s="2">
-        <v>3.61</v>
+        <v>3.63</v>
       </c>
       <c r="H23" s="2">
-        <v>719</v>
+        <v>1127</v>
       </c>
       <c r="I23" s="3">
-        <v>0.57899999999999996</v>
+        <v>0.56499999999999995</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1924,22 +1924,22 @@
         <v>16</v>
       </c>
       <c r="D24" s="2">
-        <v>3084</v>
+        <v>4648</v>
       </c>
       <c r="E24" s="2">
-        <v>5.77</v>
+        <v>5.8</v>
       </c>
       <c r="F24" s="2">
-        <v>339</v>
+        <v>524</v>
       </c>
       <c r="G24" s="2">
-        <v>8.3800000000000008</v>
+        <v>8.35</v>
       </c>
       <c r="H24" s="2">
-        <v>887</v>
+        <v>1463</v>
       </c>
       <c r="I24" s="3">
-        <v>0.55700000000000005</v>
+        <v>0.54600000000000004</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1953,22 +1953,22 @@
         <v>16</v>
       </c>
       <c r="D25" s="2">
-        <v>2927</v>
+        <v>4338</v>
       </c>
       <c r="E25" s="2">
         <v>5.18</v>
       </c>
       <c r="F25" s="2">
-        <v>239</v>
+        <v>403</v>
       </c>
       <c r="G25" s="2">
-        <v>8.01</v>
+        <v>7.83</v>
       </c>
       <c r="H25" s="2">
-        <v>634</v>
+        <v>1102</v>
       </c>
       <c r="I25" s="3">
-        <v>0.54700000000000004</v>
+        <v>0.52700000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1982,19 +1982,19 @@
         <v>13</v>
       </c>
       <c r="D26" s="2">
-        <v>1074</v>
+        <v>1622</v>
       </c>
       <c r="E26" s="2">
-        <v>5.77</v>
+        <v>5.76</v>
       </c>
       <c r="F26" s="2">
-        <v>105</v>
+        <v>180</v>
       </c>
       <c r="G26" s="2">
-        <v>8.91</v>
+        <v>8.84</v>
       </c>
       <c r="H26" s="2">
-        <v>235</v>
+        <v>423</v>
       </c>
       <c r="I26" s="3">
         <v>0.57399999999999995</v>
@@ -2011,22 +2011,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="2">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
       </c>
       <c r="F27" s="2">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
       </c>
       <c r="H27" s="2">
-        <v>117</v>
+        <v>172</v>
       </c>
       <c r="I27" s="3">
-        <v>0.54700000000000004</v>
+        <v>0.55800000000000005</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2040,22 +2040,22 @@
         <v>13</v>
       </c>
       <c r="D28" s="2">
-        <v>1140</v>
+        <v>1679</v>
       </c>
       <c r="E28" s="2">
-        <v>7.73</v>
+        <v>7.67</v>
       </c>
       <c r="F28" s="2">
-        <v>157</v>
+        <v>220</v>
       </c>
       <c r="G28" s="2">
-        <v>11.62</v>
+        <v>11.6</v>
       </c>
       <c r="H28" s="2">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="I28" s="3">
-        <v>0.47799999999999998</v>
+        <v>0.48399999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2069,22 +2069,22 @@
         <v>13</v>
       </c>
       <c r="D29" s="2">
-        <v>1006</v>
+        <v>1475</v>
       </c>
       <c r="E29" s="2">
-        <v>4.4800000000000004</v>
+        <v>4.33</v>
       </c>
       <c r="F29" s="2">
-        <v>272</v>
+        <v>402</v>
       </c>
       <c r="G29" s="2">
-        <v>5.73</v>
+        <v>5.44</v>
       </c>
       <c r="H29" s="2">
-        <v>1010</v>
+        <v>1516</v>
       </c>
       <c r="I29" s="3">
-        <v>0.56399999999999995</v>
+        <v>0.56699999999999995</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -2098,22 +2098,22 @@
         <v>16</v>
       </c>
       <c r="D30" s="2">
-        <v>3300</v>
+        <v>4921</v>
       </c>
       <c r="E30" s="2">
-        <v>7.12</v>
+        <v>7.15</v>
       </c>
       <c r="F30" s="2">
-        <v>271</v>
+        <v>403</v>
       </c>
       <c r="G30" s="2">
-        <v>10.34</v>
+        <v>10.5</v>
       </c>
       <c r="H30" s="2">
-        <v>240</v>
+        <v>356</v>
       </c>
       <c r="I30" s="3">
-        <v>0.46300000000000002</v>
+        <v>0.49199999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -2127,22 +2127,22 @@
         <v>16</v>
       </c>
       <c r="D31" s="2">
-        <v>3370</v>
+        <v>5008</v>
       </c>
       <c r="E31" s="2">
-        <v>7.2</v>
+        <v>7.21</v>
       </c>
       <c r="F31" s="2">
-        <v>386</v>
+        <v>586</v>
       </c>
       <c r="G31" s="2">
-        <v>10.27</v>
+        <v>10.17</v>
       </c>
       <c r="H31" s="2">
-        <v>707</v>
+        <v>1163</v>
       </c>
       <c r="I31" s="3">
-        <v>0.55900000000000005</v>
+        <v>0.54400000000000004</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -2156,22 +2156,22 @@
         <v>16</v>
       </c>
       <c r="D32" s="2">
-        <v>3209</v>
+        <v>4799</v>
       </c>
       <c r="E32" s="2">
-        <v>5.9</v>
+        <v>5.93</v>
       </c>
       <c r="F32" s="2">
-        <v>503</v>
+        <v>816</v>
       </c>
       <c r="G32" s="2">
-        <v>7.79</v>
+        <v>7.83</v>
       </c>
       <c r="H32" s="2">
-        <v>1362</v>
+        <v>2282</v>
       </c>
       <c r="I32" s="3">
-        <v>0.56000000000000005</v>
+        <v>0.55700000000000005</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2185,19 +2185,19 @@
         <v>13</v>
       </c>
       <c r="D33" s="2">
-        <v>443</v>
+        <v>674</v>
       </c>
       <c r="E33" s="2">
-        <v>2.09</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="F33" s="2">
-        <v>123</v>
+        <v>197</v>
       </c>
       <c r="G33" s="2">
-        <v>2.48</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="H33" s="2">
-        <v>558</v>
+        <v>890</v>
       </c>
       <c r="I33" s="3">
         <v>0.55200000000000005</v>
@@ -2214,22 +2214,22 @@
         <v>16</v>
       </c>
       <c r="D34" s="2">
-        <v>1517</v>
+        <v>2263</v>
       </c>
       <c r="E34" s="2">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="F34" s="2">
-        <v>299</v>
+        <v>444</v>
       </c>
       <c r="G34" s="2">
-        <v>3.79</v>
+        <v>3.8</v>
       </c>
       <c r="H34" s="2">
-        <v>1250</v>
+        <v>1873</v>
       </c>
       <c r="I34" s="3">
-        <v>0.56200000000000006</v>
+        <v>0.55800000000000005</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -2243,22 +2243,22 @@
         <v>16</v>
       </c>
       <c r="D35" s="2">
-        <v>3298</v>
+        <v>4907</v>
       </c>
       <c r="E35" s="2">
-        <v>8.3800000000000008</v>
+        <v>8.4</v>
       </c>
       <c r="F35" s="2">
-        <v>497</v>
+        <v>730</v>
       </c>
       <c r="G35" s="2">
-        <v>11.11</v>
+        <v>11.22</v>
       </c>
       <c r="H35" s="2">
-        <v>522</v>
+        <v>781</v>
       </c>
       <c r="I35" s="3">
-        <v>0.55400000000000005</v>
+        <v>0.56100000000000005</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2272,22 +2272,22 @@
         <v>13</v>
       </c>
       <c r="D36" s="2">
-        <v>848</v>
+        <v>1275</v>
       </c>
       <c r="E36" s="2">
-        <v>3.7</v>
+        <v>3.71</v>
       </c>
       <c r="F36" s="2">
-        <v>126</v>
+        <v>186</v>
       </c>
       <c r="G36" s="2">
-        <v>4.63</v>
+        <v>4.83</v>
       </c>
       <c r="H36" s="2">
-        <v>466</v>
+        <v>705</v>
       </c>
       <c r="I36" s="3">
-        <v>0.54300000000000004</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -2301,22 +2301,22 @@
         <v>11</v>
       </c>
       <c r="D37" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E37" s="2">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="F37" s="2">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="G37" s="2">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="H37" s="2">
-        <v>226</v>
+        <v>303</v>
       </c>
       <c r="I37" s="3">
-        <v>0.54400000000000004</v>
+        <v>0.52800000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2330,22 +2330,22 @@
         <v>16</v>
       </c>
       <c r="D38" s="2">
-        <v>2858</v>
+        <v>4332</v>
       </c>
       <c r="E38" s="2">
-        <v>5.0599999999999996</v>
+        <v>5.08</v>
       </c>
       <c r="F38" s="2">
-        <v>449</v>
+        <v>684</v>
       </c>
       <c r="G38" s="2">
-        <v>6.84</v>
+        <v>6.85</v>
       </c>
       <c r="H38" s="2">
-        <v>1308</v>
+        <v>2036</v>
       </c>
       <c r="I38" s="3">
-        <v>0.55900000000000005</v>
+        <v>0.55300000000000005</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2359,22 +2359,22 @@
         <v>13</v>
       </c>
       <c r="D39" s="2">
-        <v>528</v>
+        <v>810</v>
       </c>
       <c r="E39" s="2">
-        <v>2.48</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="F39" s="2">
-        <v>147</v>
+        <v>242</v>
       </c>
       <c r="G39" s="2">
-        <v>2.93</v>
+        <v>2.98</v>
       </c>
       <c r="H39" s="2">
-        <v>625</v>
+        <v>1004</v>
       </c>
       <c r="I39" s="3">
-        <v>0.56599999999999995</v>
+        <v>0.55600000000000005</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2388,22 +2388,22 @@
         <v>22</v>
       </c>
       <c r="D40" s="2">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E40" s="2">
         <v>1</v>
       </c>
       <c r="F40" s="2">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G40" s="2">
         <v>1</v>
       </c>
       <c r="H40" s="2">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="I40" s="3">
-        <v>0.56599999999999995</v>
+        <v>0.51800000000000002</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -2417,22 +2417,22 @@
         <v>16</v>
       </c>
       <c r="D41" s="2">
-        <v>1509</v>
+        <v>2288</v>
       </c>
       <c r="E41" s="2">
         <v>2.85</v>
       </c>
       <c r="F41" s="2">
-        <v>345</v>
+        <v>486</v>
       </c>
       <c r="G41" s="2">
-        <v>3.59</v>
+        <v>3.64</v>
       </c>
       <c r="H41" s="2">
-        <v>1386</v>
+        <v>2037</v>
       </c>
       <c r="I41" s="3">
-        <v>0.56399999999999995</v>
+        <v>0.54900000000000004</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2446,22 +2446,22 @@
         <v>16</v>
       </c>
       <c r="D42" s="2">
-        <v>3387</v>
+        <v>5000</v>
       </c>
       <c r="E42" s="2">
         <v>7.45</v>
       </c>
       <c r="F42" s="2">
-        <v>506</v>
+        <v>750</v>
       </c>
       <c r="G42" s="2">
-        <v>10.19</v>
+        <v>10.09</v>
       </c>
       <c r="H42" s="2">
-        <v>848</v>
+        <v>1264</v>
       </c>
       <c r="I42" s="3">
-        <v>0.53400000000000003</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -2475,22 +2475,22 @@
         <v>16</v>
       </c>
       <c r="D43" s="2">
-        <v>3183</v>
+        <v>4809</v>
       </c>
       <c r="E43" s="2">
-        <v>6.23</v>
+        <v>6.26</v>
       </c>
       <c r="F43" s="2">
-        <v>742</v>
+        <v>1189</v>
       </c>
       <c r="G43" s="2">
-        <v>7.27</v>
+        <v>7.26</v>
       </c>
       <c r="H43" s="2">
-        <v>1903</v>
+        <v>3049</v>
       </c>
       <c r="I43" s="3">
-        <v>0.56799999999999995</v>
+        <v>0.56200000000000006</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -2504,22 +2504,22 @@
         <v>11</v>
       </c>
       <c r="D44" s="2">
-        <v>112</v>
+        <v>178</v>
       </c>
       <c r="E44" s="2">
-        <v>1.63</v>
+        <v>1.52</v>
       </c>
       <c r="F44" s="2">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="G44" s="2">
-        <v>1.55</v>
+        <v>1.44</v>
       </c>
       <c r="H44" s="2">
-        <v>219</v>
+        <v>395</v>
       </c>
       <c r="I44" s="3">
-        <v>0.55700000000000005</v>
+        <v>0.55200000000000005</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -2533,22 +2533,22 @@
         <v>11</v>
       </c>
       <c r="D45" s="2">
-        <v>121</v>
+        <v>183</v>
       </c>
       <c r="E45" s="2">
         <v>1.61</v>
       </c>
       <c r="F45" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="G45" s="2">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="H45" s="2">
-        <v>364</v>
+        <v>488</v>
       </c>
       <c r="I45" s="3">
-        <v>0.56899999999999995</v>
+        <v>0.54900000000000004</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2562,22 +2562,22 @@
         <v>13</v>
       </c>
       <c r="D46" s="2">
-        <v>586</v>
+        <v>842</v>
       </c>
       <c r="E46" s="2">
-        <v>2.5099999999999998</v>
+        <v>2.59</v>
       </c>
       <c r="F46" s="2">
-        <v>139</v>
+        <v>225</v>
       </c>
       <c r="G46" s="2">
-        <v>3.15</v>
+        <v>3.26</v>
       </c>
       <c r="H46" s="2">
-        <v>594</v>
+        <v>949</v>
       </c>
       <c r="I46" s="3">
-        <v>0.58799999999999997</v>
+        <v>0.57399999999999995</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -2591,22 +2591,22 @@
         <v>11</v>
       </c>
       <c r="D47" s="2">
-        <v>116</v>
+        <v>172</v>
       </c>
       <c r="E47" s="2">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="F47" s="2">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="G47" s="2">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="H47" s="2">
-        <v>377</v>
+        <v>554</v>
       </c>
       <c r="I47" s="3">
-        <v>0.55200000000000005</v>
+        <v>0.56100000000000005</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2620,22 +2620,22 @@
         <v>13</v>
       </c>
       <c r="D48" s="2">
-        <v>707</v>
+        <v>1056</v>
       </c>
       <c r="E48" s="2">
-        <v>3.06</v>
+        <v>3.09</v>
       </c>
       <c r="F48" s="2">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="G48" s="2">
-        <v>3.87</v>
+        <v>3.95</v>
       </c>
       <c r="H48" s="2">
-        <v>362</v>
+        <v>512</v>
       </c>
       <c r="I48" s="3">
-        <v>0.52800000000000002</v>
+        <v>0.53100000000000003</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -2649,22 +2649,22 @@
         <v>11</v>
       </c>
       <c r="D49" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="E49" s="2">
         <v>1</v>
       </c>
       <c r="F49" s="2">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="G49" s="2">
         <v>1</v>
       </c>
       <c r="H49" s="2">
-        <v>302</v>
+        <v>446</v>
       </c>
       <c r="I49" s="3">
-        <v>0.58299999999999996</v>
+        <v>0.56299999999999994</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2678,22 +2678,22 @@
         <v>13</v>
       </c>
       <c r="D50" s="2">
-        <v>530</v>
+        <v>802</v>
       </c>
       <c r="E50" s="2">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="F50" s="2">
-        <v>147</v>
+        <v>215</v>
       </c>
       <c r="G50" s="2">
-        <v>3.22</v>
+        <v>3.23</v>
       </c>
       <c r="H50" s="2">
-        <v>660</v>
+        <v>1010</v>
       </c>
       <c r="I50" s="3">
-        <v>0.53</v>
+        <v>0.53200000000000003</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2707,22 +2707,22 @@
         <v>13</v>
       </c>
       <c r="D51" s="2">
-        <v>789</v>
+        <v>1163</v>
       </c>
       <c r="E51" s="2">
-        <v>3.37</v>
+        <v>3.38</v>
       </c>
       <c r="F51" s="2">
-        <v>127</v>
+        <v>200</v>
       </c>
       <c r="G51" s="2">
-        <v>4.51</v>
+        <v>4.55</v>
       </c>
       <c r="H51" s="2">
-        <v>589</v>
+        <v>958</v>
       </c>
       <c r="I51" s="3">
-        <v>0.59299999999999997</v>
+        <v>0.59899999999999998</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -2736,16 +2736,16 @@
         <v>22</v>
       </c>
       <c r="D52" s="2">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="E52" s="2">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="F52" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G52" s="2">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="H52" s="2">
         <v>15</v>
@@ -2765,22 +2765,22 @@
         <v>16</v>
       </c>
       <c r="D53" s="2">
-        <v>3254</v>
+        <v>4895</v>
       </c>
       <c r="E53" s="2">
-        <v>7.24</v>
+        <v>7.25</v>
       </c>
       <c r="F53" s="2">
-        <v>337</v>
+        <v>482</v>
       </c>
       <c r="G53" s="2">
-        <v>10.35</v>
+        <v>10.43</v>
       </c>
       <c r="H53" s="2">
-        <v>303</v>
+        <v>431</v>
       </c>
       <c r="I53" s="3">
-        <v>0.48499999999999999</v>
+        <v>0.47799999999999998</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2794,22 +2794,22 @@
         <v>16</v>
       </c>
       <c r="D54" s="2">
-        <v>3385</v>
+        <v>5027</v>
       </c>
       <c r="E54" s="2">
-        <v>6.86</v>
+        <v>6.84</v>
       </c>
       <c r="F54" s="2">
-        <v>1317</v>
+        <v>2039</v>
       </c>
       <c r="G54" s="2">
-        <v>7.21</v>
+        <v>7.23</v>
       </c>
       <c r="H54" s="2">
-        <v>2136</v>
+        <v>3334</v>
       </c>
       <c r="I54" s="3">
-        <v>0.55600000000000005</v>
+        <v>0.55200000000000005</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2823,22 +2823,22 @@
         <v>11</v>
       </c>
       <c r="D55" s="2">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="E55" s="2">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="F55" s="2">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="G55" s="2">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="H55" s="2">
-        <v>250</v>
+        <v>419</v>
       </c>
       <c r="I55" s="3">
-        <v>0.59599999999999997</v>
+        <v>0.57299999999999995</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -2852,22 +2852,22 @@
         <v>11</v>
       </c>
       <c r="D56" s="2">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c r="E56" s="2">
-        <v>1.55</v>
+        <v>1.43</v>
       </c>
       <c r="F56" s="2">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G56" s="2">
-        <v>1.1399999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="H56" s="2">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="I56" s="3">
-        <v>0.44</v>
+        <v>0.58699999999999997</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -2881,22 +2881,22 @@
         <v>16</v>
       </c>
       <c r="D57" s="2">
-        <v>3320</v>
+        <v>4953</v>
       </c>
       <c r="E57" s="2">
-        <v>7.13</v>
+        <v>7.17</v>
       </c>
       <c r="F57" s="2">
-        <v>420</v>
+        <v>642</v>
       </c>
       <c r="G57" s="2">
-        <v>9.89</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="H57" s="2">
-        <v>629</v>
+        <v>917</v>
       </c>
       <c r="I57" s="3">
-        <v>0.52100000000000002</v>
+        <v>0.51500000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -2910,22 +2910,22 @@
         <v>16</v>
       </c>
       <c r="D58" s="2">
-        <v>2872</v>
+        <v>4354</v>
       </c>
       <c r="E58" s="2">
-        <v>5.32</v>
+        <v>5.28</v>
       </c>
       <c r="F58" s="2">
-        <v>415</v>
+        <v>611</v>
       </c>
       <c r="G58" s="2">
-        <v>7.43</v>
+        <v>7.49</v>
       </c>
       <c r="H58" s="2">
-        <v>1137</v>
+        <v>1794</v>
       </c>
       <c r="I58" s="3">
-        <v>0.54400000000000004</v>
+        <v>0.54600000000000004</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2939,22 +2939,22 @@
         <v>13</v>
       </c>
       <c r="D59" s="2">
-        <v>1141</v>
+        <v>1678</v>
       </c>
       <c r="E59" s="2">
-        <v>7.73</v>
+        <v>7.7</v>
       </c>
       <c r="F59" s="2">
-        <v>251</v>
+        <v>376</v>
       </c>
       <c r="G59" s="2">
-        <v>10.51</v>
+        <v>10.34</v>
       </c>
       <c r="H59" s="2">
-        <v>257</v>
+        <v>418</v>
       </c>
       <c r="I59" s="3">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -2968,22 +2968,22 @@
         <v>16</v>
       </c>
       <c r="D60" s="2">
-        <v>3056</v>
+        <v>4612</v>
       </c>
       <c r="E60" s="2">
-        <v>5.87</v>
+        <v>5.86</v>
       </c>
       <c r="F60" s="2">
-        <v>552</v>
+        <v>804</v>
       </c>
       <c r="G60" s="2">
-        <v>7.58</v>
+        <v>7.65</v>
       </c>
       <c r="H60" s="2">
-        <v>1338</v>
+        <v>1950</v>
       </c>
       <c r="I60" s="3">
-        <v>0.55900000000000005</v>
+        <v>0.55200000000000005</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2997,22 +2997,22 @@
         <v>13</v>
       </c>
       <c r="D61" s="2">
-        <v>1123</v>
+        <v>1710</v>
       </c>
       <c r="E61" s="2">
-        <v>6.52</v>
+        <v>6.5</v>
       </c>
       <c r="F61" s="2">
-        <v>302</v>
+        <v>471</v>
       </c>
       <c r="G61" s="2">
-        <v>8.2200000000000006</v>
+        <v>8.1</v>
       </c>
       <c r="H61" s="2">
-        <v>860</v>
+        <v>1353</v>
       </c>
       <c r="I61" s="3">
-        <v>0.54700000000000004</v>
+        <v>0.53400000000000003</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -3026,22 +3026,22 @@
         <v>16</v>
       </c>
       <c r="D62" s="2">
-        <v>2633</v>
+        <v>3917</v>
       </c>
       <c r="E62" s="2">
-        <v>4.4800000000000004</v>
+        <v>4.51</v>
       </c>
       <c r="F62" s="2">
-        <v>405</v>
+        <v>594</v>
       </c>
       <c r="G62" s="2">
         <v>6.34</v>
       </c>
       <c r="H62" s="2">
-        <v>1183</v>
+        <v>1789</v>
       </c>
       <c r="I62" s="3">
-        <v>0.50700000000000001</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -3055,19 +3055,19 @@
         <v>16</v>
       </c>
       <c r="D63" s="2">
-        <v>3296</v>
+        <v>4952</v>
       </c>
       <c r="E63" s="2">
-        <v>6.39</v>
+        <v>6.42</v>
       </c>
       <c r="F63" s="2">
-        <v>819</v>
+        <v>1286</v>
       </c>
       <c r="G63" s="2">
-        <v>7.75</v>
+        <v>7.7</v>
       </c>
       <c r="H63" s="2">
-        <v>2162</v>
+        <v>3481</v>
       </c>
       <c r="I63" s="3">
         <v>0.54500000000000004</v>
@@ -3084,22 +3084,22 @@
         <v>13</v>
       </c>
       <c r="D64" s="2">
-        <v>716</v>
+        <v>1034</v>
       </c>
       <c r="E64" s="2">
-        <v>2.96</v>
+        <v>2.97</v>
       </c>
       <c r="F64" s="2">
-        <v>155</v>
+        <v>208</v>
       </c>
       <c r="G64" s="2">
-        <v>3.72</v>
+        <v>3.63</v>
       </c>
       <c r="H64" s="2">
-        <v>599</v>
+        <v>850</v>
       </c>
       <c r="I64" s="3">
-        <v>0.56299999999999994</v>
+        <v>0.56399999999999995</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -3113,22 +3113,22 @@
         <v>16</v>
       </c>
       <c r="D65" s="2">
-        <v>3296</v>
+        <v>4883</v>
       </c>
       <c r="E65" s="2">
-        <v>7.02</v>
+        <v>7.01</v>
       </c>
       <c r="F65" s="2">
-        <v>1053</v>
+        <v>1576</v>
       </c>
       <c r="G65" s="2">
-        <v>8.11</v>
+        <v>7.97</v>
       </c>
       <c r="H65" s="2">
-        <v>2429</v>
+        <v>3745</v>
       </c>
       <c r="I65" s="3">
-        <v>0.55700000000000005</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -3142,22 +3142,22 @@
         <v>16</v>
       </c>
       <c r="D66" s="2">
-        <v>2320</v>
+        <v>3475</v>
       </c>
       <c r="E66" s="2">
-        <v>4.0199999999999996</v>
+        <v>4.05</v>
       </c>
       <c r="F66" s="2">
-        <v>167</v>
+        <v>260</v>
       </c>
       <c r="G66" s="2">
-        <v>6.42</v>
+        <v>6.49</v>
       </c>
       <c r="H66" s="2">
-        <v>513</v>
+        <v>831</v>
       </c>
       <c r="I66" s="3">
-        <v>0.52</v>
+        <v>0.52500000000000002</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -3171,22 +3171,22 @@
         <v>11</v>
       </c>
       <c r="D67" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="E67" s="2">
         <v>1</v>
       </c>
       <c r="F67" s="2">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="G67" s="2">
         <v>1</v>
       </c>
       <c r="H67" s="2">
-        <v>242</v>
+        <v>397</v>
       </c>
       <c r="I67" s="3">
-        <v>0.55800000000000005</v>
+        <v>0.57199999999999995</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3200,22 +3200,22 @@
         <v>13</v>
       </c>
       <c r="D68" s="2">
-        <v>446</v>
+        <v>667</v>
       </c>
       <c r="E68" s="2">
-        <v>1.99</v>
+        <v>2.08</v>
       </c>
       <c r="F68" s="2">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="G68" s="2">
-        <v>2.4900000000000002</v>
+        <v>2.58</v>
       </c>
       <c r="H68" s="2">
-        <v>468</v>
+        <v>717</v>
       </c>
       <c r="I68" s="3">
-        <v>0.56799999999999995</v>
+        <v>0.55900000000000005</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -3229,22 +3229,22 @@
         <v>16</v>
       </c>
       <c r="D69" s="2">
-        <v>2835</v>
+        <v>4257</v>
       </c>
       <c r="E69" s="2">
-        <v>4.6900000000000004</v>
+        <v>4.75</v>
       </c>
       <c r="F69" s="2">
-        <v>643</v>
+        <v>941</v>
       </c>
       <c r="G69" s="2">
-        <v>6.14</v>
+        <v>6.31</v>
       </c>
       <c r="H69" s="2">
-        <v>1926</v>
+        <v>2868</v>
       </c>
       <c r="I69" s="3">
-        <v>0.55600000000000005</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3258,22 +3258,22 @@
         <v>13</v>
       </c>
       <c r="D70" s="2">
-        <v>594</v>
+        <v>877</v>
       </c>
       <c r="E70" s="2">
         <v>2.63</v>
       </c>
       <c r="F70" s="2">
-        <v>140</v>
+        <v>207</v>
       </c>
       <c r="G70" s="2">
-        <v>3.05</v>
+        <v>3.03</v>
       </c>
       <c r="H70" s="2">
-        <v>664</v>
+        <v>962</v>
       </c>
       <c r="I70" s="3">
-        <v>0.59499999999999997</v>
+        <v>0.58799999999999997</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -3287,22 +3287,22 @@
         <v>16</v>
       </c>
       <c r="D71" s="2">
-        <v>1809</v>
+        <v>2663</v>
       </c>
       <c r="E71" s="2">
-        <v>3.38</v>
+        <v>3.37</v>
       </c>
       <c r="F71" s="2">
-        <v>164</v>
+        <v>247</v>
       </c>
       <c r="G71" s="2">
-        <v>5.0199999999999996</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="H71" s="2">
-        <v>701</v>
+        <v>985</v>
       </c>
       <c r="I71" s="3">
-        <v>0.52900000000000003</v>
+        <v>0.51600000000000001</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -3316,22 +3316,22 @@
         <v>11</v>
       </c>
       <c r="D72" s="2">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c r="E72" s="2">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="F72" s="2">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="G72" s="2">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="H72" s="2">
-        <v>215</v>
+        <v>391</v>
       </c>
       <c r="I72" s="3">
-        <v>0.54400000000000004</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -3345,22 +3345,22 @@
         <v>16</v>
       </c>
       <c r="D73" s="2">
-        <v>2320</v>
+        <v>3438</v>
       </c>
       <c r="E73" s="2">
-        <v>4.09</v>
+        <v>4.08</v>
       </c>
       <c r="F73" s="2">
-        <v>296</v>
+        <v>436</v>
       </c>
       <c r="G73" s="2">
-        <v>5.76</v>
+        <v>5.75</v>
       </c>
       <c r="H73" s="2">
-        <v>1037</v>
+        <v>1448</v>
       </c>
       <c r="I73" s="3">
-        <v>0.54900000000000004</v>
+        <v>0.53400000000000003</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -3374,22 +3374,22 @@
         <v>16</v>
       </c>
       <c r="D74" s="2">
-        <v>3305</v>
+        <v>5023</v>
       </c>
       <c r="E74" s="2">
-        <v>7.32</v>
+        <v>7.31</v>
       </c>
       <c r="F74" s="2">
-        <v>382</v>
+        <v>562</v>
       </c>
       <c r="G74" s="2">
-        <v>10.54</v>
+        <v>10.51</v>
       </c>
       <c r="H74" s="2">
-        <v>374</v>
+        <v>599</v>
       </c>
       <c r="I74" s="3">
-        <v>0.55100000000000005</v>
+        <v>0.54800000000000004</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -3403,22 +3403,22 @@
         <v>16</v>
       </c>
       <c r="D75" s="2">
-        <v>3156</v>
+        <v>4689</v>
       </c>
       <c r="E75" s="2">
-        <v>5.78</v>
+        <v>5.83</v>
       </c>
       <c r="F75" s="2">
-        <v>740</v>
+        <v>1107</v>
       </c>
       <c r="G75" s="2">
-        <v>7.21</v>
+        <v>7.16</v>
       </c>
       <c r="H75" s="2">
-        <v>2237</v>
+        <v>3469</v>
       </c>
       <c r="I75" s="3">
-        <v>0.57399999999999995</v>
+        <v>0.55900000000000005</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -3432,22 +3432,22 @@
         <v>11</v>
       </c>
       <c r="D76" s="2">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="E76" s="2">
+        <v>1.28</v>
+      </c>
+      <c r="F76" s="2">
+        <v>67</v>
+      </c>
+      <c r="G76" s="2">
         <v>1.27</v>
       </c>
-      <c r="F76" s="2">
-        <v>54</v>
-      </c>
-      <c r="G76" s="2">
-        <v>1.24</v>
-      </c>
       <c r="H76" s="2">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="I76" s="3">
-        <v>0.48599999999999999</v>
+        <v>0.503</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -3461,22 +3461,22 @@
         <v>16</v>
       </c>
       <c r="D77" s="2">
-        <v>1057</v>
+        <v>1582</v>
       </c>
       <c r="E77" s="2">
         <v>2.12</v>
       </c>
       <c r="F77" s="2">
-        <v>391</v>
+        <v>583</v>
       </c>
       <c r="G77" s="2">
-        <v>2.3199999999999998</v>
+        <v>2.35</v>
       </c>
       <c r="H77" s="2">
-        <v>1590</v>
+        <v>2487</v>
       </c>
       <c r="I77" s="3">
-        <v>0.56200000000000006</v>
+        <v>0.55400000000000005</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -3490,22 +3490,22 @@
         <v>16</v>
       </c>
       <c r="D78" s="2">
-        <v>2214</v>
+        <v>3323</v>
       </c>
       <c r="E78" s="2">
-        <v>4.04</v>
+        <v>4</v>
       </c>
       <c r="F78" s="2">
-        <v>174</v>
+        <v>249</v>
       </c>
       <c r="G78" s="2">
-        <v>6.36</v>
+        <v>6.3</v>
       </c>
       <c r="H78" s="2">
-        <v>530</v>
+        <v>818</v>
       </c>
       <c r="I78" s="3">
-        <v>0.55500000000000005</v>
+        <v>0.53700000000000003</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3519,22 +3519,22 @@
         <v>13</v>
       </c>
       <c r="D79" s="2">
-        <v>524</v>
+        <v>758</v>
       </c>
       <c r="E79" s="2">
-        <v>2.2999999999999998</v>
+        <v>2.36</v>
       </c>
       <c r="F79" s="2">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="G79" s="2">
-        <v>2.9</v>
+        <v>2.89</v>
       </c>
       <c r="H79" s="2">
-        <v>375</v>
+        <v>582</v>
       </c>
       <c r="I79" s="3">
-        <v>0.50900000000000001</v>
+        <v>0.503</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -3548,22 +3548,22 @@
         <v>11</v>
       </c>
       <c r="D80" s="2">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="E80" s="2">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="F80" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="G80" s="2">
-        <v>1.75</v>
+        <v>1.66</v>
       </c>
       <c r="H80" s="2">
-        <v>365</v>
+        <v>507</v>
       </c>
       <c r="I80" s="3">
-        <v>0.56399999999999995</v>
+        <v>0.54800000000000004</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3577,19 +3577,19 @@
         <v>13</v>
       </c>
       <c r="D81" s="2">
-        <v>539</v>
+        <v>797</v>
       </c>
       <c r="E81" s="2">
-        <v>2.54</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="F81" s="2">
-        <v>118</v>
+        <v>179</v>
       </c>
       <c r="G81" s="2">
-        <v>2.97</v>
+        <v>2.94</v>
       </c>
       <c r="H81" s="2">
-        <v>436</v>
+        <v>693</v>
       </c>
       <c r="I81" s="3">
         <v>0.53</v>
@@ -3606,19 +3606,19 @@
         <v>13</v>
       </c>
       <c r="D82" s="2">
-        <v>911</v>
+        <v>1379</v>
       </c>
       <c r="E82" s="2">
-        <v>4</v>
+        <v>4.08</v>
       </c>
       <c r="F82" s="2">
-        <v>128</v>
+        <v>187</v>
       </c>
       <c r="G82" s="2">
-        <v>5.41</v>
+        <v>5.47</v>
       </c>
       <c r="H82" s="2">
-        <v>336</v>
+        <v>491</v>
       </c>
       <c r="I82" s="3">
         <v>0.55400000000000005</v>
@@ -3635,22 +3635,22 @@
         <v>22</v>
       </c>
       <c r="D83" s="2">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E83" s="2">
         <v>1</v>
       </c>
       <c r="F83" s="2">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G83" s="2">
         <v>1</v>
       </c>
       <c r="H83" s="2">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="I83" s="3">
-        <v>0.55600000000000005</v>
+        <v>0.52900000000000003</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3664,22 +3664,22 @@
         <v>13</v>
       </c>
       <c r="D84" s="2">
-        <v>1006</v>
+        <v>1586</v>
       </c>
       <c r="E84" s="2">
-        <v>5.81</v>
+        <v>5.8</v>
       </c>
       <c r="F84" s="2">
-        <v>122</v>
+        <v>193</v>
       </c>
       <c r="G84" s="2">
-        <v>8.86</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="H84" s="2">
-        <v>168</v>
+        <v>263</v>
       </c>
       <c r="I84" s="3">
-        <v>0.50600000000000001</v>
+        <v>0.48299999999999998</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -3693,22 +3693,22 @@
         <v>11</v>
       </c>
       <c r="D85" s="2">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="E85" s="2">
         <v>1</v>
       </c>
       <c r="F85" s="2">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="G85" s="2">
         <v>1</v>
       </c>
       <c r="H85" s="2">
-        <v>286</v>
+        <v>418</v>
       </c>
       <c r="I85" s="3">
-        <v>0.55900000000000005</v>
+        <v>0.54800000000000004</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3722,22 +3722,22 @@
         <v>13</v>
       </c>
       <c r="D86" s="2">
-        <v>395</v>
+        <v>582</v>
       </c>
       <c r="E86" s="2">
-        <v>2.17</v>
+        <v>2.1</v>
       </c>
       <c r="F86" s="2">
-        <v>189</v>
+        <v>272</v>
       </c>
       <c r="G86" s="2">
-        <v>2.4900000000000002</v>
+        <v>2.41</v>
       </c>
       <c r="H86" s="2">
-        <v>939</v>
+        <v>1362</v>
       </c>
       <c r="I86" s="3">
-        <v>0.56999999999999995</v>
+        <v>0.57099999999999995</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -3751,22 +3751,22 @@
         <v>16</v>
       </c>
       <c r="D87" s="2">
-        <v>3441</v>
+        <v>5063</v>
       </c>
       <c r="E87" s="2">
-        <v>9.18</v>
+        <v>9.14</v>
       </c>
       <c r="F87" s="2">
-        <v>678</v>
+        <v>979</v>
       </c>
       <c r="G87" s="2">
-        <v>11.81</v>
+        <v>11.75</v>
       </c>
       <c r="H87" s="2">
-        <v>437</v>
+        <v>630</v>
       </c>
       <c r="I87" s="3">
-        <v>0.52200000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -3780,22 +3780,22 @@
         <v>16</v>
       </c>
       <c r="D88" s="2">
-        <v>2956</v>
+        <v>4432</v>
       </c>
       <c r="E88" s="2">
-        <v>5.36</v>
+        <v>5.3</v>
       </c>
       <c r="F88" s="2">
-        <v>198</v>
+        <v>270</v>
       </c>
       <c r="G88" s="2">
-        <v>8.83</v>
+        <v>8.89</v>
       </c>
       <c r="H88" s="2">
-        <v>333</v>
+        <v>480</v>
       </c>
       <c r="I88" s="3">
-        <v>0.52</v>
+        <v>0.51500000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -3809,22 +3809,22 @@
         <v>16</v>
       </c>
       <c r="D89" s="2">
-        <v>3091</v>
+        <v>4679</v>
       </c>
       <c r="E89" s="2">
-        <v>5.76</v>
+        <v>5.72</v>
       </c>
       <c r="F89" s="2">
-        <v>574</v>
+        <v>842</v>
       </c>
       <c r="G89" s="2">
-        <v>7.65</v>
+        <v>7.68</v>
       </c>
       <c r="H89" s="2">
-        <v>1738</v>
+        <v>2500</v>
       </c>
       <c r="I89" s="3">
-        <v>0.54500000000000004</v>
+        <v>0.54200000000000004</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -3838,22 +3838,22 @@
         <v>16</v>
       </c>
       <c r="D90" s="2">
-        <v>3211</v>
+        <v>4818</v>
       </c>
       <c r="E90" s="2">
-        <v>6.38</v>
+        <v>6.33</v>
       </c>
       <c r="F90" s="2">
-        <v>784</v>
+        <v>1141</v>
       </c>
       <c r="G90" s="2">
-        <v>8.1300000000000008</v>
+        <v>8.11</v>
       </c>
       <c r="H90" s="2">
-        <v>2204</v>
+        <v>3428</v>
       </c>
       <c r="I90" s="3">
-        <v>0.54400000000000004</v>
+        <v>0.54600000000000004</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3867,22 +3867,22 @@
         <v>13</v>
       </c>
       <c r="D91" s="2">
-        <v>463</v>
+        <v>670</v>
       </c>
       <c r="E91" s="2">
-        <v>2.19</v>
+        <v>2.21</v>
       </c>
       <c r="F91" s="2">
-        <v>139</v>
+        <v>206</v>
       </c>
       <c r="G91" s="2">
-        <v>2.52</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="H91" s="2">
-        <v>672</v>
+        <v>1008</v>
       </c>
       <c r="I91" s="3">
-        <v>0.56699999999999995</v>
+        <v>0.55900000000000005</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -3896,22 +3896,22 @@
         <v>16</v>
       </c>
       <c r="D92" s="2">
-        <v>3248</v>
+        <v>4852</v>
       </c>
       <c r="E92" s="2">
-        <v>6.99</v>
+        <v>7.03</v>
       </c>
       <c r="F92" s="2">
-        <v>454</v>
+        <v>676</v>
       </c>
       <c r="G92" s="2">
-        <v>9.59</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="H92" s="2">
-        <v>979</v>
+        <v>1473</v>
       </c>
       <c r="I92" s="3">
-        <v>0.50900000000000001</v>
+        <v>0.51200000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -3925,22 +3925,22 @@
         <v>16</v>
       </c>
       <c r="D93" s="2">
-        <v>3255</v>
+        <v>4932</v>
       </c>
       <c r="E93" s="2">
         <v>7.16</v>
       </c>
       <c r="F93" s="2">
-        <v>263</v>
+        <v>393</v>
       </c>
       <c r="G93" s="2">
-        <v>10.69</v>
+        <v>10.88</v>
       </c>
       <c r="H93" s="2">
-        <v>203</v>
+        <v>295</v>
       </c>
       <c r="I93" s="3">
-        <v>0.51200000000000001</v>
+        <v>0.48499999999999999</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -3954,22 +3954,22 @@
         <v>16</v>
       </c>
       <c r="D94" s="2">
-        <v>2065</v>
+        <v>3098</v>
       </c>
       <c r="E94" s="2">
-        <v>3.84</v>
+        <v>3.81</v>
       </c>
       <c r="F94" s="2">
-        <v>174</v>
+        <v>254</v>
       </c>
       <c r="G94" s="2">
         <v>6.04</v>
       </c>
       <c r="H94" s="2">
-        <v>551</v>
+        <v>801</v>
       </c>
       <c r="I94" s="3">
-        <v>0.53400000000000003</v>
+        <v>0.51700000000000002</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -3983,22 +3983,22 @@
         <v>16</v>
       </c>
       <c r="D95" s="2">
-        <v>2580</v>
+        <v>3817</v>
       </c>
       <c r="E95" s="2">
         <v>4.32</v>
       </c>
       <c r="F95" s="2">
-        <v>307</v>
+        <v>447</v>
       </c>
       <c r="G95" s="2">
-        <v>6.3</v>
+        <v>6.28</v>
       </c>
       <c r="H95" s="2">
-        <v>953</v>
+        <v>1412</v>
       </c>
       <c r="I95" s="3">
-        <v>0.50800000000000001</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -4012,22 +4012,22 @@
         <v>16</v>
       </c>
       <c r="D96" s="2">
-        <v>2536</v>
+        <v>3750</v>
       </c>
       <c r="E96" s="2">
         <v>4.42</v>
       </c>
       <c r="F96" s="2">
-        <v>253</v>
+        <v>350</v>
       </c>
       <c r="G96" s="2">
-        <v>6.81</v>
+        <v>6.82</v>
       </c>
       <c r="H96" s="2">
-        <v>765</v>
+        <v>1129</v>
       </c>
       <c r="I96" s="3">
-        <v>0.53700000000000003</v>
+        <v>0.53900000000000003</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -4041,22 +4041,22 @@
         <v>16</v>
       </c>
       <c r="D97" s="2">
-        <v>3416</v>
+        <v>5139</v>
       </c>
       <c r="E97" s="2">
-        <v>8.94</v>
+        <v>8.92</v>
       </c>
       <c r="F97" s="2">
-        <v>606</v>
+        <v>913</v>
       </c>
       <c r="G97" s="2">
-        <v>11.81</v>
+        <v>11.8</v>
       </c>
       <c r="H97" s="2">
-        <v>304</v>
+        <v>552</v>
       </c>
       <c r="I97" s="3">
-        <v>0.57199999999999995</v>
+        <v>0.54700000000000004</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -4070,22 +4070,22 @@
         <v>11</v>
       </c>
       <c r="D98" s="2">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="E98" s="2">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="F98" s="2">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="G98" s="2">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="H98" s="2">
-        <v>338</v>
+        <v>518</v>
       </c>
       <c r="I98" s="3">
-        <v>0.54700000000000004</v>
+        <v>0.56399999999999995</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -4099,22 +4099,22 @@
         <v>11</v>
       </c>
       <c r="D99" s="2">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="E99" s="2">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="F99" s="2">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="G99" s="2">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="H99" s="2">
-        <v>175</v>
+        <v>269</v>
       </c>
       <c r="I99" s="3">
-        <v>0.53700000000000003</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4128,22 +4128,22 @@
         <v>13</v>
       </c>
       <c r="D100" s="2">
-        <v>351</v>
+        <v>517</v>
       </c>
       <c r="E100" s="2">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="F100" s="2">
-        <v>130</v>
+        <v>188</v>
       </c>
       <c r="G100" s="2">
-        <v>2.13</v>
+        <v>2.14</v>
       </c>
       <c r="H100" s="2">
-        <v>594</v>
+        <v>876</v>
       </c>
       <c r="I100" s="3">
-        <v>0.52700000000000002</v>
+        <v>0.53100000000000003</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -4157,22 +4157,22 @@
         <v>11</v>
       </c>
       <c r="D101" s="2">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c r="E101" s="2">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="F101" s="2">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="G101" s="2">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="H101" s="2">
-        <v>290</v>
+        <v>542</v>
       </c>
       <c r="I101" s="3">
-        <v>0.5</v>
+        <v>0.53300000000000003</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -4186,22 +4186,22 @@
         <v>22</v>
       </c>
       <c r="D102" s="2">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="E102" s="2">
         <v>1</v>
       </c>
       <c r="F102" s="2">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="G102" s="2">
         <v>1</v>
       </c>
       <c r="H102" s="2">
-        <v>109</v>
+        <v>185</v>
       </c>
       <c r="I102" s="3">
-        <v>0.46800000000000003</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -4215,22 +4215,22 @@
         <v>16</v>
       </c>
       <c r="D103" s="2">
-        <v>2615</v>
+        <v>3975</v>
       </c>
       <c r="E103" s="2">
         <v>4.4800000000000004</v>
       </c>
       <c r="F103" s="2">
-        <v>481</v>
+        <v>715</v>
       </c>
       <c r="G103" s="2">
-        <v>6.07</v>
+        <v>6.12</v>
       </c>
       <c r="H103" s="2">
-        <v>1649</v>
+        <v>2629</v>
       </c>
       <c r="I103" s="3">
-        <v>0.55700000000000005</v>
+        <v>0.55300000000000005</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -4244,19 +4244,19 @@
         <v>16</v>
       </c>
       <c r="D104" s="2">
-        <v>1859</v>
+        <v>2726</v>
       </c>
       <c r="E104" s="2">
-        <v>3.21</v>
+        <v>3.25</v>
       </c>
       <c r="F104" s="2">
-        <v>574</v>
+        <v>865</v>
       </c>
       <c r="G104" s="2">
-        <v>4</v>
+        <v>3.96</v>
       </c>
       <c r="H104" s="2">
-        <v>2087</v>
+        <v>3263</v>
       </c>
       <c r="I104" s="3">
         <v>0.55800000000000005</v>
@@ -4273,22 +4273,22 @@
         <v>13</v>
       </c>
       <c r="D105" s="2">
-        <v>821</v>
+        <v>1229</v>
       </c>
       <c r="E105" s="2">
-        <v>3.46</v>
+        <v>3.52</v>
       </c>
       <c r="F105" s="2">
-        <v>390</v>
+        <v>573</v>
       </c>
       <c r="G105" s="2">
-        <v>3.91</v>
+        <v>3.96</v>
       </c>
       <c r="H105" s="2">
-        <v>1403</v>
+        <v>2087</v>
       </c>
       <c r="I105" s="3">
-        <v>0.56200000000000006</v>
+        <v>0.55300000000000005</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -4302,22 +4302,22 @@
         <v>16</v>
       </c>
       <c r="D106" s="2">
-        <v>2777</v>
+        <v>4202</v>
       </c>
       <c r="E106" s="2">
-        <v>4.8099999999999996</v>
+        <v>4.78</v>
       </c>
       <c r="F106" s="2">
-        <v>449</v>
+        <v>642</v>
       </c>
       <c r="G106" s="2">
-        <v>6.5</v>
+        <v>6.63</v>
       </c>
       <c r="H106" s="2">
-        <v>1248</v>
+        <v>1829</v>
       </c>
       <c r="I106" s="3">
-        <v>0.56399999999999995</v>
+        <v>0.56299999999999994</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4331,22 +4331,22 @@
         <v>13</v>
       </c>
       <c r="D107" s="2">
-        <v>1148</v>
+        <v>1720</v>
       </c>
       <c r="E107" s="2">
-        <v>7.98</v>
+        <v>8.01</v>
       </c>
       <c r="F107" s="2">
-        <v>149</v>
+        <v>225</v>
       </c>
       <c r="G107" s="2">
-        <v>11.8</v>
+        <v>11.81</v>
       </c>
       <c r="H107" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I107" s="3">
-        <v>0.39500000000000002</v>
+        <v>0.38300000000000001</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4360,22 +4360,22 @@
         <v>13</v>
       </c>
       <c r="D108" s="2">
-        <v>384</v>
+        <v>574</v>
       </c>
       <c r="E108" s="2">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="F108" s="2">
-        <v>176</v>
+        <v>262</v>
       </c>
       <c r="G108" s="2">
-        <v>2.23</v>
+        <v>2.25</v>
       </c>
       <c r="H108" s="2">
-        <v>823</v>
+        <v>1291</v>
       </c>
       <c r="I108" s="3">
-        <v>0.55000000000000004</v>
+        <v>0.54400000000000004</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -4389,22 +4389,22 @@
         <v>16</v>
       </c>
       <c r="D109" s="2">
-        <v>3294</v>
+        <v>4895</v>
       </c>
       <c r="E109" s="2">
         <v>6.37</v>
       </c>
       <c r="F109" s="2">
-        <v>680</v>
+        <v>961</v>
       </c>
       <c r="G109" s="2">
-        <v>8.0500000000000007</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="H109" s="2">
-        <v>1682</v>
+        <v>2497</v>
       </c>
       <c r="I109" s="3">
-        <v>0.54500000000000004</v>
+        <v>0.54600000000000004</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -4418,22 +4418,22 @@
         <v>16</v>
       </c>
       <c r="D110" s="2">
-        <v>2310</v>
+        <v>3450</v>
       </c>
       <c r="E110" s="2">
-        <v>4.07</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="F110" s="2">
-        <v>181</v>
+        <v>266</v>
       </c>
       <c r="G110" s="2">
-        <v>6.6</v>
+        <v>6.69</v>
       </c>
       <c r="H110" s="2">
-        <v>554</v>
+        <v>855</v>
       </c>
       <c r="I110" s="3">
-        <v>0.56499999999999995</v>
+        <v>0.55600000000000005</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -4447,22 +4447,22 @@
         <v>11</v>
       </c>
       <c r="D111" s="2">
-        <v>113</v>
+        <v>178</v>
       </c>
       <c r="E111" s="2">
         <v>1.54</v>
       </c>
       <c r="F111" s="2">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="G111" s="2">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="H111" s="2">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I111" s="3">
-        <v>0.5</v>
+        <v>0.61299999999999999</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -4476,22 +4476,22 @@
         <v>11</v>
       </c>
       <c r="D112" s="2">
-        <v>104</v>
+        <v>158</v>
       </c>
       <c r="E112" s="2">
-        <v>1.1499999999999999</v>
+        <v>1.21</v>
       </c>
       <c r="F112" s="2">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="G112" s="2">
-        <v>1.1100000000000001</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="H112" s="2">
-        <v>208</v>
+        <v>339</v>
       </c>
       <c r="I112" s="3">
-        <v>0.52400000000000002</v>
+        <v>0.53700000000000003</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -4505,22 +4505,22 @@
         <v>16</v>
       </c>
       <c r="D113" s="2">
-        <v>3229</v>
+        <v>4929</v>
       </c>
       <c r="E113" s="2">
         <v>7.16</v>
       </c>
       <c r="F113" s="2">
-        <v>317</v>
+        <v>509</v>
       </c>
       <c r="G113" s="2">
-        <v>10.210000000000001</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="H113" s="2">
-        <v>614</v>
+        <v>1028</v>
       </c>
       <c r="I113" s="3">
-        <v>0.59099999999999997</v>
+        <v>0.56100000000000005</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -4534,22 +4534,22 @@
         <v>16</v>
       </c>
       <c r="D114" s="2">
-        <v>3283</v>
+        <v>4858</v>
       </c>
       <c r="E114" s="2">
-        <v>7.21</v>
+        <v>7.13</v>
       </c>
       <c r="F114" s="2">
-        <v>473</v>
+        <v>657</v>
       </c>
       <c r="G114" s="2">
-        <v>9.44</v>
+        <v>9.4</v>
       </c>
       <c r="H114" s="2">
-        <v>780</v>
+        <v>1074</v>
       </c>
       <c r="I114" s="3">
-        <v>0.51900000000000002</v>
+        <v>0.52500000000000002</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -4563,22 +4563,22 @@
         <v>16</v>
       </c>
       <c r="D115" s="2">
-        <v>3332</v>
+        <v>5040</v>
       </c>
       <c r="E115" s="2">
-        <v>8.4499999999999993</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="F115" s="2">
-        <v>326</v>
+        <v>504</v>
       </c>
       <c r="G115" s="2">
-        <v>12.21</v>
+        <v>12.05</v>
       </c>
       <c r="H115" s="2">
-        <v>195</v>
+        <v>366</v>
       </c>
       <c r="I115" s="3">
-        <v>0.56899999999999995</v>
+        <v>0.57099999999999995</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -4592,22 +4592,22 @@
         <v>11</v>
       </c>
       <c r="D116" s="2">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="E116" s="2">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="F116" s="2">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="G116" s="2">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="H116" s="2">
-        <v>297</v>
+        <v>419</v>
       </c>
       <c r="I116" s="3">
-        <v>0.58599999999999997</v>
+        <v>0.57799999999999996</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -4621,22 +4621,22 @@
         <v>16</v>
       </c>
       <c r="D117" s="2">
-        <v>2725</v>
+        <v>4087</v>
       </c>
       <c r="E117" s="2">
-        <v>4.76</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="F117" s="2">
-        <v>333</v>
+        <v>486</v>
       </c>
       <c r="G117" s="2">
-        <v>6.69</v>
+        <v>6.58</v>
       </c>
       <c r="H117" s="2">
-        <v>964</v>
+        <v>1359</v>
       </c>
       <c r="I117" s="3">
-        <v>0.54800000000000004</v>
+        <v>0.53500000000000003</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4650,22 +4650,22 @@
         <v>13</v>
       </c>
       <c r="D118" s="2">
-        <v>682</v>
+        <v>1009</v>
       </c>
       <c r="E118" s="2">
-        <v>2.94</v>
+        <v>2.89</v>
       </c>
       <c r="F118" s="2">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="G118" s="2">
-        <v>3.71</v>
+        <v>3.69</v>
       </c>
       <c r="H118" s="2">
-        <v>394</v>
+        <v>528</v>
       </c>
       <c r="I118" s="3">
-        <v>0.56899999999999995</v>
+        <v>0.54200000000000004</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4679,22 +4679,22 @@
         <v>13</v>
       </c>
       <c r="D119" s="2">
-        <v>1140</v>
+        <v>1705</v>
       </c>
       <c r="E119" s="2">
-        <v>8.2100000000000009</v>
+        <v>8.16</v>
       </c>
       <c r="F119" s="2">
-        <v>214</v>
+        <v>310</v>
       </c>
       <c r="G119" s="2">
-        <v>11.44</v>
+        <v>11.41</v>
       </c>
       <c r="H119" s="2">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="I119" s="3">
-        <v>0.54700000000000004</v>
+        <v>0.53800000000000003</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -4708,22 +4708,22 @@
         <v>16</v>
       </c>
       <c r="D120" s="2">
-        <v>3449</v>
+        <v>5074</v>
       </c>
       <c r="E120" s="2">
-        <v>8.43</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="F120" s="2">
-        <v>402</v>
+        <v>598</v>
       </c>
       <c r="G120" s="2">
         <v>11.89</v>
       </c>
       <c r="H120" s="2">
-        <v>250</v>
+        <v>402</v>
       </c>
       <c r="I120" s="3">
-        <v>0.57599999999999996</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -4737,22 +4737,22 @@
         <v>22</v>
       </c>
       <c r="D121" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="E121" s="2">
         <v>1</v>
       </c>
       <c r="F121" s="2">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="G121" s="2">
         <v>1</v>
       </c>
       <c r="H121" s="2">
-        <v>165</v>
+        <v>281</v>
       </c>
       <c r="I121" s="3">
-        <v>0.60599999999999998</v>
+        <v>0.63700000000000001</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -4766,22 +4766,22 @@
         <v>16</v>
       </c>
       <c r="D122" s="2">
-        <v>3153</v>
+        <v>4667</v>
       </c>
       <c r="E122" s="2">
-        <v>5.85</v>
+        <v>5.82</v>
       </c>
       <c r="F122" s="2">
-        <v>267</v>
+        <v>412</v>
       </c>
       <c r="G122" s="2">
-        <v>8.86</v>
+        <v>8.83</v>
       </c>
       <c r="H122" s="2">
-        <v>725</v>
+        <v>1101</v>
       </c>
       <c r="I122" s="3">
-        <v>0.55900000000000005</v>
+        <v>0.55200000000000005</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4795,22 +4795,22 @@
         <v>13</v>
       </c>
       <c r="D123" s="2">
-        <v>967</v>
+        <v>1461</v>
       </c>
       <c r="E123" s="2">
-        <v>4.53</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="F123" s="2">
-        <v>216</v>
+        <v>327</v>
       </c>
       <c r="G123" s="2">
-        <v>5.98</v>
+        <v>5.86</v>
       </c>
       <c r="H123" s="2">
-        <v>772</v>
+        <v>1136</v>
       </c>
       <c r="I123" s="3">
-        <v>0.55600000000000005</v>
+        <v>0.54500000000000004</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4824,22 +4824,22 @@
         <v>13</v>
       </c>
       <c r="D124" s="2">
-        <v>1145</v>
+        <v>1682</v>
       </c>
       <c r="E124" s="2">
-        <v>7.8</v>
+        <v>7.77</v>
       </c>
       <c r="F124" s="2">
-        <v>182</v>
+        <v>272</v>
       </c>
       <c r="G124" s="2">
-        <v>10.68</v>
+        <v>10.84</v>
       </c>
       <c r="H124" s="2">
-        <v>226</v>
+        <v>326</v>
       </c>
       <c r="I124" s="3">
-        <v>0.51800000000000002</v>
+        <v>0.53400000000000003</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -4853,22 +4853,22 @@
         <v>11</v>
       </c>
       <c r="D125" s="2">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c r="E125" s="2">
-        <v>1.74</v>
+        <v>1.61</v>
       </c>
       <c r="F125" s="2">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="G125" s="2">
-        <v>1.73</v>
+        <v>1.64</v>
       </c>
       <c r="H125" s="2">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="I125" s="3">
-        <v>0.55600000000000005</v>
+        <v>0.52200000000000002</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -4882,22 +4882,22 @@
         <v>11</v>
       </c>
       <c r="D126" s="2">
-        <v>97</v>
+        <v>169</v>
       </c>
       <c r="E126" s="2">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="F126" s="2">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="G126" s="2">
-        <v>1.74</v>
+        <v>1.63</v>
       </c>
       <c r="H126" s="2">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="I126" s="3">
-        <v>0.54500000000000004</v>
+        <v>0.52800000000000002</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -4911,22 +4911,22 @@
         <v>16</v>
       </c>
       <c r="D127" s="2">
-        <v>3392</v>
+        <v>5022</v>
       </c>
       <c r="E127" s="2">
-        <v>9.32</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="F127" s="2">
-        <v>574</v>
+        <v>846</v>
       </c>
       <c r="G127" s="2">
-        <v>12.09</v>
+        <v>12.1</v>
       </c>
       <c r="H127" s="2">
-        <v>403</v>
+        <v>642</v>
       </c>
       <c r="I127" s="3">
-        <v>0.54800000000000004</v>
+        <v>0.56100000000000005</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -4940,13 +4940,13 @@
         <v>11</v>
       </c>
       <c r="D128" s="2">
-        <v>113</v>
+        <v>175</v>
       </c>
       <c r="E128" s="2">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="F128" s="2">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G128" s="2">
         <v>1.33</v>
@@ -4969,22 +4969,22 @@
         <v>11</v>
       </c>
       <c r="D129" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="E129" s="2">
         <v>1</v>
       </c>
       <c r="F129" s="2">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="G129" s="2">
         <v>1</v>
       </c>
       <c r="H129" s="2">
-        <v>159</v>
+        <v>200</v>
       </c>
       <c r="I129" s="3">
-        <v>0.50900000000000001</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4998,22 +4998,22 @@
         <v>13</v>
       </c>
       <c r="D130" s="2">
-        <v>970</v>
+        <v>1464</v>
       </c>
       <c r="E130" s="2">
-        <v>4.5599999999999996</v>
+        <v>4.59</v>
       </c>
       <c r="F130" s="2">
-        <v>191</v>
+        <v>271</v>
       </c>
       <c r="G130" s="2">
-        <v>5.59</v>
+        <v>5.85</v>
       </c>
       <c r="H130" s="2">
-        <v>606</v>
+        <v>898</v>
       </c>
       <c r="I130" s="3">
-        <v>0.53800000000000003</v>
+        <v>0.52200000000000002</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5027,22 +5027,22 @@
         <v>13</v>
       </c>
       <c r="D131" s="2">
-        <v>599</v>
+        <v>906</v>
       </c>
       <c r="E131" s="2">
-        <v>3.1</v>
+        <v>3.03</v>
       </c>
       <c r="F131" s="2">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="G131" s="2">
-        <v>3.98</v>
+        <v>3.92</v>
       </c>
       <c r="H131" s="2">
-        <v>264</v>
+        <v>403</v>
       </c>
       <c r="I131" s="3">
-        <v>0.52300000000000002</v>
+        <v>0.50900000000000001</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -5056,22 +5056,22 @@
         <v>16</v>
       </c>
       <c r="D132" s="2">
-        <v>2575</v>
+        <v>3862</v>
       </c>
       <c r="E132" s="2">
-        <v>4.3499999999999996</v>
+        <v>4.42</v>
       </c>
       <c r="F132" s="2">
-        <v>366</v>
+        <v>533</v>
       </c>
       <c r="G132" s="2">
-        <v>6.31</v>
+        <v>6.38</v>
       </c>
       <c r="H132" s="2">
-        <v>1127</v>
+        <v>1640</v>
       </c>
       <c r="I132" s="3">
-        <v>0.55300000000000005</v>
+        <v>0.54500000000000004</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -5085,22 +5085,22 @@
         <v>16</v>
       </c>
       <c r="D133" s="2">
-        <v>3046</v>
+        <v>4562</v>
       </c>
       <c r="E133" s="2">
-        <v>5.71</v>
+        <v>5.73</v>
       </c>
       <c r="F133" s="2">
-        <v>395</v>
+        <v>572</v>
       </c>
       <c r="G133" s="2">
-        <v>7.88</v>
+        <v>7.78</v>
       </c>
       <c r="H133" s="2">
-        <v>1095</v>
+        <v>1572</v>
       </c>
       <c r="I133" s="3">
-        <v>0.55200000000000005</v>
+        <v>0.53400000000000003</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -5114,22 +5114,22 @@
         <v>11</v>
       </c>
       <c r="D134" s="2">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="E134" s="2">
         <v>1</v>
       </c>
       <c r="F134" s="2">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="G134" s="2">
         <v>1</v>
       </c>
       <c r="H134" s="2">
-        <v>234</v>
+        <v>326</v>
       </c>
       <c r="I134" s="3">
-        <v>0.54300000000000004</v>
+        <v>0.53100000000000003</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -5143,22 +5143,22 @@
         <v>16</v>
       </c>
       <c r="D135" s="2">
-        <v>3313</v>
+        <v>4946</v>
       </c>
       <c r="E135" s="2">
-        <v>7.2</v>
+        <v>7.19</v>
       </c>
       <c r="F135" s="2">
-        <v>585</v>
+        <v>881</v>
       </c>
       <c r="G135" s="2">
-        <v>9.0299999999999994</v>
+        <v>8.98</v>
       </c>
       <c r="H135" s="2">
-        <v>1394</v>
+        <v>2058</v>
       </c>
       <c r="I135" s="3">
-        <v>0.55700000000000005</v>
+        <v>0.54300000000000004</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5172,22 +5172,22 @@
         <v>13</v>
       </c>
       <c r="D136" s="2">
-        <v>707</v>
+        <v>1029</v>
       </c>
       <c r="E136" s="2">
-        <v>3.18</v>
+        <v>3.16</v>
       </c>
       <c r="F136" s="2">
-        <v>169</v>
+        <v>250</v>
       </c>
       <c r="G136" s="2">
         <v>3.76</v>
       </c>
       <c r="H136" s="2">
-        <v>648</v>
+        <v>1021</v>
       </c>
       <c r="I136" s="3">
-        <v>0.56899999999999995</v>
+        <v>0.55900000000000005</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
@@ -5201,22 +5201,22 @@
         <v>16</v>
       </c>
       <c r="D137" s="2">
-        <v>2521</v>
+        <v>3812</v>
       </c>
       <c r="E137" s="2">
         <v>4.26</v>
       </c>
       <c r="F137" s="2">
-        <v>156</v>
+        <v>241</v>
       </c>
       <c r="G137" s="2">
-        <v>6.9</v>
+        <v>6.98</v>
       </c>
       <c r="H137" s="2">
-        <v>508</v>
+        <v>770</v>
       </c>
       <c r="I137" s="3">
-        <v>0.57099999999999995</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -5230,22 +5230,22 @@
         <v>16</v>
       </c>
       <c r="D138" s="2">
-        <v>2718</v>
+        <v>4103</v>
       </c>
       <c r="E138" s="2">
-        <v>4.9400000000000004</v>
+        <v>4.87</v>
       </c>
       <c r="F138" s="2">
-        <v>429</v>
+        <v>650</v>
       </c>
       <c r="G138" s="2">
-        <v>6.59</v>
+        <v>6.47</v>
       </c>
       <c r="H138" s="2">
-        <v>1330</v>
+        <v>2009</v>
       </c>
       <c r="I138" s="3">
-        <v>0.56100000000000005</v>
+        <v>0.55200000000000005</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
@@ -5259,22 +5259,22 @@
         <v>22</v>
       </c>
       <c r="D139" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="E139" s="2">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="F139" s="2">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G139" s="2">
         <v>1.1299999999999999</v>
       </c>
       <c r="H139" s="2">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="I139" s="3">
-        <v>0.55900000000000005</v>
+        <v>0.53700000000000003</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -5288,22 +5288,22 @@
         <v>16</v>
       </c>
       <c r="D140" s="2">
-        <v>1367</v>
+        <v>2009</v>
       </c>
       <c r="E140" s="2">
-        <v>2.54</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="F140" s="2">
-        <v>347</v>
+        <v>504</v>
       </c>
       <c r="G140" s="2">
-        <v>2.99</v>
+        <v>3</v>
       </c>
       <c r="H140" s="2">
-        <v>1287</v>
+        <v>1817</v>
       </c>
       <c r="I140" s="3">
-        <v>0.55800000000000005</v>
+        <v>0.54900000000000004</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
@@ -5317,22 +5317,22 @@
         <v>16</v>
       </c>
       <c r="D141" s="2">
-        <v>1696</v>
+        <v>2519</v>
       </c>
       <c r="E141" s="2">
-        <v>3.08</v>
+        <v>3.07</v>
       </c>
       <c r="F141" s="2">
-        <v>303</v>
+        <v>444</v>
       </c>
       <c r="G141" s="2">
-        <v>4.2</v>
+        <v>4.16</v>
       </c>
       <c r="H141" s="2">
-        <v>1250</v>
+        <v>1803</v>
       </c>
       <c r="I141" s="3">
-        <v>0.56899999999999995</v>
+        <v>0.55700000000000005</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
@@ -5346,22 +5346,22 @@
         <v>16</v>
       </c>
       <c r="D142" s="2">
-        <v>3196</v>
+        <v>4868</v>
       </c>
       <c r="E142" s="2">
         <v>6.49</v>
       </c>
       <c r="F142" s="2">
-        <v>398</v>
+        <v>581</v>
       </c>
       <c r="G142" s="2">
-        <v>8.24</v>
+        <v>8.4</v>
       </c>
       <c r="H142" s="2">
-        <v>378</v>
+        <v>550</v>
       </c>
       <c r="I142" s="3">
-        <v>0.59</v>
+        <v>0.58399999999999996</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5375,22 +5375,22 @@
         <v>13</v>
       </c>
       <c r="D143" s="2">
-        <v>1216</v>
+        <v>1790</v>
       </c>
       <c r="E143" s="2">
-        <v>7.3</v>
+        <v>7.27</v>
       </c>
       <c r="F143" s="2">
-        <v>174</v>
+        <v>248</v>
       </c>
       <c r="G143" s="2">
-        <v>10.7</v>
+        <v>10.75</v>
       </c>
       <c r="H143" s="2">
-        <v>177</v>
+        <v>255</v>
       </c>
       <c r="I143" s="3">
-        <v>0.56499999999999995</v>
+        <v>0.57599999999999996</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5404,22 +5404,22 @@
         <v>13</v>
       </c>
       <c r="D144" s="2">
-        <v>413</v>
+        <v>621</v>
       </c>
       <c r="E144" s="2">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="F144" s="2">
-        <v>119</v>
+        <v>189</v>
       </c>
       <c r="G144" s="2">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="H144" s="2">
-        <v>572</v>
+        <v>884</v>
       </c>
       <c r="I144" s="3">
-        <v>0.57199999999999995</v>
+        <v>0.54900000000000004</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
@@ -5433,22 +5433,22 @@
         <v>11</v>
       </c>
       <c r="D145" s="2">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="E145" s="2">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="F145" s="2">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="G145" s="2">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="H145" s="2">
-        <v>215</v>
+        <v>309</v>
       </c>
       <c r="I145" s="3">
-        <v>0.56699999999999995</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5462,22 +5462,22 @@
         <v>13</v>
       </c>
       <c r="D146" s="2">
-        <v>399</v>
+        <v>557</v>
       </c>
       <c r="E146" s="2">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="F146" s="2">
-        <v>118</v>
+        <v>160</v>
       </c>
       <c r="G146" s="2">
-        <v>2.25</v>
+        <v>2.23</v>
       </c>
       <c r="H146" s="2">
-        <v>492</v>
+        <v>683</v>
       </c>
       <c r="I146" s="3">
-        <v>0.53300000000000003</v>
+        <v>0.52700000000000002</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -5491,22 +5491,22 @@
         <v>16</v>
       </c>
       <c r="D147" s="2">
-        <v>3155</v>
+        <v>4674</v>
       </c>
       <c r="E147" s="2">
-        <v>5.8</v>
+        <v>5.78</v>
       </c>
       <c r="F147" s="2">
-        <v>375</v>
+        <v>529</v>
       </c>
       <c r="G147" s="2">
-        <v>7.64</v>
+        <v>7.61</v>
       </c>
       <c r="H147" s="2">
-        <v>784</v>
+        <v>1166</v>
       </c>
       <c r="I147" s="3">
-        <v>0.54</v>
+        <v>0.53300000000000003</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -5520,22 +5520,22 @@
         <v>11</v>
       </c>
       <c r="D148" s="2">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="E148" s="2">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="F148" s="2">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="G148" s="2">
         <v>1.27</v>
       </c>
       <c r="H148" s="2">
-        <v>215</v>
+        <v>314</v>
       </c>
       <c r="I148" s="3">
-        <v>0.53500000000000003</v>
+        <v>0.503</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
@@ -5549,22 +5549,22 @@
         <v>16</v>
       </c>
       <c r="D149" s="2">
-        <v>2658</v>
+        <v>3908</v>
       </c>
       <c r="E149" s="2">
         <v>4.4000000000000004</v>
       </c>
       <c r="F149" s="2">
-        <v>152</v>
+        <v>244</v>
       </c>
       <c r="G149" s="2">
-        <v>6.47</v>
+        <v>6.49</v>
       </c>
       <c r="H149" s="2">
-        <v>583</v>
+        <v>941</v>
       </c>
       <c r="I149" s="3">
-        <v>0.58099999999999996</v>
+        <v>0.57299999999999995</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5578,22 +5578,22 @@
         <v>13</v>
       </c>
       <c r="D150" s="2">
-        <v>447</v>
+        <v>655</v>
       </c>
       <c r="E150" s="2">
-        <v>2.0699999999999998</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="F150" s="2">
-        <v>129</v>
+        <v>200</v>
       </c>
       <c r="G150" s="2">
         <v>2.35</v>
       </c>
       <c r="H150" s="2">
-        <v>520</v>
+        <v>917</v>
       </c>
       <c r="I150" s="3">
-        <v>0.56200000000000006</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
@@ -5607,22 +5607,22 @@
         <v>16</v>
       </c>
       <c r="D151" s="2">
-        <v>3160</v>
+        <v>4712</v>
       </c>
       <c r="E151" s="2">
-        <v>5.98</v>
+        <v>5.93</v>
       </c>
       <c r="F151" s="2">
-        <v>567</v>
+        <v>822</v>
       </c>
       <c r="G151" s="2">
-        <v>7.66</v>
+        <v>7.68</v>
       </c>
       <c r="H151" s="2">
-        <v>1469</v>
+        <v>2287</v>
       </c>
       <c r="I151" s="3">
-        <v>0.55800000000000005</v>
+        <v>0.55700000000000005</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5636,22 +5636,22 @@
         <v>13</v>
       </c>
       <c r="D152" s="2">
-        <v>935</v>
+        <v>1389</v>
       </c>
       <c r="E152" s="2">
-        <v>4.04</v>
+        <v>3.95</v>
       </c>
       <c r="F152" s="2">
-        <v>306</v>
+        <v>450</v>
       </c>
       <c r="G152" s="2">
-        <v>4.5599999999999996</v>
+        <v>4.34</v>
       </c>
       <c r="H152" s="2">
-        <v>1020</v>
+        <v>1557</v>
       </c>
       <c r="I152" s="3">
-        <v>0.56899999999999995</v>
+        <v>0.57199999999999995</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
@@ -5665,22 +5665,22 @@
         <v>11</v>
       </c>
       <c r="D153" s="2">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="E153" s="2">
         <v>1</v>
       </c>
       <c r="F153" s="2">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="G153" s="2">
         <v>1</v>
       </c>
       <c r="H153" s="2">
-        <v>212</v>
+        <v>352</v>
       </c>
       <c r="I153" s="3">
-        <v>0.58499999999999996</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
@@ -5694,22 +5694,22 @@
         <v>16</v>
       </c>
       <c r="D154" s="2">
-        <v>3451</v>
+        <v>5081</v>
       </c>
       <c r="E154" s="2">
-        <v>8.4700000000000006</v>
+        <v>8.44</v>
       </c>
       <c r="F154" s="2">
-        <v>420</v>
+        <v>607</v>
       </c>
       <c r="G154" s="2">
-        <v>11.99</v>
+        <v>11.88</v>
       </c>
       <c r="H154" s="2">
-        <v>149</v>
+        <v>251</v>
       </c>
       <c r="I154" s="3">
-        <v>0.47699999999999998</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -5723,22 +5723,22 @@
         <v>16</v>
       </c>
       <c r="D155" s="2">
-        <v>1297</v>
+        <v>1896</v>
       </c>
       <c r="E155" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F155" s="2">
-        <v>227</v>
+        <v>341</v>
       </c>
       <c r="G155" s="2">
         <v>3.31</v>
       </c>
       <c r="H155" s="2">
-        <v>942</v>
+        <v>1510</v>
       </c>
       <c r="I155" s="3">
-        <v>0.56999999999999995</v>
+        <v>0.56699999999999995</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5752,19 +5752,19 @@
         <v>13</v>
       </c>
       <c r="D156" s="2">
-        <v>913</v>
+        <v>1360</v>
       </c>
       <c r="E156" s="2">
-        <v>3.99</v>
+        <v>3.93</v>
       </c>
       <c r="F156" s="2">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="G156" s="2">
-        <v>6.34</v>
+        <v>6.11</v>
       </c>
       <c r="H156" s="2">
-        <v>229</v>
+        <v>324</v>
       </c>
       <c r="I156" s="3">
         <v>0.52800000000000002</v>
@@ -5781,22 +5781,22 @@
         <v>16</v>
       </c>
       <c r="D157" s="2">
-        <v>2952</v>
+        <v>4396</v>
       </c>
       <c r="E157" s="2">
-        <v>5.29</v>
+        <v>5.3</v>
       </c>
       <c r="F157" s="2">
-        <v>375</v>
+        <v>571</v>
       </c>
       <c r="G157" s="2">
-        <v>7.34</v>
+        <v>7.32</v>
       </c>
       <c r="H157" s="2">
-        <v>1081</v>
+        <v>1737</v>
       </c>
       <c r="I157" s="3">
-        <v>0.55900000000000005</v>
+        <v>0.56100000000000005</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
@@ -5810,22 +5810,22 @@
         <v>16</v>
       </c>
       <c r="D158" s="2">
-        <v>2060</v>
+        <v>3042</v>
       </c>
       <c r="E158" s="2">
-        <v>3.5</v>
+        <v>3.53</v>
       </c>
       <c r="F158" s="2">
-        <v>205</v>
+        <v>330</v>
       </c>
       <c r="G158" s="2">
-        <v>5.07</v>
+        <v>5.16</v>
       </c>
       <c r="H158" s="2">
-        <v>830</v>
+        <v>1421</v>
       </c>
       <c r="I158" s="3">
-        <v>0.56999999999999995</v>
+        <v>0.56899999999999995</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
@@ -5839,22 +5839,22 @@
         <v>16</v>
       </c>
       <c r="D159" s="2">
-        <v>3252</v>
+        <v>4917</v>
       </c>
       <c r="E159" s="2">
-        <v>7.17</v>
+        <v>7.13</v>
       </c>
       <c r="F159" s="2">
-        <v>454</v>
+        <v>652</v>
       </c>
       <c r="G159" s="2">
-        <v>9.8699999999999992</v>
+        <v>9.86</v>
       </c>
       <c r="H159" s="2">
-        <v>707</v>
+        <v>1072</v>
       </c>
       <c r="I159" s="3">
-        <v>0.55900000000000005</v>
+        <v>0.55800000000000005</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5868,22 +5868,22 @@
         <v>13</v>
       </c>
       <c r="D160" s="2">
-        <v>933</v>
+        <v>1374</v>
       </c>
       <c r="E160" s="2">
-        <v>4.16</v>
+        <v>4.08</v>
       </c>
       <c r="F160" s="2">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="G160" s="2">
-        <v>6.03</v>
+        <v>5.69</v>
       </c>
       <c r="H160" s="2">
-        <v>247</v>
+        <v>401</v>
       </c>
       <c r="I160" s="3">
-        <v>0.56699999999999995</v>
+        <v>0.54100000000000004</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
@@ -5897,22 +5897,22 @@
         <v>11</v>
       </c>
       <c r="D161" s="2">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="E161" s="2">
         <v>1.23</v>
       </c>
       <c r="F161" s="2">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="G161" s="2">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="H161" s="2">
-        <v>194</v>
+        <v>309</v>
       </c>
       <c r="I161" s="3">
-        <v>0.57699999999999996</v>
+        <v>0.58599999999999997</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
@@ -5926,22 +5926,22 @@
         <v>22</v>
       </c>
       <c r="D162" s="2">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="E162" s="2">
         <v>1</v>
       </c>
       <c r="F162" s="2">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="G162" s="2">
         <v>1</v>
       </c>
       <c r="H162" s="2">
-        <v>122</v>
+        <v>247</v>
       </c>
       <c r="I162" s="3">
-        <v>0.58199999999999996</v>
+        <v>0.63600000000000001</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
@@ -5955,22 +5955,22 @@
         <v>16</v>
       </c>
       <c r="D163" s="2">
-        <v>3505</v>
+        <v>5181</v>
       </c>
       <c r="E163" s="2">
-        <v>7.14</v>
+        <v>7.21</v>
       </c>
       <c r="F163" s="2">
-        <v>328</v>
+        <v>509</v>
       </c>
       <c r="G163" s="2">
-        <v>10.57</v>
+        <v>10.38</v>
       </c>
       <c r="H163" s="2">
-        <v>394</v>
+        <v>607</v>
       </c>
       <c r="I163" s="3">
-        <v>0.59399999999999997</v>
+        <v>0.55700000000000005</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5984,22 +5984,22 @@
         <v>13</v>
       </c>
       <c r="D164" s="2">
-        <v>465</v>
+        <v>701</v>
       </c>
       <c r="E164" s="2">
         <v>2.17</v>
       </c>
       <c r="F164" s="2">
-        <v>122</v>
+        <v>186</v>
       </c>
       <c r="G164" s="2">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="H164" s="2">
-        <v>576</v>
+        <v>892</v>
       </c>
       <c r="I164" s="3">
-        <v>0.56799999999999995</v>
+        <v>0.55700000000000005</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -6013,22 +6013,22 @@
         <v>13</v>
       </c>
       <c r="D165" s="2">
-        <v>982</v>
+        <v>1505</v>
       </c>
       <c r="E165" s="2">
-        <v>4.4800000000000004</v>
+        <v>4.45</v>
       </c>
       <c r="F165" s="2">
-        <v>176</v>
+        <v>260</v>
       </c>
       <c r="G165" s="2">
-        <v>5.85</v>
+        <v>5.79</v>
       </c>
       <c r="H165" s="2">
-        <v>614</v>
+        <v>943</v>
       </c>
       <c r="I165" s="3">
-        <v>0.55400000000000005</v>
+        <v>0.54400000000000004</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
@@ -6042,22 +6042,22 @@
         <v>11</v>
       </c>
       <c r="D166" s="2">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="E166" s="2">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="F166" s="2">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="G166" s="2">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="H166" s="2">
-        <v>259</v>
+        <v>390</v>
       </c>
       <c r="I166" s="3">
-        <v>0.60599999999999998</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
@@ -6071,22 +6071,22 @@
         <v>16</v>
       </c>
       <c r="D167" s="2">
-        <v>3062</v>
+        <v>4560</v>
       </c>
       <c r="E167" s="2">
-        <v>5.65</v>
+        <v>5.66</v>
       </c>
       <c r="F167" s="2">
-        <v>419</v>
+        <v>607</v>
       </c>
       <c r="G167" s="2">
-        <v>7.74</v>
+        <v>7.9</v>
       </c>
       <c r="H167" s="2">
-        <v>1160</v>
+        <v>1791</v>
       </c>
       <c r="I167" s="3">
-        <v>0.59399999999999997</v>
+        <v>0.57299999999999995</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -6100,22 +6100,22 @@
         <v>13</v>
       </c>
       <c r="D168" s="2">
-        <v>541</v>
+        <v>819</v>
       </c>
       <c r="E168" s="2">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="F168" s="2">
-        <v>141</v>
+        <v>227</v>
       </c>
       <c r="G168" s="2">
-        <v>2.84</v>
+        <v>2.81</v>
       </c>
       <c r="H168" s="2">
-        <v>636</v>
+        <v>1008</v>
       </c>
       <c r="I168" s="3">
-        <v>0.59099999999999997</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -6129,22 +6129,22 @@
         <v>13</v>
       </c>
       <c r="D169" s="2">
-        <v>1034</v>
+        <v>1602</v>
       </c>
       <c r="E169" s="2">
         <v>5.68</v>
       </c>
       <c r="F169" s="2">
-        <v>247</v>
+        <v>370</v>
       </c>
       <c r="G169" s="2">
-        <v>7.1</v>
+        <v>7.16</v>
       </c>
       <c r="H169" s="2">
-        <v>854</v>
+        <v>1309</v>
       </c>
       <c r="I169" s="3">
-        <v>0.56599999999999995</v>
+        <v>0.56799999999999995</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
@@ -6158,22 +6158,22 @@
         <v>11</v>
       </c>
       <c r="D170" s="2">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c r="E170" s="2">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="F170" s="2">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="G170" s="2">
-        <v>1.89</v>
+        <v>1.77</v>
       </c>
       <c r="H170" s="2">
-        <v>154</v>
+        <v>218</v>
       </c>
       <c r="I170" s="3">
-        <v>0.59099999999999997</v>
+        <v>0.56399999999999995</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
@@ -6187,22 +6187,22 @@
         <v>16</v>
       </c>
       <c r="D171" s="2">
-        <v>1691</v>
+        <v>2566</v>
       </c>
       <c r="E171" s="2">
-        <v>3.25</v>
+        <v>3.22</v>
       </c>
       <c r="F171" s="2">
-        <v>398</v>
+        <v>584</v>
       </c>
       <c r="G171" s="2">
-        <v>4.12</v>
+        <v>4.05</v>
       </c>
       <c r="H171" s="2">
-        <v>1493</v>
+        <v>2254</v>
       </c>
       <c r="I171" s="3">
-        <v>0.56100000000000005</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -6216,22 +6216,22 @@
         <v>22</v>
       </c>
       <c r="D172" s="2">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E172" s="2">
         <v>1</v>
       </c>
       <c r="F172" s="2">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="G172" s="2">
         <v>1</v>
       </c>
       <c r="H172" s="2">
-        <v>173</v>
+        <v>231</v>
       </c>
       <c r="I172" s="3">
-        <v>0.56100000000000005</v>
+        <v>0.56299999999999994</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
@@ -6245,22 +6245,22 @@
         <v>11</v>
       </c>
       <c r="D173" s="2">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="E173" s="2">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="F173" s="2">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="G173" s="2">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="H173" s="2">
-        <v>172</v>
+        <v>264</v>
       </c>
       <c r="I173" s="3">
-        <v>0.52900000000000003</v>
+        <v>0.51900000000000002</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
@@ -6274,22 +6274,22 @@
         <v>16</v>
       </c>
       <c r="D174" s="2">
-        <v>3351</v>
+        <v>5055</v>
       </c>
       <c r="E174" s="2">
-        <v>8.56</v>
+        <v>8.51</v>
       </c>
       <c r="F174" s="2">
-        <v>454</v>
+        <v>669</v>
       </c>
       <c r="G174" s="2">
-        <v>11.5</v>
+        <v>11.52</v>
       </c>
       <c r="H174" s="2">
-        <v>350</v>
+        <v>543</v>
       </c>
       <c r="I174" s="3">
-        <v>0.54600000000000004</v>
+        <v>0.52300000000000002</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -6303,22 +6303,22 @@
         <v>16</v>
       </c>
       <c r="D175" s="2">
-        <v>2548</v>
+        <v>3884</v>
       </c>
       <c r="E175" s="2">
-        <v>4.32</v>
+        <v>4.34</v>
       </c>
       <c r="F175" s="2">
-        <v>454</v>
+        <v>683</v>
       </c>
       <c r="G175" s="2">
-        <v>5.67</v>
+        <v>5.65</v>
       </c>
       <c r="H175" s="2">
-        <v>1516</v>
+        <v>2373</v>
       </c>
       <c r="I175" s="3">
-        <v>0.56200000000000006</v>
+        <v>0.55600000000000005</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -6332,22 +6332,22 @@
         <v>16</v>
       </c>
       <c r="D176" s="2">
-        <v>3187</v>
+        <v>4806</v>
       </c>
       <c r="E176" s="2">
-        <v>6.66</v>
+        <v>6.63</v>
       </c>
       <c r="F176" s="2">
-        <v>291</v>
+        <v>430</v>
       </c>
       <c r="G176" s="2">
-        <v>9.7899999999999991</v>
+        <v>9.73</v>
       </c>
       <c r="H176" s="2">
-        <v>455</v>
+        <v>750</v>
       </c>
       <c r="I176" s="3">
-        <v>0.56899999999999995</v>
+        <v>0.55700000000000005</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
@@ -6361,22 +6361,22 @@
         <v>16</v>
       </c>
       <c r="D177" s="2">
-        <v>3081</v>
+        <v>4610</v>
       </c>
       <c r="E177" s="2">
-        <v>5.79</v>
+        <v>5.8</v>
       </c>
       <c r="F177" s="2">
-        <v>317</v>
+        <v>467</v>
       </c>
       <c r="G177" s="2">
-        <v>8.33</v>
+        <v>8.39</v>
       </c>
       <c r="H177" s="2">
-        <v>809</v>
+        <v>1269</v>
       </c>
       <c r="I177" s="3">
-        <v>0.55300000000000005</v>
+        <v>0.53500000000000003</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -6390,22 +6390,22 @@
         <v>13</v>
       </c>
       <c r="D178" s="2">
-        <v>487</v>
+        <v>734</v>
       </c>
       <c r="E178" s="2">
         <v>2.34</v>
       </c>
       <c r="F178" s="2">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="G178" s="2">
-        <v>2.83</v>
+        <v>2.93</v>
       </c>
       <c r="H178" s="2">
-        <v>354</v>
+        <v>578</v>
       </c>
       <c r="I178" s="3">
-        <v>0.57099999999999995</v>
+        <v>0.57299999999999995</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
@@ -6419,22 +6419,22 @@
         <v>16</v>
       </c>
       <c r="D179" s="2">
-        <v>3365</v>
+        <v>5013</v>
       </c>
       <c r="E179" s="2">
-        <v>9.8699999999999992</v>
+        <v>9.84</v>
       </c>
       <c r="F179" s="2">
-        <v>645</v>
+        <v>985</v>
       </c>
       <c r="G179" s="2">
-        <v>12.67</v>
+        <v>12.61</v>
       </c>
       <c r="H179" s="2">
-        <v>243</v>
+        <v>420</v>
       </c>
       <c r="I179" s="3">
-        <v>0.54700000000000004</v>
+        <v>0.52100000000000002</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -6448,22 +6448,22 @@
         <v>13</v>
       </c>
       <c r="D180" s="2">
-        <v>540</v>
+        <v>814</v>
       </c>
       <c r="E180" s="2">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="F180" s="2">
-        <v>113</v>
+        <v>175</v>
       </c>
       <c r="G180" s="2">
-        <v>3.05</v>
+        <v>2.91</v>
       </c>
       <c r="H180" s="2">
-        <v>482</v>
+        <v>771</v>
       </c>
       <c r="I180" s="3">
-        <v>0.57699999999999996</v>
+        <v>0.56200000000000006</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
@@ -6477,22 +6477,22 @@
         <v>16</v>
       </c>
       <c r="D181" s="2">
-        <v>3158</v>
+        <v>4681</v>
       </c>
       <c r="E181" s="2">
         <v>5.86</v>
       </c>
       <c r="F181" s="2">
-        <v>536</v>
+        <v>792</v>
       </c>
       <c r="G181" s="2">
-        <v>7.75</v>
+        <v>7.79</v>
       </c>
       <c r="H181" s="2">
-        <v>1676</v>
+        <v>2575</v>
       </c>
       <c r="I181" s="3">
-        <v>0.56000000000000005</v>
+        <v>0.55300000000000005</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
@@ -6506,22 +6506,22 @@
         <v>11</v>
       </c>
       <c r="D182" s="2">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c r="E182" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="F182" s="2">
+        <v>109</v>
+      </c>
+      <c r="G182" s="2">
         <v>1.31</v>
       </c>
-      <c r="F182" s="2">
-        <v>79</v>
-      </c>
-      <c r="G182" s="2">
-        <v>1.29</v>
-      </c>
       <c r="H182" s="2">
-        <v>294</v>
+        <v>424</v>
       </c>
       <c r="I182" s="3">
-        <v>0.57799999999999996</v>
+        <v>0.56599999999999995</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
@@ -6535,22 +6535,22 @@
         <v>11</v>
       </c>
       <c r="D183" s="2">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="E183" s="2">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="F183" s="2">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="G183" s="2">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="H183" s="2">
-        <v>261</v>
+        <v>379</v>
       </c>
       <c r="I183" s="3">
-        <v>0.58199999999999996</v>
+        <v>0.54400000000000004</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
@@ -6564,22 +6564,22 @@
         <v>16</v>
       </c>
       <c r="D184" s="2">
-        <v>3191</v>
+        <v>4778</v>
       </c>
       <c r="E184" s="2">
-        <v>6.67</v>
+        <v>6.69</v>
       </c>
       <c r="F184" s="2">
-        <v>310</v>
+        <v>501</v>
       </c>
       <c r="G184" s="2">
-        <v>9.2799999999999994</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="H184" s="2">
-        <v>473</v>
+        <v>754</v>
       </c>
       <c r="I184" s="3">
-        <v>0.56399999999999995</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
@@ -6593,22 +6593,22 @@
         <v>16</v>
       </c>
       <c r="D185" s="2">
-        <v>3316</v>
+        <v>4917</v>
       </c>
       <c r="E185" s="2">
-        <v>7.94</v>
+        <v>7.95</v>
       </c>
       <c r="F185" s="2">
-        <v>274</v>
+        <v>395</v>
       </c>
       <c r="G185" s="2">
-        <v>11.47</v>
+        <v>11.53</v>
       </c>
       <c r="H185" s="2">
-        <v>153</v>
+        <v>217</v>
       </c>
       <c r="I185" s="3">
-        <v>0.49</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
@@ -6622,22 +6622,22 @@
         <v>11</v>
       </c>
       <c r="D186" s="2">
-        <v>99</v>
+        <v>148</v>
       </c>
       <c r="E186" s="2">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="F186" s="2">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="G186" s="2">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="H186" s="2">
-        <v>198</v>
+        <v>292</v>
       </c>
       <c r="I186" s="3">
-        <v>0.58599999999999997</v>
+        <v>0.55100000000000005</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
@@ -6651,22 +6651,22 @@
         <v>11</v>
       </c>
       <c r="D187" s="2">
-        <v>126</v>
+        <v>183</v>
       </c>
       <c r="E187" s="2">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="F187" s="2">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="G187" s="2">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="H187" s="2">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="I187" s="3">
-        <v>0.55400000000000005</v>
+        <v>0.53400000000000003</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
@@ -6680,22 +6680,22 @@
         <v>11</v>
       </c>
       <c r="D188" s="2">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="E188" s="2">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="F188" s="2">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="G188" s="2">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="H188" s="2">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="I188" s="3">
-        <v>0.52600000000000002</v>
+        <v>0.51600000000000001</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -6709,22 +6709,22 @@
         <v>13</v>
       </c>
       <c r="D189" s="2">
-        <v>716</v>
+        <v>1054</v>
       </c>
       <c r="E189" s="2">
-        <v>3.12</v>
+        <v>3.09</v>
       </c>
       <c r="F189" s="2">
-        <v>116</v>
+        <v>187</v>
       </c>
       <c r="G189" s="2">
-        <v>3.74</v>
+        <v>3.73</v>
       </c>
       <c r="H189" s="2">
-        <v>440</v>
+        <v>693</v>
       </c>
       <c r="I189" s="3">
-        <v>0.60199999999999998</v>
+        <v>0.56299999999999994</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
@@ -6738,22 +6738,22 @@
         <v>11</v>
       </c>
       <c r="D190" s="2">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="E190" s="2">
         <v>1</v>
       </c>
       <c r="F190" s="2">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G190" s="2">
         <v>1</v>
       </c>
       <c r="H190" s="2">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="I190" s="3">
-        <v>0.41499999999999998</v>
+        <v>0.434</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
@@ -6767,22 +6767,22 @@
         <v>11</v>
       </c>
       <c r="D191" s="2">
-        <v>136</v>
+        <v>178</v>
       </c>
       <c r="E191" s="2">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="F191" s="2">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="G191" s="2">
         <v>1.5</v>
       </c>
       <c r="H191" s="2">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="I191" s="3">
-        <v>0.52100000000000002</v>
+        <v>0.49199999999999999</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
@@ -6796,22 +6796,22 @@
         <v>22</v>
       </c>
       <c r="D192" s="2">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="E192" s="2">
         <v>1</v>
       </c>
       <c r="F192" s="2">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="G192" s="2">
         <v>1</v>
       </c>
       <c r="H192" s="2">
-        <v>156</v>
+        <v>259</v>
       </c>
       <c r="I192" s="3">
-        <v>0.628</v>
+        <v>0.60199999999999998</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -6825,22 +6825,22 @@
         <v>13</v>
       </c>
       <c r="D193" s="2">
-        <v>564</v>
+        <v>828</v>
       </c>
       <c r="E193" s="2">
-        <v>2.68</v>
+        <v>2.65</v>
       </c>
       <c r="F193" s="2">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="G193" s="2">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="H193" s="2">
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="I193" s="3">
-        <v>0.56699999999999995</v>
+        <v>0.55500000000000005</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -6854,22 +6854,22 @@
         <v>13</v>
       </c>
       <c r="D194" s="2">
-        <v>562</v>
+        <v>845</v>
       </c>
       <c r="E194" s="2">
-        <v>2.59</v>
+        <v>2.57</v>
       </c>
       <c r="F194" s="2">
-        <v>136</v>
+        <v>180</v>
       </c>
       <c r="G194" s="2">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="H194" s="2">
-        <v>446</v>
+        <v>592</v>
       </c>
       <c r="I194" s="3">
-        <v>0.53400000000000003</v>
+        <v>0.53900000000000003</v>
       </c>
     </row>
     <row r="195" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -6883,22 +6883,22 @@
         <v>13</v>
       </c>
       <c r="D195" s="2">
-        <v>568</v>
+        <v>867</v>
       </c>
       <c r="E195" s="2">
         <v>2.54</v>
       </c>
       <c r="F195" s="2">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="G195" s="2">
-        <v>3.05</v>
+        <v>3.09</v>
       </c>
       <c r="H195" s="2">
-        <v>249</v>
+        <v>409</v>
       </c>
       <c r="I195" s="3">
-        <v>0.59</v>
+        <v>0.58399999999999996</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
@@ -6912,22 +6912,22 @@
         <v>11</v>
       </c>
       <c r="D196" s="2">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="E196" s="2">
         <v>1</v>
       </c>
       <c r="F196" s="2">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="G196" s="2">
         <v>1</v>
       </c>
       <c r="H196" s="2">
-        <v>272</v>
+        <v>400</v>
       </c>
       <c r="I196" s="3">
-        <v>0.621</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="197" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -6941,22 +6941,22 @@
         <v>13</v>
       </c>
       <c r="D197" s="2">
-        <v>723</v>
+        <v>1085</v>
       </c>
       <c r="E197" s="2">
-        <v>3.12</v>
+        <v>3.17</v>
       </c>
       <c r="F197" s="2">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="G197" s="2">
-        <v>3.56</v>
+        <v>3.67</v>
       </c>
       <c r="H197" s="2">
-        <v>216</v>
+        <v>302</v>
       </c>
       <c r="I197" s="3">
-        <v>0.57399999999999995</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
@@ -6970,22 +6970,22 @@
         <v>22</v>
       </c>
       <c r="D198" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="E198" s="2">
         <v>1</v>
       </c>
       <c r="F198" s="2">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="G198" s="2">
         <v>1</v>
       </c>
       <c r="H198" s="2">
-        <v>164</v>
+        <v>230</v>
       </c>
       <c r="I198" s="3">
-        <v>0.58499999999999996</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
@@ -6999,22 +6999,22 @@
         <v>22</v>
       </c>
       <c r="D199" s="2">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="E199" s="2">
         <v>1</v>
       </c>
       <c r="F199" s="2">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="G199" s="2">
         <v>1</v>
       </c>
       <c r="H199" s="2">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="I199" s="3">
-        <v>0.59599999999999997</v>
+        <v>0.624</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
@@ -7028,22 +7028,22 @@
         <v>22</v>
       </c>
       <c r="D200" s="2">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E200" s="2">
         <v>1</v>
       </c>
       <c r="F200" s="2">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="G200" s="2">
         <v>1</v>
       </c>
       <c r="H200" s="2">
-        <v>96</v>
+        <v>146</v>
       </c>
       <c r="I200" s="3">
-        <v>0.58299999999999996</v>
+        <v>0.58199999999999996</v>
       </c>
     </row>
     <row r="201" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7057,22 +7057,22 @@
         <v>13</v>
       </c>
       <c r="D201" s="2">
-        <v>476</v>
+        <v>724</v>
       </c>
       <c r="E201" s="2">
-        <v>2.34</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="F201" s="2">
-        <v>105</v>
+        <v>166</v>
       </c>
       <c r="G201" s="2">
-        <v>2.74</v>
+        <v>2.65</v>
       </c>
       <c r="H201" s="2">
-        <v>355</v>
+        <v>643</v>
       </c>
       <c r="I201" s="3">
-        <v>0.53800000000000003</v>
+        <v>0.55400000000000005</v>
       </c>
     </row>
     <row r="202" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7086,22 +7086,22 @@
         <v>13</v>
       </c>
       <c r="D202" s="2">
-        <v>885</v>
+        <v>1269</v>
       </c>
       <c r="E202" s="2">
         <v>3.76</v>
       </c>
       <c r="F202" s="2">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="G202" s="2">
-        <v>5.54</v>
+        <v>5.74</v>
       </c>
       <c r="H202" s="2">
-        <v>122</v>
+        <v>193</v>
       </c>
       <c r="I202" s="3">
-        <v>0.55700000000000005</v>
+        <v>0.503</v>
       </c>
     </row>
     <row r="203" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7115,22 +7115,22 @@
         <v>13</v>
       </c>
       <c r="D203" s="2">
-        <v>645</v>
+        <v>944</v>
       </c>
       <c r="E203" s="2">
-        <v>2.79</v>
+        <v>2.78</v>
       </c>
       <c r="F203" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="G203" s="2">
-        <v>3.36</v>
+        <v>3.32</v>
       </c>
       <c r="H203" s="2">
-        <v>286</v>
+        <v>394</v>
       </c>
       <c r="I203" s="3">
-        <v>0.52400000000000002</v>
+        <v>0.51800000000000002</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
@@ -7144,22 +7144,22 @@
         <v>11</v>
       </c>
       <c r="D204" s="2">
-        <v>124</v>
+        <v>185</v>
       </c>
       <c r="E204" s="2">
         <v>1.54</v>
       </c>
       <c r="F204" s="2">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="G204" s="2">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="H204" s="2">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="I204" s="3">
-        <v>0.55700000000000005</v>
+        <v>0.53800000000000003</v>
       </c>
     </row>
     <row r="205" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7173,22 +7173,22 @@
         <v>13</v>
       </c>
       <c r="D205" s="2">
-        <v>685</v>
+        <v>1024</v>
       </c>
       <c r="E205" s="2">
         <v>3.1</v>
       </c>
       <c r="F205" s="2">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="G205" s="2">
-        <v>3.63</v>
+        <v>3.61</v>
       </c>
       <c r="H205" s="2">
-        <v>259</v>
+        <v>387</v>
       </c>
       <c r="I205" s="3">
-        <v>0.55200000000000005</v>
+        <v>0.54300000000000004</v>
       </c>
     </row>
     <row r="206" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7202,22 +7202,22 @@
         <v>13</v>
       </c>
       <c r="D206" s="2">
-        <v>712</v>
+        <v>1088</v>
       </c>
       <c r="E206" s="2">
-        <v>2.96</v>
+        <v>2.97</v>
       </c>
       <c r="F206" s="2">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="G206" s="2">
-        <v>3.86</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="H206" s="2">
-        <v>220</v>
+        <v>339</v>
       </c>
       <c r="I206" s="3">
-        <v>0.54100000000000004</v>
+        <v>0.54900000000000004</v>
       </c>
     </row>
     <row r="207" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7231,22 +7231,22 @@
         <v>13</v>
       </c>
       <c r="D207" s="2">
-        <v>553</v>
+        <v>819</v>
       </c>
       <c r="E207" s="2">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="F207" s="2">
-        <v>138</v>
+        <v>190</v>
       </c>
       <c r="G207" s="2">
-        <v>2.8</v>
+        <v>2.81</v>
       </c>
       <c r="H207" s="2">
-        <v>571</v>
+        <v>775</v>
       </c>
       <c r="I207" s="3">
-        <v>0.59899999999999998</v>
+        <v>0.58499999999999996</v>
       </c>
     </row>
     <row r="208" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7260,22 +7260,22 @@
         <v>13</v>
       </c>
       <c r="D208" s="2">
-        <v>624</v>
+        <v>915</v>
       </c>
       <c r="E208" s="2">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="F208" s="2">
-        <v>133</v>
+        <v>207</v>
       </c>
       <c r="G208" s="2">
-        <v>3.37</v>
+        <v>3.38</v>
       </c>
       <c r="H208" s="2">
-        <v>578</v>
+        <v>937</v>
       </c>
       <c r="I208" s="3">
-        <v>0.61099999999999999</v>
+        <v>0.59899999999999998</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7289,22 +7289,22 @@
         <v>13</v>
       </c>
       <c r="D209" s="2">
-        <v>388</v>
+        <v>616</v>
       </c>
       <c r="E209" s="2">
-        <v>2.0499999999999998</v>
+        <v>2.04</v>
       </c>
       <c r="F209" s="2">
-        <v>98</v>
+        <v>149</v>
       </c>
       <c r="G209" s="2">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="H209" s="2">
-        <v>442</v>
+        <v>678</v>
       </c>
       <c r="I209" s="3">
-        <v>0.56999999999999995</v>
+        <v>0.55300000000000005</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7318,22 +7318,22 @@
         <v>13</v>
       </c>
       <c r="D210" s="2">
-        <v>736</v>
+        <v>1057</v>
       </c>
       <c r="E210" s="2">
-        <v>3.13</v>
+        <v>3.15</v>
       </c>
       <c r="F210" s="2">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="G210" s="2">
-        <v>4.04</v>
+        <v>4.13</v>
       </c>
       <c r="H210" s="2">
-        <v>325</v>
+        <v>389</v>
       </c>
       <c r="I210" s="3">
-        <v>0.56899999999999995</v>
+        <v>0.55500000000000005</v>
       </c>
     </row>
     <row r="211" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7347,22 +7347,22 @@
         <v>13</v>
       </c>
       <c r="D211" s="2">
-        <v>608</v>
+        <v>902</v>
       </c>
       <c r="E211" s="2">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="F211" s="2">
-        <v>113</v>
+        <v>153</v>
       </c>
       <c r="G211" s="2">
-        <v>3.37</v>
+        <v>3.28</v>
       </c>
       <c r="H211" s="2">
-        <v>529</v>
+        <v>718</v>
       </c>
       <c r="I211" s="3">
-        <v>0.57499999999999996</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="212" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7376,22 +7376,22 @@
         <v>13</v>
       </c>
       <c r="D212" s="2">
-        <v>490</v>
+        <v>731</v>
       </c>
       <c r="E212" s="2">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="F212" s="2">
-        <v>121</v>
+        <v>173</v>
       </c>
       <c r="G212" s="2">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="H212" s="2">
-        <v>513</v>
+        <v>667</v>
       </c>
       <c r="I212" s="3">
-        <v>0.54600000000000004</v>
+        <v>0.53400000000000003</v>
       </c>
     </row>
     <row r="213" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7405,22 +7405,22 @@
         <v>13</v>
       </c>
       <c r="D213" s="2">
-        <v>609</v>
+        <v>910</v>
       </c>
       <c r="E213" s="2">
-        <v>2.62</v>
+        <v>2.61</v>
       </c>
       <c r="F213" s="2">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="G213" s="2">
-        <v>3.26</v>
+        <v>3.3</v>
       </c>
       <c r="H213" s="2">
-        <v>373</v>
+        <v>551</v>
       </c>
       <c r="I213" s="3">
-        <v>0.56599999999999995</v>
+        <v>0.55500000000000005</v>
       </c>
     </row>
     <row r="214" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7434,22 +7434,22 @@
         <v>13</v>
       </c>
       <c r="D214" s="2">
-        <v>524</v>
+        <v>757</v>
       </c>
       <c r="E214" s="2">
-        <v>2.4</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F214" s="2">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="G214" s="2">
-        <v>2.76</v>
+        <v>2.9</v>
       </c>
       <c r="H214" s="2">
-        <v>343</v>
+        <v>476</v>
       </c>
       <c r="I214" s="3">
-        <v>0.56599999999999995</v>
+        <v>0.56100000000000005</v>
       </c>
     </row>
     <row r="215" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7463,22 +7463,22 @@
         <v>13</v>
       </c>
       <c r="D215" s="2">
-        <v>531</v>
+        <v>792</v>
       </c>
       <c r="E215" s="2">
-        <v>2.4700000000000002</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F215" s="2">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="G215" s="2">
-        <v>3.13</v>
+        <v>3.07</v>
       </c>
       <c r="H215" s="2">
-        <v>478</v>
+        <v>633</v>
       </c>
       <c r="I215" s="3">
-        <v>0.54200000000000004</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="216" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7492,22 +7492,22 @@
         <v>13</v>
       </c>
       <c r="D216" s="2">
-        <v>575</v>
+        <v>837</v>
       </c>
       <c r="E216" s="2">
-        <v>2.46</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="F216" s="2">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="G216" s="2">
-        <v>3.04</v>
+        <v>3.08</v>
       </c>
       <c r="H216" s="2">
-        <v>358</v>
+        <v>473</v>
       </c>
       <c r="I216" s="3">
-        <v>0.53400000000000003</v>
+        <v>0.53700000000000003</v>
       </c>
     </row>
     <row r="217" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7519,22 +7519,22 @@
         <v>13</v>
       </c>
       <c r="D217" s="2">
-        <v>619</v>
+        <v>897</v>
       </c>
       <c r="E217" s="2">
-        <v>2.5299999999999998</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="F217" s="2">
-        <v>174</v>
+        <v>243</v>
       </c>
       <c r="G217" s="2">
-        <v>3.21</v>
+        <v>3.18</v>
       </c>
       <c r="H217" s="2">
-        <v>867</v>
+        <v>1178</v>
       </c>
       <c r="I217" s="3">
-        <v>0.56699999999999995</v>
+        <v>0.55600000000000005</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
@@ -7546,22 +7546,22 @@
         <v>16</v>
       </c>
       <c r="D218" s="2">
-        <v>3248</v>
+        <v>4913</v>
       </c>
       <c r="E218" s="2">
-        <v>7.04</v>
+        <v>7.02</v>
       </c>
       <c r="F218" s="2">
-        <v>402</v>
+        <v>604</v>
       </c>
       <c r="G218" s="2">
-        <v>9.76</v>
+        <v>9.7899999999999991</v>
       </c>
       <c r="H218" s="2">
-        <v>542</v>
+        <v>786</v>
       </c>
       <c r="I218" s="3">
-        <v>0.52800000000000002</v>
+        <v>0.53400000000000003</v>
       </c>
     </row>
     <row r="219" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7573,22 +7573,22 @@
         <v>13</v>
       </c>
       <c r="D219" s="2">
-        <v>570</v>
+        <v>829</v>
       </c>
       <c r="E219" s="2">
-        <v>2.5299999999999998</v>
+        <v>2.46</v>
       </c>
       <c r="F219" s="2">
-        <v>155</v>
+        <v>230</v>
       </c>
       <c r="G219" s="2">
-        <v>3.22</v>
+        <v>3.09</v>
       </c>
       <c r="H219" s="2">
-        <v>661</v>
+        <v>1017</v>
       </c>
       <c r="I219" s="3">
-        <v>0.51900000000000002</v>
+        <v>0.52600000000000002</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
@@ -7600,22 +7600,22 @@
         <v>16</v>
       </c>
       <c r="D220" s="2">
-        <v>3398</v>
+        <v>5076</v>
       </c>
       <c r="E220" s="2">
-        <v>7.83</v>
+        <v>7.8</v>
       </c>
       <c r="F220" s="2">
-        <v>906</v>
+        <v>1373</v>
       </c>
       <c r="G220" s="2">
-        <v>10</v>
+        <v>9.94</v>
       </c>
       <c r="H220" s="2">
-        <v>1837</v>
+        <v>2930</v>
       </c>
       <c r="I220" s="3">
-        <v>0.55700000000000005</v>
+        <v>0.54700000000000004</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
@@ -7627,22 +7627,22 @@
         <v>16</v>
       </c>
       <c r="D221" s="2">
-        <v>3140</v>
+        <v>4575</v>
       </c>
       <c r="E221" s="2">
-        <v>5.05</v>
+        <v>4.99</v>
       </c>
       <c r="F221" s="2">
-        <v>993</v>
+        <v>1445</v>
       </c>
       <c r="G221" s="2">
-        <v>6.45</v>
+        <v>6.41</v>
       </c>
       <c r="H221" s="2">
-        <v>3457</v>
+        <v>5167</v>
       </c>
       <c r="I221" s="3">
-        <v>0.56100000000000005</v>
+        <v>0.55200000000000005</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
@@ -7654,22 +7654,22 @@
         <v>16</v>
       </c>
       <c r="D222" s="2">
-        <v>3382</v>
+        <v>5063</v>
       </c>
       <c r="E222" s="2">
         <v>7.65</v>
       </c>
       <c r="F222" s="2">
-        <v>823</v>
+        <v>1192</v>
       </c>
       <c r="G222" s="2">
-        <v>9.61</v>
+        <v>9.7100000000000009</v>
       </c>
       <c r="H222" s="2">
-        <v>1520</v>
+        <v>2231</v>
       </c>
       <c r="I222" s="3">
-        <v>0.55200000000000005</v>
+        <v>0.54200000000000004</v>
       </c>
     </row>
     <row r="223" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7681,22 +7681,22 @@
         <v>13</v>
       </c>
       <c r="D223" s="2">
-        <v>685</v>
+        <v>1003</v>
       </c>
       <c r="E223" s="2">
-        <v>3.04</v>
+        <v>2.99</v>
       </c>
       <c r="F223" s="2">
-        <v>125</v>
+        <v>187</v>
       </c>
       <c r="G223" s="2">
-        <v>3.93</v>
+        <v>3.79</v>
       </c>
       <c r="H223" s="2">
-        <v>590</v>
+        <v>897</v>
       </c>
       <c r="I223" s="3">
-        <v>0.56899999999999995</v>
+        <v>0.55900000000000005</v>
       </c>
     </row>
     <row r="224" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7708,22 +7708,22 @@
         <v>13</v>
       </c>
       <c r="D224" s="2">
-        <v>1110</v>
+        <v>1655</v>
       </c>
       <c r="E224" s="2">
-        <v>7.05</v>
+        <v>7.04</v>
       </c>
       <c r="F224" s="2">
-        <v>112</v>
+        <v>171</v>
       </c>
       <c r="G224" s="2">
-        <v>11.01</v>
+        <v>10.74</v>
       </c>
       <c r="H224" s="2">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="I224" s="3">
-        <v>0.64700000000000002</v>
+        <v>0.57799999999999996</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
@@ -7735,22 +7735,22 @@
         <v>16</v>
       </c>
       <c r="D225" s="2">
-        <v>3493</v>
+        <v>5110</v>
       </c>
       <c r="E225" s="2">
-        <v>7.62</v>
+        <v>7.64</v>
       </c>
       <c r="F225" s="2">
-        <v>722</v>
+        <v>1013</v>
       </c>
       <c r="G225" s="2">
-        <v>10.01</v>
+        <v>9.98</v>
       </c>
       <c r="H225" s="2">
-        <v>1198</v>
+        <v>1749</v>
       </c>
       <c r="I225" s="3">
-        <v>0.53800000000000003</v>
+        <v>0.53500000000000003</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
@@ -7762,22 +7762,22 @@
         <v>16</v>
       </c>
       <c r="D226" s="2">
-        <v>3364</v>
+        <v>5044</v>
       </c>
       <c r="E226" s="2">
-        <v>8.61</v>
+        <v>8.6300000000000008</v>
       </c>
       <c r="F226" s="2">
-        <v>493</v>
+        <v>725</v>
       </c>
       <c r="G226" s="2">
-        <v>11.72</v>
+        <v>11.78</v>
       </c>
       <c r="H226" s="2">
-        <v>174</v>
+        <v>320</v>
       </c>
       <c r="I226" s="3">
-        <v>0.46600000000000003</v>
+        <v>0.48099999999999998</v>
       </c>
     </row>
     <row r="227" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7789,22 +7789,22 @@
         <v>13</v>
       </c>
       <c r="D227" s="2">
-        <v>848</v>
+        <v>1229</v>
       </c>
       <c r="E227" s="2">
-        <v>3.54</v>
+        <v>3.43</v>
       </c>
       <c r="F227" s="2">
-        <v>331</v>
+        <v>507</v>
       </c>
       <c r="G227" s="2">
-        <v>4.1100000000000003</v>
+        <v>3.94</v>
       </c>
       <c r="H227" s="2">
-        <v>1176</v>
+        <v>1724</v>
       </c>
       <c r="I227" s="3">
-        <v>0.54700000000000004</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
@@ -7816,22 +7816,22 @@
         <v>16</v>
       </c>
       <c r="D228" s="2">
-        <v>3306</v>
+        <v>4951</v>
       </c>
       <c r="E228" s="2">
-        <v>6.38</v>
+        <v>6.39</v>
       </c>
       <c r="F228" s="2">
-        <v>393</v>
+        <v>557</v>
       </c>
       <c r="G228" s="2">
-        <v>9.3699999999999992</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="H228" s="2">
-        <v>708</v>
+        <v>1098</v>
       </c>
       <c r="I228" s="3">
-        <v>0.55100000000000005</v>
+        <v>0.52400000000000002</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
@@ -7843,22 +7843,22 @@
         <v>16</v>
       </c>
       <c r="D229" s="2">
-        <v>3370</v>
+        <v>4975</v>
       </c>
       <c r="E229" s="2">
-        <v>8.14</v>
+        <v>8.17</v>
       </c>
       <c r="F229" s="2">
-        <v>403</v>
+        <v>582</v>
       </c>
       <c r="G229" s="2">
-        <v>11.29</v>
+        <v>11.4</v>
       </c>
       <c r="H229" s="2">
-        <v>245</v>
+        <v>361</v>
       </c>
       <c r="I229" s="3">
-        <v>0.44900000000000001</v>
+        <v>0.45400000000000001</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
@@ -7870,22 +7870,22 @@
         <v>16</v>
       </c>
       <c r="D230" s="2">
-        <v>2549</v>
+        <v>3779</v>
       </c>
       <c r="E230" s="2">
-        <v>4.04</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="F230" s="2">
-        <v>672</v>
+        <v>1017</v>
       </c>
       <c r="G230" s="2">
-        <v>5.54</v>
+        <v>5.41</v>
       </c>
       <c r="H230" s="2">
-        <v>2902</v>
+        <v>4413</v>
       </c>
       <c r="I230" s="3">
-        <v>0.56100000000000005</v>
+        <v>0.54900000000000004</v>
       </c>
     </row>
     <row r="231" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7897,19 +7897,19 @@
         <v>13</v>
       </c>
       <c r="D231" s="2">
-        <v>1126</v>
+        <v>1721</v>
       </c>
       <c r="E231" s="2">
-        <v>7.14</v>
+        <v>7.07</v>
       </c>
       <c r="F231" s="2">
-        <v>205</v>
+        <v>350</v>
       </c>
       <c r="G231" s="2">
-        <v>9.74</v>
+        <v>9.61</v>
       </c>
       <c r="H231" s="2">
-        <v>348</v>
+        <v>529</v>
       </c>
       <c r="I231" s="3">
         <v>0.50900000000000001</v>
@@ -7924,22 +7924,22 @@
         <v>16</v>
       </c>
       <c r="D232" s="2">
-        <v>3337</v>
+        <v>5050</v>
       </c>
       <c r="E232" s="2">
-        <v>8.23</v>
+        <v>8.26</v>
       </c>
       <c r="F232" s="2">
-        <v>485</v>
+        <v>726</v>
       </c>
       <c r="G232" s="2">
-        <v>11.1</v>
+        <v>11.11</v>
       </c>
       <c r="H232" s="2">
-        <v>439</v>
+        <v>601</v>
       </c>
       <c r="I232" s="3">
-        <v>0.52800000000000002</v>
+        <v>0.51400000000000001</v>
       </c>
     </row>
     <row r="233" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7951,22 +7951,22 @@
         <v>13</v>
       </c>
       <c r="D233" s="2">
-        <v>1125</v>
+        <v>1732</v>
       </c>
       <c r="E233" s="2">
-        <v>6.25</v>
+        <v>6.24</v>
       </c>
       <c r="F233" s="2">
-        <v>393</v>
+        <v>584</v>
       </c>
       <c r="G233" s="2">
-        <v>7.5</v>
+        <v>7.49</v>
       </c>
       <c r="H233" s="2">
-        <v>1063</v>
+        <v>1585</v>
       </c>
       <c r="I233" s="3">
-        <v>0.54800000000000004</v>
+        <v>0.53400000000000003</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
@@ -7978,19 +7978,19 @@
         <v>11</v>
       </c>
       <c r="D234" s="2">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="E234" s="2">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="F234" s="2">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="G234" s="2">
-        <v>1.06</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="H234" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I234" s="3">
         <v>0.4</v>
@@ -8005,22 +8005,22 @@
         <v>13</v>
       </c>
       <c r="D235" s="2">
-        <v>654</v>
+        <v>992</v>
       </c>
       <c r="E235" s="2">
-        <v>2.93</v>
+        <v>2.91</v>
       </c>
       <c r="F235" s="2">
-        <v>112</v>
+        <v>178</v>
       </c>
       <c r="G235" s="2">
-        <v>3.88</v>
+        <v>3.89</v>
       </c>
       <c r="H235" s="2">
-        <v>493</v>
+        <v>777</v>
       </c>
       <c r="I235" s="3">
-        <v>0.55800000000000005</v>
+        <v>0.54800000000000004</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
@@ -8032,22 +8032,22 @@
         <v>11</v>
       </c>
       <c r="D236" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="E236" s="2">
         <v>1.05</v>
       </c>
       <c r="F236" s="2">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="G236" s="2">
         <v>1.05</v>
       </c>
       <c r="H236" s="2">
-        <v>439</v>
+        <v>644</v>
       </c>
       <c r="I236" s="3">
-        <v>0.58799999999999997</v>
+        <v>0.55900000000000005</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
@@ -8059,22 +8059,22 @@
         <v>16</v>
       </c>
       <c r="D237" s="2">
-        <v>3324</v>
+        <v>5005</v>
       </c>
       <c r="E237" s="2">
-        <v>7.7</v>
+        <v>7.71</v>
       </c>
       <c r="F237" s="2">
-        <v>334</v>
+        <v>541</v>
       </c>
       <c r="G237" s="2">
-        <v>10.94</v>
+        <v>11.02</v>
       </c>
       <c r="H237" s="2">
-        <v>260</v>
+        <v>416</v>
       </c>
       <c r="I237" s="3">
-        <v>0.52300000000000002</v>
+        <v>0.52200000000000002</v>
       </c>
     </row>
     <row r="238" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -8086,22 +8086,22 @@
         <v>13</v>
       </c>
       <c r="D238" s="2">
-        <v>894</v>
+        <v>1335</v>
       </c>
       <c r="E238" s="2">
-        <v>4.07</v>
+        <v>4.05</v>
       </c>
       <c r="F238" s="2">
-        <v>180</v>
+        <v>262</v>
       </c>
       <c r="G238" s="2">
-        <v>5.53</v>
+        <v>5.54</v>
       </c>
       <c r="H238" s="2">
-        <v>498</v>
+        <v>800</v>
       </c>
       <c r="I238" s="3">
-        <v>0.55200000000000005</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
@@ -8115,22 +8115,22 @@
         <v>11</v>
       </c>
       <c r="D239" s="2">
-        <v>112</v>
+        <v>157</v>
       </c>
       <c r="E239" s="2">
         <v>1.38</v>
       </c>
       <c r="F239" s="2">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="G239" s="2">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="H239" s="2">
-        <v>129</v>
+        <v>179</v>
       </c>
       <c r="I239" s="3">
-        <v>0.47299999999999998</v>
+        <v>0.46400000000000002</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
@@ -8144,22 +8144,22 @@
         <v>11</v>
       </c>
       <c r="D240" s="2">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="E240" s="2">
         <v>1.41</v>
       </c>
       <c r="F240" s="2">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G240" s="2">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="H240" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="I240" s="3">
-        <v>0.55300000000000005</v>
+        <v>0.54100000000000004</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
@@ -8173,22 +8173,22 @@
         <v>11</v>
       </c>
       <c r="D241" s="2">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="E241" s="2">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="F241" s="2">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G241" s="2">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="H241" s="2">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="I241" s="3">
-        <v>0.53900000000000003</v>
+        <v>0.52900000000000003</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
@@ -8202,22 +8202,22 @@
         <v>11</v>
       </c>
       <c r="D242" s="2">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="E242" s="2">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="F242" s="2">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="G242" s="2">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="H242" s="2">
-        <v>148</v>
+        <v>204</v>
       </c>
       <c r="I242" s="3">
-        <v>0.51400000000000001</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
@@ -8231,22 +8231,22 @@
         <v>11</v>
       </c>
       <c r="D243" s="2">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c r="E243" s="2">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="F243" s="2">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="G243" s="2">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="H243" s="2">
-        <v>217</v>
+        <v>270</v>
       </c>
       <c r="I243" s="3">
-        <v>0.64500000000000002</v>
+        <v>0.61099999999999999</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
@@ -8260,22 +8260,22 @@
         <v>16</v>
       </c>
       <c r="D244" s="2">
-        <v>3293</v>
+        <v>4930</v>
       </c>
       <c r="E244" s="2">
-        <v>8.14</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="F244" s="2">
-        <v>340</v>
+        <v>498</v>
       </c>
       <c r="G244" s="2">
-        <v>11.59</v>
+        <v>11.77</v>
       </c>
       <c r="H244" s="2">
-        <v>580</v>
+        <v>770</v>
       </c>
       <c r="I244" s="3">
-        <v>0.55000000000000004</v>
+        <v>0.53800000000000003</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
@@ -8287,22 +8287,22 @@
         <v>11</v>
       </c>
       <c r="D245" s="2">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="E245" s="2">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="F245" s="2">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="G245" s="2">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="H245" s="2">
-        <v>141</v>
+        <v>246</v>
       </c>
       <c r="I245" s="3">
-        <v>0.53900000000000003</v>
+        <v>0.51600000000000001</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
@@ -8316,22 +8316,22 @@
         <v>16</v>
       </c>
       <c r="D246" s="2">
-        <v>3255</v>
+        <v>4870</v>
       </c>
       <c r="E246" s="2">
-        <v>8</v>
+        <v>8.08</v>
       </c>
       <c r="F246" s="2">
-        <v>474</v>
+        <v>714</v>
       </c>
       <c r="G246" s="2">
-        <v>11.02</v>
+        <v>11</v>
       </c>
       <c r="H246" s="2">
-        <v>920</v>
+        <v>1424</v>
       </c>
       <c r="I246" s="3">
-        <v>0.56799999999999995</v>
+        <v>0.55300000000000005</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
@@ -8345,22 +8345,22 @@
         <v>16</v>
       </c>
       <c r="D247" s="2">
-        <v>3433</v>
+        <v>5069</v>
       </c>
       <c r="E247" s="2">
-        <v>8.07</v>
+        <v>8.06</v>
       </c>
       <c r="F247" s="2">
-        <v>418</v>
+        <v>640</v>
       </c>
       <c r="G247" s="2">
-        <v>11.19</v>
+        <v>11.11</v>
       </c>
       <c r="H247" s="2">
-        <v>796</v>
+        <v>1265</v>
       </c>
       <c r="I247" s="3">
-        <v>0.54900000000000004</v>
+        <v>0.55600000000000005</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
@@ -8374,22 +8374,22 @@
         <v>16</v>
       </c>
       <c r="D248" s="2">
-        <v>3389</v>
+        <v>5101</v>
       </c>
       <c r="E248" s="2">
-        <v>8.1</v>
+        <v>8.07</v>
       </c>
       <c r="F248" s="2">
-        <v>644</v>
+        <v>956</v>
       </c>
       <c r="G248" s="2">
-        <v>10.48</v>
+        <v>10.54</v>
       </c>
       <c r="H248" s="2">
-        <v>1645</v>
+        <v>2508</v>
       </c>
       <c r="I248" s="3">
-        <v>0.56999999999999995</v>
+        <v>0.56100000000000005</v>
       </c>
     </row>
     <row r="249" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -8403,22 +8403,22 @@
         <v>13</v>
       </c>
       <c r="D249" s="2">
-        <v>1126</v>
+        <v>1718</v>
       </c>
       <c r="E249" s="2">
-        <v>7.25</v>
+        <v>7.26</v>
       </c>
       <c r="F249" s="2">
-        <v>211</v>
+        <v>320</v>
       </c>
       <c r="G249" s="2">
-        <v>9.64</v>
+        <v>9.7799999999999994</v>
       </c>
       <c r="H249" s="2">
-        <v>349</v>
+        <v>494</v>
       </c>
       <c r="I249" s="3">
-        <v>0.52700000000000002</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
@@ -8432,22 +8432,22 @@
         <v>16</v>
       </c>
       <c r="D250" s="2">
-        <v>3332</v>
+        <v>4967</v>
       </c>
       <c r="E250" s="2">
-        <v>7.69</v>
+        <v>7.7</v>
       </c>
       <c r="F250" s="2">
-        <v>516</v>
+        <v>721</v>
       </c>
       <c r="G250" s="2">
-        <v>10.67</v>
+        <v>10.81</v>
       </c>
       <c r="H250" s="2">
-        <v>1051</v>
+        <v>1480</v>
       </c>
       <c r="I250" s="3">
-        <v>0.52400000000000002</v>
+        <v>0.51900000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/17Lands.xlsx
+++ b/17Lands.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\17lands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080C3203-B1F5-4C76-AFD3-DD4B63778902}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5593293-A7A1-477A-B850-3A590ED57D78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{8943F25A-5914-4368-9FD9-3EAA21A0D66A}"/>
+    <workbookView xWindow="-22005" yWindow="3255" windowWidth="21600" windowHeight="9255" xr2:uid="{8943F25A-5914-4368-9FD9-3EAA21A0D66A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="279">
   <si>
     <t>Name</t>
   </si>
@@ -1286,22 +1286,22 @@
         <v>11</v>
       </c>
       <c r="D2" s="2">
-        <v>167</v>
+        <v>67</v>
       </c>
       <c r="E2" s="2">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
       <c r="F2" s="2">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2">
-        <v>1.36</v>
+        <v>1.82</v>
       </c>
       <c r="H2" s="2">
-        <v>292</v>
+        <v>86</v>
       </c>
       <c r="I2" s="3">
-        <v>0.51700000000000002</v>
+        <v>0.51200000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1315,22 +1315,22 @@
         <v>13</v>
       </c>
       <c r="D3" s="2">
-        <v>1704</v>
+        <v>749</v>
       </c>
       <c r="E3" s="2">
-        <v>6.29</v>
+        <v>6.41</v>
       </c>
       <c r="F3" s="2">
-        <v>247</v>
+        <v>153</v>
       </c>
       <c r="G3" s="2">
-        <v>8.4700000000000006</v>
+        <v>8.81</v>
       </c>
       <c r="H3" s="2">
-        <v>402</v>
+        <v>337</v>
       </c>
       <c r="I3" s="3">
-        <v>0.56499999999999995</v>
+        <v>0.59099999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1344,22 +1344,22 @@
         <v>13</v>
       </c>
       <c r="D4" s="2">
-        <v>718</v>
+        <v>345</v>
       </c>
       <c r="E4" s="2">
-        <v>2.2200000000000002</v>
+        <v>2.16</v>
       </c>
       <c r="F4" s="2">
-        <v>188</v>
+        <v>111</v>
       </c>
       <c r="G4" s="2">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="H4" s="2">
-        <v>870</v>
+        <v>422</v>
       </c>
       <c r="I4" s="3">
-        <v>0.58299999999999996</v>
+        <v>0.59699999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1373,22 +1373,22 @@
         <v>16</v>
       </c>
       <c r="D5" s="2">
-        <v>4625</v>
+        <v>1975</v>
       </c>
       <c r="E5" s="2">
-        <v>5.81</v>
+        <v>5.93</v>
       </c>
       <c r="F5" s="2">
-        <v>345</v>
+        <v>178</v>
       </c>
       <c r="G5" s="2">
-        <v>8.89</v>
+        <v>8.81</v>
       </c>
       <c r="H5" s="2">
-        <v>742</v>
+        <v>262</v>
       </c>
       <c r="I5" s="3">
-        <v>0.51300000000000001</v>
+        <v>0.51900000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1402,22 +1402,22 @@
         <v>16</v>
       </c>
       <c r="D6" s="2">
-        <v>2215</v>
+        <v>1001</v>
       </c>
       <c r="E6" s="2">
-        <v>2.92</v>
+        <v>3.02</v>
       </c>
       <c r="F6" s="2">
-        <v>495</v>
+        <v>261</v>
       </c>
       <c r="G6" s="2">
-        <v>3.53</v>
+        <v>3.73</v>
       </c>
       <c r="H6" s="2">
-        <v>1852</v>
+        <v>914</v>
       </c>
       <c r="I6" s="3">
-        <v>0.55900000000000005</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1431,22 +1431,22 @@
         <v>16</v>
       </c>
       <c r="D7" s="2">
-        <v>5004</v>
+        <v>2186</v>
       </c>
       <c r="E7" s="2">
-        <v>7.92</v>
+        <v>7.94</v>
       </c>
       <c r="F7" s="2">
-        <v>460</v>
+        <v>178</v>
       </c>
       <c r="G7" s="2">
-        <v>11.87</v>
+        <v>11.84</v>
       </c>
       <c r="H7" s="2">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="I7" s="3">
-        <v>0.47</v>
+        <v>0.32100000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1460,22 +1460,22 @@
         <v>16</v>
       </c>
       <c r="D8" s="2">
-        <v>4994</v>
+        <v>2168</v>
       </c>
       <c r="E8" s="2">
-        <v>9.5500000000000007</v>
+        <v>9.69</v>
       </c>
       <c r="F8" s="2">
-        <v>874</v>
+        <v>418</v>
       </c>
       <c r="G8" s="2">
-        <v>12.42</v>
+        <v>12.64</v>
       </c>
       <c r="H8" s="2">
-        <v>285</v>
+        <v>99</v>
       </c>
       <c r="I8" s="3">
-        <v>0.51600000000000001</v>
+        <v>0.55600000000000005</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1489,22 +1489,22 @@
         <v>11</v>
       </c>
       <c r="D9" s="2">
-        <v>166</v>
+        <v>70</v>
       </c>
       <c r="E9" s="2">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="F9" s="2">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="G9" s="2">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="H9" s="2">
-        <v>292</v>
+        <v>107</v>
       </c>
       <c r="I9" s="3">
-        <v>0.55800000000000005</v>
+        <v>0.56100000000000005</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1518,22 +1518,22 @@
         <v>22</v>
       </c>
       <c r="D10" s="2">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
       </c>
       <c r="F10" s="2">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
       </c>
       <c r="H10" s="2">
-        <v>186</v>
+        <v>84</v>
       </c>
       <c r="I10" s="3">
-        <v>0.54800000000000004</v>
+        <v>0.52400000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1547,22 +1547,22 @@
         <v>13</v>
       </c>
       <c r="D11" s="2">
-        <v>1767</v>
+        <v>735</v>
       </c>
       <c r="E11" s="2">
-        <v>8.8800000000000008</v>
+        <v>8.94</v>
       </c>
       <c r="F11" s="2">
-        <v>339</v>
+        <v>125</v>
       </c>
       <c r="G11" s="2">
-        <v>12.61</v>
+        <v>12.69</v>
       </c>
       <c r="H11" s="2">
-        <v>5</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0.4</v>
+        <v>0</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1576,22 +1576,22 @@
         <v>16</v>
       </c>
       <c r="D12" s="2">
-        <v>4846</v>
+        <v>2122</v>
       </c>
       <c r="E12" s="2">
         <v>6.46</v>
       </c>
       <c r="F12" s="2">
-        <v>1202</v>
+        <v>669</v>
       </c>
       <c r="G12" s="2">
-        <v>7.87</v>
+        <v>7.51</v>
       </c>
       <c r="H12" s="2">
-        <v>2740</v>
+        <v>1351</v>
       </c>
       <c r="I12" s="3">
-        <v>0.54500000000000004</v>
+        <v>0.56100000000000005</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1605,22 +1605,22 @@
         <v>16</v>
       </c>
       <c r="D13" s="2">
-        <v>4266</v>
+        <v>1886</v>
       </c>
       <c r="E13" s="2">
-        <v>5.03</v>
+        <v>5.05</v>
       </c>
       <c r="F13" s="2">
-        <v>874</v>
+        <v>390</v>
       </c>
       <c r="G13" s="2">
-        <v>6.47</v>
+        <v>6.48</v>
       </c>
       <c r="H13" s="2">
-        <v>2274</v>
+        <v>1013</v>
       </c>
       <c r="I13" s="3">
-        <v>0.55000000000000004</v>
+        <v>0.57199999999999995</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1634,22 +1634,22 @@
         <v>16</v>
       </c>
       <c r="D14" s="2">
-        <v>5038</v>
+        <v>2141</v>
       </c>
       <c r="E14" s="2">
-        <v>7.87</v>
+        <v>8</v>
       </c>
       <c r="F14" s="2">
-        <v>483</v>
+        <v>234</v>
       </c>
       <c r="G14" s="2">
-        <v>11.52</v>
+        <v>11.56</v>
       </c>
       <c r="H14" s="2">
-        <v>218</v>
+        <v>82</v>
       </c>
       <c r="I14" s="3">
-        <v>0.48199999999999998</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1663,22 +1663,22 @@
         <v>11</v>
       </c>
       <c r="D15" s="2">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
       </c>
       <c r="F15" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
       </c>
       <c r="H15" s="2">
-        <v>388</v>
+        <v>173</v>
       </c>
       <c r="I15" s="3">
-        <v>0.57499999999999996</v>
+        <v>0.57799999999999996</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1692,22 +1692,22 @@
         <v>13</v>
       </c>
       <c r="D16" s="2">
-        <v>803</v>
+        <v>351</v>
       </c>
       <c r="E16" s="2">
-        <v>2.64</v>
+        <v>2.63</v>
       </c>
       <c r="F16" s="2">
-        <v>218</v>
+        <v>94</v>
       </c>
       <c r="G16" s="2">
-        <v>3.28</v>
+        <v>3.31</v>
       </c>
       <c r="H16" s="2">
-        <v>914</v>
+        <v>332</v>
       </c>
       <c r="I16" s="3">
-        <v>0.53600000000000003</v>
+        <v>0.55100000000000005</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1721,16 +1721,16 @@
         <v>11</v>
       </c>
       <c r="D17" s="2">
-        <v>171</v>
+        <v>71</v>
       </c>
       <c r="E17" s="2">
-        <v>1.84</v>
+        <v>1.52</v>
       </c>
       <c r="F17" s="2">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="G17" s="2">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
@@ -1750,22 +1750,22 @@
         <v>22</v>
       </c>
       <c r="D18" s="2">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="E18" s="2">
         <v>1</v>
       </c>
       <c r="F18" s="2">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
       </c>
       <c r="H18" s="2">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="I18" s="3">
-        <v>0.57999999999999996</v>
+        <v>0.53600000000000003</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1779,22 +1779,22 @@
         <v>11</v>
       </c>
       <c r="D19" s="2">
-        <v>161</v>
+        <v>60</v>
       </c>
       <c r="E19" s="2">
+        <v>1.47</v>
+      </c>
+      <c r="F19" s="2">
+        <v>11</v>
+      </c>
+      <c r="G19" s="2">
         <v>1.55</v>
       </c>
-      <c r="F19" s="2">
-        <v>51</v>
-      </c>
-      <c r="G19" s="2">
-        <v>1.45</v>
-      </c>
       <c r="H19" s="2">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="I19" s="3">
-        <v>0.59699999999999998</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1808,22 +1808,22 @@
         <v>16</v>
       </c>
       <c r="D20" s="2">
-        <v>5012</v>
+        <v>2160</v>
       </c>
       <c r="E20" s="2">
-        <v>8.1300000000000008</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="F20" s="2">
-        <v>651</v>
+        <v>283</v>
       </c>
       <c r="G20" s="2">
-        <v>10.99</v>
+        <v>11.3</v>
       </c>
       <c r="H20" s="2">
-        <v>808</v>
+        <v>270</v>
       </c>
       <c r="I20" s="3">
-        <v>0.53200000000000003</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1837,22 +1837,22 @@
         <v>11</v>
       </c>
       <c r="D21" s="2">
-        <v>166</v>
+        <v>71</v>
       </c>
       <c r="E21" s="2">
         <v>1.52</v>
       </c>
       <c r="F21" s="2">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="G21" s="2">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="H21" s="2">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="I21" s="3">
-        <v>0.496</v>
+        <v>0.52500000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1866,22 +1866,22 @@
         <v>16</v>
       </c>
       <c r="D22" s="2">
-        <v>4485</v>
+        <v>1887</v>
       </c>
       <c r="E22" s="2">
-        <v>5.14</v>
+        <v>5.31</v>
       </c>
       <c r="F22" s="2">
-        <v>681</v>
+        <v>281</v>
       </c>
       <c r="G22" s="2">
-        <v>7.14</v>
+        <v>7.19</v>
       </c>
       <c r="H22" s="2">
-        <v>1906</v>
+        <v>672</v>
       </c>
       <c r="I22" s="3">
-        <v>0.54500000000000004</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1895,22 +1895,22 @@
         <v>13</v>
       </c>
       <c r="D23" s="2">
-        <v>1018</v>
+        <v>476</v>
       </c>
       <c r="E23" s="2">
-        <v>3.05</v>
+        <v>3.04</v>
       </c>
       <c r="F23" s="2">
-        <v>296</v>
+        <v>148</v>
       </c>
       <c r="G23" s="2">
-        <v>3.63</v>
+        <v>3.53</v>
       </c>
       <c r="H23" s="2">
-        <v>1127</v>
+        <v>581</v>
       </c>
       <c r="I23" s="3">
-        <v>0.56499999999999995</v>
+        <v>0.53900000000000003</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1924,22 +1924,22 @@
         <v>16</v>
       </c>
       <c r="D24" s="2">
-        <v>4648</v>
+        <v>2013</v>
       </c>
       <c r="E24" s="2">
-        <v>5.8</v>
+        <v>5.86</v>
       </c>
       <c r="F24" s="2">
-        <v>524</v>
+        <v>219</v>
       </c>
       <c r="G24" s="2">
-        <v>8.35</v>
+        <v>8.41</v>
       </c>
       <c r="H24" s="2">
-        <v>1463</v>
+        <v>625</v>
       </c>
       <c r="I24" s="3">
-        <v>0.54600000000000004</v>
+        <v>0.56599999999999995</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1953,22 +1953,22 @@
         <v>16</v>
       </c>
       <c r="D25" s="2">
-        <v>4338</v>
+        <v>1868</v>
       </c>
       <c r="E25" s="2">
-        <v>5.18</v>
+        <v>5.24</v>
       </c>
       <c r="F25" s="2">
-        <v>403</v>
+        <v>172</v>
       </c>
       <c r="G25" s="2">
-        <v>7.83</v>
+        <v>7.84</v>
       </c>
       <c r="H25" s="2">
-        <v>1102</v>
+        <v>432</v>
       </c>
       <c r="I25" s="3">
-        <v>0.52700000000000002</v>
+        <v>0.52800000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1982,22 +1982,22 @@
         <v>13</v>
       </c>
       <c r="D26" s="2">
-        <v>1622</v>
+        <v>710</v>
       </c>
       <c r="E26" s="2">
-        <v>5.76</v>
+        <v>5.72</v>
       </c>
       <c r="F26" s="2">
-        <v>180</v>
+        <v>71</v>
       </c>
       <c r="G26" s="2">
-        <v>8.84</v>
+        <v>8.32</v>
       </c>
       <c r="H26" s="2">
-        <v>423</v>
+        <v>115</v>
       </c>
       <c r="I26" s="3">
-        <v>0.57399999999999995</v>
+        <v>0.58299999999999996</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -2011,22 +2011,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="2">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
       </c>
       <c r="F27" s="2">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
       </c>
       <c r="H27" s="2">
-        <v>172</v>
+        <v>109</v>
       </c>
       <c r="I27" s="3">
-        <v>0.55800000000000005</v>
+        <v>0.58699999999999997</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2040,22 +2040,22 @@
         <v>13</v>
       </c>
       <c r="D28" s="2">
-        <v>1679</v>
+        <v>728</v>
       </c>
       <c r="E28" s="2">
-        <v>7.67</v>
+        <v>7.74</v>
       </c>
       <c r="F28" s="2">
-        <v>220</v>
+        <v>88</v>
       </c>
       <c r="G28" s="2">
-        <v>11.6</v>
+        <v>11.55</v>
       </c>
       <c r="H28" s="2">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="I28" s="3">
-        <v>0.48399999999999999</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2069,22 +2069,22 @@
         <v>13</v>
       </c>
       <c r="D29" s="2">
-        <v>1475</v>
+        <v>585</v>
       </c>
       <c r="E29" s="2">
-        <v>4.33</v>
+        <v>4.66</v>
       </c>
       <c r="F29" s="2">
-        <v>402</v>
+        <v>164</v>
       </c>
       <c r="G29" s="2">
-        <v>5.44</v>
+        <v>5.47</v>
       </c>
       <c r="H29" s="2">
-        <v>1516</v>
+        <v>597</v>
       </c>
       <c r="I29" s="3">
-        <v>0.56699999999999995</v>
+        <v>0.55800000000000005</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -2098,22 +2098,22 @@
         <v>16</v>
       </c>
       <c r="D30" s="2">
-        <v>4921</v>
+        <v>2160</v>
       </c>
       <c r="E30" s="2">
-        <v>7.15</v>
+        <v>7.37</v>
       </c>
       <c r="F30" s="2">
-        <v>403</v>
+        <v>192</v>
       </c>
       <c r="G30" s="2">
-        <v>10.5</v>
+        <v>10.94</v>
       </c>
       <c r="H30" s="2">
-        <v>356</v>
+        <v>107</v>
       </c>
       <c r="I30" s="3">
-        <v>0.49199999999999999</v>
+        <v>0.48599999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -2127,22 +2127,22 @@
         <v>16</v>
       </c>
       <c r="D31" s="2">
-        <v>5008</v>
+        <v>2168</v>
       </c>
       <c r="E31" s="2">
-        <v>7.21</v>
+        <v>7.31</v>
       </c>
       <c r="F31" s="2">
-        <v>586</v>
+        <v>272</v>
       </c>
       <c r="G31" s="2">
-        <v>10.17</v>
+        <v>10.09</v>
       </c>
       <c r="H31" s="2">
-        <v>1163</v>
+        <v>513</v>
       </c>
       <c r="I31" s="3">
-        <v>0.54400000000000004</v>
+        <v>0.56499999999999995</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -2156,22 +2156,22 @@
         <v>16</v>
       </c>
       <c r="D32" s="2">
-        <v>4799</v>
+        <v>2026</v>
       </c>
       <c r="E32" s="2">
-        <v>5.93</v>
+        <v>5.99</v>
       </c>
       <c r="F32" s="2">
-        <v>816</v>
+        <v>425</v>
       </c>
       <c r="G32" s="2">
-        <v>7.83</v>
+        <v>7.55</v>
       </c>
       <c r="H32" s="2">
-        <v>2282</v>
+        <v>1123</v>
       </c>
       <c r="I32" s="3">
-        <v>0.55700000000000005</v>
+        <v>0.56100000000000005</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2185,22 +2185,22 @@
         <v>13</v>
       </c>
       <c r="D33" s="2">
-        <v>674</v>
+        <v>316</v>
       </c>
       <c r="E33" s="2">
-        <v>2.0699999999999998</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="F33" s="2">
-        <v>197</v>
+        <v>90</v>
       </c>
       <c r="G33" s="2">
-        <v>2.4500000000000002</v>
+        <v>2.36</v>
       </c>
       <c r="H33" s="2">
-        <v>890</v>
+        <v>377</v>
       </c>
       <c r="I33" s="3">
-        <v>0.55200000000000005</v>
+        <v>0.56200000000000006</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -2214,22 +2214,22 @@
         <v>16</v>
       </c>
       <c r="D34" s="2">
-        <v>2263</v>
+        <v>1018</v>
       </c>
       <c r="E34" s="2">
-        <v>2.87</v>
+        <v>3.02</v>
       </c>
       <c r="F34" s="2">
-        <v>444</v>
+        <v>218</v>
       </c>
       <c r="G34" s="2">
-        <v>3.8</v>
+        <v>3.96</v>
       </c>
       <c r="H34" s="2">
-        <v>1873</v>
+        <v>790</v>
       </c>
       <c r="I34" s="3">
-        <v>0.55800000000000005</v>
+        <v>0.53700000000000003</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -2243,22 +2243,22 @@
         <v>16</v>
       </c>
       <c r="D35" s="2">
-        <v>4907</v>
+        <v>2198</v>
       </c>
       <c r="E35" s="2">
-        <v>8.4</v>
+        <v>8.52</v>
       </c>
       <c r="F35" s="2">
-        <v>730</v>
+        <v>382</v>
       </c>
       <c r="G35" s="2">
-        <v>11.22</v>
+        <v>11.23</v>
       </c>
       <c r="H35" s="2">
-        <v>781</v>
+        <v>494</v>
       </c>
       <c r="I35" s="3">
-        <v>0.56100000000000005</v>
+        <v>0.56899999999999995</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2272,22 +2272,22 @@
         <v>13</v>
       </c>
       <c r="D36" s="2">
-        <v>1275</v>
+        <v>546</v>
       </c>
       <c r="E36" s="2">
-        <v>3.71</v>
+        <v>3.57</v>
       </c>
       <c r="F36" s="2">
-        <v>186</v>
+        <v>75</v>
       </c>
       <c r="G36" s="2">
-        <v>4.83</v>
+        <v>5.12</v>
       </c>
       <c r="H36" s="2">
-        <v>705</v>
+        <v>270</v>
       </c>
       <c r="I36" s="3">
-        <v>0.55000000000000004</v>
+        <v>0.56699999999999995</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -2301,22 +2301,22 @@
         <v>11</v>
       </c>
       <c r="D37" s="2">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="E37" s="2">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="F37" s="2">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="G37" s="2">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="H37" s="2">
-        <v>303</v>
+        <v>133</v>
       </c>
       <c r="I37" s="3">
-        <v>0.52800000000000002</v>
+        <v>0.54100000000000004</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2330,22 +2330,22 @@
         <v>16</v>
       </c>
       <c r="D38" s="2">
-        <v>4332</v>
+        <v>1877</v>
       </c>
       <c r="E38" s="2">
-        <v>5.08</v>
+        <v>5.2</v>
       </c>
       <c r="F38" s="2">
-        <v>684</v>
+        <v>306</v>
       </c>
       <c r="G38" s="2">
-        <v>6.85</v>
+        <v>6.86</v>
       </c>
       <c r="H38" s="2">
-        <v>2036</v>
+        <v>837</v>
       </c>
       <c r="I38" s="3">
-        <v>0.55300000000000005</v>
+        <v>0.56200000000000006</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2359,22 +2359,22 @@
         <v>13</v>
       </c>
       <c r="D39" s="2">
-        <v>810</v>
+        <v>327</v>
       </c>
       <c r="E39" s="2">
-        <v>2.5099999999999998</v>
+        <v>2.52</v>
       </c>
       <c r="F39" s="2">
-        <v>242</v>
+        <v>97</v>
       </c>
       <c r="G39" s="2">
-        <v>2.98</v>
+        <v>3.15</v>
       </c>
       <c r="H39" s="2">
-        <v>1004</v>
+        <v>418</v>
       </c>
       <c r="I39" s="3">
-        <v>0.55600000000000005</v>
+        <v>0.58899999999999997</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2388,22 +2388,22 @@
         <v>22</v>
       </c>
       <c r="D40" s="2">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E40" s="2">
         <v>1</v>
       </c>
       <c r="F40" s="2">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G40" s="2">
         <v>1</v>
       </c>
       <c r="H40" s="2">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="I40" s="3">
-        <v>0.51800000000000002</v>
+        <v>0.59299999999999997</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -2417,22 +2417,22 @@
         <v>16</v>
       </c>
       <c r="D41" s="2">
-        <v>2288</v>
+        <v>900</v>
       </c>
       <c r="E41" s="2">
-        <v>2.85</v>
+        <v>2.97</v>
       </c>
       <c r="F41" s="2">
-        <v>486</v>
+        <v>181</v>
       </c>
       <c r="G41" s="2">
-        <v>3.64</v>
+        <v>3.91</v>
       </c>
       <c r="H41" s="2">
-        <v>2037</v>
+        <v>632</v>
       </c>
       <c r="I41" s="3">
-        <v>0.54900000000000004</v>
+        <v>0.53800000000000003</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2446,22 +2446,22 @@
         <v>16</v>
       </c>
       <c r="D42" s="2">
-        <v>5000</v>
+        <v>2102</v>
       </c>
       <c r="E42" s="2">
-        <v>7.45</v>
+        <v>7.24</v>
       </c>
       <c r="F42" s="2">
-        <v>750</v>
+        <v>262</v>
       </c>
       <c r="G42" s="2">
-        <v>10.09</v>
+        <v>9.81</v>
       </c>
       <c r="H42" s="2">
-        <v>1264</v>
+        <v>452</v>
       </c>
       <c r="I42" s="3">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -2475,22 +2475,22 @@
         <v>16</v>
       </c>
       <c r="D43" s="2">
-        <v>4809</v>
+        <v>2138</v>
       </c>
       <c r="E43" s="2">
-        <v>6.26</v>
+        <v>6.29</v>
       </c>
       <c r="F43" s="2">
-        <v>1189</v>
+        <v>568</v>
       </c>
       <c r="G43" s="2">
-        <v>7.26</v>
+        <v>7.36</v>
       </c>
       <c r="H43" s="2">
-        <v>3049</v>
+        <v>1290</v>
       </c>
       <c r="I43" s="3">
-        <v>0.56200000000000006</v>
+        <v>0.56699999999999995</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -2504,22 +2504,22 @@
         <v>11</v>
       </c>
       <c r="D44" s="2">
-        <v>178</v>
+        <v>55</v>
       </c>
       <c r="E44" s="2">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="F44" s="2">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="G44" s="2">
-        <v>1.44</v>
+        <v>1.79</v>
       </c>
       <c r="H44" s="2">
-        <v>395</v>
+        <v>103</v>
       </c>
       <c r="I44" s="3">
-        <v>0.55200000000000005</v>
+        <v>0.60199999999999998</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -2533,22 +2533,22 @@
         <v>11</v>
       </c>
       <c r="D45" s="2">
-        <v>183</v>
+        <v>72</v>
       </c>
       <c r="E45" s="2">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="F45" s="2">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="G45" s="2">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="H45" s="2">
-        <v>488</v>
+        <v>142</v>
       </c>
       <c r="I45" s="3">
-        <v>0.54900000000000004</v>
+        <v>0.61299999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2562,22 +2562,22 @@
         <v>13</v>
       </c>
       <c r="D46" s="2">
-        <v>842</v>
+        <v>344</v>
       </c>
       <c r="E46" s="2">
-        <v>2.59</v>
+        <v>2.56</v>
       </c>
       <c r="F46" s="2">
-        <v>225</v>
+        <v>115</v>
       </c>
       <c r="G46" s="2">
-        <v>3.26</v>
+        <v>2.98</v>
       </c>
       <c r="H46" s="2">
-        <v>949</v>
+        <v>408</v>
       </c>
       <c r="I46" s="3">
-        <v>0.57399999999999995</v>
+        <v>0.56100000000000005</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -2591,22 +2591,22 @@
         <v>11</v>
       </c>
       <c r="D47" s="2">
-        <v>172</v>
+        <v>83</v>
       </c>
       <c r="E47" s="2">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="F47" s="2">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c r="G47" s="2">
-        <v>1.44</v>
+        <v>1.61</v>
       </c>
       <c r="H47" s="2">
-        <v>554</v>
+        <v>250</v>
       </c>
       <c r="I47" s="3">
-        <v>0.56100000000000005</v>
+        <v>0.59199999999999997</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2620,22 +2620,22 @@
         <v>13</v>
       </c>
       <c r="D48" s="2">
-        <v>1056</v>
+        <v>441</v>
       </c>
       <c r="E48" s="2">
-        <v>3.09</v>
+        <v>3.06</v>
       </c>
       <c r="F48" s="2">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="G48" s="2">
-        <v>3.95</v>
+        <v>4.43</v>
       </c>
       <c r="H48" s="2">
-        <v>512</v>
+        <v>177</v>
       </c>
       <c r="I48" s="3">
-        <v>0.53100000000000003</v>
+        <v>0.45200000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -2649,22 +2649,22 @@
         <v>11</v>
       </c>
       <c r="D49" s="2">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="E49" s="2">
         <v>1</v>
       </c>
       <c r="F49" s="2">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="G49" s="2">
         <v>1</v>
       </c>
       <c r="H49" s="2">
-        <v>446</v>
+        <v>115</v>
       </c>
       <c r="I49" s="3">
-        <v>0.56299999999999994</v>
+        <v>0.56499999999999995</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2678,22 +2678,22 @@
         <v>13</v>
       </c>
       <c r="D50" s="2">
-        <v>802</v>
+        <v>374</v>
       </c>
       <c r="E50" s="2">
-        <v>2.61</v>
+        <v>2.74</v>
       </c>
       <c r="F50" s="2">
-        <v>215</v>
+        <v>106</v>
       </c>
       <c r="G50" s="2">
-        <v>3.23</v>
+        <v>3.32</v>
       </c>
       <c r="H50" s="2">
-        <v>1010</v>
+        <v>448</v>
       </c>
       <c r="I50" s="3">
-        <v>0.53200000000000003</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2707,22 +2707,22 @@
         <v>13</v>
       </c>
       <c r="D51" s="2">
-        <v>1163</v>
+        <v>466</v>
       </c>
       <c r="E51" s="2">
-        <v>3.38</v>
+        <v>3.29</v>
       </c>
       <c r="F51" s="2">
-        <v>200</v>
+        <v>89</v>
       </c>
       <c r="G51" s="2">
-        <v>4.55</v>
+        <v>3.67</v>
       </c>
       <c r="H51" s="2">
-        <v>958</v>
+        <v>385</v>
       </c>
       <c r="I51" s="3">
-        <v>0.59899999999999998</v>
+        <v>0.56100000000000005</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -2736,22 +2736,22 @@
         <v>22</v>
       </c>
       <c r="D52" s="2">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="E52" s="2">
-        <v>1.39</v>
+        <v>1.24</v>
       </c>
       <c r="F52" s="2">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G52" s="2">
-        <v>1.55</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="H52" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I52" s="3">
-        <v>0.53300000000000003</v>
+        <v>0.57099999999999995</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -2765,22 +2765,22 @@
         <v>16</v>
       </c>
       <c r="D53" s="2">
-        <v>4895</v>
+        <v>2138</v>
       </c>
       <c r="E53" s="2">
-        <v>7.25</v>
+        <v>7.15</v>
       </c>
       <c r="F53" s="2">
-        <v>482</v>
+        <v>209</v>
       </c>
       <c r="G53" s="2">
-        <v>10.43</v>
+        <v>10.56</v>
       </c>
       <c r="H53" s="2">
-        <v>431</v>
+        <v>185</v>
       </c>
       <c r="I53" s="3">
-        <v>0.47799999999999998</v>
+        <v>0.47599999999999998</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2794,22 +2794,22 @@
         <v>16</v>
       </c>
       <c r="D54" s="2">
-        <v>5027</v>
+        <v>2100</v>
       </c>
       <c r="E54" s="2">
-        <v>6.84</v>
+        <v>6.92</v>
       </c>
       <c r="F54" s="2">
-        <v>2039</v>
+        <v>888</v>
       </c>
       <c r="G54" s="2">
-        <v>7.23</v>
+        <v>7.3</v>
       </c>
       <c r="H54" s="2">
-        <v>3334</v>
+        <v>1399</v>
       </c>
       <c r="I54" s="3">
-        <v>0.55200000000000005</v>
+        <v>0.54500000000000004</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2823,22 +2823,22 @@
         <v>11</v>
       </c>
       <c r="D55" s="2">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c r="E55" s="2">
-        <v>1.36</v>
+        <v>1.49</v>
       </c>
       <c r="F55" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="G55" s="2">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="H55" s="2">
-        <v>419</v>
+        <v>196</v>
       </c>
       <c r="I55" s="3">
-        <v>0.57299999999999995</v>
+        <v>0.61699999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -2852,22 +2852,22 @@
         <v>11</v>
       </c>
       <c r="D56" s="2">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="E56" s="2">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="F56" s="2">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G56" s="2">
-        <v>1.1499999999999999</v>
+        <v>1.44</v>
       </c>
       <c r="H56" s="2">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="I56" s="3">
-        <v>0.58699999999999997</v>
+        <v>0.35699999999999998</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -2881,22 +2881,22 @@
         <v>16</v>
       </c>
       <c r="D57" s="2">
-        <v>4953</v>
+        <v>2148</v>
       </c>
       <c r="E57" s="2">
-        <v>7.17</v>
+        <v>7.22</v>
       </c>
       <c r="F57" s="2">
-        <v>642</v>
+        <v>270</v>
       </c>
       <c r="G57" s="2">
-        <v>10.029999999999999</v>
+        <v>10.38</v>
       </c>
       <c r="H57" s="2">
-        <v>917</v>
+        <v>313</v>
       </c>
       <c r="I57" s="3">
-        <v>0.51500000000000001</v>
+        <v>0.47599999999999998</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -2910,22 +2910,22 @@
         <v>16</v>
       </c>
       <c r="D58" s="2">
-        <v>4354</v>
+        <v>1967</v>
       </c>
       <c r="E58" s="2">
-        <v>5.28</v>
+        <v>5.24</v>
       </c>
       <c r="F58" s="2">
-        <v>611</v>
+        <v>235</v>
       </c>
       <c r="G58" s="2">
-        <v>7.49</v>
+        <v>7.66</v>
       </c>
       <c r="H58" s="2">
-        <v>1794</v>
+        <v>667</v>
       </c>
       <c r="I58" s="3">
-        <v>0.54600000000000004</v>
+        <v>0.55500000000000005</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2939,22 +2939,22 @@
         <v>13</v>
       </c>
       <c r="D59" s="2">
-        <v>1678</v>
+        <v>756</v>
       </c>
       <c r="E59" s="2">
-        <v>7.7</v>
+        <v>7.75</v>
       </c>
       <c r="F59" s="2">
-        <v>376</v>
+        <v>158</v>
       </c>
       <c r="G59" s="2">
-        <v>10.34</v>
+        <v>10.36</v>
       </c>
       <c r="H59" s="2">
-        <v>418</v>
+        <v>189</v>
       </c>
       <c r="I59" s="3">
-        <v>0.5</v>
+        <v>0.50800000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -2968,22 +2968,22 @@
         <v>16</v>
       </c>
       <c r="D60" s="2">
-        <v>4612</v>
+        <v>1982</v>
       </c>
       <c r="E60" s="2">
-        <v>5.86</v>
+        <v>5.82</v>
       </c>
       <c r="F60" s="2">
-        <v>804</v>
+        <v>320</v>
       </c>
       <c r="G60" s="2">
         <v>7.65</v>
       </c>
       <c r="H60" s="2">
-        <v>1950</v>
+        <v>691</v>
       </c>
       <c r="I60" s="3">
-        <v>0.55200000000000005</v>
+        <v>0.50800000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2997,22 +2997,22 @@
         <v>13</v>
       </c>
       <c r="D61" s="2">
-        <v>1710</v>
+        <v>699</v>
       </c>
       <c r="E61" s="2">
-        <v>6.5</v>
+        <v>6.19</v>
       </c>
       <c r="F61" s="2">
-        <v>471</v>
+        <v>187</v>
       </c>
       <c r="G61" s="2">
-        <v>8.1</v>
+        <v>7.21</v>
       </c>
       <c r="H61" s="2">
-        <v>1353</v>
+        <v>591</v>
       </c>
       <c r="I61" s="3">
-        <v>0.53400000000000003</v>
+        <v>0.56499999999999995</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -3026,22 +3026,22 @@
         <v>16</v>
       </c>
       <c r="D62" s="2">
-        <v>3917</v>
+        <v>1761</v>
       </c>
       <c r="E62" s="2">
-        <v>4.51</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="F62" s="2">
-        <v>594</v>
+        <v>236</v>
       </c>
       <c r="G62" s="2">
-        <v>6.34</v>
+        <v>6.24</v>
       </c>
       <c r="H62" s="2">
-        <v>1789</v>
+        <v>707</v>
       </c>
       <c r="I62" s="3">
-        <v>0.51</v>
+        <v>0.52300000000000002</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -3055,22 +3055,22 @@
         <v>16</v>
       </c>
       <c r="D63" s="2">
-        <v>4952</v>
+        <v>2109</v>
       </c>
       <c r="E63" s="2">
         <v>6.42</v>
       </c>
       <c r="F63" s="2">
-        <v>1286</v>
+        <v>543</v>
       </c>
       <c r="G63" s="2">
-        <v>7.7</v>
+        <v>7.67</v>
       </c>
       <c r="H63" s="2">
-        <v>3481</v>
+        <v>1283</v>
       </c>
       <c r="I63" s="3">
-        <v>0.54500000000000004</v>
+        <v>0.55300000000000005</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3084,22 +3084,22 @@
         <v>13</v>
       </c>
       <c r="D64" s="2">
-        <v>1034</v>
+        <v>424</v>
       </c>
       <c r="E64" s="2">
-        <v>2.97</v>
+        <v>3.11</v>
       </c>
       <c r="F64" s="2">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="G64" s="2">
-        <v>3.63</v>
+        <v>3.96</v>
       </c>
       <c r="H64" s="2">
-        <v>850</v>
+        <v>291</v>
       </c>
       <c r="I64" s="3">
-        <v>0.56399999999999995</v>
+        <v>0.50900000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -3113,22 +3113,22 @@
         <v>16</v>
       </c>
       <c r="D65" s="2">
-        <v>4883</v>
+        <v>2070</v>
       </c>
       <c r="E65" s="2">
-        <v>7.01</v>
+        <v>6.89</v>
       </c>
       <c r="F65" s="2">
-        <v>1576</v>
+        <v>635</v>
       </c>
       <c r="G65" s="2">
-        <v>7.97</v>
+        <v>8.09</v>
       </c>
       <c r="H65" s="2">
-        <v>3745</v>
+        <v>1427</v>
       </c>
       <c r="I65" s="3">
-        <v>0.55000000000000004</v>
+        <v>0.55500000000000005</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -3142,22 +3142,22 @@
         <v>16</v>
       </c>
       <c r="D66" s="2">
-        <v>3475</v>
+        <v>1464</v>
       </c>
       <c r="E66" s="2">
-        <v>4.05</v>
+        <v>4.03</v>
       </c>
       <c r="F66" s="2">
-        <v>260</v>
+        <v>93</v>
       </c>
       <c r="G66" s="2">
-        <v>6.49</v>
+        <v>6.66</v>
       </c>
       <c r="H66" s="2">
-        <v>831</v>
+        <v>251</v>
       </c>
       <c r="I66" s="3">
-        <v>0.52500000000000002</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -3171,22 +3171,22 @@
         <v>11</v>
       </c>
       <c r="D67" s="2">
-        <v>111</v>
+        <v>31</v>
       </c>
       <c r="E67" s="2">
         <v>1</v>
       </c>
       <c r="F67" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="G67" s="2">
         <v>1</v>
       </c>
       <c r="H67" s="2">
-        <v>397</v>
+        <v>77</v>
       </c>
       <c r="I67" s="3">
-        <v>0.57199999999999995</v>
+        <v>0.51900000000000002</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3200,22 +3200,22 @@
         <v>13</v>
       </c>
       <c r="D68" s="2">
-        <v>667</v>
+        <v>255</v>
       </c>
       <c r="E68" s="2">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="F68" s="2">
-        <v>157</v>
+        <v>52</v>
       </c>
       <c r="G68" s="2">
-        <v>2.58</v>
+        <v>2.44</v>
       </c>
       <c r="H68" s="2">
-        <v>717</v>
+        <v>272</v>
       </c>
       <c r="I68" s="3">
-        <v>0.55900000000000005</v>
+        <v>0.57399999999999995</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -3229,22 +3229,22 @@
         <v>16</v>
       </c>
       <c r="D69" s="2">
-        <v>4257</v>
+        <v>1659</v>
       </c>
       <c r="E69" s="2">
-        <v>4.75</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="F69" s="2">
-        <v>941</v>
+        <v>334</v>
       </c>
       <c r="G69" s="2">
-        <v>6.31</v>
+        <v>6.25</v>
       </c>
       <c r="H69" s="2">
-        <v>2868</v>
+        <v>992</v>
       </c>
       <c r="I69" s="3">
-        <v>0.55000000000000004</v>
+        <v>0.54900000000000004</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3258,22 +3258,22 @@
         <v>13</v>
       </c>
       <c r="D70" s="2">
-        <v>877</v>
+        <v>398</v>
       </c>
       <c r="E70" s="2">
-        <v>2.63</v>
+        <v>2.69</v>
       </c>
       <c r="F70" s="2">
-        <v>207</v>
+        <v>101</v>
       </c>
       <c r="G70" s="2">
-        <v>3.03</v>
+        <v>3.34</v>
       </c>
       <c r="H70" s="2">
-        <v>962</v>
+        <v>410</v>
       </c>
       <c r="I70" s="3">
-        <v>0.58799999999999997</v>
+        <v>0.54600000000000004</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -3287,22 +3287,22 @@
         <v>16</v>
       </c>
       <c r="D71" s="2">
-        <v>2663</v>
+        <v>1246</v>
       </c>
       <c r="E71" s="2">
-        <v>3.37</v>
+        <v>3.26</v>
       </c>
       <c r="F71" s="2">
-        <v>247</v>
+        <v>109</v>
       </c>
       <c r="G71" s="2">
-        <v>5.0599999999999996</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H71" s="2">
-        <v>985</v>
+        <v>415</v>
       </c>
       <c r="I71" s="3">
-        <v>0.51600000000000001</v>
+        <v>0.54900000000000004</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -3316,22 +3316,22 @@
         <v>11</v>
       </c>
       <c r="D72" s="2">
-        <v>152</v>
+        <v>64</v>
       </c>
       <c r="E72" s="2">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
       <c r="F72" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="G72" s="2">
-        <v>1.47</v>
+        <v>1.34</v>
       </c>
       <c r="H72" s="2">
-        <v>391</v>
+        <v>156</v>
       </c>
       <c r="I72" s="3">
-        <v>0.54</v>
+        <v>0.54500000000000004</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -3345,22 +3345,22 @@
         <v>16</v>
       </c>
       <c r="D73" s="2">
-        <v>3438</v>
+        <v>1484</v>
       </c>
       <c r="E73" s="2">
-        <v>4.08</v>
+        <v>4.2</v>
       </c>
       <c r="F73" s="2">
-        <v>436</v>
+        <v>155</v>
       </c>
       <c r="G73" s="2">
-        <v>5.75</v>
+        <v>6.42</v>
       </c>
       <c r="H73" s="2">
-        <v>1448</v>
+        <v>452</v>
       </c>
       <c r="I73" s="3">
-        <v>0.53400000000000003</v>
+        <v>0.52200000000000002</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -3374,22 +3374,22 @@
         <v>16</v>
       </c>
       <c r="D74" s="2">
-        <v>5023</v>
+        <v>2164</v>
       </c>
       <c r="E74" s="2">
-        <v>7.31</v>
+        <v>7.36</v>
       </c>
       <c r="F74" s="2">
-        <v>562</v>
+        <v>235</v>
       </c>
       <c r="G74" s="2">
-        <v>10.51</v>
+        <v>10.33</v>
       </c>
       <c r="H74" s="2">
-        <v>599</v>
+        <v>246</v>
       </c>
       <c r="I74" s="3">
-        <v>0.54800000000000004</v>
+        <v>0.52800000000000002</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -3403,22 +3403,22 @@
         <v>16</v>
       </c>
       <c r="D75" s="2">
-        <v>4689</v>
+        <v>2086</v>
       </c>
       <c r="E75" s="2">
-        <v>5.83</v>
+        <v>5.68</v>
       </c>
       <c r="F75" s="2">
-        <v>1107</v>
+        <v>440</v>
       </c>
       <c r="G75" s="2">
-        <v>7.16</v>
+        <v>7.22</v>
       </c>
       <c r="H75" s="2">
-        <v>3469</v>
+        <v>1280</v>
       </c>
       <c r="I75" s="3">
-        <v>0.55900000000000005</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -3432,22 +3432,22 @@
         <v>11</v>
       </c>
       <c r="D76" s="2">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="E76" s="2">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="F76" s="2">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="G76" s="2">
-        <v>1.27</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="H76" s="2">
-        <v>143</v>
+        <v>57</v>
       </c>
       <c r="I76" s="3">
-        <v>0.503</v>
+        <v>0.50900000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -3461,22 +3461,22 @@
         <v>16</v>
       </c>
       <c r="D77" s="2">
-        <v>1582</v>
+        <v>701</v>
       </c>
       <c r="E77" s="2">
-        <v>2.12</v>
+        <v>2.13</v>
       </c>
       <c r="F77" s="2">
-        <v>583</v>
+        <v>268</v>
       </c>
       <c r="G77" s="2">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H77" s="2">
-        <v>2487</v>
+        <v>955</v>
       </c>
       <c r="I77" s="3">
-        <v>0.55400000000000005</v>
+        <v>0.53700000000000003</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -3490,22 +3490,22 @@
         <v>16</v>
       </c>
       <c r="D78" s="2">
-        <v>3323</v>
+        <v>1489</v>
       </c>
       <c r="E78" s="2">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="F78" s="2">
-        <v>249</v>
+        <v>116</v>
       </c>
       <c r="G78" s="2">
-        <v>6.3</v>
+        <v>6.19</v>
       </c>
       <c r="H78" s="2">
-        <v>818</v>
+        <v>363</v>
       </c>
       <c r="I78" s="3">
-        <v>0.53700000000000003</v>
+        <v>0.45700000000000002</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3519,22 +3519,22 @@
         <v>13</v>
       </c>
       <c r="D79" s="2">
-        <v>758</v>
+        <v>327</v>
       </c>
       <c r="E79" s="2">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="F79" s="2">
-        <v>133</v>
+        <v>66</v>
       </c>
       <c r="G79" s="2">
-        <v>2.89</v>
+        <v>2.91</v>
       </c>
       <c r="H79" s="2">
-        <v>582</v>
+        <v>289</v>
       </c>
       <c r="I79" s="3">
-        <v>0.503</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -3548,22 +3548,22 @@
         <v>11</v>
       </c>
       <c r="D80" s="2">
-        <v>195</v>
+        <v>87</v>
       </c>
       <c r="E80" s="2">
+        <v>1.62</v>
+      </c>
+      <c r="F80" s="2">
+        <v>54</v>
+      </c>
+      <c r="G80" s="2">
         <v>1.67</v>
       </c>
-      <c r="F80" s="2">
-        <v>108</v>
-      </c>
-      <c r="G80" s="2">
-        <v>1.66</v>
-      </c>
       <c r="H80" s="2">
-        <v>507</v>
+        <v>213</v>
       </c>
       <c r="I80" s="3">
-        <v>0.54800000000000004</v>
+        <v>0.54900000000000004</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3577,22 +3577,22 @@
         <v>13</v>
       </c>
       <c r="D81" s="2">
-        <v>797</v>
+        <v>359</v>
       </c>
       <c r="E81" s="2">
-        <v>2.4900000000000002</v>
+        <v>2.38</v>
       </c>
       <c r="F81" s="2">
-        <v>179</v>
+        <v>83</v>
       </c>
       <c r="G81" s="2">
-        <v>2.94</v>
+        <v>2.83</v>
       </c>
       <c r="H81" s="2">
-        <v>693</v>
+        <v>335</v>
       </c>
       <c r="I81" s="3">
-        <v>0.53</v>
+        <v>0.56100000000000005</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3606,22 +3606,22 @@
         <v>13</v>
       </c>
       <c r="D82" s="2">
-        <v>1379</v>
+        <v>576</v>
       </c>
       <c r="E82" s="2">
-        <v>4.08</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="F82" s="2">
-        <v>187</v>
+        <v>104</v>
       </c>
       <c r="G82" s="2">
-        <v>5.47</v>
+        <v>4.87</v>
       </c>
       <c r="H82" s="2">
-        <v>491</v>
+        <v>260</v>
       </c>
       <c r="I82" s="3">
-        <v>0.55400000000000005</v>
+        <v>0.57699999999999996</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -3635,22 +3635,22 @@
         <v>22</v>
       </c>
       <c r="D83" s="2">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E83" s="2">
         <v>1</v>
       </c>
       <c r="F83" s="2">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G83" s="2">
         <v>1</v>
       </c>
       <c r="H83" s="2">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="I83" s="3">
-        <v>0.52900000000000003</v>
+        <v>0.58099999999999996</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3664,22 +3664,22 @@
         <v>13</v>
       </c>
       <c r="D84" s="2">
-        <v>1586</v>
+        <v>675</v>
       </c>
       <c r="E84" s="2">
-        <v>5.8</v>
+        <v>5.86</v>
       </c>
       <c r="F84" s="2">
-        <v>193</v>
+        <v>81</v>
       </c>
       <c r="G84" s="2">
-        <v>8.5399999999999991</v>
+        <v>9.07</v>
       </c>
       <c r="H84" s="2">
-        <v>263</v>
+        <v>118</v>
       </c>
       <c r="I84" s="3">
-        <v>0.48299999999999998</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -3693,22 +3693,22 @@
         <v>11</v>
       </c>
       <c r="D85" s="2">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="E85" s="2">
         <v>1</v>
       </c>
       <c r="F85" s="2">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="G85" s="2">
         <v>1</v>
       </c>
       <c r="H85" s="2">
-        <v>418</v>
+        <v>173</v>
       </c>
       <c r="I85" s="3">
-        <v>0.54800000000000004</v>
+        <v>0.57199999999999995</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3722,22 +3722,22 @@
         <v>13</v>
       </c>
       <c r="D86" s="2">
-        <v>582</v>
+        <v>276</v>
       </c>
       <c r="E86" s="2">
-        <v>2.1</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="F86" s="2">
-        <v>272</v>
+        <v>137</v>
       </c>
       <c r="G86" s="2">
-        <v>2.41</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H86" s="2">
-        <v>1362</v>
+        <v>599</v>
       </c>
       <c r="I86" s="3">
-        <v>0.57099999999999995</v>
+        <v>0.53800000000000003</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -3751,22 +3751,22 @@
         <v>16</v>
       </c>
       <c r="D87" s="2">
-        <v>5063</v>
+        <v>2167</v>
       </c>
       <c r="E87" s="2">
-        <v>9.14</v>
+        <v>9.08</v>
       </c>
       <c r="F87" s="2">
-        <v>979</v>
+        <v>409</v>
       </c>
       <c r="G87" s="2">
-        <v>11.75</v>
+        <v>11.66</v>
       </c>
       <c r="H87" s="2">
-        <v>630</v>
+        <v>279</v>
       </c>
       <c r="I87" s="3">
-        <v>0.5</v>
+        <v>0.56299999999999994</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -3780,22 +3780,22 @@
         <v>16</v>
       </c>
       <c r="D88" s="2">
-        <v>4432</v>
+        <v>1899</v>
       </c>
       <c r="E88" s="2">
-        <v>5.3</v>
+        <v>5.35</v>
       </c>
       <c r="F88" s="2">
-        <v>270</v>
+        <v>126</v>
       </c>
       <c r="G88" s="2">
-        <v>8.89</v>
+        <v>9.09</v>
       </c>
       <c r="H88" s="2">
-        <v>480</v>
+        <v>157</v>
       </c>
       <c r="I88" s="3">
-        <v>0.51500000000000001</v>
+        <v>0.503</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -3809,22 +3809,22 @@
         <v>16</v>
       </c>
       <c r="D89" s="2">
-        <v>4679</v>
+        <v>1997</v>
       </c>
       <c r="E89" s="2">
         <v>5.72</v>
       </c>
       <c r="F89" s="2">
-        <v>842</v>
+        <v>349</v>
       </c>
       <c r="G89" s="2">
-        <v>7.68</v>
+        <v>7.74</v>
       </c>
       <c r="H89" s="2">
-        <v>2500</v>
+        <v>958</v>
       </c>
       <c r="I89" s="3">
-        <v>0.54200000000000004</v>
+        <v>0.52100000000000002</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -3838,22 +3838,22 @@
         <v>16</v>
       </c>
       <c r="D90" s="2">
-        <v>4818</v>
+        <v>2085</v>
       </c>
       <c r="E90" s="2">
-        <v>6.33</v>
+        <v>6.42</v>
       </c>
       <c r="F90" s="2">
-        <v>1141</v>
+        <v>487</v>
       </c>
       <c r="G90" s="2">
-        <v>8.11</v>
+        <v>8.1</v>
       </c>
       <c r="H90" s="2">
-        <v>3428</v>
+        <v>1503</v>
       </c>
       <c r="I90" s="3">
-        <v>0.54600000000000004</v>
+        <v>0.54200000000000004</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3867,22 +3867,22 @@
         <v>13</v>
       </c>
       <c r="D91" s="2">
-        <v>670</v>
+        <v>313</v>
       </c>
       <c r="E91" s="2">
-        <v>2.21</v>
+        <v>2.31</v>
       </c>
       <c r="F91" s="2">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="G91" s="2">
-        <v>2.5499999999999998</v>
+        <v>2.87</v>
       </c>
       <c r="H91" s="2">
-        <v>1008</v>
+        <v>482</v>
       </c>
       <c r="I91" s="3">
-        <v>0.55900000000000005</v>
+        <v>0.52500000000000002</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -3896,22 +3896,22 @@
         <v>16</v>
       </c>
       <c r="D92" s="2">
-        <v>4852</v>
+        <v>2079</v>
       </c>
       <c r="E92" s="2">
-        <v>7.03</v>
+        <v>6.92</v>
       </c>
       <c r="F92" s="2">
-        <v>676</v>
+        <v>304</v>
       </c>
       <c r="G92" s="2">
-        <v>9.6999999999999993</v>
+        <v>9.4</v>
       </c>
       <c r="H92" s="2">
-        <v>1473</v>
+        <v>534</v>
       </c>
       <c r="I92" s="3">
-        <v>0.51200000000000001</v>
+        <v>0.48299999999999998</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -3925,22 +3925,22 @@
         <v>16</v>
       </c>
       <c r="D93" s="2">
-        <v>4932</v>
+        <v>2075</v>
       </c>
       <c r="E93" s="2">
-        <v>7.16</v>
+        <v>7.07</v>
       </c>
       <c r="F93" s="2">
-        <v>393</v>
+        <v>154</v>
       </c>
       <c r="G93" s="2">
-        <v>10.88</v>
+        <v>10.7</v>
       </c>
       <c r="H93" s="2">
-        <v>295</v>
+        <v>122</v>
       </c>
       <c r="I93" s="3">
-        <v>0.48499999999999999</v>
+        <v>0.42599999999999999</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -3954,22 +3954,22 @@
         <v>16</v>
       </c>
       <c r="D94" s="2">
-        <v>3098</v>
+        <v>1324</v>
       </c>
       <c r="E94" s="2">
-        <v>3.81</v>
+        <v>3.79</v>
       </c>
       <c r="F94" s="2">
-        <v>254</v>
+        <v>104</v>
       </c>
       <c r="G94" s="2">
-        <v>6.04</v>
+        <v>6.06</v>
       </c>
       <c r="H94" s="2">
-        <v>801</v>
+        <v>334</v>
       </c>
       <c r="I94" s="3">
-        <v>0.51700000000000002</v>
+        <v>0.50600000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -3983,22 +3983,22 @@
         <v>16</v>
       </c>
       <c r="D95" s="2">
-        <v>3817</v>
+        <v>1664</v>
       </c>
       <c r="E95" s="2">
-        <v>4.32</v>
+        <v>4.3</v>
       </c>
       <c r="F95" s="2">
-        <v>447</v>
+        <v>175</v>
       </c>
       <c r="G95" s="2">
-        <v>6.28</v>
+        <v>6.57</v>
       </c>
       <c r="H95" s="2">
-        <v>1412</v>
+        <v>491</v>
       </c>
       <c r="I95" s="3">
-        <v>0.504</v>
+        <v>0.47499999999999998</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -4012,22 +4012,22 @@
         <v>16</v>
       </c>
       <c r="D96" s="2">
-        <v>3750</v>
+        <v>1714</v>
       </c>
       <c r="E96" s="2">
-        <v>4.42</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="F96" s="2">
-        <v>350</v>
+        <v>162</v>
       </c>
       <c r="G96" s="2">
-        <v>6.82</v>
+        <v>7.01</v>
       </c>
       <c r="H96" s="2">
-        <v>1129</v>
+        <v>490</v>
       </c>
       <c r="I96" s="3">
-        <v>0.53900000000000003</v>
+        <v>0.52700000000000002</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -4041,22 +4041,22 @@
         <v>16</v>
       </c>
       <c r="D97" s="2">
-        <v>5139</v>
+        <v>2146</v>
       </c>
       <c r="E97" s="2">
-        <v>8.92</v>
+        <v>8.93</v>
       </c>
       <c r="F97" s="2">
-        <v>913</v>
+        <v>388</v>
       </c>
       <c r="G97" s="2">
-        <v>11.8</v>
+        <v>11.78</v>
       </c>
       <c r="H97" s="2">
-        <v>552</v>
+        <v>235</v>
       </c>
       <c r="I97" s="3">
-        <v>0.54700000000000004</v>
+        <v>0.46800000000000003</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -4070,22 +4070,22 @@
         <v>11</v>
       </c>
       <c r="D98" s="2">
-        <v>129</v>
+        <v>64</v>
       </c>
       <c r="E98" s="2">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="F98" s="2">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="G98" s="2">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="H98" s="2">
-        <v>518</v>
+        <v>257</v>
       </c>
       <c r="I98" s="3">
-        <v>0.56399999999999995</v>
+        <v>0.59899999999999998</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -4099,22 +4099,22 @@
         <v>11</v>
       </c>
       <c r="D99" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="E99" s="2">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="F99" s="2">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="G99" s="2">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="H99" s="2">
-        <v>269</v>
+        <v>138</v>
       </c>
       <c r="I99" s="3">
-        <v>0.52</v>
+        <v>0.52900000000000003</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4128,22 +4128,22 @@
         <v>13</v>
       </c>
       <c r="D100" s="2">
-        <v>517</v>
+        <v>233</v>
       </c>
       <c r="E100" s="2">
-        <v>1.87</v>
+        <v>1.74</v>
       </c>
       <c r="F100" s="2">
-        <v>188</v>
+        <v>82</v>
       </c>
       <c r="G100" s="2">
-        <v>2.14</v>
+        <v>1.9</v>
       </c>
       <c r="H100" s="2">
-        <v>876</v>
+        <v>373</v>
       </c>
       <c r="I100" s="3">
-        <v>0.53100000000000003</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -4157,22 +4157,22 @@
         <v>11</v>
       </c>
       <c r="D101" s="2">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="E101" s="2">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="F101" s="2">
-        <v>118</v>
+        <v>42</v>
       </c>
       <c r="G101" s="2">
-        <v>1.28</v>
+        <v>1.4</v>
       </c>
       <c r="H101" s="2">
-        <v>542</v>
+        <v>137</v>
       </c>
       <c r="I101" s="3">
-        <v>0.53300000000000003</v>
+        <v>0.48199999999999998</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -4186,22 +4186,22 @@
         <v>22</v>
       </c>
       <c r="D102" s="2">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="E102" s="2">
         <v>1</v>
       </c>
       <c r="F102" s="2">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="G102" s="2">
         <v>1</v>
       </c>
       <c r="H102" s="2">
-        <v>185</v>
+        <v>86</v>
       </c>
       <c r="I102" s="3">
-        <v>0.53</v>
+        <v>0.65100000000000002</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -4215,22 +4215,22 @@
         <v>16</v>
       </c>
       <c r="D103" s="2">
-        <v>3975</v>
+        <v>1621</v>
       </c>
       <c r="E103" s="2">
-        <v>4.4800000000000004</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="F103" s="2">
-        <v>715</v>
+        <v>290</v>
       </c>
       <c r="G103" s="2">
-        <v>6.12</v>
+        <v>6.1</v>
       </c>
       <c r="H103" s="2">
-        <v>2629</v>
+        <v>1088</v>
       </c>
       <c r="I103" s="3">
-        <v>0.55300000000000005</v>
+        <v>0.53400000000000003</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -4244,22 +4244,22 @@
         <v>16</v>
       </c>
       <c r="D104" s="2">
-        <v>2726</v>
+        <v>1154</v>
       </c>
       <c r="E104" s="2">
-        <v>3.25</v>
+        <v>3.23</v>
       </c>
       <c r="F104" s="2">
-        <v>865</v>
+        <v>386</v>
       </c>
       <c r="G104" s="2">
-        <v>3.96</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="H104" s="2">
-        <v>3263</v>
+        <v>1361</v>
       </c>
       <c r="I104" s="3">
-        <v>0.55800000000000005</v>
+        <v>0.55500000000000005</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4273,22 +4273,22 @@
         <v>13</v>
       </c>
       <c r="D105" s="2">
-        <v>1229</v>
+        <v>512</v>
       </c>
       <c r="E105" s="2">
-        <v>3.52</v>
+        <v>3.45</v>
       </c>
       <c r="F105" s="2">
-        <v>573</v>
+        <v>235</v>
       </c>
       <c r="G105" s="2">
-        <v>3.96</v>
+        <v>3.87</v>
       </c>
       <c r="H105" s="2">
-        <v>2087</v>
+        <v>874</v>
       </c>
       <c r="I105" s="3">
-        <v>0.55300000000000005</v>
+        <v>0.53100000000000003</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -4302,22 +4302,22 @@
         <v>16</v>
       </c>
       <c r="D106" s="2">
-        <v>4202</v>
+        <v>1786</v>
       </c>
       <c r="E106" s="2">
-        <v>4.78</v>
+        <v>4.76</v>
       </c>
       <c r="F106" s="2">
-        <v>642</v>
+        <v>338</v>
       </c>
       <c r="G106" s="2">
-        <v>6.63</v>
+        <v>6.46</v>
       </c>
       <c r="H106" s="2">
-        <v>1829</v>
+        <v>846</v>
       </c>
       <c r="I106" s="3">
-        <v>0.56299999999999994</v>
+        <v>0.51700000000000002</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4331,22 +4331,22 @@
         <v>13</v>
       </c>
       <c r="D107" s="2">
-        <v>1720</v>
+        <v>757</v>
       </c>
       <c r="E107" s="2">
-        <v>8.01</v>
+        <v>7.93</v>
       </c>
       <c r="F107" s="2">
-        <v>225</v>
+        <v>111</v>
       </c>
       <c r="G107" s="2">
-        <v>11.81</v>
+        <v>12.21</v>
       </c>
       <c r="H107" s="2">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I107" s="3">
-        <v>0.38300000000000001</v>
+        <v>0.35299999999999998</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4360,22 +4360,22 @@
         <v>13</v>
       </c>
       <c r="D108" s="2">
-        <v>574</v>
+        <v>255</v>
       </c>
       <c r="E108" s="2">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="F108" s="2">
-        <v>262</v>
+        <v>131</v>
       </c>
       <c r="G108" s="2">
-        <v>2.25</v>
+        <v>1.97</v>
       </c>
       <c r="H108" s="2">
-        <v>1291</v>
+        <v>611</v>
       </c>
       <c r="I108" s="3">
-        <v>0.54400000000000004</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -4389,22 +4389,22 @@
         <v>16</v>
       </c>
       <c r="D109" s="2">
-        <v>4895</v>
+        <v>2059</v>
       </c>
       <c r="E109" s="2">
-        <v>6.37</v>
+        <v>6.3</v>
       </c>
       <c r="F109" s="2">
-        <v>961</v>
+        <v>427</v>
       </c>
       <c r="G109" s="2">
-        <v>8.1300000000000008</v>
+        <v>7.91</v>
       </c>
       <c r="H109" s="2">
-        <v>2497</v>
+        <v>1030</v>
       </c>
       <c r="I109" s="3">
-        <v>0.54600000000000004</v>
+        <v>0.51500000000000001</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -4418,22 +4418,22 @@
         <v>16</v>
       </c>
       <c r="D110" s="2">
-        <v>3450</v>
+        <v>1468</v>
       </c>
       <c r="E110" s="2">
-        <v>4.0599999999999996</v>
+        <v>4.01</v>
       </c>
       <c r="F110" s="2">
-        <v>266</v>
+        <v>117</v>
       </c>
       <c r="G110" s="2">
-        <v>6.69</v>
+        <v>6.43</v>
       </c>
       <c r="H110" s="2">
-        <v>855</v>
+        <v>314</v>
       </c>
       <c r="I110" s="3">
-        <v>0.55600000000000005</v>
+        <v>0.52200000000000002</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -4447,22 +4447,22 @@
         <v>11</v>
       </c>
       <c r="D111" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="E111" s="2">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
       <c r="F111" s="2">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="G111" s="2">
-        <v>1.59</v>
+        <v>1.9</v>
       </c>
       <c r="H111" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I111" s="3">
-        <v>0.61299999999999999</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -4476,22 +4476,22 @@
         <v>11</v>
       </c>
       <c r="D112" s="2">
-        <v>158</v>
+        <v>58</v>
       </c>
       <c r="E112" s="2">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="F112" s="2">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="G112" s="2">
-        <v>1.1399999999999999</v>
+        <v>1.19</v>
       </c>
       <c r="H112" s="2">
-        <v>339</v>
+        <v>121</v>
       </c>
       <c r="I112" s="3">
-        <v>0.53700000000000003</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -4505,22 +4505,22 @@
         <v>16</v>
       </c>
       <c r="D113" s="2">
-        <v>4929</v>
+        <v>2162</v>
       </c>
       <c r="E113" s="2">
         <v>7.16</v>
       </c>
       <c r="F113" s="2">
-        <v>509</v>
+        <v>210</v>
       </c>
       <c r="G113" s="2">
-        <v>10.039999999999999</v>
+        <v>10.25</v>
       </c>
       <c r="H113" s="2">
-        <v>1028</v>
+        <v>384</v>
       </c>
       <c r="I113" s="3">
-        <v>0.56100000000000005</v>
+        <v>0.50800000000000001</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -4534,22 +4534,22 @@
         <v>16</v>
       </c>
       <c r="D114" s="2">
-        <v>4858</v>
+        <v>2179</v>
       </c>
       <c r="E114" s="2">
         <v>7.13</v>
       </c>
       <c r="F114" s="2">
-        <v>657</v>
+        <v>260</v>
       </c>
       <c r="G114" s="2">
-        <v>9.4</v>
+        <v>9.52</v>
       </c>
       <c r="H114" s="2">
-        <v>1074</v>
+        <v>370</v>
       </c>
       <c r="I114" s="3">
-        <v>0.52500000000000002</v>
+        <v>0.48599999999999999</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -4563,22 +4563,22 @@
         <v>16</v>
       </c>
       <c r="D115" s="2">
-        <v>5040</v>
+        <v>2138</v>
       </c>
       <c r="E115" s="2">
-        <v>8.4700000000000006</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="F115" s="2">
-        <v>504</v>
+        <v>226</v>
       </c>
       <c r="G115" s="2">
-        <v>12.05</v>
+        <v>12.14</v>
       </c>
       <c r="H115" s="2">
-        <v>366</v>
+        <v>181</v>
       </c>
       <c r="I115" s="3">
-        <v>0.57099999999999995</v>
+        <v>0.51900000000000002</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -4592,22 +4592,22 @@
         <v>11</v>
       </c>
       <c r="D116" s="2">
-        <v>123</v>
+        <v>51</v>
       </c>
       <c r="E116" s="2">
-        <v>1.34</v>
+        <v>1.2</v>
       </c>
       <c r="F116" s="2">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="G116" s="2">
-        <v>1.27</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="H116" s="2">
-        <v>419</v>
+        <v>171</v>
       </c>
       <c r="I116" s="3">
-        <v>0.57799999999999996</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -4621,22 +4621,22 @@
         <v>16</v>
       </c>
       <c r="D117" s="2">
-        <v>4087</v>
+        <v>1727</v>
       </c>
       <c r="E117" s="2">
-        <v>4.7300000000000004</v>
+        <v>4.72</v>
       </c>
       <c r="F117" s="2">
-        <v>486</v>
+        <v>213</v>
       </c>
       <c r="G117" s="2">
-        <v>6.58</v>
+        <v>6.74</v>
       </c>
       <c r="H117" s="2">
-        <v>1359</v>
+        <v>571</v>
       </c>
       <c r="I117" s="3">
-        <v>0.53500000000000003</v>
+        <v>0.50600000000000001</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4650,22 +4650,22 @@
         <v>13</v>
       </c>
       <c r="D118" s="2">
-        <v>1009</v>
+        <v>416</v>
       </c>
       <c r="E118" s="2">
-        <v>2.89</v>
+        <v>2.94</v>
       </c>
       <c r="F118" s="2">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="G118" s="2">
-        <v>3.69</v>
+        <v>3.88</v>
       </c>
       <c r="H118" s="2">
-        <v>528</v>
+        <v>168</v>
       </c>
       <c r="I118" s="3">
-        <v>0.54200000000000004</v>
+        <v>0.51800000000000002</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4679,22 +4679,22 @@
         <v>13</v>
       </c>
       <c r="D119" s="2">
-        <v>1705</v>
+        <v>738</v>
       </c>
       <c r="E119" s="2">
-        <v>8.16</v>
+        <v>8.0399999999999991</v>
       </c>
       <c r="F119" s="2">
-        <v>310</v>
+        <v>138</v>
       </c>
       <c r="G119" s="2">
-        <v>11.41</v>
+        <v>11.55</v>
       </c>
       <c r="H119" s="2">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="I119" s="3">
-        <v>0.53800000000000003</v>
+        <v>0.53300000000000003</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -4708,22 +4708,22 @@
         <v>16</v>
       </c>
       <c r="D120" s="2">
-        <v>5074</v>
+        <v>2199</v>
       </c>
       <c r="E120" s="2">
-        <v>8.4499999999999993</v>
+        <v>8.49</v>
       </c>
       <c r="F120" s="2">
-        <v>598</v>
+        <v>247</v>
       </c>
       <c r="G120" s="2">
-        <v>11.89</v>
+        <v>12</v>
       </c>
       <c r="H120" s="2">
-        <v>402</v>
+        <v>156</v>
       </c>
       <c r="I120" s="3">
-        <v>0.55000000000000004</v>
+        <v>0.49399999999999999</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -4737,22 +4737,22 @@
         <v>22</v>
       </c>
       <c r="D121" s="2">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="E121" s="2">
         <v>1</v>
       </c>
       <c r="F121" s="2">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="G121" s="2">
         <v>1</v>
       </c>
       <c r="H121" s="2">
-        <v>281</v>
+        <v>62</v>
       </c>
       <c r="I121" s="3">
-        <v>0.63700000000000001</v>
+        <v>0.58099999999999996</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -4766,22 +4766,22 @@
         <v>16</v>
       </c>
       <c r="D122" s="2">
-        <v>4667</v>
+        <v>2024</v>
       </c>
       <c r="E122" s="2">
-        <v>5.82</v>
+        <v>5.93</v>
       </c>
       <c r="F122" s="2">
-        <v>412</v>
+        <v>183</v>
       </c>
       <c r="G122" s="2">
-        <v>8.83</v>
+        <v>8.94</v>
       </c>
       <c r="H122" s="2">
-        <v>1101</v>
+        <v>407</v>
       </c>
       <c r="I122" s="3">
-        <v>0.55200000000000005</v>
+        <v>0.50600000000000001</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4795,22 +4795,22 @@
         <v>13</v>
       </c>
       <c r="D123" s="2">
-        <v>1461</v>
+        <v>603</v>
       </c>
       <c r="E123" s="2">
-        <v>4.5199999999999996</v>
+        <v>4.49</v>
       </c>
       <c r="F123" s="2">
-        <v>327</v>
+        <v>126</v>
       </c>
       <c r="G123" s="2">
-        <v>5.86</v>
+        <v>5.79</v>
       </c>
       <c r="H123" s="2">
-        <v>1136</v>
+        <v>447</v>
       </c>
       <c r="I123" s="3">
-        <v>0.54500000000000004</v>
+        <v>0.53700000000000003</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4824,22 +4824,22 @@
         <v>13</v>
       </c>
       <c r="D124" s="2">
-        <v>1682</v>
+        <v>720</v>
       </c>
       <c r="E124" s="2">
-        <v>7.77</v>
+        <v>7.53</v>
       </c>
       <c r="F124" s="2">
-        <v>272</v>
+        <v>114</v>
       </c>
       <c r="G124" s="2">
-        <v>10.84</v>
+        <v>10.51</v>
       </c>
       <c r="H124" s="2">
-        <v>326</v>
+        <v>161</v>
       </c>
       <c r="I124" s="3">
-        <v>0.53400000000000003</v>
+        <v>0.55900000000000005</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -4853,22 +4853,22 @@
         <v>11</v>
       </c>
       <c r="D125" s="2">
-        <v>152</v>
+        <v>74</v>
       </c>
       <c r="E125" s="2">
-        <v>1.61</v>
+        <v>1.47</v>
       </c>
       <c r="F125" s="2">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="G125" s="2">
-        <v>1.64</v>
+        <v>1.33</v>
       </c>
       <c r="H125" s="2">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="I125" s="3">
-        <v>0.52200000000000002</v>
+        <v>0.58299999999999996</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -4882,22 +4882,22 @@
         <v>11</v>
       </c>
       <c r="D126" s="2">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="E126" s="2">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="F126" s="2">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="G126" s="2">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="H126" s="2">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="I126" s="3">
-        <v>0.52800000000000002</v>
+        <v>0.41699999999999998</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -4911,22 +4911,22 @@
         <v>16</v>
       </c>
       <c r="D127" s="2">
-        <v>5022</v>
+        <v>2224</v>
       </c>
       <c r="E127" s="2">
-        <v>9.3000000000000007</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="F127" s="2">
-        <v>846</v>
+        <v>367</v>
       </c>
       <c r="G127" s="2">
-        <v>12.1</v>
+        <v>12.28</v>
       </c>
       <c r="H127" s="2">
-        <v>642</v>
+        <v>285</v>
       </c>
       <c r="I127" s="3">
-        <v>0.56100000000000005</v>
+        <v>0.505</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -4940,22 +4940,22 @@
         <v>11</v>
       </c>
       <c r="D128" s="2">
-        <v>175</v>
+        <v>67</v>
       </c>
       <c r="E128" s="2">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="F128" s="2">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G128" s="2">
-        <v>1.33</v>
+        <v>1.77</v>
       </c>
       <c r="H128" s="2">
-        <v>1</v>
-      </c>
-      <c r="I128" s="3">
         <v>0</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -4969,22 +4969,22 @@
         <v>11</v>
       </c>
       <c r="D129" s="2">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="E129" s="2">
         <v>1</v>
       </c>
       <c r="F129" s="2">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="G129" s="2">
         <v>1</v>
       </c>
       <c r="H129" s="2">
-        <v>200</v>
+        <v>87</v>
       </c>
       <c r="I129" s="3">
-        <v>0.495</v>
+        <v>0.47099999999999997</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4998,22 +4998,22 @@
         <v>13</v>
       </c>
       <c r="D130" s="2">
-        <v>1464</v>
+        <v>637</v>
       </c>
       <c r="E130" s="2">
-        <v>4.59</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="F130" s="2">
-        <v>271</v>
+        <v>106</v>
       </c>
       <c r="G130" s="2">
-        <v>5.85</v>
+        <v>6.35</v>
       </c>
       <c r="H130" s="2">
-        <v>898</v>
+        <v>285</v>
       </c>
       <c r="I130" s="3">
-        <v>0.52200000000000002</v>
+        <v>0.51200000000000001</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5027,22 +5027,22 @@
         <v>13</v>
       </c>
       <c r="D131" s="2">
-        <v>906</v>
+        <v>387</v>
       </c>
       <c r="E131" s="2">
-        <v>3.03</v>
+        <v>2.99</v>
       </c>
       <c r="F131" s="2">
-        <v>132</v>
+        <v>57</v>
       </c>
       <c r="G131" s="2">
-        <v>3.92</v>
+        <v>3.77</v>
       </c>
       <c r="H131" s="2">
-        <v>403</v>
+        <v>159</v>
       </c>
       <c r="I131" s="3">
-        <v>0.50900000000000001</v>
+        <v>0.46500000000000002</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -5056,22 +5056,22 @@
         <v>16</v>
       </c>
       <c r="D132" s="2">
-        <v>3862</v>
+        <v>1665</v>
       </c>
       <c r="E132" s="2">
-        <v>4.42</v>
+        <v>4.41</v>
       </c>
       <c r="F132" s="2">
-        <v>533</v>
+        <v>220</v>
       </c>
       <c r="G132" s="2">
-        <v>6.38</v>
+        <v>6.06</v>
       </c>
       <c r="H132" s="2">
-        <v>1640</v>
+        <v>672</v>
       </c>
       <c r="I132" s="3">
-        <v>0.54500000000000004</v>
+        <v>0.497</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -5085,22 +5085,22 @@
         <v>16</v>
       </c>
       <c r="D133" s="2">
-        <v>4562</v>
+        <v>2074</v>
       </c>
       <c r="E133" s="2">
-        <v>5.73</v>
+        <v>5.65</v>
       </c>
       <c r="F133" s="2">
-        <v>572</v>
+        <v>222</v>
       </c>
       <c r="G133" s="2">
-        <v>7.78</v>
+        <v>8.18</v>
       </c>
       <c r="H133" s="2">
-        <v>1572</v>
+        <v>574</v>
       </c>
       <c r="I133" s="3">
-        <v>0.53400000000000003</v>
+        <v>0.52400000000000002</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -5114,22 +5114,22 @@
         <v>11</v>
       </c>
       <c r="D134" s="2">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="E134" s="2">
         <v>1</v>
       </c>
       <c r="F134" s="2">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="G134" s="2">
         <v>1</v>
       </c>
       <c r="H134" s="2">
-        <v>326</v>
+        <v>140</v>
       </c>
       <c r="I134" s="3">
-        <v>0.53100000000000003</v>
+        <v>0.49299999999999999</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -5143,22 +5143,22 @@
         <v>16</v>
       </c>
       <c r="D135" s="2">
-        <v>4946</v>
+        <v>2135</v>
       </c>
       <c r="E135" s="2">
-        <v>7.19</v>
+        <v>7.28</v>
       </c>
       <c r="F135" s="2">
-        <v>881</v>
+        <v>389</v>
       </c>
       <c r="G135" s="2">
-        <v>8.98</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="H135" s="2">
-        <v>2058</v>
+        <v>801</v>
       </c>
       <c r="I135" s="3">
-        <v>0.54300000000000004</v>
+        <v>0.51400000000000001</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5172,22 +5172,22 @@
         <v>13</v>
       </c>
       <c r="D136" s="2">
-        <v>1029</v>
+        <v>473</v>
       </c>
       <c r="E136" s="2">
-        <v>3.16</v>
+        <v>3.14</v>
       </c>
       <c r="F136" s="2">
-        <v>250</v>
+        <v>102</v>
       </c>
       <c r="G136" s="2">
-        <v>3.76</v>
+        <v>4.04</v>
       </c>
       <c r="H136" s="2">
-        <v>1021</v>
+        <v>375</v>
       </c>
       <c r="I136" s="3">
-        <v>0.55900000000000005</v>
+        <v>0.55200000000000005</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
@@ -5201,22 +5201,22 @@
         <v>16</v>
       </c>
       <c r="D137" s="2">
-        <v>3812</v>
+        <v>1609</v>
       </c>
       <c r="E137" s="2">
-        <v>4.26</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="F137" s="2">
-        <v>241</v>
+        <v>97</v>
       </c>
       <c r="G137" s="2">
-        <v>6.98</v>
+        <v>6.88</v>
       </c>
       <c r="H137" s="2">
-        <v>770</v>
+        <v>316</v>
       </c>
       <c r="I137" s="3">
-        <v>0.56000000000000005</v>
+        <v>0.53800000000000003</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -5230,22 +5230,22 @@
         <v>16</v>
       </c>
       <c r="D138" s="2">
-        <v>4103</v>
+        <v>1827</v>
       </c>
       <c r="E138" s="2">
-        <v>4.87</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="F138" s="2">
-        <v>650</v>
+        <v>286</v>
       </c>
       <c r="G138" s="2">
-        <v>6.47</v>
+        <v>6.17</v>
       </c>
       <c r="H138" s="2">
-        <v>2009</v>
+        <v>838</v>
       </c>
       <c r="I138" s="3">
-        <v>0.55200000000000005</v>
+        <v>0.53300000000000003</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
@@ -5259,22 +5259,22 @@
         <v>22</v>
       </c>
       <c r="D139" s="2">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E139" s="2">
-        <v>1.22</v>
+        <v>1.41</v>
       </c>
       <c r="F139" s="2">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="G139" s="2">
-        <v>1.1299999999999999</v>
+        <v>1.54</v>
       </c>
       <c r="H139" s="2">
-        <v>162</v>
+        <v>53</v>
       </c>
       <c r="I139" s="3">
-        <v>0.53700000000000003</v>
+        <v>0.41499999999999998</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -5288,22 +5288,22 @@
         <v>16</v>
       </c>
       <c r="D140" s="2">
-        <v>2009</v>
+        <v>812</v>
       </c>
       <c r="E140" s="2">
-        <v>2.5299999999999998</v>
+        <v>2.63</v>
       </c>
       <c r="F140" s="2">
-        <v>504</v>
+        <v>179</v>
       </c>
       <c r="G140" s="2">
-        <v>3</v>
+        <v>3.34</v>
       </c>
       <c r="H140" s="2">
-        <v>1817</v>
+        <v>634</v>
       </c>
       <c r="I140" s="3">
-        <v>0.54900000000000004</v>
+        <v>0.54300000000000004</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
@@ -5317,22 +5317,22 @@
         <v>16</v>
       </c>
       <c r="D141" s="2">
-        <v>2519</v>
+        <v>1086</v>
       </c>
       <c r="E141" s="2">
-        <v>3.07</v>
+        <v>3.12</v>
       </c>
       <c r="F141" s="2">
-        <v>444</v>
+        <v>189</v>
       </c>
       <c r="G141" s="2">
-        <v>4.16</v>
+        <v>4.03</v>
       </c>
       <c r="H141" s="2">
-        <v>1803</v>
+        <v>661</v>
       </c>
       <c r="I141" s="3">
-        <v>0.55700000000000005</v>
+        <v>0.53400000000000003</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
@@ -5346,22 +5346,22 @@
         <v>16</v>
       </c>
       <c r="D142" s="2">
-        <v>4868</v>
+        <v>2110</v>
       </c>
       <c r="E142" s="2">
-        <v>6.49</v>
+        <v>6.47</v>
       </c>
       <c r="F142" s="2">
-        <v>581</v>
+        <v>262</v>
       </c>
       <c r="G142" s="2">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="H142" s="2">
-        <v>550</v>
+        <v>244</v>
       </c>
       <c r="I142" s="3">
-        <v>0.58399999999999996</v>
+        <v>0.49199999999999999</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5375,22 +5375,22 @@
         <v>13</v>
       </c>
       <c r="D143" s="2">
-        <v>1790</v>
+        <v>724</v>
       </c>
       <c r="E143" s="2">
-        <v>7.27</v>
+        <v>7.07</v>
       </c>
       <c r="F143" s="2">
-        <v>248</v>
+        <v>87</v>
       </c>
       <c r="G143" s="2">
-        <v>10.75</v>
+        <v>10.87</v>
       </c>
       <c r="H143" s="2">
-        <v>255</v>
+        <v>73</v>
       </c>
       <c r="I143" s="3">
-        <v>0.57599999999999996</v>
+        <v>0.52100000000000002</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5404,22 +5404,22 @@
         <v>13</v>
       </c>
       <c r="D144" s="2">
-        <v>621</v>
+        <v>260</v>
       </c>
       <c r="E144" s="2">
-        <v>1.95</v>
+        <v>2.09</v>
       </c>
       <c r="F144" s="2">
-        <v>189</v>
+        <v>69</v>
       </c>
       <c r="G144" s="2">
-        <v>2.21</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="H144" s="2">
-        <v>884</v>
+        <v>284</v>
       </c>
       <c r="I144" s="3">
-        <v>0.54900000000000004</v>
+        <v>0.52100000000000002</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
@@ -5433,22 +5433,22 @@
         <v>11</v>
       </c>
       <c r="D145" s="2">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="E145" s="2">
+        <v>1.38</v>
+      </c>
+      <c r="F145" s="2">
+        <v>37</v>
+      </c>
+      <c r="G145" s="2">
         <v>1.32</v>
       </c>
-      <c r="F145" s="2">
-        <v>79</v>
-      </c>
-      <c r="G145" s="2">
-        <v>1.19</v>
-      </c>
       <c r="H145" s="2">
-        <v>309</v>
+        <v>130</v>
       </c>
       <c r="I145" s="3">
-        <v>0.56999999999999995</v>
+        <v>0.55400000000000005</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5462,22 +5462,22 @@
         <v>13</v>
       </c>
       <c r="D146" s="2">
-        <v>557</v>
+        <v>265</v>
       </c>
       <c r="E146" s="2">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="F146" s="2">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="G146" s="2">
-        <v>2.23</v>
+        <v>2.15</v>
       </c>
       <c r="H146" s="2">
-        <v>683</v>
+        <v>228</v>
       </c>
       <c r="I146" s="3">
-        <v>0.52700000000000002</v>
+        <v>0.45200000000000001</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -5491,22 +5491,22 @@
         <v>16</v>
       </c>
       <c r="D147" s="2">
-        <v>4674</v>
+        <v>1998</v>
       </c>
       <c r="E147" s="2">
-        <v>5.78</v>
+        <v>5.73</v>
       </c>
       <c r="F147" s="2">
-        <v>529</v>
+        <v>194</v>
       </c>
       <c r="G147" s="2">
-        <v>7.61</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="H147" s="2">
-        <v>1166</v>
+        <v>394</v>
       </c>
       <c r="I147" s="3">
-        <v>0.53300000000000003</v>
+        <v>0.48699999999999999</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -5520,22 +5520,22 @@
         <v>11</v>
       </c>
       <c r="D148" s="2">
-        <v>143</v>
+        <v>70</v>
       </c>
       <c r="E148" s="2">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="F148" s="2">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="G148" s="2">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="H148" s="2">
-        <v>314</v>
+        <v>80</v>
       </c>
       <c r="I148" s="3">
-        <v>0.503</v>
+        <v>0.46300000000000002</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
@@ -5549,22 +5549,22 @@
         <v>16</v>
       </c>
       <c r="D149" s="2">
-        <v>3908</v>
+        <v>1579</v>
       </c>
       <c r="E149" s="2">
-        <v>4.4000000000000004</v>
+        <v>4.45</v>
       </c>
       <c r="F149" s="2">
-        <v>244</v>
+        <v>110</v>
       </c>
       <c r="G149" s="2">
-        <v>6.49</v>
+        <v>7.02</v>
       </c>
       <c r="H149" s="2">
-        <v>941</v>
+        <v>335</v>
       </c>
       <c r="I149" s="3">
-        <v>0.57299999999999995</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5578,22 +5578,22 @@
         <v>13</v>
       </c>
       <c r="D150" s="2">
-        <v>655</v>
+        <v>312</v>
       </c>
       <c r="E150" s="2">
-        <v>2.0299999999999998</v>
+        <v>2.11</v>
       </c>
       <c r="F150" s="2">
-        <v>200</v>
+        <v>99</v>
       </c>
       <c r="G150" s="2">
-        <v>2.35</v>
+        <v>2.42</v>
       </c>
       <c r="H150" s="2">
-        <v>917</v>
+        <v>454</v>
       </c>
       <c r="I150" s="3">
-        <v>0.56999999999999995</v>
+        <v>0.56799999999999995</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
@@ -5607,22 +5607,22 @@
         <v>16</v>
       </c>
       <c r="D151" s="2">
-        <v>4712</v>
+        <v>1936</v>
       </c>
       <c r="E151" s="2">
-        <v>5.93</v>
+        <v>5.75</v>
       </c>
       <c r="F151" s="2">
-        <v>822</v>
+        <v>322</v>
       </c>
       <c r="G151" s="2">
-        <v>7.68</v>
+        <v>7.71</v>
       </c>
       <c r="H151" s="2">
-        <v>2287</v>
+        <v>903</v>
       </c>
       <c r="I151" s="3">
-        <v>0.55700000000000005</v>
+        <v>0.52900000000000003</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5636,22 +5636,22 @@
         <v>13</v>
       </c>
       <c r="D152" s="2">
-        <v>1389</v>
+        <v>596</v>
       </c>
       <c r="E152" s="2">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="F152" s="2">
-        <v>450</v>
+        <v>243</v>
       </c>
       <c r="G152" s="2">
-        <v>4.34</v>
+        <v>4.46</v>
       </c>
       <c r="H152" s="2">
-        <v>1557</v>
+        <v>845</v>
       </c>
       <c r="I152" s="3">
-        <v>0.57199999999999995</v>
+        <v>0.55700000000000005</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
@@ -5665,22 +5665,22 @@
         <v>11</v>
       </c>
       <c r="D153" s="2">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="E153" s="2">
         <v>1</v>
       </c>
       <c r="F153" s="2">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="G153" s="2">
         <v>1</v>
       </c>
       <c r="H153" s="2">
-        <v>352</v>
+        <v>102</v>
       </c>
       <c r="I153" s="3">
-        <v>0.56000000000000005</v>
+        <v>0.61799999999999999</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
@@ -5694,22 +5694,22 @@
         <v>16</v>
       </c>
       <c r="D154" s="2">
-        <v>5081</v>
+        <v>2212</v>
       </c>
       <c r="E154" s="2">
-        <v>8.44</v>
+        <v>8.42</v>
       </c>
       <c r="F154" s="2">
-        <v>607</v>
+        <v>244</v>
       </c>
       <c r="G154" s="2">
-        <v>11.88</v>
+        <v>12.16</v>
       </c>
       <c r="H154" s="2">
-        <v>251</v>
+        <v>83</v>
       </c>
       <c r="I154" s="3">
-        <v>0.502</v>
+        <v>0.50600000000000001</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -5723,22 +5723,22 @@
         <v>16</v>
       </c>
       <c r="D155" s="2">
-        <v>1896</v>
+        <v>808</v>
       </c>
       <c r="E155" s="2">
-        <v>2.5499999999999998</v>
+        <v>2.54</v>
       </c>
       <c r="F155" s="2">
-        <v>341</v>
+        <v>185</v>
       </c>
       <c r="G155" s="2">
-        <v>3.31</v>
+        <v>3.16</v>
       </c>
       <c r="H155" s="2">
-        <v>1510</v>
+        <v>719</v>
       </c>
       <c r="I155" s="3">
-        <v>0.56699999999999995</v>
+        <v>0.56299999999999994</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5752,22 +5752,22 @@
         <v>13</v>
       </c>
       <c r="D156" s="2">
-        <v>1360</v>
+        <v>590</v>
       </c>
       <c r="E156" s="2">
-        <v>3.93</v>
+        <v>3.94</v>
       </c>
       <c r="F156" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="G156" s="2">
-        <v>6.11</v>
+        <v>5.59</v>
       </c>
       <c r="H156" s="2">
-        <v>324</v>
+        <v>193</v>
       </c>
       <c r="I156" s="3">
-        <v>0.52800000000000002</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
@@ -5781,22 +5781,22 @@
         <v>16</v>
       </c>
       <c r="D157" s="2">
-        <v>4396</v>
+        <v>1920</v>
       </c>
       <c r="E157" s="2">
-        <v>5.3</v>
+        <v>5.33</v>
       </c>
       <c r="F157" s="2">
-        <v>571</v>
+        <v>297</v>
       </c>
       <c r="G157" s="2">
-        <v>7.32</v>
+        <v>7.29</v>
       </c>
       <c r="H157" s="2">
-        <v>1737</v>
+        <v>959</v>
       </c>
       <c r="I157" s="3">
-        <v>0.56100000000000005</v>
+        <v>0.54600000000000004</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
@@ -5810,22 +5810,22 @@
         <v>16</v>
       </c>
       <c r="D158" s="2">
-        <v>3042</v>
+        <v>1306</v>
       </c>
       <c r="E158" s="2">
-        <v>3.53</v>
+        <v>3.55</v>
       </c>
       <c r="F158" s="2">
-        <v>330</v>
+        <v>166</v>
       </c>
       <c r="G158" s="2">
-        <v>5.16</v>
+        <v>4.78</v>
       </c>
       <c r="H158" s="2">
-        <v>1421</v>
+        <v>745</v>
       </c>
       <c r="I158" s="3">
-        <v>0.56899999999999995</v>
+        <v>0.57699999999999996</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
@@ -5839,22 +5839,22 @@
         <v>16</v>
       </c>
       <c r="D159" s="2">
-        <v>4917</v>
+        <v>2139</v>
       </c>
       <c r="E159" s="2">
-        <v>7.13</v>
+        <v>7.22</v>
       </c>
       <c r="F159" s="2">
-        <v>652</v>
+        <v>293</v>
       </c>
       <c r="G159" s="2">
-        <v>9.86</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="H159" s="2">
-        <v>1072</v>
+        <v>377</v>
       </c>
       <c r="I159" s="3">
-        <v>0.55800000000000005</v>
+        <v>0.48299999999999998</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5868,22 +5868,22 @@
         <v>13</v>
       </c>
       <c r="D160" s="2">
-        <v>1374</v>
+        <v>623</v>
       </c>
       <c r="E160" s="2">
-        <v>4.08</v>
+        <v>4.18</v>
       </c>
       <c r="F160" s="2">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="G160" s="2">
-        <v>5.69</v>
+        <v>6.13</v>
       </c>
       <c r="H160" s="2">
-        <v>401</v>
+        <v>148</v>
       </c>
       <c r="I160" s="3">
-        <v>0.54100000000000004</v>
+        <v>0.47299999999999998</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
@@ -5897,22 +5897,22 @@
         <v>11</v>
       </c>
       <c r="D161" s="2">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="E161" s="2">
+        <v>1.22</v>
+      </c>
+      <c r="F161" s="2">
+        <v>43</v>
+      </c>
+      <c r="G161" s="2">
         <v>1.23</v>
       </c>
-      <c r="F161" s="2">
-        <v>86</v>
-      </c>
-      <c r="G161" s="2">
-        <v>1.22</v>
-      </c>
       <c r="H161" s="2">
-        <v>309</v>
+        <v>163</v>
       </c>
       <c r="I161" s="3">
-        <v>0.58599999999999997</v>
+        <v>0.52800000000000002</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
@@ -5926,22 +5926,22 @@
         <v>22</v>
       </c>
       <c r="D162" s="2">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="E162" s="2">
         <v>1</v>
       </c>
       <c r="F162" s="2">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="G162" s="2">
         <v>1</v>
       </c>
       <c r="H162" s="2">
-        <v>247</v>
+        <v>83</v>
       </c>
       <c r="I162" s="3">
-        <v>0.63600000000000001</v>
+        <v>0.627</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
@@ -5955,22 +5955,22 @@
         <v>16</v>
       </c>
       <c r="D163" s="2">
-        <v>5181</v>
+        <v>2126</v>
       </c>
       <c r="E163" s="2">
-        <v>7.21</v>
+        <v>7.26</v>
       </c>
       <c r="F163" s="2">
-        <v>509</v>
+        <v>213</v>
       </c>
       <c r="G163" s="2">
-        <v>10.38</v>
+        <v>10.48</v>
       </c>
       <c r="H163" s="2">
-        <v>607</v>
+        <v>295</v>
       </c>
       <c r="I163" s="3">
-        <v>0.55700000000000005</v>
+        <v>0.54600000000000004</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5984,22 +5984,22 @@
         <v>13</v>
       </c>
       <c r="D164" s="2">
-        <v>701</v>
+        <v>288</v>
       </c>
       <c r="E164" s="2">
-        <v>2.17</v>
+        <v>2.06</v>
       </c>
       <c r="F164" s="2">
-        <v>186</v>
+        <v>74</v>
       </c>
       <c r="G164" s="2">
-        <v>2.62</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="H164" s="2">
-        <v>892</v>
+        <v>308</v>
       </c>
       <c r="I164" s="3">
-        <v>0.55700000000000005</v>
+        <v>0.51600000000000001</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -6013,22 +6013,22 @@
         <v>13</v>
       </c>
       <c r="D165" s="2">
-        <v>1505</v>
+        <v>607</v>
       </c>
       <c r="E165" s="2">
-        <v>4.45</v>
+        <v>4.51</v>
       </c>
       <c r="F165" s="2">
-        <v>260</v>
+        <v>96</v>
       </c>
       <c r="G165" s="2">
-        <v>5.79</v>
+        <v>6.61</v>
       </c>
       <c r="H165" s="2">
-        <v>943</v>
+        <v>270</v>
       </c>
       <c r="I165" s="3">
-        <v>0.54400000000000004</v>
+        <v>0.49299999999999999</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
@@ -6042,22 +6042,22 @@
         <v>11</v>
       </c>
       <c r="D166" s="2">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="E166" s="2">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="F166" s="2">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="G166" s="2">
         <v>1.33</v>
       </c>
       <c r="H166" s="2">
-        <v>390</v>
+        <v>137</v>
       </c>
       <c r="I166" s="3">
-        <v>0.628</v>
+        <v>0.53300000000000003</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
@@ -6071,22 +6071,22 @@
         <v>16</v>
       </c>
       <c r="D167" s="2">
-        <v>4560</v>
+        <v>1928</v>
       </c>
       <c r="E167" s="2">
-        <v>5.66</v>
+        <v>5.63</v>
       </c>
       <c r="F167" s="2">
-        <v>607</v>
+        <v>277</v>
       </c>
       <c r="G167" s="2">
-        <v>7.9</v>
+        <v>7.91</v>
       </c>
       <c r="H167" s="2">
-        <v>1791</v>
+        <v>727</v>
       </c>
       <c r="I167" s="3">
-        <v>0.57299999999999995</v>
+        <v>0.55300000000000005</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -6100,22 +6100,22 @@
         <v>13</v>
       </c>
       <c r="D168" s="2">
-        <v>819</v>
+        <v>319</v>
       </c>
       <c r="E168" s="2">
-        <v>2.42</v>
+        <v>2.58</v>
       </c>
       <c r="F168" s="2">
-        <v>227</v>
+        <v>95</v>
       </c>
       <c r="G168" s="2">
-        <v>2.81</v>
+        <v>3.03</v>
       </c>
       <c r="H168" s="2">
-        <v>1008</v>
+        <v>371</v>
       </c>
       <c r="I168" s="3">
-        <v>0.56999999999999995</v>
+        <v>0.51500000000000001</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -6129,22 +6129,22 @@
         <v>13</v>
       </c>
       <c r="D169" s="2">
-        <v>1602</v>
+        <v>674</v>
       </c>
       <c r="E169" s="2">
-        <v>5.68</v>
+        <v>5.82</v>
       </c>
       <c r="F169" s="2">
-        <v>370</v>
+        <v>193</v>
       </c>
       <c r="G169" s="2">
-        <v>7.16</v>
+        <v>7.22</v>
       </c>
       <c r="H169" s="2">
-        <v>1309</v>
+        <v>586</v>
       </c>
       <c r="I169" s="3">
-        <v>0.56799999999999995</v>
+        <v>0.53600000000000003</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
@@ -6158,22 +6158,22 @@
         <v>11</v>
       </c>
       <c r="D170" s="2">
-        <v>185</v>
+        <v>81</v>
       </c>
       <c r="E170" s="2">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="F170" s="2">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="G170" s="2">
-        <v>1.77</v>
+        <v>1.9</v>
       </c>
       <c r="H170" s="2">
-        <v>218</v>
+        <v>133</v>
       </c>
       <c r="I170" s="3">
-        <v>0.56399999999999995</v>
+        <v>0.57099999999999995</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
@@ -6187,22 +6187,22 @@
         <v>16</v>
       </c>
       <c r="D171" s="2">
-        <v>2566</v>
+        <v>1144</v>
       </c>
       <c r="E171" s="2">
-        <v>3.22</v>
+        <v>2.97</v>
       </c>
       <c r="F171" s="2">
-        <v>584</v>
+        <v>243</v>
       </c>
       <c r="G171" s="2">
-        <v>4.05</v>
+        <v>3.67</v>
       </c>
       <c r="H171" s="2">
-        <v>2254</v>
+        <v>916</v>
       </c>
       <c r="I171" s="3">
-        <v>0.55000000000000004</v>
+        <v>0.55200000000000005</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -6216,22 +6216,22 @@
         <v>22</v>
       </c>
       <c r="D172" s="2">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="E172" s="2">
         <v>1</v>
       </c>
       <c r="F172" s="2">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="G172" s="2">
         <v>1</v>
       </c>
       <c r="H172" s="2">
-        <v>231</v>
+        <v>58</v>
       </c>
       <c r="I172" s="3">
-        <v>0.56299999999999994</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
@@ -6245,22 +6245,22 @@
         <v>11</v>
       </c>
       <c r="D173" s="2">
-        <v>134</v>
+        <v>54</v>
       </c>
       <c r="E173" s="2">
-        <v>1.37</v>
+        <v>1.26</v>
       </c>
       <c r="F173" s="2">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="G173" s="2">
-        <v>1.27</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="H173" s="2">
-        <v>264</v>
+        <v>132</v>
       </c>
       <c r="I173" s="3">
-        <v>0.51900000000000002</v>
+        <v>0.629</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
@@ -6274,22 +6274,22 @@
         <v>16</v>
       </c>
       <c r="D174" s="2">
-        <v>5055</v>
+        <v>2171</v>
       </c>
       <c r="E174" s="2">
-        <v>8.51</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="F174" s="2">
-        <v>669</v>
+        <v>329</v>
       </c>
       <c r="G174" s="2">
-        <v>11.52</v>
+        <v>11.43</v>
       </c>
       <c r="H174" s="2">
-        <v>543</v>
+        <v>349</v>
       </c>
       <c r="I174" s="3">
-        <v>0.52300000000000002</v>
+        <v>0.53600000000000003</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -6303,22 +6303,22 @@
         <v>16</v>
       </c>
       <c r="D175" s="2">
-        <v>3884</v>
+        <v>1624</v>
       </c>
       <c r="E175" s="2">
-        <v>4.34</v>
+        <v>4.47</v>
       </c>
       <c r="F175" s="2">
-        <v>683</v>
+        <v>298</v>
       </c>
       <c r="G175" s="2">
-        <v>5.65</v>
+        <v>5.94</v>
       </c>
       <c r="H175" s="2">
-        <v>2373</v>
+        <v>1024</v>
       </c>
       <c r="I175" s="3">
-        <v>0.55600000000000005</v>
+        <v>0.54800000000000004</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -6332,22 +6332,22 @@
         <v>16</v>
       </c>
       <c r="D176" s="2">
-        <v>4806</v>
+        <v>2030</v>
       </c>
       <c r="E176" s="2">
-        <v>6.63</v>
+        <v>6.51</v>
       </c>
       <c r="F176" s="2">
-        <v>430</v>
+        <v>207</v>
       </c>
       <c r="G176" s="2">
-        <v>9.73</v>
+        <v>9.43</v>
       </c>
       <c r="H176" s="2">
-        <v>750</v>
+        <v>364</v>
       </c>
       <c r="I176" s="3">
-        <v>0.55700000000000005</v>
+        <v>0.57399999999999995</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
@@ -6361,22 +6361,22 @@
         <v>16</v>
       </c>
       <c r="D177" s="2">
-        <v>4610</v>
+        <v>2049</v>
       </c>
       <c r="E177" s="2">
         <v>5.8</v>
       </c>
       <c r="F177" s="2">
-        <v>467</v>
+        <v>194</v>
       </c>
       <c r="G177" s="2">
-        <v>8.39</v>
+        <v>8.42</v>
       </c>
       <c r="H177" s="2">
-        <v>1269</v>
+        <v>460</v>
       </c>
       <c r="I177" s="3">
-        <v>0.53500000000000003</v>
+        <v>0.52200000000000002</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -6390,22 +6390,22 @@
         <v>13</v>
       </c>
       <c r="D178" s="2">
-        <v>734</v>
+        <v>286</v>
       </c>
       <c r="E178" s="2">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="F178" s="2">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="G178" s="2">
-        <v>2.93</v>
+        <v>2.8</v>
       </c>
       <c r="H178" s="2">
-        <v>578</v>
+        <v>197</v>
       </c>
       <c r="I178" s="3">
-        <v>0.57299999999999995</v>
+        <v>0.51300000000000001</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
@@ -6419,22 +6419,22 @@
         <v>16</v>
       </c>
       <c r="D179" s="2">
-        <v>5013</v>
+        <v>2222</v>
       </c>
       <c r="E179" s="2">
-        <v>9.84</v>
+        <v>9.7200000000000006</v>
       </c>
       <c r="F179" s="2">
-        <v>985</v>
+        <v>431</v>
       </c>
       <c r="G179" s="2">
-        <v>12.61</v>
+        <v>12.37</v>
       </c>
       <c r="H179" s="2">
-        <v>420</v>
+        <v>202</v>
       </c>
       <c r="I179" s="3">
-        <v>0.52100000000000002</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -6448,22 +6448,22 @@
         <v>13</v>
       </c>
       <c r="D180" s="2">
-        <v>814</v>
+        <v>377</v>
       </c>
       <c r="E180" s="2">
-        <v>2.65</v>
+        <v>2.71</v>
       </c>
       <c r="F180" s="2">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c r="G180" s="2">
-        <v>2.91</v>
+        <v>3.24</v>
       </c>
       <c r="H180" s="2">
-        <v>771</v>
+        <v>310</v>
       </c>
       <c r="I180" s="3">
-        <v>0.56200000000000006</v>
+        <v>0.503</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
@@ -6477,22 +6477,22 @@
         <v>16</v>
       </c>
       <c r="D181" s="2">
-        <v>4681</v>
+        <v>2053</v>
       </c>
       <c r="E181" s="2">
-        <v>5.86</v>
+        <v>5.74</v>
       </c>
       <c r="F181" s="2">
-        <v>792</v>
+        <v>390</v>
       </c>
       <c r="G181" s="2">
-        <v>7.79</v>
+        <v>7.78</v>
       </c>
       <c r="H181" s="2">
-        <v>2575</v>
+        <v>1165</v>
       </c>
       <c r="I181" s="3">
-        <v>0.55300000000000005</v>
+        <v>0.55700000000000005</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
@@ -6506,22 +6506,22 @@
         <v>11</v>
       </c>
       <c r="D182" s="2">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="E182" s="2">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="F182" s="2">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="G182" s="2">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="H182" s="2">
-        <v>424</v>
+        <v>171</v>
       </c>
       <c r="I182" s="3">
-        <v>0.56599999999999995</v>
+        <v>0.503</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
@@ -6535,22 +6535,22 @@
         <v>11</v>
       </c>
       <c r="D183" s="2">
-        <v>137</v>
+        <v>60</v>
       </c>
       <c r="E183" s="2">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="F183" s="2">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="G183" s="2">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="H183" s="2">
-        <v>379</v>
+        <v>198</v>
       </c>
       <c r="I183" s="3">
-        <v>0.54400000000000004</v>
+        <v>0.57099999999999995</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
@@ -6564,22 +6564,22 @@
         <v>16</v>
       </c>
       <c r="D184" s="2">
-        <v>4778</v>
+        <v>2056</v>
       </c>
       <c r="E184" s="2">
-        <v>6.69</v>
+        <v>6.63</v>
       </c>
       <c r="F184" s="2">
-        <v>501</v>
+        <v>213</v>
       </c>
       <c r="G184" s="2">
-        <v>9.4499999999999993</v>
+        <v>9.32</v>
       </c>
       <c r="H184" s="2">
-        <v>754</v>
+        <v>301</v>
       </c>
       <c r="I184" s="3">
-        <v>0.55000000000000004</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
@@ -6593,22 +6593,22 @@
         <v>16</v>
       </c>
       <c r="D185" s="2">
-        <v>4917</v>
+        <v>2114</v>
       </c>
       <c r="E185" s="2">
-        <v>7.95</v>
+        <v>7.96</v>
       </c>
       <c r="F185" s="2">
-        <v>395</v>
+        <v>167</v>
       </c>
       <c r="G185" s="2">
-        <v>11.53</v>
+        <v>11.5</v>
       </c>
       <c r="H185" s="2">
-        <v>217</v>
+        <v>74</v>
       </c>
       <c r="I185" s="3">
-        <v>0.498</v>
+        <v>0.45900000000000002</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
@@ -6622,22 +6622,22 @@
         <v>11</v>
       </c>
       <c r="D186" s="2">
-        <v>148</v>
+        <v>62</v>
       </c>
       <c r="E186" s="2">
-        <v>1.29</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="F186" s="2">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="G186" s="2">
-        <v>1.38</v>
+        <v>1.03</v>
       </c>
       <c r="H186" s="2">
-        <v>292</v>
+        <v>96</v>
       </c>
       <c r="I186" s="3">
-        <v>0.55100000000000005</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
@@ -6651,22 +6651,22 @@
         <v>11</v>
       </c>
       <c r="D187" s="2">
-        <v>183</v>
+        <v>94</v>
       </c>
       <c r="E187" s="2">
-        <v>1.47</v>
+        <v>1.61</v>
       </c>
       <c r="F187" s="2">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="G187" s="2">
-        <v>1.49</v>
+        <v>1.26</v>
       </c>
       <c r="H187" s="2">
-        <v>161</v>
+        <v>37</v>
       </c>
       <c r="I187" s="3">
-        <v>0.53400000000000003</v>
+        <v>0.32400000000000001</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
@@ -6680,22 +6680,22 @@
         <v>11</v>
       </c>
       <c r="D188" s="2">
-        <v>180</v>
+        <v>73</v>
       </c>
       <c r="E188" s="2">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="F188" s="2">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="G188" s="2">
-        <v>1.46</v>
+        <v>1.69</v>
       </c>
       <c r="H188" s="2">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="I188" s="3">
-        <v>0.51600000000000001</v>
+        <v>0.45900000000000002</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -6709,22 +6709,22 @@
         <v>13</v>
       </c>
       <c r="D189" s="2">
-        <v>1054</v>
+        <v>513</v>
       </c>
       <c r="E189" s="2">
-        <v>3.09</v>
+        <v>3.08</v>
       </c>
       <c r="F189" s="2">
-        <v>187</v>
+        <v>92</v>
       </c>
       <c r="G189" s="2">
-        <v>3.73</v>
+        <v>3.98</v>
       </c>
       <c r="H189" s="2">
-        <v>693</v>
+        <v>324</v>
       </c>
       <c r="I189" s="3">
-        <v>0.56299999999999994</v>
+        <v>0.59299999999999997</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
@@ -6738,22 +6738,22 @@
         <v>11</v>
       </c>
       <c r="D190" s="2">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="E190" s="2">
         <v>1</v>
       </c>
       <c r="F190" s="2">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="G190" s="2">
         <v>1</v>
       </c>
       <c r="H190" s="2">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="I190" s="3">
-        <v>0.434</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
@@ -6767,22 +6767,22 @@
         <v>11</v>
       </c>
       <c r="D191" s="2">
-        <v>178</v>
+        <v>66</v>
       </c>
       <c r="E191" s="2">
-        <v>1.63</v>
+        <v>1.76</v>
       </c>
       <c r="F191" s="2">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G191" s="2">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="H191" s="2">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="I191" s="3">
-        <v>0.49199999999999999</v>
+        <v>0.42899999999999999</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
@@ -6796,22 +6796,22 @@
         <v>22</v>
       </c>
       <c r="D192" s="2">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="E192" s="2">
         <v>1</v>
       </c>
       <c r="F192" s="2">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="G192" s="2">
         <v>1</v>
       </c>
       <c r="H192" s="2">
-        <v>259</v>
+        <v>108</v>
       </c>
       <c r="I192" s="3">
-        <v>0.60199999999999998</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -6825,22 +6825,22 @@
         <v>13</v>
       </c>
       <c r="D193" s="2">
-        <v>828</v>
+        <v>373</v>
       </c>
       <c r="E193" s="2">
-        <v>2.65</v>
+        <v>2.71</v>
       </c>
       <c r="F193" s="2">
-        <v>129</v>
+        <v>55</v>
       </c>
       <c r="G193" s="2">
-        <v>2.95</v>
+        <v>2.87</v>
       </c>
       <c r="H193" s="2">
-        <v>420</v>
+        <v>173</v>
       </c>
       <c r="I193" s="3">
-        <v>0.55500000000000005</v>
+        <v>0.54900000000000004</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -6854,22 +6854,22 @@
         <v>13</v>
       </c>
       <c r="D194" s="2">
-        <v>845</v>
+        <v>381</v>
       </c>
       <c r="E194" s="2">
-        <v>2.57</v>
+        <v>2.69</v>
       </c>
       <c r="F194" s="2">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="G194" s="2">
-        <v>2.69</v>
+        <v>2.58</v>
       </c>
       <c r="H194" s="2">
-        <v>592</v>
+        <v>234</v>
       </c>
       <c r="I194" s="3">
-        <v>0.53900000000000003</v>
+        <v>0.48299999999999998</v>
       </c>
     </row>
     <row r="195" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -6883,22 +6883,22 @@
         <v>13</v>
       </c>
       <c r="D195" s="2">
-        <v>867</v>
+        <v>373</v>
       </c>
       <c r="E195" s="2">
-        <v>2.54</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F195" s="2">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="G195" s="2">
-        <v>3.09</v>
+        <v>3.29</v>
       </c>
       <c r="H195" s="2">
-        <v>409</v>
+        <v>102</v>
       </c>
       <c r="I195" s="3">
-        <v>0.58399999999999996</v>
+        <v>0.47099999999999997</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
@@ -6912,22 +6912,22 @@
         <v>11</v>
       </c>
       <c r="D196" s="2">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="E196" s="2">
         <v>1</v>
       </c>
       <c r="F196" s="2">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="G196" s="2">
         <v>1</v>
       </c>
       <c r="H196" s="2">
-        <v>400</v>
+        <v>159</v>
       </c>
       <c r="I196" s="3">
-        <v>0.6</v>
+        <v>0.55300000000000005</v>
       </c>
     </row>
     <row r="197" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -6941,22 +6941,22 @@
         <v>13</v>
       </c>
       <c r="D197" s="2">
-        <v>1085</v>
+        <v>448</v>
       </c>
       <c r="E197" s="2">
-        <v>3.17</v>
+        <v>3.25</v>
       </c>
       <c r="F197" s="2">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="G197" s="2">
-        <v>3.67</v>
+        <v>4</v>
       </c>
       <c r="H197" s="2">
-        <v>302</v>
+        <v>153</v>
       </c>
       <c r="I197" s="3">
-        <v>0.56000000000000005</v>
+        <v>0.61399999999999999</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
@@ -6970,22 +6970,22 @@
         <v>22</v>
       </c>
       <c r="D198" s="2">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="E198" s="2">
         <v>1</v>
       </c>
       <c r="F198" s="2">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="G198" s="2">
         <v>1</v>
       </c>
       <c r="H198" s="2">
-        <v>230</v>
+        <v>132</v>
       </c>
       <c r="I198" s="3">
-        <v>0.56999999999999995</v>
+        <v>0.629</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
@@ -6999,22 +6999,22 @@
         <v>22</v>
       </c>
       <c r="D199" s="2">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="E199" s="2">
         <v>1</v>
       </c>
       <c r="F199" s="2">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="G199" s="2">
         <v>1</v>
       </c>
       <c r="H199" s="2">
-        <v>165</v>
+        <v>41</v>
       </c>
       <c r="I199" s="3">
-        <v>0.624</v>
+        <v>0.53700000000000003</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
@@ -7028,22 +7028,22 @@
         <v>22</v>
       </c>
       <c r="D200" s="2">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E200" s="2">
         <v>1</v>
       </c>
       <c r="F200" s="2">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="G200" s="2">
         <v>1</v>
       </c>
       <c r="H200" s="2">
-        <v>146</v>
+        <v>46</v>
       </c>
       <c r="I200" s="3">
-        <v>0.58199999999999996</v>
+        <v>0.58699999999999997</v>
       </c>
     </row>
     <row r="201" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7057,22 +7057,22 @@
         <v>13</v>
       </c>
       <c r="D201" s="2">
-        <v>724</v>
+        <v>332</v>
       </c>
       <c r="E201" s="2">
-        <v>2.3199999999999998</v>
+        <v>2.31</v>
       </c>
       <c r="F201" s="2">
-        <v>166</v>
+        <v>81</v>
       </c>
       <c r="G201" s="2">
-        <v>2.65</v>
+        <v>2.37</v>
       </c>
       <c r="H201" s="2">
-        <v>643</v>
+        <v>267</v>
       </c>
       <c r="I201" s="3">
-        <v>0.55400000000000005</v>
+        <v>0.53200000000000003</v>
       </c>
     </row>
     <row r="202" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7086,22 +7086,22 @@
         <v>13</v>
       </c>
       <c r="D202" s="2">
-        <v>1269</v>
+        <v>567</v>
       </c>
       <c r="E202" s="2">
-        <v>3.76</v>
+        <v>3.78</v>
       </c>
       <c r="F202" s="2">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="G202" s="2">
-        <v>5.74</v>
+        <v>5.94</v>
       </c>
       <c r="H202" s="2">
-        <v>193</v>
+        <v>90</v>
       </c>
       <c r="I202" s="3">
-        <v>0.503</v>
+        <v>0.53300000000000003</v>
       </c>
     </row>
     <row r="203" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7115,22 +7115,22 @@
         <v>13</v>
       </c>
       <c r="D203" s="2">
-        <v>944</v>
+        <v>412</v>
       </c>
       <c r="E203" s="2">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="F203" s="2">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="G203" s="2">
-        <v>3.32</v>
+        <v>2.84</v>
       </c>
       <c r="H203" s="2">
-        <v>394</v>
+        <v>118</v>
       </c>
       <c r="I203" s="3">
-        <v>0.51800000000000002</v>
+        <v>0.53400000000000003</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
@@ -7144,22 +7144,22 @@
         <v>11</v>
       </c>
       <c r="D204" s="2">
-        <v>185</v>
+        <v>67</v>
       </c>
       <c r="E204" s="2">
-        <v>1.54</v>
+        <v>1.69</v>
       </c>
       <c r="F204" s="2">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="G204" s="2">
-        <v>1.48</v>
+        <v>1.62</v>
       </c>
       <c r="H204" s="2">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="I204" s="3">
-        <v>0.53800000000000003</v>
+        <v>0.48599999999999999</v>
       </c>
     </row>
     <row r="205" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7173,22 +7173,22 @@
         <v>13</v>
       </c>
       <c r="D205" s="2">
-        <v>1024</v>
+        <v>476</v>
       </c>
       <c r="E205" s="2">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="F205" s="2">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="G205" s="2">
-        <v>3.61</v>
+        <v>4.2</v>
       </c>
       <c r="H205" s="2">
-        <v>387</v>
+        <v>239</v>
       </c>
       <c r="I205" s="3">
-        <v>0.54300000000000004</v>
+        <v>0.52700000000000002</v>
       </c>
     </row>
     <row r="206" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7202,22 +7202,22 @@
         <v>13</v>
       </c>
       <c r="D206" s="2">
-        <v>1088</v>
+        <v>470</v>
       </c>
       <c r="E206" s="2">
-        <v>2.97</v>
+        <v>3.17</v>
       </c>
       <c r="F206" s="2">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="G206" s="2">
-        <v>4.0199999999999996</v>
+        <v>3.86</v>
       </c>
       <c r="H206" s="2">
-        <v>339</v>
+        <v>181</v>
       </c>
       <c r="I206" s="3">
-        <v>0.54900000000000004</v>
+        <v>0.503</v>
       </c>
     </row>
     <row r="207" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7231,22 +7231,22 @@
         <v>13</v>
       </c>
       <c r="D207" s="2">
-        <v>819</v>
+        <v>310</v>
       </c>
       <c r="E207" s="2">
         <v>2.46</v>
       </c>
       <c r="F207" s="2">
-        <v>190</v>
+        <v>69</v>
       </c>
       <c r="G207" s="2">
-        <v>2.81</v>
+        <v>2.74</v>
       </c>
       <c r="H207" s="2">
-        <v>775</v>
+        <v>271</v>
       </c>
       <c r="I207" s="3">
-        <v>0.58499999999999996</v>
+        <v>0.55700000000000005</v>
       </c>
     </row>
     <row r="208" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7260,22 +7260,22 @@
         <v>13</v>
       </c>
       <c r="D208" s="2">
-        <v>915</v>
+        <v>396</v>
       </c>
       <c r="E208" s="2">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="F208" s="2">
-        <v>207</v>
+        <v>101</v>
       </c>
       <c r="G208" s="2">
-        <v>3.38</v>
+        <v>2.96</v>
       </c>
       <c r="H208" s="2">
-        <v>937</v>
+        <v>398</v>
       </c>
       <c r="I208" s="3">
-        <v>0.59899999999999998</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7289,22 +7289,22 @@
         <v>13</v>
       </c>
       <c r="D209" s="2">
-        <v>616</v>
+        <v>263</v>
       </c>
       <c r="E209" s="2">
-        <v>2.04</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="F209" s="2">
-        <v>149</v>
+        <v>65</v>
       </c>
       <c r="G209" s="2">
-        <v>2.58</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="H209" s="2">
-        <v>678</v>
+        <v>272</v>
       </c>
       <c r="I209" s="3">
-        <v>0.55300000000000005</v>
+        <v>0.50700000000000001</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7318,22 +7318,22 @@
         <v>13</v>
       </c>
       <c r="D210" s="2">
-        <v>1057</v>
+        <v>487</v>
       </c>
       <c r="E210" s="2">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="F210" s="2">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="G210" s="2">
-        <v>4.13</v>
+        <v>4.41</v>
       </c>
       <c r="H210" s="2">
-        <v>389</v>
+        <v>132</v>
       </c>
       <c r="I210" s="3">
-        <v>0.55500000000000005</v>
+        <v>0.41699999999999998</v>
       </c>
     </row>
     <row r="211" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7347,22 +7347,22 @@
         <v>13</v>
       </c>
       <c r="D211" s="2">
-        <v>902</v>
+        <v>403</v>
       </c>
       <c r="E211" s="2">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="F211" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="G211" s="2">
-        <v>3.28</v>
+        <v>2.85</v>
       </c>
       <c r="H211" s="2">
-        <v>718</v>
+        <v>281</v>
       </c>
       <c r="I211" s="3">
-        <v>0.56999999999999995</v>
+        <v>0.54400000000000004</v>
       </c>
     </row>
     <row r="212" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7376,22 +7376,22 @@
         <v>13</v>
       </c>
       <c r="D212" s="2">
-        <v>731</v>
+        <v>304</v>
       </c>
       <c r="E212" s="2">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="F212" s="2">
-        <v>173</v>
+        <v>60</v>
       </c>
       <c r="G212" s="2">
-        <v>2.52</v>
+        <v>2.73</v>
       </c>
       <c r="H212" s="2">
-        <v>667</v>
+        <v>239</v>
       </c>
       <c r="I212" s="3">
-        <v>0.53400000000000003</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="213" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7405,22 +7405,22 @@
         <v>13</v>
       </c>
       <c r="D213" s="2">
-        <v>910</v>
+        <v>366</v>
       </c>
       <c r="E213" s="2">
-        <v>2.61</v>
+        <v>2.72</v>
       </c>
       <c r="F213" s="2">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="G213" s="2">
-        <v>3.3</v>
+        <v>3.33</v>
       </c>
       <c r="H213" s="2">
-        <v>551</v>
+        <v>156</v>
       </c>
       <c r="I213" s="3">
-        <v>0.55500000000000005</v>
+        <v>0.55800000000000005</v>
       </c>
     </row>
     <row r="214" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7434,22 +7434,22 @@
         <v>13</v>
       </c>
       <c r="D214" s="2">
-        <v>757</v>
+        <v>366</v>
       </c>
       <c r="E214" s="2">
-        <v>2.4300000000000002</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="F214" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="G214" s="2">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="H214" s="2">
-        <v>476</v>
+        <v>183</v>
       </c>
       <c r="I214" s="3">
-        <v>0.56100000000000005</v>
+        <v>0.503</v>
       </c>
     </row>
     <row r="215" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7463,22 +7463,22 @@
         <v>13</v>
       </c>
       <c r="D215" s="2">
-        <v>792</v>
+        <v>336</v>
       </c>
       <c r="E215" s="2">
-        <v>2.4300000000000002</v>
+        <v>2.46</v>
       </c>
       <c r="F215" s="2">
-        <v>165</v>
+        <v>63</v>
       </c>
       <c r="G215" s="2">
-        <v>3.07</v>
+        <v>2.86</v>
       </c>
       <c r="H215" s="2">
-        <v>633</v>
+        <v>217</v>
       </c>
       <c r="I215" s="3">
-        <v>0.54</v>
+        <v>0.52500000000000002</v>
       </c>
     </row>
     <row r="216" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7492,22 +7492,22 @@
         <v>13</v>
       </c>
       <c r="D216" s="2">
-        <v>837</v>
+        <v>364</v>
       </c>
       <c r="E216" s="2">
-        <v>2.5099999999999998</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F216" s="2">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="G216" s="2">
-        <v>3.08</v>
+        <v>3.29</v>
       </c>
       <c r="H216" s="2">
-        <v>473</v>
+        <v>140</v>
       </c>
       <c r="I216" s="3">
-        <v>0.53700000000000003</v>
+        <v>0.54300000000000004</v>
       </c>
     </row>
     <row r="217" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7519,22 +7519,22 @@
         <v>13</v>
       </c>
       <c r="D217" s="2">
-        <v>897</v>
+        <v>350</v>
       </c>
       <c r="E217" s="2">
         <v>2.5099999999999998</v>
       </c>
       <c r="F217" s="2">
-        <v>243</v>
+        <v>86</v>
       </c>
       <c r="G217" s="2">
-        <v>3.18</v>
+        <v>3.23</v>
       </c>
       <c r="H217" s="2">
-        <v>1178</v>
+        <v>404</v>
       </c>
       <c r="I217" s="3">
-        <v>0.55600000000000005</v>
+        <v>0.58699999999999997</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
@@ -7546,22 +7546,22 @@
         <v>16</v>
       </c>
       <c r="D218" s="2">
-        <v>4913</v>
+        <v>2089</v>
       </c>
       <c r="E218" s="2">
-        <v>7.02</v>
+        <v>6.98</v>
       </c>
       <c r="F218" s="2">
-        <v>604</v>
+        <v>262</v>
       </c>
       <c r="G218" s="2">
-        <v>9.7899999999999991</v>
+        <v>9.89</v>
       </c>
       <c r="H218" s="2">
-        <v>786</v>
+        <v>297</v>
       </c>
       <c r="I218" s="3">
-        <v>0.53400000000000003</v>
+        <v>0.53500000000000003</v>
       </c>
     </row>
     <row r="219" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7573,22 +7573,22 @@
         <v>13</v>
       </c>
       <c r="D219" s="2">
-        <v>829</v>
+        <v>332</v>
       </c>
       <c r="E219" s="2">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="F219" s="2">
-        <v>230</v>
+        <v>76</v>
       </c>
       <c r="G219" s="2">
-        <v>3.09</v>
+        <v>3.22</v>
       </c>
       <c r="H219" s="2">
-        <v>1017</v>
+        <v>373</v>
       </c>
       <c r="I219" s="3">
-        <v>0.52600000000000002</v>
+        <v>0.56299999999999994</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
@@ -7600,22 +7600,22 @@
         <v>16</v>
       </c>
       <c r="D220" s="2">
-        <v>5076</v>
+        <v>2197</v>
       </c>
       <c r="E220" s="2">
-        <v>7.8</v>
+        <v>7.64</v>
       </c>
       <c r="F220" s="2">
-        <v>1373</v>
+        <v>632</v>
       </c>
       <c r="G220" s="2">
-        <v>9.94</v>
+        <v>9.64</v>
       </c>
       <c r="H220" s="2">
-        <v>2930</v>
+        <v>1453</v>
       </c>
       <c r="I220" s="3">
-        <v>0.54700000000000004</v>
+        <v>0.56200000000000006</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
@@ -7627,22 +7627,22 @@
         <v>16</v>
       </c>
       <c r="D221" s="2">
-        <v>4575</v>
+        <v>1915</v>
       </c>
       <c r="E221" s="2">
-        <v>4.99</v>
+        <v>5</v>
       </c>
       <c r="F221" s="2">
-        <v>1445</v>
+        <v>586</v>
       </c>
       <c r="G221" s="2">
-        <v>6.41</v>
+        <v>6.61</v>
       </c>
       <c r="H221" s="2">
-        <v>5167</v>
+        <v>1986</v>
       </c>
       <c r="I221" s="3">
-        <v>0.55200000000000005</v>
+        <v>0.53400000000000003</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
@@ -7654,22 +7654,22 @@
         <v>16</v>
       </c>
       <c r="D222" s="2">
-        <v>5063</v>
+        <v>2082</v>
       </c>
       <c r="E222" s="2">
         <v>7.65</v>
       </c>
       <c r="F222" s="2">
-        <v>1192</v>
+        <v>454</v>
       </c>
       <c r="G222" s="2">
-        <v>9.7100000000000009</v>
+        <v>10.14</v>
       </c>
       <c r="H222" s="2">
-        <v>2231</v>
+        <v>770</v>
       </c>
       <c r="I222" s="3">
-        <v>0.54200000000000004</v>
+        <v>0.51600000000000001</v>
       </c>
     </row>
     <row r="223" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7681,22 +7681,22 @@
         <v>13</v>
       </c>
       <c r="D223" s="2">
-        <v>1003</v>
+        <v>462</v>
       </c>
       <c r="E223" s="2">
-        <v>2.99</v>
+        <v>2.81</v>
       </c>
       <c r="F223" s="2">
-        <v>187</v>
+        <v>82</v>
       </c>
       <c r="G223" s="2">
-        <v>3.79</v>
+        <v>3.59</v>
       </c>
       <c r="H223" s="2">
-        <v>897</v>
+        <v>365</v>
       </c>
       <c r="I223" s="3">
-        <v>0.55900000000000005</v>
+        <v>0.58099999999999996</v>
       </c>
     </row>
     <row r="224" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7708,22 +7708,22 @@
         <v>13</v>
       </c>
       <c r="D224" s="2">
-        <v>1655</v>
+        <v>713</v>
       </c>
       <c r="E224" s="2">
         <v>7.04</v>
       </c>
       <c r="F224" s="2">
-        <v>171</v>
+        <v>72</v>
       </c>
       <c r="G224" s="2">
-        <v>10.74</v>
+        <v>11.11</v>
       </c>
       <c r="H224" s="2">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="I224" s="3">
-        <v>0.57799999999999996</v>
+        <v>0.53800000000000003</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
@@ -7735,22 +7735,22 @@
         <v>16</v>
       </c>
       <c r="D225" s="2">
-        <v>5110</v>
+        <v>2124</v>
       </c>
       <c r="E225" s="2">
-        <v>7.64</v>
+        <v>7.77</v>
       </c>
       <c r="F225" s="2">
-        <v>1013</v>
+        <v>448</v>
       </c>
       <c r="G225" s="2">
-        <v>9.98</v>
+        <v>10.210000000000001</v>
       </c>
       <c r="H225" s="2">
-        <v>1749</v>
+        <v>702</v>
       </c>
       <c r="I225" s="3">
-        <v>0.53500000000000003</v>
+        <v>0.55400000000000005</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
@@ -7762,22 +7762,22 @@
         <v>16</v>
       </c>
       <c r="D226" s="2">
-        <v>5044</v>
+        <v>2117</v>
       </c>
       <c r="E226" s="2">
-        <v>8.6300000000000008</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="F226" s="2">
-        <v>725</v>
+        <v>270</v>
       </c>
       <c r="G226" s="2">
-        <v>11.78</v>
+        <v>11.84</v>
       </c>
       <c r="H226" s="2">
-        <v>320</v>
+        <v>134</v>
       </c>
       <c r="I226" s="3">
-        <v>0.48099999999999998</v>
+        <v>0.49299999999999999</v>
       </c>
     </row>
     <row r="227" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7789,22 +7789,22 @@
         <v>13</v>
       </c>
       <c r="D227" s="2">
-        <v>1229</v>
+        <v>503</v>
       </c>
       <c r="E227" s="2">
         <v>3.43</v>
       </c>
       <c r="F227" s="2">
-        <v>507</v>
+        <v>267</v>
       </c>
       <c r="G227" s="2">
-        <v>3.94</v>
+        <v>4</v>
       </c>
       <c r="H227" s="2">
-        <v>1724</v>
+        <v>887</v>
       </c>
       <c r="I227" s="3">
-        <v>0.55000000000000004</v>
+        <v>0.54500000000000004</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
@@ -7816,22 +7816,22 @@
         <v>16</v>
       </c>
       <c r="D228" s="2">
-        <v>4951</v>
+        <v>2121</v>
       </c>
       <c r="E228" s="2">
-        <v>6.39</v>
+        <v>6.42</v>
       </c>
       <c r="F228" s="2">
-        <v>557</v>
+        <v>197</v>
       </c>
       <c r="G228" s="2">
-        <v>9.4499999999999993</v>
+        <v>9.65</v>
       </c>
       <c r="H228" s="2">
-        <v>1098</v>
+        <v>275</v>
       </c>
       <c r="I228" s="3">
-        <v>0.52400000000000002</v>
+        <v>0.53800000000000003</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
@@ -7843,22 +7843,22 @@
         <v>16</v>
       </c>
       <c r="D229" s="2">
-        <v>4975</v>
+        <v>2144</v>
       </c>
       <c r="E229" s="2">
-        <v>8.17</v>
+        <v>8.11</v>
       </c>
       <c r="F229" s="2">
-        <v>582</v>
+        <v>196</v>
       </c>
       <c r="G229" s="2">
-        <v>11.4</v>
+        <v>11.66</v>
       </c>
       <c r="H229" s="2">
-        <v>361</v>
+        <v>96</v>
       </c>
       <c r="I229" s="3">
-        <v>0.45400000000000001</v>
+        <v>0.47899999999999998</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
@@ -7870,22 +7870,22 @@
         <v>16</v>
       </c>
       <c r="D230" s="2">
-        <v>3779</v>
+        <v>1568</v>
       </c>
       <c r="E230" s="2">
-        <v>4.0199999999999996</v>
+        <v>3.9</v>
       </c>
       <c r="F230" s="2">
-        <v>1017</v>
+        <v>398</v>
       </c>
       <c r="G230" s="2">
-        <v>5.41</v>
+        <v>5.21</v>
       </c>
       <c r="H230" s="2">
-        <v>4413</v>
+        <v>1537</v>
       </c>
       <c r="I230" s="3">
-        <v>0.54900000000000004</v>
+        <v>0.54600000000000004</v>
       </c>
     </row>
     <row r="231" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7897,22 +7897,22 @@
         <v>13</v>
       </c>
       <c r="D231" s="2">
-        <v>1721</v>
+        <v>727</v>
       </c>
       <c r="E231" s="2">
-        <v>7.07</v>
+        <v>6.81</v>
       </c>
       <c r="F231" s="2">
-        <v>350</v>
+        <v>128</v>
       </c>
       <c r="G231" s="2">
-        <v>9.61</v>
+        <v>9.23</v>
       </c>
       <c r="H231" s="2">
-        <v>529</v>
+        <v>207</v>
       </c>
       <c r="I231" s="3">
-        <v>0.50900000000000001</v>
+        <v>0.54600000000000004</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
@@ -7924,22 +7924,22 @@
         <v>16</v>
       </c>
       <c r="D232" s="2">
-        <v>5050</v>
+        <v>2139</v>
       </c>
       <c r="E232" s="2">
-        <v>8.26</v>
+        <v>8.23</v>
       </c>
       <c r="F232" s="2">
-        <v>726</v>
+        <v>283</v>
       </c>
       <c r="G232" s="2">
-        <v>11.11</v>
+        <v>11.35</v>
       </c>
       <c r="H232" s="2">
-        <v>601</v>
+        <v>155</v>
       </c>
       <c r="I232" s="3">
-        <v>0.51400000000000001</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="233" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7951,22 +7951,22 @@
         <v>13</v>
       </c>
       <c r="D233" s="2">
-        <v>1732</v>
+        <v>683</v>
       </c>
       <c r="E233" s="2">
-        <v>6.24</v>
+        <v>6.25</v>
       </c>
       <c r="F233" s="2">
-        <v>584</v>
+        <v>251</v>
       </c>
       <c r="G233" s="2">
-        <v>7.49</v>
+        <v>7.26</v>
       </c>
       <c r="H233" s="2">
-        <v>1585</v>
+        <v>571</v>
       </c>
       <c r="I233" s="3">
-        <v>0.53400000000000003</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
@@ -7978,22 +7978,22 @@
         <v>11</v>
       </c>
       <c r="D234" s="2">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="E234" s="2">
-        <v>1.18</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="F234" s="2">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G234" s="2">
-        <v>1.1200000000000001</v>
+        <v>1.25</v>
       </c>
       <c r="H234" s="2">
-        <v>10</v>
-      </c>
-      <c r="I234" s="3">
-        <v>0.4</v>
+        <v>0</v>
+      </c>
+      <c r="I234" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="235" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -8005,22 +8005,22 @@
         <v>13</v>
       </c>
       <c r="D235" s="2">
-        <v>992</v>
+        <v>434</v>
       </c>
       <c r="E235" s="2">
-        <v>2.91</v>
+        <v>2.88</v>
       </c>
       <c r="F235" s="2">
-        <v>178</v>
+        <v>67</v>
       </c>
       <c r="G235" s="2">
-        <v>3.89</v>
+        <v>3.79</v>
       </c>
       <c r="H235" s="2">
-        <v>777</v>
+        <v>234</v>
       </c>
       <c r="I235" s="3">
-        <v>0.54800000000000004</v>
+        <v>0.46600000000000003</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
@@ -8032,22 +8032,22 @@
         <v>11</v>
       </c>
       <c r="D236" s="2">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="E236" s="2">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="F236" s="2">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="G236" s="2">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="H236" s="2">
-        <v>644</v>
+        <v>297</v>
       </c>
       <c r="I236" s="3">
-        <v>0.55900000000000005</v>
+        <v>0.57899999999999996</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
@@ -8059,22 +8059,22 @@
         <v>16</v>
       </c>
       <c r="D237" s="2">
-        <v>5005</v>
+        <v>2238</v>
       </c>
       <c r="E237" s="2">
-        <v>7.71</v>
+        <v>7.69</v>
       </c>
       <c r="F237" s="2">
-        <v>541</v>
+        <v>210</v>
       </c>
       <c r="G237" s="2">
-        <v>11.02</v>
+        <v>11.06</v>
       </c>
       <c r="H237" s="2">
-        <v>416</v>
+        <v>112</v>
       </c>
       <c r="I237" s="3">
-        <v>0.52200000000000002</v>
+        <v>0.51800000000000002</v>
       </c>
     </row>
     <row r="238" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -8086,22 +8086,22 @@
         <v>13</v>
       </c>
       <c r="D238" s="2">
-        <v>1335</v>
+        <v>608</v>
       </c>
       <c r="E238" s="2">
-        <v>4.05</v>
+        <v>3.92</v>
       </c>
       <c r="F238" s="2">
-        <v>262</v>
+        <v>151</v>
       </c>
       <c r="G238" s="2">
-        <v>5.54</v>
+        <v>4.87</v>
       </c>
       <c r="H238" s="2">
-        <v>800</v>
+        <v>487</v>
       </c>
       <c r="I238" s="3">
-        <v>0.55000000000000004</v>
+        <v>0.54400000000000004</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
@@ -8115,22 +8115,22 @@
         <v>11</v>
       </c>
       <c r="D239" s="2">
-        <v>157</v>
+        <v>72</v>
       </c>
       <c r="E239" s="2">
         <v>1.38</v>
       </c>
       <c r="F239" s="2">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="G239" s="2">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="H239" s="2">
-        <v>179</v>
+        <v>76</v>
       </c>
       <c r="I239" s="3">
-        <v>0.46400000000000002</v>
+        <v>0.55300000000000005</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
@@ -8144,22 +8144,22 @@
         <v>11</v>
       </c>
       <c r="D240" s="2">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="E240" s="2">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="F240" s="2">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="G240" s="2">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="H240" s="2">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="I240" s="3">
-        <v>0.54100000000000004</v>
+        <v>0.38200000000000001</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
@@ -8173,22 +8173,22 @@
         <v>11</v>
       </c>
       <c r="D241" s="2">
-        <v>159</v>
+        <v>64</v>
       </c>
       <c r="E241" s="2">
-        <v>1.43</v>
+        <v>1.22</v>
       </c>
       <c r="F241" s="2">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="G241" s="2">
-        <v>1.44</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="H241" s="2">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="I241" s="3">
-        <v>0.52900000000000003</v>
+        <v>0.53100000000000003</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
@@ -8202,22 +8202,22 @@
         <v>11</v>
       </c>
       <c r="D242" s="2">
-        <v>123</v>
+        <v>68</v>
       </c>
       <c r="E242" s="2">
         <v>1.37</v>
       </c>
       <c r="F242" s="2">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="G242" s="2">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="H242" s="2">
-        <v>204</v>
+        <v>55</v>
       </c>
       <c r="I242" s="3">
-        <v>0.49</v>
+        <v>0.49099999999999999</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
@@ -8231,22 +8231,22 @@
         <v>11</v>
       </c>
       <c r="D243" s="2">
-        <v>158</v>
+        <v>55</v>
       </c>
       <c r="E243" s="2">
+        <v>1.42</v>
+      </c>
+      <c r="F243" s="2">
+        <v>23</v>
+      </c>
+      <c r="G243" s="2">
         <v>1.3</v>
       </c>
-      <c r="F243" s="2">
+      <c r="H243" s="2">
         <v>67</v>
       </c>
-      <c r="G243" s="2">
-        <v>1.37</v>
-      </c>
-      <c r="H243" s="2">
-        <v>270</v>
-      </c>
       <c r="I243" s="3">
-        <v>0.61099999999999999</v>
+        <v>0.49299999999999999</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
@@ -8260,22 +8260,22 @@
         <v>16</v>
       </c>
       <c r="D244" s="2">
-        <v>4930</v>
+        <v>2171</v>
       </c>
       <c r="E244" s="2">
-        <v>8.1199999999999992</v>
+        <v>8.02</v>
       </c>
       <c r="F244" s="2">
-        <v>498</v>
+        <v>185</v>
       </c>
       <c r="G244" s="2">
-        <v>11.77</v>
+        <v>11.82</v>
       </c>
       <c r="H244" s="2">
-        <v>770</v>
+        <v>263</v>
       </c>
       <c r="I244" s="3">
-        <v>0.53800000000000003</v>
+        <v>0.51700000000000002</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
@@ -8287,22 +8287,22 @@
         <v>11</v>
       </c>
       <c r="D245" s="2">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="E245" s="2">
-        <v>1.23</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="F245" s="2">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G245" s="2">
-        <v>1.27</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H245" s="2">
-        <v>246</v>
+        <v>106</v>
       </c>
       <c r="I245" s="3">
-        <v>0.51600000000000001</v>
+        <v>0.52800000000000002</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
@@ -8316,22 +8316,22 @@
         <v>16</v>
       </c>
       <c r="D246" s="2">
-        <v>4870</v>
+        <v>2160</v>
       </c>
       <c r="E246" s="2">
-        <v>8.08</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="F246" s="2">
-        <v>714</v>
+        <v>314</v>
       </c>
       <c r="G246" s="2">
-        <v>11</v>
+        <v>11.26</v>
       </c>
       <c r="H246" s="2">
-        <v>1424</v>
+        <v>575</v>
       </c>
       <c r="I246" s="3">
-        <v>0.55300000000000005</v>
+        <v>0.51800000000000002</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
@@ -8345,22 +8345,22 @@
         <v>16</v>
       </c>
       <c r="D247" s="2">
-        <v>5069</v>
+        <v>2151</v>
       </c>
       <c r="E247" s="2">
-        <v>8.06</v>
+        <v>8.15</v>
       </c>
       <c r="F247" s="2">
-        <v>640</v>
+        <v>244</v>
       </c>
       <c r="G247" s="2">
-        <v>11.11</v>
+        <v>11.41</v>
       </c>
       <c r="H247" s="2">
-        <v>1265</v>
+        <v>404</v>
       </c>
       <c r="I247" s="3">
-        <v>0.55600000000000005</v>
+        <v>0.57699999999999996</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
@@ -8374,22 +8374,22 @@
         <v>16</v>
       </c>
       <c r="D248" s="2">
-        <v>5101</v>
+        <v>2163</v>
       </c>
       <c r="E248" s="2">
-        <v>8.07</v>
+        <v>7.98</v>
       </c>
       <c r="F248" s="2">
-        <v>956</v>
+        <v>372</v>
       </c>
       <c r="G248" s="2">
-        <v>10.54</v>
+        <v>10.5</v>
       </c>
       <c r="H248" s="2">
-        <v>2508</v>
+        <v>953</v>
       </c>
       <c r="I248" s="3">
-        <v>0.56100000000000005</v>
+        <v>0.54200000000000004</v>
       </c>
     </row>
     <row r="249" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -8403,22 +8403,22 @@
         <v>13</v>
       </c>
       <c r="D249" s="2">
-        <v>1718</v>
+        <v>730</v>
       </c>
       <c r="E249" s="2">
-        <v>7.26</v>
+        <v>7.4</v>
       </c>
       <c r="F249" s="2">
-        <v>320</v>
+        <v>112</v>
       </c>
       <c r="G249" s="2">
-        <v>9.7799999999999994</v>
+        <v>10.25</v>
       </c>
       <c r="H249" s="2">
-        <v>494</v>
+        <v>135</v>
       </c>
       <c r="I249" s="3">
-        <v>0.54</v>
+        <v>0.48899999999999999</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
@@ -8432,22 +8432,22 @@
         <v>16</v>
       </c>
       <c r="D250" s="2">
-        <v>4967</v>
+        <v>2244</v>
       </c>
       <c r="E250" s="2">
-        <v>7.7</v>
+        <v>7.77</v>
       </c>
       <c r="F250" s="2">
-        <v>721</v>
+        <v>300</v>
       </c>
       <c r="G250" s="2">
-        <v>10.81</v>
+        <v>11</v>
       </c>
       <c r="H250" s="2">
-        <v>1480</v>
+        <v>593</v>
       </c>
       <c r="I250" s="3">
-        <v>0.51900000000000002</v>
+        <v>0.51800000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/17Lands.xlsx
+++ b/17Lands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\17lands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01F5A53-423B-4FDE-B070-A63CE07356D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C773CFB-8959-4C12-8E4E-92621785CED0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1183,8 +1183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I499"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A462" workbookViewId="0">
-      <selection sqref="A1:I499"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1237,22 +1237,22 @@
         <v>2</v>
       </c>
       <c r="D3" s="2">
-        <v>377</v>
+        <v>423</v>
       </c>
       <c r="E3" s="2">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="F3" s="2">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="G3" s="2">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="H3" s="2">
-        <v>656</v>
+        <v>723</v>
       </c>
       <c r="I3" s="1">
-        <v>0.55000000000000004</v>
+        <v>0.54600000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1269,19 +1269,19 @@
         <v>4</v>
       </c>
       <c r="D5" s="2">
-        <v>3209</v>
+        <v>3574</v>
       </c>
       <c r="E5" s="2">
-        <v>4.7</v>
+        <v>4.72</v>
       </c>
       <c r="F5" s="2">
-        <v>502</v>
+        <v>565</v>
       </c>
       <c r="G5" s="2">
-        <v>6.12</v>
+        <v>6.05</v>
       </c>
       <c r="H5" s="2">
-        <v>1541</v>
+        <v>1745</v>
       </c>
       <c r="I5" s="1">
         <v>0.53600000000000003</v>
@@ -1301,22 +1301,22 @@
         <v>4</v>
       </c>
       <c r="D7" s="2">
-        <v>1526</v>
+        <v>1692</v>
       </c>
       <c r="E7" s="2">
         <v>2.38</v>
       </c>
       <c r="F7" s="2">
-        <v>553</v>
+        <v>633</v>
       </c>
       <c r="G7" s="2">
         <v>2.65</v>
       </c>
       <c r="H7" s="2">
-        <v>2503</v>
+        <v>2891</v>
       </c>
       <c r="I7" s="1">
-        <v>0.56299999999999994</v>
+        <v>0.56899999999999995</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1333,22 +1333,22 @@
         <v>11</v>
       </c>
       <c r="D9" s="2">
-        <v>9633</v>
+        <v>10819</v>
       </c>
       <c r="E9" s="2">
-        <v>6.49</v>
+        <v>6.47</v>
       </c>
       <c r="F9" s="2">
-        <v>873</v>
+        <v>981</v>
       </c>
       <c r="G9" s="2">
-        <v>9.36</v>
+        <v>9.3800000000000008</v>
       </c>
       <c r="H9" s="2">
-        <v>1434</v>
+        <v>1639</v>
       </c>
       <c r="I9" s="1">
-        <v>0.53500000000000003</v>
+        <v>0.54100000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1365,22 +1365,22 @@
         <v>11</v>
       </c>
       <c r="D11" s="2">
-        <v>4689</v>
+        <v>5230</v>
       </c>
       <c r="E11" s="2">
         <v>2.67</v>
       </c>
       <c r="F11" s="2">
-        <v>1303</v>
+        <v>1474</v>
       </c>
       <c r="G11" s="2">
-        <v>3.24</v>
+        <v>3.27</v>
       </c>
       <c r="H11" s="2">
-        <v>4832</v>
+        <v>5442</v>
       </c>
       <c r="I11" s="1">
-        <v>0.55600000000000005</v>
+        <v>0.55500000000000005</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1397,22 +1397,22 @@
         <v>11</v>
       </c>
       <c r="D13" s="2">
-        <v>10228</v>
+        <v>11433</v>
       </c>
       <c r="E13" s="2">
-        <v>8.65</v>
+        <v>8.64</v>
       </c>
       <c r="F13" s="2">
-        <v>1058</v>
+        <v>1178</v>
       </c>
       <c r="G13" s="2">
-        <v>12.38</v>
+        <v>12.34</v>
       </c>
       <c r="H13" s="2">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="I13" s="1">
-        <v>0.51300000000000001</v>
+        <v>0.54100000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1429,22 +1429,22 @@
         <v>11</v>
       </c>
       <c r="D15" s="2">
-        <v>10495</v>
+        <v>11683</v>
       </c>
       <c r="E15" s="2">
         <v>10.02</v>
       </c>
       <c r="F15" s="2">
-        <v>2158</v>
+        <v>2449</v>
       </c>
       <c r="G15" s="2">
-        <v>12.42</v>
+        <v>12.4</v>
       </c>
       <c r="H15" s="2">
-        <v>591</v>
+        <v>731</v>
       </c>
       <c r="I15" s="1">
-        <v>0.54100000000000004</v>
+        <v>0.56599999999999995</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1461,22 +1461,22 @@
         <v>2</v>
       </c>
       <c r="D17" s="2">
-        <v>387</v>
+        <v>445</v>
       </c>
       <c r="E17" s="2">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="F17" s="2">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="G17" s="2">
         <v>1.76</v>
       </c>
       <c r="H17" s="2">
-        <v>581</v>
+        <v>640</v>
       </c>
       <c r="I17" s="1">
-        <v>0.56999999999999995</v>
+        <v>0.56399999999999995</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1493,22 +1493,22 @@
         <v>30</v>
       </c>
       <c r="D19" s="2">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="E19" s="2">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="F19" s="2">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="G19" s="2">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="H19" s="2">
-        <v>433</v>
+        <v>515</v>
       </c>
       <c r="I19" s="1">
-        <v>0.58199999999999996</v>
+        <v>0.57899999999999996</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1525,16 +1525,16 @@
         <v>4</v>
       </c>
       <c r="D21" s="2">
-        <v>4108</v>
+        <v>4570</v>
       </c>
       <c r="E21" s="2">
-        <v>10.25</v>
+        <v>10.24</v>
       </c>
       <c r="F21" s="2">
-        <v>883</v>
+        <v>986</v>
       </c>
       <c r="G21" s="2">
-        <v>12.7</v>
+        <v>12.66</v>
       </c>
       <c r="H21" s="2">
         <v>3</v>
@@ -1557,22 +1557,22 @@
         <v>11</v>
       </c>
       <c r="D23" s="2">
-        <v>8161</v>
+        <v>9125</v>
       </c>
       <c r="E23" s="2">
-        <v>4.5</v>
+        <v>4.51</v>
       </c>
       <c r="F23" s="2">
-        <v>1706</v>
+        <v>1954</v>
       </c>
       <c r="G23" s="2">
-        <v>5.84</v>
+        <v>5.88</v>
       </c>
       <c r="H23" s="2">
-        <v>5498</v>
+        <v>6270</v>
       </c>
       <c r="I23" s="1">
-        <v>0.55800000000000005</v>
+        <v>0.55900000000000005</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1589,19 +1589,19 @@
         <v>11</v>
       </c>
       <c r="D25" s="2">
-        <v>9470</v>
+        <v>10543</v>
       </c>
       <c r="E25" s="2">
-        <v>5.54</v>
+        <v>5.53</v>
       </c>
       <c r="F25" s="2">
-        <v>2305</v>
+        <v>2595</v>
       </c>
       <c r="G25" s="2">
-        <v>6.81</v>
+        <v>6.8</v>
       </c>
       <c r="H25" s="2">
-        <v>5463</v>
+        <v>6201</v>
       </c>
       <c r="I25" s="1">
         <v>0.55500000000000005</v>
@@ -1621,22 +1621,22 @@
         <v>11</v>
       </c>
       <c r="D27" s="2">
-        <v>10389</v>
+        <v>11601</v>
       </c>
       <c r="E27" s="2">
-        <v>8.6199999999999992</v>
+        <v>8.6300000000000008</v>
       </c>
       <c r="F27" s="2">
-        <v>1213</v>
+        <v>1372</v>
       </c>
       <c r="G27" s="2">
-        <v>11.91</v>
+        <v>11.88</v>
       </c>
       <c r="H27" s="2">
-        <v>502</v>
+        <v>551</v>
       </c>
       <c r="I27" s="1">
-        <v>0.51</v>
+        <v>0.51200000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1653,22 +1653,22 @@
         <v>2</v>
       </c>
       <c r="D29" s="2">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="E29" s="2">
         <v>1</v>
       </c>
       <c r="F29" s="2">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
       </c>
       <c r="H29" s="2">
-        <v>735</v>
+        <v>818</v>
       </c>
       <c r="I29" s="1">
-        <v>0.56999999999999995</v>
+        <v>0.56100000000000005</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1685,22 +1685,22 @@
         <v>4</v>
       </c>
       <c r="D31" s="2">
-        <v>1897</v>
+        <v>2141</v>
       </c>
       <c r="E31" s="2">
-        <v>2.87</v>
+        <v>2.86</v>
       </c>
       <c r="F31" s="2">
-        <v>592</v>
+        <v>663</v>
       </c>
       <c r="G31" s="2">
-        <v>3.37</v>
+        <v>3.38</v>
       </c>
       <c r="H31" s="2">
-        <v>2672</v>
+        <v>3006</v>
       </c>
       <c r="I31" s="1">
-        <v>0.54800000000000004</v>
+        <v>0.55100000000000005</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1717,16 +1717,16 @@
         <v>2</v>
       </c>
       <c r="D33" s="2">
-        <v>376</v>
+        <v>421</v>
       </c>
       <c r="E33" s="2">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="F33" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G33" s="2">
-        <v>1.95</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="H33" s="2">
         <v>0</v>
@@ -1749,22 +1749,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="2">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="E35" s="2">
         <v>1</v>
       </c>
       <c r="F35" s="2">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="G35" s="2">
         <v>1</v>
       </c>
       <c r="H35" s="2">
-        <v>407</v>
+        <v>474</v>
       </c>
       <c r="I35" s="1">
-        <v>0.57999999999999996</v>
+        <v>0.58899999999999997</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -1781,22 +1781,22 @@
         <v>2</v>
       </c>
       <c r="D37" s="2">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="E37" s="2">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="F37" s="2">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="G37" s="2">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="H37" s="2">
-        <v>276</v>
+        <v>335</v>
       </c>
       <c r="I37" s="1">
-        <v>0.54300000000000004</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -1813,22 +1813,22 @@
         <v>11</v>
       </c>
       <c r="D39" s="2">
-        <v>10286</v>
+        <v>11451</v>
       </c>
       <c r="E39" s="2">
-        <v>8.73</v>
+        <v>8.74</v>
       </c>
       <c r="F39" s="2">
-        <v>1627</v>
+        <v>1865</v>
       </c>
       <c r="G39" s="2">
-        <v>11.51</v>
+        <v>11.46</v>
       </c>
       <c r="H39" s="2">
-        <v>1366</v>
+        <v>1558</v>
       </c>
       <c r="I39" s="1">
-        <v>0.53600000000000003</v>
+        <v>0.52900000000000003</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -1845,22 +1845,22 @@
         <v>2</v>
       </c>
       <c r="D41" s="2">
-        <v>419</v>
+        <v>478</v>
       </c>
       <c r="E41" s="2">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="F41" s="2">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="G41" s="2">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="H41" s="2">
-        <v>390</v>
+        <v>436</v>
       </c>
       <c r="I41" s="1">
-        <v>0.55100000000000005</v>
+        <v>0.55300000000000005</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -1877,22 +1877,22 @@
         <v>11</v>
       </c>
       <c r="D43" s="2">
-        <v>9371</v>
+        <v>10516</v>
       </c>
       <c r="E43" s="2">
-        <v>5.64</v>
+        <v>5.66</v>
       </c>
       <c r="F43" s="2">
-        <v>1272</v>
+        <v>1463</v>
       </c>
       <c r="G43" s="2">
-        <v>7.72</v>
+        <v>7.74</v>
       </c>
       <c r="H43" s="2">
-        <v>3518</v>
+        <v>3996</v>
       </c>
       <c r="I43" s="1">
-        <v>0.56299999999999994</v>
+        <v>0.56200000000000006</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -1909,22 +1909,22 @@
         <v>4</v>
       </c>
       <c r="D45" s="2">
-        <v>2338</v>
+        <v>2610</v>
       </c>
       <c r="E45" s="2">
-        <v>3.42</v>
+        <v>3.41</v>
       </c>
       <c r="F45" s="2">
-        <v>747</v>
+        <v>819</v>
       </c>
       <c r="G45" s="2">
-        <v>3.88</v>
+        <v>3.86</v>
       </c>
       <c r="H45" s="2">
-        <v>3057</v>
+        <v>3350</v>
       </c>
       <c r="I45" s="1">
-        <v>0.56299999999999994</v>
+        <v>0.56399999999999995</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -1941,22 +1941,22 @@
         <v>11</v>
       </c>
       <c r="D47" s="2">
-        <v>9887</v>
+        <v>11010</v>
       </c>
       <c r="E47" s="2">
-        <v>6.38</v>
+        <v>6.37</v>
       </c>
       <c r="F47" s="2">
-        <v>1711</v>
+        <v>1932</v>
       </c>
       <c r="G47" s="2">
-        <v>8.24</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="H47" s="2">
-        <v>5071</v>
+        <v>5726</v>
       </c>
       <c r="I47" s="1">
-        <v>0.55800000000000005</v>
+        <v>0.55700000000000005</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -1973,19 +1973,19 @@
         <v>11</v>
       </c>
       <c r="D49" s="2">
-        <v>9489</v>
+        <v>10577</v>
       </c>
       <c r="E49" s="2">
-        <v>5.65</v>
+        <v>5.67</v>
       </c>
       <c r="F49" s="2">
-        <v>951</v>
+        <v>1059</v>
       </c>
       <c r="G49" s="2">
         <v>8.19</v>
       </c>
       <c r="H49" s="2">
-        <v>2426</v>
+        <v>2708</v>
       </c>
       <c r="I49" s="1">
         <v>0.54500000000000004</v>
@@ -2005,19 +2005,19 @@
         <v>4</v>
       </c>
       <c r="D51" s="2">
-        <v>3806</v>
+        <v>4252</v>
       </c>
       <c r="E51" s="2">
-        <v>7.07</v>
+        <v>7.08</v>
       </c>
       <c r="F51" s="2">
-        <v>535</v>
+        <v>603</v>
       </c>
       <c r="G51" s="2">
-        <v>9.4700000000000006</v>
+        <v>9.5</v>
       </c>
       <c r="H51" s="2">
-        <v>694</v>
+        <v>823</v>
       </c>
       <c r="I51" s="1">
         <v>0.55200000000000005</v>
@@ -2037,22 +2037,22 @@
         <v>30</v>
       </c>
       <c r="D53" s="2">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E53" s="2">
         <v>1.01</v>
       </c>
       <c r="F53" s="2">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G53" s="2">
         <v>1.01</v>
       </c>
       <c r="H53" s="2">
-        <v>452</v>
+        <v>485</v>
       </c>
       <c r="I53" s="1">
-        <v>0.57299999999999995</v>
+        <v>0.56899999999999995</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2069,22 +2069,22 @@
         <v>4</v>
       </c>
       <c r="D55" s="2">
-        <v>3895</v>
+        <v>4319</v>
       </c>
       <c r="E55" s="2">
-        <v>7.01</v>
+        <v>7</v>
       </c>
       <c r="F55" s="2">
-        <v>321</v>
+        <v>361</v>
       </c>
       <c r="G55" s="2">
-        <v>10.56</v>
+        <v>10.49</v>
       </c>
       <c r="H55" s="2">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="I55" s="1">
-        <v>0.54300000000000004</v>
+        <v>0.54700000000000004</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -2101,19 +2101,19 @@
         <v>4</v>
       </c>
       <c r="D57" s="2">
-        <v>3024</v>
+        <v>3340</v>
       </c>
       <c r="E57" s="2">
         <v>4.28</v>
       </c>
       <c r="F57" s="2">
-        <v>759</v>
+        <v>850</v>
       </c>
       <c r="G57" s="2">
-        <v>5.36</v>
+        <v>5.37</v>
       </c>
       <c r="H57" s="2">
-        <v>2839</v>
+        <v>3229</v>
       </c>
       <c r="I57" s="1">
         <v>0.55000000000000004</v>
@@ -2133,22 +2133,22 @@
         <v>11</v>
       </c>
       <c r="D59" s="2">
-        <v>10462</v>
+        <v>11646</v>
       </c>
       <c r="E59" s="2">
         <v>8.0500000000000007</v>
       </c>
       <c r="F59" s="2">
-        <v>1060</v>
+        <v>1195</v>
       </c>
       <c r="G59" s="2">
-        <v>11.53</v>
+        <v>11.48</v>
       </c>
       <c r="H59" s="2">
-        <v>520</v>
+        <v>587</v>
       </c>
       <c r="I59" s="1">
-        <v>0.51300000000000001</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -2165,22 +2165,22 @@
         <v>11</v>
       </c>
       <c r="D61" s="2">
-        <v>10349</v>
+        <v>11542</v>
       </c>
       <c r="E61" s="2">
-        <v>7.97</v>
+        <v>7.95</v>
       </c>
       <c r="F61" s="2">
-        <v>1802</v>
+        <v>2039</v>
       </c>
       <c r="G61" s="2">
-        <v>10.34</v>
+        <v>10.25</v>
       </c>
       <c r="H61" s="2">
-        <v>3569</v>
+        <v>4075</v>
       </c>
       <c r="I61" s="1">
-        <v>0.55800000000000005</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -2197,22 +2197,22 @@
         <v>11</v>
       </c>
       <c r="D63" s="2">
-        <v>10140</v>
+        <v>11329</v>
       </c>
       <c r="E63" s="2">
-        <v>6.37</v>
+        <v>6.36</v>
       </c>
       <c r="F63" s="2">
-        <v>2290</v>
+        <v>2588</v>
       </c>
       <c r="G63" s="2">
-        <v>8.01</v>
+        <v>7.97</v>
       </c>
       <c r="H63" s="2">
-        <v>6099</v>
+        <v>6914</v>
       </c>
       <c r="I63" s="1">
-        <v>0.55600000000000005</v>
+        <v>0.55800000000000005</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -2229,22 +2229,22 @@
         <v>4</v>
       </c>
       <c r="D65" s="2">
-        <v>1382</v>
+        <v>1547</v>
       </c>
       <c r="E65" s="2">
-        <v>2.11</v>
+        <v>2.12</v>
       </c>
       <c r="F65" s="2">
-        <v>376</v>
+        <v>419</v>
       </c>
       <c r="G65" s="2">
-        <v>2.39</v>
+        <v>2.4</v>
       </c>
       <c r="H65" s="2">
-        <v>1826</v>
+        <v>2044</v>
       </c>
       <c r="I65" s="1">
-        <v>0.54700000000000004</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -2261,19 +2261,19 @@
         <v>11</v>
       </c>
       <c r="D67" s="2">
-        <v>5536</v>
+        <v>6178</v>
       </c>
       <c r="E67" s="2">
-        <v>3.14</v>
+        <v>3.13</v>
       </c>
       <c r="F67" s="2">
-        <v>1151</v>
+        <v>1292</v>
       </c>
       <c r="G67" s="2">
-        <v>4.1100000000000003</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="H67" s="2">
-        <v>4561</v>
+        <v>5142</v>
       </c>
       <c r="I67" s="1">
         <v>0.56399999999999995</v>
@@ -2293,22 +2293,22 @@
         <v>11</v>
       </c>
       <c r="D69" s="2">
-        <v>10329</v>
+        <v>11577</v>
       </c>
       <c r="E69" s="2">
         <v>9.14</v>
       </c>
       <c r="F69" s="2">
-        <v>2019</v>
+        <v>2266</v>
       </c>
       <c r="G69" s="2">
         <v>11.65</v>
       </c>
       <c r="H69" s="2">
-        <v>2162</v>
+        <v>2451</v>
       </c>
       <c r="I69" s="1">
-        <v>0.55000000000000004</v>
+        <v>0.54700000000000004</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -2325,22 +2325,22 @@
         <v>4</v>
       </c>
       <c r="D71" s="2">
-        <v>2907</v>
+        <v>3277</v>
       </c>
       <c r="E71" s="2">
-        <v>4.38</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="F71" s="2">
-        <v>510</v>
+        <v>581</v>
       </c>
       <c r="G71" s="2">
-        <v>5.77</v>
+        <v>5.73</v>
       </c>
       <c r="H71" s="2">
-        <v>1974</v>
+        <v>2285</v>
       </c>
       <c r="I71" s="1">
-        <v>0.54500000000000004</v>
+        <v>0.54400000000000004</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -2357,22 +2357,22 @@
         <v>2</v>
       </c>
       <c r="D73" s="2">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="E73" s="2">
         <v>1.47</v>
       </c>
       <c r="F73" s="2">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="G73" s="2">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="H73" s="2">
-        <v>671</v>
+        <v>771</v>
       </c>
       <c r="I73" s="1">
-        <v>0.57099999999999995</v>
+        <v>0.55600000000000005</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -2389,19 +2389,19 @@
         <v>11</v>
       </c>
       <c r="D75" s="2">
-        <v>9590</v>
+        <v>10659</v>
       </c>
       <c r="E75" s="2">
-        <v>5.57</v>
+        <v>5.58</v>
       </c>
       <c r="F75" s="2">
-        <v>1838</v>
+        <v>2097</v>
       </c>
       <c r="G75" s="2">
-        <v>7.09</v>
+        <v>7.1</v>
       </c>
       <c r="H75" s="2">
-        <v>5478</v>
+        <v>6255</v>
       </c>
       <c r="I75" s="1">
         <v>0.54900000000000004</v>
@@ -2421,22 +2421,22 @@
         <v>4</v>
       </c>
       <c r="D77" s="2">
-        <v>1682</v>
+        <v>1876</v>
       </c>
       <c r="E77" s="2">
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="F77" s="2">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="G77" s="2">
-        <v>2.97</v>
+        <v>3</v>
       </c>
       <c r="H77" s="2">
-        <v>1117</v>
+        <v>1262</v>
       </c>
       <c r="I77" s="1">
-        <v>0.51500000000000001</v>
+        <v>0.51300000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -2453,22 +2453,22 @@
         <v>30</v>
       </c>
       <c r="D79" s="2">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="E79" s="2">
         <v>1</v>
       </c>
       <c r="F79" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G79" s="2">
         <v>1</v>
       </c>
       <c r="H79" s="2">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="I79" s="1">
-        <v>0.47299999999999998</v>
+        <v>0.48199999999999998</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -2485,22 +2485,22 @@
         <v>11</v>
       </c>
       <c r="D81" s="2">
-        <v>4279</v>
+        <v>4759</v>
       </c>
       <c r="E81" s="2">
-        <v>2.5099999999999998</v>
+        <v>2.5</v>
       </c>
       <c r="F81" s="2">
-        <v>483</v>
+        <v>522</v>
       </c>
       <c r="G81" s="2">
-        <v>3.2</v>
+        <v>3.18</v>
       </c>
       <c r="H81" s="2">
-        <v>1943</v>
+        <v>2073</v>
       </c>
       <c r="I81" s="1">
-        <v>0.50600000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -2517,22 +2517,22 @@
         <v>11</v>
       </c>
       <c r="D83" s="2">
-        <v>10188</v>
+        <v>11427</v>
       </c>
       <c r="E83" s="2">
         <v>7.63</v>
       </c>
       <c r="F83" s="2">
-        <v>1208</v>
+        <v>1346</v>
       </c>
       <c r="G83" s="2">
-        <v>10.38</v>
+        <v>10.37</v>
       </c>
       <c r="H83" s="2">
-        <v>2003</v>
+        <v>2207</v>
       </c>
       <c r="I83" s="1">
-        <v>0.51600000000000001</v>
+        <v>0.51300000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -2549,22 +2549,22 @@
         <v>11</v>
       </c>
       <c r="D85" s="2">
-        <v>6008</v>
+        <v>6728</v>
       </c>
       <c r="E85" s="2">
-        <v>3.29</v>
+        <v>3.28</v>
       </c>
       <c r="F85" s="2">
-        <v>455</v>
+        <v>491</v>
       </c>
       <c r="G85" s="2">
-        <v>4.5599999999999996</v>
+        <v>4.54</v>
       </c>
       <c r="H85" s="2">
-        <v>1556</v>
+        <v>1689</v>
       </c>
       <c r="I85" s="1">
-        <v>0.505</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -2581,22 +2581,22 @@
         <v>2</v>
       </c>
       <c r="D87" s="2">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="E87" s="2">
         <v>1.56</v>
       </c>
       <c r="F87" s="2">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="G87" s="2">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="H87" s="2">
-        <v>632</v>
+        <v>680</v>
       </c>
       <c r="I87" s="1">
-        <v>0.50600000000000001</v>
+        <v>0.503</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -2613,22 +2613,22 @@
         <v>2</v>
       </c>
       <c r="D89" s="2">
-        <v>357</v>
+        <v>403</v>
       </c>
       <c r="E89" s="2">
+        <v>1.62</v>
+      </c>
+      <c r="F89" s="2">
+        <v>137</v>
+      </c>
+      <c r="G89" s="2">
         <v>1.61</v>
       </c>
-      <c r="F89" s="2">
-        <v>121</v>
-      </c>
-      <c r="G89" s="2">
-        <v>1.6</v>
-      </c>
       <c r="H89" s="2">
-        <v>425</v>
+        <v>466</v>
       </c>
       <c r="I89" s="1">
-        <v>0.52900000000000003</v>
+        <v>0.52600000000000002</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -2645,22 +2645,22 @@
         <v>4</v>
       </c>
       <c r="D91" s="2">
-        <v>1856</v>
+        <v>2043</v>
       </c>
       <c r="E91" s="2">
-        <v>2.68</v>
+        <v>2.69</v>
       </c>
       <c r="F91" s="2">
-        <v>385</v>
+        <v>414</v>
       </c>
       <c r="G91" s="2">
-        <v>3.06</v>
+        <v>3.1</v>
       </c>
       <c r="H91" s="2">
-        <v>1411</v>
+        <v>1537</v>
       </c>
       <c r="I91" s="1">
-        <v>0.52400000000000002</v>
+        <v>0.52700000000000002</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -2677,22 +2677,22 @@
         <v>2</v>
       </c>
       <c r="D93" s="2">
-        <v>376</v>
+        <v>412</v>
       </c>
       <c r="E93" s="2">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="F93" s="2">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="G93" s="2">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="H93" s="2">
-        <v>568</v>
+        <v>610</v>
       </c>
       <c r="I93" s="1">
-        <v>0.48399999999999999</v>
+        <v>0.48899999999999999</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -2709,22 +2709,22 @@
         <v>4</v>
       </c>
       <c r="D95" s="2">
-        <v>2175</v>
+        <v>2451</v>
       </c>
       <c r="E95" s="2">
-        <v>3.24</v>
+        <v>3.22</v>
       </c>
       <c r="F95" s="2">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G95" s="2">
-        <v>4.5199999999999996</v>
+        <v>4.57</v>
       </c>
       <c r="H95" s="2">
-        <v>751</v>
+        <v>787</v>
       </c>
       <c r="I95" s="1">
-        <v>0.48099999999999998</v>
+        <v>0.48299999999999998</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -2741,22 +2741,22 @@
         <v>2</v>
       </c>
       <c r="D97" s="2">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="E97" s="2">
         <v>1</v>
       </c>
       <c r="F97" s="2">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="G97" s="2">
         <v>1</v>
       </c>
       <c r="H97" s="2">
-        <v>389</v>
+        <v>434</v>
       </c>
       <c r="I97" s="1">
-        <v>0.52400000000000002</v>
+        <v>0.51400000000000001</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -2773,22 +2773,22 @@
         <v>4</v>
       </c>
       <c r="D99" s="2">
-        <v>1776</v>
+        <v>1972</v>
       </c>
       <c r="E99" s="2">
         <v>2.76</v>
       </c>
       <c r="F99" s="2">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="G99" s="2">
         <v>3.22</v>
       </c>
       <c r="H99" s="2">
-        <v>1136</v>
+        <v>1253</v>
       </c>
       <c r="I99" s="1">
-        <v>0.495</v>
+        <v>0.49199999999999999</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -2805,22 +2805,22 @@
         <v>4</v>
       </c>
       <c r="D101" s="2">
-        <v>2575</v>
+        <v>2895</v>
       </c>
       <c r="E101" s="2">
-        <v>3.73</v>
+        <v>3.74</v>
       </c>
       <c r="F101" s="2">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="G101" s="2">
-        <v>5.01</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="H101" s="2">
-        <v>700</v>
+        <v>758</v>
       </c>
       <c r="I101" s="1">
-        <v>0.47399999999999998</v>
+        <v>0.46700000000000003</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -2837,19 +2837,19 @@
         <v>30</v>
       </c>
       <c r="D103" s="2">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="E103" s="2">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="F103" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G103" s="2">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="H103" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I103" s="1">
         <v>0.4</v>
@@ -2869,22 +2869,22 @@
         <v>11</v>
       </c>
       <c r="D105" s="2">
-        <v>10290</v>
+        <v>11520</v>
       </c>
       <c r="E105" s="2">
-        <v>7.52</v>
+        <v>7.54</v>
       </c>
       <c r="F105" s="2">
-        <v>859</v>
+        <v>971</v>
       </c>
       <c r="G105" s="2">
-        <v>10.96</v>
+        <v>11.02</v>
       </c>
       <c r="H105" s="2">
-        <v>916</v>
+        <v>1019</v>
       </c>
       <c r="I105" s="1">
-        <v>0.497</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -2901,19 +2901,19 @@
         <v>11</v>
       </c>
       <c r="D107" s="2">
-        <v>4723</v>
+        <v>5275</v>
       </c>
       <c r="E107" s="2">
         <v>2.81</v>
       </c>
       <c r="F107" s="2">
-        <v>443</v>
+        <v>479</v>
       </c>
       <c r="G107" s="2">
-        <v>3.73</v>
+        <v>3.69</v>
       </c>
       <c r="H107" s="2">
-        <v>1202</v>
+        <v>1307</v>
       </c>
       <c r="I107" s="1">
         <v>0.48899999999999999</v>
@@ -2933,22 +2933,22 @@
         <v>2</v>
       </c>
       <c r="D109" s="2">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="E109" s="2">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="F109" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="G109" s="2">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="H109" s="2">
-        <v>464</v>
+        <v>486</v>
       </c>
       <c r="I109" s="1">
-        <v>0.496</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -2965,19 +2965,19 @@
         <v>2</v>
       </c>
       <c r="D111" s="2">
-        <v>366</v>
+        <v>410</v>
       </c>
       <c r="E111" s="2">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="F111" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G111" s="2">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="H111" s="2">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="I111" s="1">
         <v>0.5</v>
@@ -2997,22 +2997,22 @@
         <v>11</v>
       </c>
       <c r="D113" s="2">
-        <v>10311</v>
+        <v>11514</v>
       </c>
       <c r="E113" s="2">
-        <v>7.56</v>
+        <v>7.55</v>
       </c>
       <c r="F113" s="2">
-        <v>951</v>
+        <v>1042</v>
       </c>
       <c r="G113" s="2">
-        <v>10.82</v>
+        <v>10.85</v>
       </c>
       <c r="H113" s="2">
-        <v>744</v>
+        <v>872</v>
       </c>
       <c r="I113" s="1">
-        <v>0.45600000000000002</v>
+        <v>0.45500000000000002</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -3029,22 +3029,22 @@
         <v>11</v>
       </c>
       <c r="D115" s="2">
-        <v>9218</v>
+        <v>10322</v>
       </c>
       <c r="E115" s="2">
-        <v>5.5</v>
+        <v>5.51</v>
       </c>
       <c r="F115" s="2">
-        <v>894</v>
+        <v>990</v>
       </c>
       <c r="G115" s="2">
-        <v>7.73</v>
+        <v>7.75</v>
       </c>
       <c r="H115" s="2">
-        <v>2406</v>
+        <v>2658</v>
       </c>
       <c r="I115" s="1">
-        <v>0.504</v>
+        <v>0.505</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -3061,22 +3061,22 @@
         <v>4</v>
       </c>
       <c r="D117" s="2">
-        <v>3249</v>
+        <v>3615</v>
       </c>
       <c r="E117" s="2">
-        <v>5.0199999999999996</v>
+        <v>4.99</v>
       </c>
       <c r="F117" s="2">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="G117" s="2">
-        <v>7.3</v>
+        <v>7.35</v>
       </c>
       <c r="H117" s="2">
-        <v>605</v>
+        <v>644</v>
       </c>
       <c r="I117" s="1">
-        <v>0.48099999999999998</v>
+        <v>0.47199999999999998</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -3093,22 +3093,22 @@
         <v>11</v>
       </c>
       <c r="D119" s="2">
-        <v>9716</v>
+        <v>10868</v>
       </c>
       <c r="E119" s="2">
-        <v>6.19</v>
+        <v>6.2</v>
       </c>
       <c r="F119" s="2">
-        <v>1149</v>
+        <v>1282</v>
       </c>
       <c r="G119" s="2">
-        <v>8.3000000000000007</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="H119" s="2">
-        <v>2617</v>
+        <v>2897</v>
       </c>
       <c r="I119" s="1">
-        <v>0.50700000000000001</v>
+        <v>0.50800000000000001</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -3125,22 +3125,22 @@
         <v>4</v>
       </c>
       <c r="D121" s="2">
-        <v>1790</v>
+        <v>1994</v>
       </c>
       <c r="E121" s="2">
         <v>2.72</v>
       </c>
       <c r="F121" s="2">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G121" s="2">
-        <v>3.6</v>
+        <v>3.67</v>
       </c>
       <c r="H121" s="2">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="I121" s="1">
-        <v>0.52400000000000002</v>
+        <v>0.50900000000000001</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -3157,22 +3157,22 @@
         <v>11</v>
       </c>
       <c r="D123" s="2">
-        <v>7957</v>
+        <v>8866</v>
       </c>
       <c r="E123" s="2">
-        <v>4.4000000000000004</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="F123" s="2">
-        <v>501</v>
+        <v>550</v>
       </c>
       <c r="G123" s="2">
-        <v>6.6</v>
+        <v>6.59</v>
       </c>
       <c r="H123" s="2">
-        <v>1354</v>
+        <v>1496</v>
       </c>
       <c r="I123" s="1">
-        <v>0.47199999999999998</v>
+        <v>0.47099999999999997</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -3189,19 +3189,19 @@
         <v>11</v>
       </c>
       <c r="D125" s="2">
-        <v>7925</v>
+        <v>8874</v>
       </c>
       <c r="E125" s="2">
         <v>4.3600000000000003</v>
       </c>
       <c r="F125" s="2">
-        <v>766</v>
+        <v>840</v>
       </c>
       <c r="G125" s="2">
-        <v>6.27</v>
+        <v>6.24</v>
       </c>
       <c r="H125" s="2">
-        <v>2368</v>
+        <v>2604</v>
       </c>
       <c r="I125" s="1">
         <v>0.495</v>
@@ -3221,22 +3221,22 @@
         <v>4</v>
       </c>
       <c r="D127" s="2">
-        <v>2137</v>
+        <v>2381</v>
       </c>
       <c r="E127" s="2">
-        <v>3.17</v>
+        <v>3.15</v>
       </c>
       <c r="F127" s="2">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="G127" s="2">
-        <v>3.99</v>
+        <v>3.98</v>
       </c>
       <c r="H127" s="2">
-        <v>1035</v>
+        <v>1166</v>
       </c>
       <c r="I127" s="1">
-        <v>0.52500000000000002</v>
+        <v>0.52300000000000002</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -3253,22 +3253,22 @@
         <v>11</v>
       </c>
       <c r="D129" s="2">
-        <v>3805</v>
+        <v>4184</v>
       </c>
       <c r="E129" s="2">
-        <v>2.2799999999999998</v>
+        <v>2.27</v>
       </c>
       <c r="F129" s="2">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="G129" s="2">
-        <v>3.23</v>
+        <v>3.21</v>
       </c>
       <c r="H129" s="2">
-        <v>1145</v>
+        <v>1244</v>
       </c>
       <c r="I129" s="1">
-        <v>0.50600000000000001</v>
+        <v>0.505</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -3285,22 +3285,22 @@
         <v>11</v>
       </c>
       <c r="D131" s="2">
-        <v>7189</v>
+        <v>7987</v>
       </c>
       <c r="E131" s="2">
         <v>3.9</v>
       </c>
       <c r="F131" s="2">
-        <v>326</v>
+        <v>357</v>
       </c>
       <c r="G131" s="2">
-        <v>6.1</v>
+        <v>6.17</v>
       </c>
       <c r="H131" s="2">
-        <v>966</v>
+        <v>1053</v>
       </c>
       <c r="I131" s="1">
-        <v>0.48</v>
+        <v>0.48299999999999998</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -3317,22 +3317,22 @@
         <v>2</v>
       </c>
       <c r="D133" s="2">
-        <v>201</v>
+        <v>238</v>
       </c>
       <c r="E133" s="2">
         <v>1</v>
       </c>
       <c r="F133" s="2">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="G133" s="2">
         <v>1</v>
       </c>
       <c r="H133" s="2">
-        <v>430</v>
+        <v>505</v>
       </c>
       <c r="I133" s="1">
-        <v>0.50900000000000001</v>
+        <v>0.51700000000000002</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -3349,22 +3349,22 @@
         <v>4</v>
       </c>
       <c r="D135" s="2">
-        <v>1183</v>
+        <v>1338</v>
       </c>
       <c r="E135" s="2">
-        <v>2.02</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="F135" s="2">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="G135" s="2">
-        <v>2.37</v>
+        <v>2.39</v>
       </c>
       <c r="H135" s="2">
-        <v>868</v>
+        <v>988</v>
       </c>
       <c r="I135" s="1">
-        <v>0.52</v>
+        <v>0.51100000000000001</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -3381,19 +3381,19 @@
         <v>11</v>
       </c>
       <c r="D137" s="2">
-        <v>8669</v>
+        <v>9710</v>
       </c>
       <c r="E137" s="2">
         <v>4.8099999999999996</v>
       </c>
       <c r="F137" s="2">
-        <v>1098</v>
+        <v>1213</v>
       </c>
       <c r="G137" s="2">
-        <v>6.35</v>
+        <v>6.38</v>
       </c>
       <c r="H137" s="2">
-        <v>3052</v>
+        <v>3391</v>
       </c>
       <c r="I137" s="1">
         <v>0.505</v>
@@ -3413,22 +3413,22 @@
         <v>4</v>
       </c>
       <c r="D139" s="2">
-        <v>1790</v>
+        <v>2000</v>
       </c>
       <c r="E139" s="2">
-        <v>2.78</v>
+        <v>2.79</v>
       </c>
       <c r="F139" s="2">
-        <v>323</v>
+        <v>350</v>
       </c>
       <c r="G139" s="2">
-        <v>3.4</v>
+        <v>3.42</v>
       </c>
       <c r="H139" s="2">
-        <v>1277</v>
+        <v>1382</v>
       </c>
       <c r="I139" s="1">
-        <v>0.52500000000000002</v>
+        <v>0.52600000000000002</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -3445,22 +3445,22 @@
         <v>11</v>
       </c>
       <c r="D141" s="2">
-        <v>7804</v>
+        <v>8719</v>
       </c>
       <c r="E141" s="2">
-        <v>4.2300000000000004</v>
+        <v>4.21</v>
       </c>
       <c r="F141" s="2">
-        <v>593</v>
+        <v>650</v>
       </c>
       <c r="G141" s="2">
         <v>6.12</v>
       </c>
       <c r="H141" s="2">
-        <v>1953</v>
+        <v>2157</v>
       </c>
       <c r="I141" s="1">
-        <v>0.51</v>
+        <v>0.51300000000000001</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
@@ -3477,22 +3477,22 @@
         <v>2</v>
       </c>
       <c r="D143" s="2">
-        <v>346</v>
+        <v>378</v>
       </c>
       <c r="E143" s="2">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="F143" s="2">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="G143" s="2">
         <v>1.5</v>
       </c>
       <c r="H143" s="2">
-        <v>523</v>
+        <v>566</v>
       </c>
       <c r="I143" s="1">
-        <v>0.54300000000000004</v>
+        <v>0.54100000000000004</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -3509,19 +3509,19 @@
         <v>11</v>
       </c>
       <c r="D145" s="2">
-        <v>8560</v>
+        <v>9529</v>
       </c>
       <c r="E145" s="2">
         <v>4.79</v>
       </c>
       <c r="F145" s="2">
-        <v>571</v>
+        <v>630</v>
       </c>
       <c r="G145" s="2">
-        <v>6.99</v>
+        <v>7.01</v>
       </c>
       <c r="H145" s="2">
-        <v>1485</v>
+        <v>1617</v>
       </c>
       <c r="I145" s="1">
         <v>0.49099999999999999</v>
@@ -3541,22 +3541,22 @@
         <v>11</v>
       </c>
       <c r="D147" s="2">
-        <v>10201</v>
+        <v>11335</v>
       </c>
       <c r="E147" s="2">
         <v>7.61</v>
       </c>
       <c r="F147" s="2">
-        <v>893</v>
+        <v>980</v>
       </c>
       <c r="G147" s="2">
-        <v>10.78</v>
+        <v>10.74</v>
       </c>
       <c r="H147" s="2">
-        <v>928</v>
+        <v>1028</v>
       </c>
       <c r="I147" s="1">
-        <v>0.48399999999999999</v>
+        <v>0.48299999999999998</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -3573,22 +3573,22 @@
         <v>11</v>
       </c>
       <c r="D149" s="2">
-        <v>8134</v>
+        <v>9098</v>
       </c>
       <c r="E149" s="2">
-        <v>4.3499999999999996</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="F149" s="2">
-        <v>945</v>
+        <v>1046</v>
       </c>
       <c r="G149" s="2">
-        <v>5.97</v>
+        <v>5.94</v>
       </c>
       <c r="H149" s="2">
-        <v>3232</v>
+        <v>3568</v>
       </c>
       <c r="I149" s="1">
-        <v>0.50900000000000001</v>
+        <v>0.51100000000000001</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
@@ -3605,22 +3605,22 @@
         <v>2</v>
       </c>
       <c r="D151" s="2">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="E151" s="2">
         <v>1.29</v>
       </c>
       <c r="F151" s="2">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G151" s="2">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="H151" s="2">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="I151" s="1">
-        <v>0.52900000000000003</v>
+        <v>0.52800000000000002</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
@@ -3637,19 +3637,19 @@
         <v>11</v>
       </c>
       <c r="D153" s="2">
-        <v>2714</v>
+        <v>3044</v>
       </c>
       <c r="E153" s="2">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="F153" s="2">
-        <v>909</v>
+        <v>1016</v>
       </c>
       <c r="G153" s="2">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="H153" s="2">
-        <v>3544</v>
+        <v>3999</v>
       </c>
       <c r="I153" s="1">
         <v>0.53100000000000003</v>
@@ -3669,22 +3669,22 @@
         <v>11</v>
       </c>
       <c r="D155" s="2">
-        <v>6847</v>
+        <v>7647</v>
       </c>
       <c r="E155" s="2">
-        <v>3.79</v>
+        <v>3.78</v>
       </c>
       <c r="F155" s="2">
-        <v>407</v>
+        <v>449</v>
       </c>
       <c r="G155" s="2">
-        <v>5.77</v>
+        <v>5.81</v>
       </c>
       <c r="H155" s="2">
-        <v>1448</v>
+        <v>1614</v>
       </c>
       <c r="I155" s="1">
-        <v>0.53300000000000003</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
@@ -3701,22 +3701,22 @@
         <v>4</v>
       </c>
       <c r="D157" s="2">
-        <v>1501</v>
+        <v>1690</v>
       </c>
       <c r="E157" s="2">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="F157" s="2">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="G157" s="2">
-        <v>3.02</v>
+        <v>3.03</v>
       </c>
       <c r="H157" s="2">
-        <v>1116</v>
+        <v>1245</v>
       </c>
       <c r="I157" s="1">
-        <v>0.54300000000000004</v>
+        <v>0.53900000000000003</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
@@ -3733,22 +3733,22 @@
         <v>2</v>
       </c>
       <c r="D159" s="2">
-        <v>389</v>
+        <v>434</v>
       </c>
       <c r="E159" s="2">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="F159" s="2">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="G159" s="2">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="H159" s="2">
-        <v>738</v>
+        <v>825</v>
       </c>
       <c r="I159" s="1">
-        <v>0.54100000000000004</v>
+        <v>0.54300000000000004</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
@@ -3765,22 +3765,22 @@
         <v>4</v>
       </c>
       <c r="D161" s="2">
-        <v>1549</v>
+        <v>1767</v>
       </c>
       <c r="E161" s="2">
         <v>2.37</v>
       </c>
       <c r="F161" s="2">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="G161" s="2">
         <v>3.11</v>
       </c>
       <c r="H161" s="2">
-        <v>612</v>
+        <v>725</v>
       </c>
       <c r="I161" s="1">
-        <v>0.52600000000000002</v>
+        <v>0.51900000000000002</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
@@ -3797,22 +3797,22 @@
         <v>4</v>
       </c>
       <c r="D163" s="2">
-        <v>1831</v>
+        <v>2042</v>
       </c>
       <c r="E163" s="2">
-        <v>2.69</v>
+        <v>2.7</v>
       </c>
       <c r="F163" s="2">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="G163" s="2">
         <v>3.42</v>
       </c>
       <c r="H163" s="2">
-        <v>600</v>
+        <v>680</v>
       </c>
       <c r="I163" s="1">
-        <v>0.53500000000000003</v>
+        <v>0.53400000000000003</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
@@ -3829,22 +3829,22 @@
         <v>30</v>
       </c>
       <c r="D165" s="2">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="E165" s="2">
         <v>1</v>
       </c>
       <c r="F165" s="2">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G165" s="2">
         <v>1</v>
       </c>
       <c r="H165" s="2">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="I165" s="1">
-        <v>0.44400000000000001</v>
+        <v>0.45200000000000001</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
@@ -3861,22 +3861,22 @@
         <v>4</v>
       </c>
       <c r="D167" s="2">
-        <v>3263</v>
+        <v>3670</v>
       </c>
       <c r="E167" s="2">
-        <v>4.97</v>
+        <v>4.96</v>
       </c>
       <c r="F167" s="2">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="G167" s="2">
-        <v>8.01</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="H167" s="2">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="I167" s="1">
-        <v>0.54400000000000004</v>
+        <v>0.54300000000000004</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
@@ -3893,22 +3893,22 @@
         <v>2</v>
       </c>
       <c r="D169" s="2">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="E169" s="2">
         <v>1</v>
       </c>
       <c r="F169" s="2">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="G169" s="2">
         <v>1</v>
       </c>
       <c r="H169" s="2">
-        <v>868</v>
+        <v>945</v>
       </c>
       <c r="I169" s="1">
-        <v>0.56499999999999995</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
@@ -3925,22 +3925,22 @@
         <v>4</v>
       </c>
       <c r="D171" s="2">
-        <v>1239</v>
+        <v>1376</v>
       </c>
       <c r="E171" s="2">
         <v>1.9</v>
       </c>
       <c r="F171" s="2">
-        <v>466</v>
+        <v>516</v>
       </c>
       <c r="G171" s="2">
         <v>2.13</v>
       </c>
       <c r="H171" s="2">
-        <v>1945</v>
+        <v>2130</v>
       </c>
       <c r="I171" s="1">
-        <v>0.53500000000000003</v>
+        <v>0.53200000000000003</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -3957,22 +3957,22 @@
         <v>11</v>
       </c>
       <c r="D173" s="2">
-        <v>9806</v>
+        <v>10979</v>
       </c>
       <c r="E173" s="2">
-        <v>6.23</v>
+        <v>6.22</v>
       </c>
       <c r="F173" s="2">
-        <v>420</v>
+        <v>469</v>
       </c>
       <c r="G173" s="2">
-        <v>10.130000000000001</v>
+        <v>10.06</v>
       </c>
       <c r="H173" s="2">
-        <v>369</v>
+        <v>407</v>
       </c>
       <c r="I173" s="1">
-        <v>0.48</v>
+        <v>0.48199999999999998</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
@@ -3989,22 +3989,22 @@
         <v>11</v>
       </c>
       <c r="D175" s="2">
-        <v>9336</v>
+        <v>10388</v>
       </c>
       <c r="E175" s="2">
         <v>5.5</v>
       </c>
       <c r="F175" s="2">
-        <v>415</v>
+        <v>454</v>
       </c>
       <c r="G175" s="2">
-        <v>9.34</v>
+        <v>9.44</v>
       </c>
       <c r="H175" s="2">
-        <v>520</v>
+        <v>563</v>
       </c>
       <c r="I175" s="1">
-        <v>0.49199999999999999</v>
+        <v>0.48799999999999999</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -4021,22 +4021,22 @@
         <v>11</v>
       </c>
       <c r="D177" s="2">
-        <v>8833</v>
+        <v>9810</v>
       </c>
       <c r="E177" s="2">
-        <v>4.91</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F177" s="2">
-        <v>867</v>
+        <v>955</v>
       </c>
       <c r="G177" s="2">
-        <v>6.96</v>
+        <v>6.93</v>
       </c>
       <c r="H177" s="2">
-        <v>2928</v>
+        <v>3212</v>
       </c>
       <c r="I177" s="1">
-        <v>0.53</v>
+        <v>0.52900000000000003</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
@@ -4053,22 +4053,22 @@
         <v>11</v>
       </c>
       <c r="D179" s="2">
-        <v>8165</v>
+        <v>9076</v>
       </c>
       <c r="E179" s="2">
-        <v>4.33</v>
+        <v>4.32</v>
       </c>
       <c r="F179" s="2">
-        <v>804</v>
+        <v>890</v>
       </c>
       <c r="G179" s="2">
-        <v>6.26</v>
+        <v>6.29</v>
       </c>
       <c r="H179" s="2">
-        <v>3011</v>
+        <v>3303</v>
       </c>
       <c r="I179" s="1">
-        <v>0.52800000000000002</v>
+        <v>0.52300000000000002</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
@@ -4085,22 +4085,22 @@
         <v>4</v>
       </c>
       <c r="D181" s="2">
-        <v>1401</v>
+        <v>1559</v>
       </c>
       <c r="E181" s="2">
-        <v>2.11</v>
+        <v>2.12</v>
       </c>
       <c r="F181" s="2">
-        <v>384</v>
+        <v>417</v>
       </c>
       <c r="G181" s="2">
-        <v>2.5499999999999998</v>
+        <v>2.57</v>
       </c>
       <c r="H181" s="2">
-        <v>1509</v>
+        <v>1653</v>
       </c>
       <c r="I181" s="1">
-        <v>0.51800000000000002</v>
+        <v>0.52100000000000002</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
@@ -4117,22 +4117,22 @@
         <v>11</v>
       </c>
       <c r="D183" s="2">
-        <v>8510</v>
+        <v>9513</v>
       </c>
       <c r="E183" s="2">
         <v>4.84</v>
       </c>
       <c r="F183" s="2">
-        <v>477</v>
+        <v>534</v>
       </c>
       <c r="G183" s="2">
-        <v>7.78</v>
+        <v>7.72</v>
       </c>
       <c r="H183" s="2">
-        <v>1228</v>
+        <v>1380</v>
       </c>
       <c r="I183" s="1">
-        <v>0.52100000000000002</v>
+        <v>0.51700000000000002</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
@@ -4149,22 +4149,22 @@
         <v>11</v>
       </c>
       <c r="D185" s="2">
-        <v>10019</v>
+        <v>11269</v>
       </c>
       <c r="E185" s="2">
         <v>7.57</v>
       </c>
       <c r="F185" s="2">
-        <v>844</v>
+        <v>956</v>
       </c>
       <c r="G185" s="2">
-        <v>11.08</v>
+        <v>11.12</v>
       </c>
       <c r="H185" s="2">
-        <v>659</v>
+        <v>755</v>
       </c>
       <c r="I185" s="1">
-        <v>0.51600000000000001</v>
+        <v>0.52100000000000002</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
@@ -4181,19 +4181,19 @@
         <v>11</v>
       </c>
       <c r="D187" s="2">
-        <v>6351</v>
+        <v>7056</v>
       </c>
       <c r="E187" s="2">
-        <v>3.38</v>
+        <v>3.4</v>
       </c>
       <c r="F187" s="2">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="G187" s="2">
-        <v>5.27</v>
+        <v>5.32</v>
       </c>
       <c r="H187" s="2">
-        <v>1139</v>
+        <v>1248</v>
       </c>
       <c r="I187" s="1">
         <v>0.53800000000000003</v>
@@ -4213,19 +4213,19 @@
         <v>11</v>
       </c>
       <c r="D189" s="2">
-        <v>8001</v>
+        <v>8956</v>
       </c>
       <c r="E189" s="2">
-        <v>4.2699999999999996</v>
+        <v>4.28</v>
       </c>
       <c r="F189" s="2">
-        <v>730</v>
+        <v>814</v>
       </c>
       <c r="G189" s="2">
-        <v>6.23</v>
+        <v>6.26</v>
       </c>
       <c r="H189" s="2">
-        <v>2444</v>
+        <v>2705</v>
       </c>
       <c r="I189" s="1">
         <v>0.51200000000000001</v>
@@ -4245,22 +4245,22 @@
         <v>11</v>
       </c>
       <c r="D191" s="2">
-        <v>8045</v>
+        <v>8982</v>
       </c>
       <c r="E191" s="2">
         <v>4.3</v>
       </c>
       <c r="F191" s="2">
-        <v>544</v>
+        <v>595</v>
       </c>
       <c r="G191" s="2">
-        <v>6.62</v>
+        <v>6.68</v>
       </c>
       <c r="H191" s="2">
-        <v>1608</v>
+        <v>1778</v>
       </c>
       <c r="I191" s="1">
-        <v>0.51600000000000001</v>
+        <v>0.51200000000000001</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
@@ -4277,22 +4277,22 @@
         <v>11</v>
       </c>
       <c r="D193" s="2">
-        <v>10205</v>
+        <v>11325</v>
       </c>
       <c r="E193" s="2">
-        <v>6.85</v>
+        <v>6.86</v>
       </c>
       <c r="F193" s="2">
-        <v>754</v>
+        <v>833</v>
       </c>
       <c r="G193" s="2">
-        <v>10.34</v>
+        <v>10.35</v>
       </c>
       <c r="H193" s="2">
-        <v>720</v>
+        <v>796</v>
       </c>
       <c r="I193" s="1">
-        <v>0.48499999999999999</v>
+        <v>0.48199999999999998</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
@@ -4309,22 +4309,22 @@
         <v>2</v>
       </c>
       <c r="D195" s="2">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="E195" s="2">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="F195" s="2">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="G195" s="2">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="H195" s="2">
-        <v>840</v>
+        <v>931</v>
       </c>
       <c r="I195" s="1">
-        <v>0.53600000000000003</v>
+        <v>0.54100000000000004</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
@@ -4341,22 +4341,22 @@
         <v>2</v>
       </c>
       <c r="D197" s="2">
-        <v>386</v>
+        <v>438</v>
       </c>
       <c r="E197" s="2">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="F197" s="2">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="G197" s="2">
         <v>1.58</v>
       </c>
       <c r="H197" s="2">
-        <v>655</v>
+        <v>718</v>
       </c>
       <c r="I197" s="1">
-        <v>0.54</v>
+        <v>0.52900000000000003</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
@@ -4373,22 +4373,22 @@
         <v>4</v>
       </c>
       <c r="D199" s="2">
-        <v>1039</v>
+        <v>1164</v>
       </c>
       <c r="E199" s="2">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="F199" s="2">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="G199" s="2">
-        <v>2.0099999999999998</v>
+        <v>1.99</v>
       </c>
       <c r="H199" s="2">
-        <v>1180</v>
+        <v>1302</v>
       </c>
       <c r="I199" s="1">
-        <v>0.51600000000000001</v>
+        <v>0.51300000000000001</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
@@ -4405,22 +4405,22 @@
         <v>2</v>
       </c>
       <c r="D201" s="2">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="E201" s="2">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="F201" s="2">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="G201" s="2">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="H201" s="2">
-        <v>644</v>
+        <v>701</v>
       </c>
       <c r="I201" s="1">
-        <v>0.53900000000000003</v>
+        <v>0.52600000000000002</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
@@ -4437,22 +4437,22 @@
         <v>30</v>
       </c>
       <c r="D203" s="2">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E203" s="2">
         <v>1</v>
       </c>
       <c r="F203" s="2">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="G203" s="2">
         <v>1</v>
       </c>
       <c r="H203" s="2">
-        <v>443</v>
+        <v>491</v>
       </c>
       <c r="I203" s="1">
-        <v>0.53700000000000003</v>
+        <v>0.54800000000000004</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
@@ -4469,22 +4469,22 @@
         <v>11</v>
       </c>
       <c r="D205" s="2">
-        <v>7853</v>
+        <v>8823</v>
       </c>
       <c r="E205" s="2">
-        <v>4.28</v>
+        <v>4.3</v>
       </c>
       <c r="F205" s="2">
-        <v>986</v>
+        <v>1098</v>
       </c>
       <c r="G205" s="2">
-        <v>5.91</v>
+        <v>5.94</v>
       </c>
       <c r="H205" s="2">
-        <v>3400</v>
+        <v>3750</v>
       </c>
       <c r="I205" s="1">
-        <v>0.53400000000000003</v>
+        <v>0.53200000000000003</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
@@ -4501,19 +4501,19 @@
         <v>11</v>
       </c>
       <c r="D207" s="2">
-        <v>5117</v>
+        <v>5718</v>
       </c>
       <c r="E207" s="2">
-        <v>2.87</v>
+        <v>2.86</v>
       </c>
       <c r="F207" s="2">
-        <v>1314</v>
+        <v>1461</v>
       </c>
       <c r="G207" s="2">
         <v>3.53</v>
       </c>
       <c r="H207" s="2">
-        <v>4603</v>
+        <v>5113</v>
       </c>
       <c r="I207" s="1">
         <v>0.53800000000000003</v>
@@ -4533,22 +4533,22 @@
         <v>4</v>
       </c>
       <c r="D209" s="2">
-        <v>1502</v>
+        <v>1672</v>
       </c>
       <c r="E209" s="2">
-        <v>2.2999999999999998</v>
+        <v>2.29</v>
       </c>
       <c r="F209" s="2">
-        <v>475</v>
+        <v>533</v>
       </c>
       <c r="G209" s="2">
-        <v>2.61</v>
+        <v>2.6</v>
       </c>
       <c r="H209" s="2">
-        <v>1821</v>
+        <v>2047</v>
       </c>
       <c r="I209" s="1">
-        <v>0.53300000000000003</v>
+        <v>0.52900000000000003</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
@@ -4565,22 +4565,22 @@
         <v>11</v>
       </c>
       <c r="D211" s="2">
-        <v>8630</v>
+        <v>9621</v>
       </c>
       <c r="E211" s="2">
-        <v>4.8099999999999996</v>
+        <v>4.82</v>
       </c>
       <c r="F211" s="2">
-        <v>1437</v>
+        <v>1593</v>
       </c>
       <c r="G211" s="2">
-        <v>6.4</v>
+        <v>6.39</v>
       </c>
       <c r="H211" s="2">
-        <v>4130</v>
+        <v>4572</v>
       </c>
       <c r="I211" s="1">
-        <v>0.53700000000000003</v>
+        <v>0.53400000000000003</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
@@ -4597,22 +4597,22 @@
         <v>4</v>
       </c>
       <c r="D213" s="2">
-        <v>3902</v>
+        <v>4336</v>
       </c>
       <c r="E213" s="2">
-        <v>7.64</v>
+        <v>7.66</v>
       </c>
       <c r="F213" s="2">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="G213" s="2">
-        <v>10.99</v>
+        <v>11</v>
       </c>
       <c r="H213" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I213" s="1">
-        <v>0.42899999999999999</v>
+        <v>0.41399999999999998</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
@@ -4629,22 +4629,22 @@
         <v>4</v>
       </c>
       <c r="D215" s="2">
-        <v>1119</v>
+        <v>1240</v>
       </c>
       <c r="E215" s="2">
         <v>1.94</v>
       </c>
       <c r="F215" s="2">
-        <v>545</v>
+        <v>607</v>
       </c>
       <c r="G215" s="2">
         <v>2.06</v>
       </c>
       <c r="H215" s="2">
-        <v>2235</v>
+        <v>2533</v>
       </c>
       <c r="I215" s="1">
-        <v>0.53700000000000003</v>
+        <v>0.53800000000000003</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
@@ -4661,22 +4661,22 @@
         <v>11</v>
       </c>
       <c r="D217" s="2">
-        <v>7922</v>
+        <v>8838</v>
       </c>
       <c r="E217" s="2">
-        <v>4.26</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="F217" s="2">
-        <v>572</v>
+        <v>637</v>
       </c>
       <c r="G217" s="2">
-        <v>6.4</v>
+        <v>6.38</v>
       </c>
       <c r="H217" s="2">
-        <v>1857</v>
+        <v>2076</v>
       </c>
       <c r="I217" s="1">
-        <v>0.54100000000000004</v>
+        <v>0.53900000000000003</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
@@ -4693,22 +4693,22 @@
         <v>11</v>
       </c>
       <c r="D219" s="2">
-        <v>6867</v>
+        <v>7710</v>
       </c>
       <c r="E219" s="2">
-        <v>3.69</v>
+        <v>3.7</v>
       </c>
       <c r="F219" s="2">
-        <v>328</v>
+        <v>364</v>
       </c>
       <c r="G219" s="2">
-        <v>5.81</v>
+        <v>5.85</v>
       </c>
       <c r="H219" s="2">
-        <v>1108</v>
+        <v>1238</v>
       </c>
       <c r="I219" s="1">
-        <v>0.51900000000000002</v>
+        <v>0.51600000000000001</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
@@ -4725,22 +4725,22 @@
         <v>2</v>
       </c>
       <c r="D221" s="2">
-        <v>398</v>
+        <v>444</v>
       </c>
       <c r="E221" s="2">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="F221" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G221" s="2">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="H221" s="2">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="I221" s="1">
-        <v>0.54800000000000004</v>
+        <v>0.54900000000000004</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
@@ -4757,22 +4757,22 @@
         <v>2</v>
       </c>
       <c r="D223" s="2">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="E223" s="2">
         <v>1.26</v>
       </c>
       <c r="F223" s="2">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="G223" s="2">
         <v>1.27</v>
       </c>
       <c r="H223" s="2">
-        <v>312</v>
+        <v>360</v>
       </c>
       <c r="I223" s="1">
-        <v>0.53800000000000003</v>
+        <v>0.54400000000000004</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
@@ -4789,19 +4789,19 @@
         <v>11</v>
       </c>
       <c r="D225" s="2">
-        <v>10407</v>
+        <v>11625</v>
       </c>
       <c r="E225" s="2">
         <v>7.98</v>
       </c>
       <c r="F225" s="2">
-        <v>2572</v>
+        <v>2903</v>
       </c>
       <c r="G225" s="2">
-        <v>9.66</v>
+        <v>9.65</v>
       </c>
       <c r="H225" s="2">
-        <v>5937</v>
+        <v>6744</v>
       </c>
       <c r="I225" s="1">
         <v>0.57299999999999995</v>
@@ -4821,22 +4821,22 @@
         <v>11</v>
       </c>
       <c r="D227" s="2">
-        <v>10209</v>
+        <v>11386</v>
       </c>
       <c r="E227" s="2">
-        <v>8.02</v>
+        <v>8.01</v>
       </c>
       <c r="F227" s="2">
-        <v>1974</v>
+        <v>2183</v>
       </c>
       <c r="G227" s="2">
-        <v>10.29</v>
+        <v>10.3</v>
       </c>
       <c r="H227" s="2">
-        <v>2354</v>
+        <v>2605</v>
       </c>
       <c r="I227" s="1">
-        <v>0.52300000000000002</v>
+        <v>0.52400000000000002</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
@@ -4853,22 +4853,22 @@
         <v>11</v>
       </c>
       <c r="D229" s="2">
-        <v>10573</v>
+        <v>11758</v>
       </c>
       <c r="E229" s="2">
         <v>9.32</v>
       </c>
       <c r="F229" s="2">
-        <v>1797</v>
+        <v>1992</v>
       </c>
       <c r="G229" s="2">
-        <v>12.06</v>
+        <v>12.07</v>
       </c>
       <c r="H229" s="2">
-        <v>839</v>
+        <v>955</v>
       </c>
       <c r="I229" s="1">
-        <v>0.56100000000000005</v>
+        <v>0.56899999999999995</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
@@ -4885,22 +4885,22 @@
         <v>2</v>
       </c>
       <c r="D231" s="2">
-        <v>304</v>
+        <v>334</v>
       </c>
       <c r="E231" s="2">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="F231" s="2">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="G231" s="2">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="H231" s="2">
-        <v>1187</v>
+        <v>1350</v>
       </c>
       <c r="I231" s="1">
-        <v>0.56699999999999995</v>
+        <v>0.57599999999999996</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
@@ -4917,22 +4917,22 @@
         <v>11</v>
       </c>
       <c r="D233" s="2">
-        <v>8571</v>
+        <v>9563</v>
       </c>
       <c r="E233" s="2">
         <v>4.95</v>
       </c>
       <c r="F233" s="2">
-        <v>1602</v>
+        <v>1775</v>
       </c>
       <c r="G233" s="2">
-        <v>6.6</v>
+        <v>6.58</v>
       </c>
       <c r="H233" s="2">
-        <v>4881</v>
+        <v>5397</v>
       </c>
       <c r="I233" s="1">
-        <v>0.55900000000000005</v>
+        <v>0.55400000000000005</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
@@ -4949,22 +4949,22 @@
         <v>4</v>
       </c>
       <c r="D235" s="2">
-        <v>2198</v>
+        <v>2465</v>
       </c>
       <c r="E235" s="2">
-        <v>3.17</v>
+        <v>3.16</v>
       </c>
       <c r="F235" s="2">
-        <v>304</v>
+        <v>330</v>
       </c>
       <c r="G235" s="2">
         <v>4.3099999999999996</v>
       </c>
       <c r="H235" s="2">
-        <v>1258</v>
+        <v>1388</v>
       </c>
       <c r="I235" s="1">
-        <v>0.54100000000000004</v>
+        <v>0.54500000000000004</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
@@ -4981,22 +4981,22 @@
         <v>4</v>
       </c>
       <c r="D237" s="2">
-        <v>3679</v>
+        <v>4095</v>
       </c>
       <c r="E237" s="2">
-        <v>6.39</v>
+        <v>6.41</v>
       </c>
       <c r="F237" s="2">
-        <v>402</v>
+        <v>457</v>
       </c>
       <c r="G237" s="2">
-        <v>9.33</v>
+        <v>9.27</v>
       </c>
       <c r="H237" s="2">
-        <v>432</v>
+        <v>470</v>
       </c>
       <c r="I237" s="1">
-        <v>0.56699999999999995</v>
+        <v>0.55300000000000005</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
@@ -5013,22 +5013,22 @@
         <v>11</v>
       </c>
       <c r="D239" s="2">
-        <v>10535</v>
+        <v>11732</v>
       </c>
       <c r="E239" s="2">
-        <v>9.2100000000000009</v>
+        <v>9.2200000000000006</v>
       </c>
       <c r="F239" s="2">
-        <v>1768</v>
+        <v>1986</v>
       </c>
       <c r="G239" s="2">
-        <v>11.97</v>
+        <v>11.98</v>
       </c>
       <c r="H239" s="2">
-        <v>606</v>
+        <v>663</v>
       </c>
       <c r="I239" s="1">
-        <v>0.52800000000000002</v>
+        <v>0.52500000000000002</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
@@ -5045,22 +5045,22 @@
         <v>30</v>
       </c>
       <c r="D241" s="2">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="E241" s="2">
         <v>1</v>
       </c>
       <c r="F241" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G241" s="2">
         <v>1</v>
       </c>
       <c r="H241" s="2">
-        <v>473</v>
+        <v>541</v>
       </c>
       <c r="I241" s="1">
-        <v>0.55400000000000005</v>
+        <v>0.56599999999999995</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
@@ -5077,22 +5077,22 @@
         <v>11</v>
       </c>
       <c r="D243" s="2">
-        <v>10020</v>
+        <v>11143</v>
       </c>
       <c r="E243" s="2">
         <v>6.5</v>
       </c>
       <c r="F243" s="2">
-        <v>1456</v>
+        <v>1633</v>
       </c>
       <c r="G243" s="2">
-        <v>8.64</v>
+        <v>8.66</v>
       </c>
       <c r="H243" s="2">
-        <v>3124</v>
+        <v>3492</v>
       </c>
       <c r="I243" s="1">
-        <v>0.55400000000000005</v>
+        <v>0.55300000000000005</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
@@ -5109,22 +5109,22 @@
         <v>4</v>
       </c>
       <c r="D245" s="2">
-        <v>2977</v>
+        <v>3339</v>
       </c>
       <c r="E245" s="2">
-        <v>4.32</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="F245" s="2">
-        <v>898</v>
+        <v>1002</v>
       </c>
       <c r="G245" s="2">
-        <v>5.26</v>
+        <v>5.24</v>
       </c>
       <c r="H245" s="2">
-        <v>4058</v>
+        <v>4524</v>
       </c>
       <c r="I245" s="1">
-        <v>0.58199999999999996</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
@@ -5141,22 +5141,22 @@
         <v>4</v>
       </c>
       <c r="D247" s="2">
-        <v>3956</v>
+        <v>4407</v>
       </c>
       <c r="E247" s="2">
         <v>7.66</v>
       </c>
       <c r="F247" s="2">
-        <v>1264</v>
+        <v>1433</v>
       </c>
       <c r="G247" s="2">
-        <v>8.51</v>
+        <v>8.49</v>
       </c>
       <c r="H247" s="2">
-        <v>3720</v>
+        <v>4201</v>
       </c>
       <c r="I247" s="1">
-        <v>0.57199999999999995</v>
+        <v>0.57099999999999995</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
@@ -5173,22 +5173,22 @@
         <v>2</v>
       </c>
       <c r="D249" s="2">
-        <v>449</v>
+        <v>499</v>
       </c>
       <c r="E249" s="2">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="F249" s="2">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G249" s="2">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="H249" s="2">
-        <v>476</v>
+        <v>571</v>
       </c>
       <c r="I249" s="1">
-        <v>0.57399999999999995</v>
+        <v>0.57599999999999996</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
@@ -5205,22 +5205,22 @@
         <v>2</v>
       </c>
       <c r="D251" s="2">
-        <v>426</v>
+        <v>472</v>
       </c>
       <c r="E251" s="2">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="F251" s="2">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G251" s="2">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="H251" s="2">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="I251" s="1">
-        <v>0.47</v>
+        <v>0.47099999999999997</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
@@ -5237,22 +5237,22 @@
         <v>11</v>
       </c>
       <c r="D253" s="2">
-        <v>10381</v>
+        <v>11605</v>
       </c>
       <c r="E253" s="2">
         <v>9.77</v>
       </c>
       <c r="F253" s="2">
-        <v>2549</v>
+        <v>2878</v>
       </c>
       <c r="G253" s="2">
-        <v>11.85</v>
+        <v>11.83</v>
       </c>
       <c r="H253" s="2">
-        <v>2163</v>
+        <v>2403</v>
       </c>
       <c r="I253" s="1">
-        <v>0.57399999999999995</v>
+        <v>0.56899999999999995</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
@@ -5269,16 +5269,16 @@
         <v>2</v>
       </c>
       <c r="D255" s="2">
-        <v>416</v>
+        <v>465</v>
       </c>
       <c r="E255" s="2">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="F255" s="2">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G255" s="2">
-        <v>2.02</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="H255" s="2">
         <v>5</v>
@@ -5301,22 +5301,22 @@
         <v>2</v>
       </c>
       <c r="D257" s="2">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="E257" s="2">
         <v>1</v>
       </c>
       <c r="F257" s="2">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G257" s="2">
         <v>1</v>
       </c>
       <c r="H257" s="2">
-        <v>454</v>
+        <v>482</v>
       </c>
       <c r="I257" s="1">
-        <v>0.55300000000000005</v>
+        <v>0.55600000000000005</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
@@ -5333,22 +5333,22 @@
         <v>4</v>
       </c>
       <c r="D259" s="2">
-        <v>3488</v>
+        <v>3866</v>
       </c>
       <c r="E259" s="2">
-        <v>5.48</v>
+        <v>5.49</v>
       </c>
       <c r="F259" s="2">
-        <v>709</v>
+        <v>799</v>
       </c>
       <c r="G259" s="2">
-        <v>7.07</v>
+        <v>6.98</v>
       </c>
       <c r="H259" s="2">
-        <v>2018</v>
+        <v>2254</v>
       </c>
       <c r="I259" s="1">
-        <v>0.54100000000000004</v>
+        <v>0.53700000000000003</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
@@ -5365,22 +5365,22 @@
         <v>4</v>
       </c>
       <c r="D261" s="2">
-        <v>3209</v>
+        <v>3574</v>
       </c>
       <c r="E261" s="2">
         <v>4.79</v>
       </c>
       <c r="F261" s="2">
-        <v>716</v>
+        <v>777</v>
       </c>
       <c r="G261" s="2">
-        <v>5.73</v>
+        <v>5.68</v>
       </c>
       <c r="H261" s="2">
-        <v>1506</v>
+        <v>1649</v>
       </c>
       <c r="I261" s="1">
-        <v>0.497</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
@@ -5397,19 +5397,19 @@
         <v>11</v>
       </c>
       <c r="D263" s="2">
-        <v>8092</v>
+        <v>8994</v>
       </c>
       <c r="E263" s="2">
         <v>4.49</v>
       </c>
       <c r="F263" s="2">
-        <v>1220</v>
+        <v>1350</v>
       </c>
       <c r="G263" s="2">
-        <v>6.34</v>
+        <v>6.31</v>
       </c>
       <c r="H263" s="2">
-        <v>3903</v>
+        <v>4274</v>
       </c>
       <c r="I263" s="1">
         <v>0.52900000000000003</v>
@@ -5429,22 +5429,22 @@
         <v>11</v>
       </c>
       <c r="D265" s="2">
-        <v>9947</v>
+        <v>11038</v>
       </c>
       <c r="E265" s="2">
-        <v>6.31</v>
+        <v>6.33</v>
       </c>
       <c r="F265" s="2">
-        <v>1831</v>
+        <v>2044</v>
       </c>
       <c r="G265" s="2">
-        <v>8.2100000000000009</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="H265" s="2">
-        <v>5081</v>
+        <v>5751</v>
       </c>
       <c r="I265" s="1">
-        <v>0.55200000000000005</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
@@ -5461,22 +5461,22 @@
         <v>2</v>
       </c>
       <c r="D267" s="2">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="E267" s="2">
         <v>1</v>
       </c>
       <c r="F267" s="2">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="G267" s="2">
         <v>1</v>
       </c>
       <c r="H267" s="2">
-        <v>866</v>
+        <v>975</v>
       </c>
       <c r="I267" s="1">
-        <v>0.56399999999999995</v>
+        <v>0.56599999999999995</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
@@ -5493,22 +5493,22 @@
         <v>11</v>
       </c>
       <c r="D269" s="2">
-        <v>10364</v>
+        <v>11543</v>
       </c>
       <c r="E269" s="2">
-        <v>7.77</v>
+        <v>7.76</v>
       </c>
       <c r="F269" s="2">
-        <v>3369</v>
+        <v>3768</v>
       </c>
       <c r="G269" s="2">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="H269" s="2">
-        <v>8411</v>
+        <v>9414</v>
       </c>
       <c r="I269" s="1">
-        <v>0.55600000000000005</v>
+        <v>0.55500000000000005</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
@@ -5525,19 +5525,19 @@
         <v>4</v>
       </c>
       <c r="D271" s="2">
-        <v>3329</v>
+        <v>3720</v>
       </c>
       <c r="E271" s="2">
         <v>4.62</v>
       </c>
       <c r="F271" s="2">
-        <v>1477</v>
+        <v>1659</v>
       </c>
       <c r="G271" s="2">
-        <v>4.9400000000000004</v>
+        <v>4.93</v>
       </c>
       <c r="H271" s="2">
-        <v>6017</v>
+        <v>6806</v>
       </c>
       <c r="I271" s="1">
         <v>0.57599999999999996</v>
@@ -5557,19 +5557,19 @@
         <v>11</v>
       </c>
       <c r="D273" s="2">
-        <v>9753</v>
+        <v>10895</v>
       </c>
       <c r="E273" s="2">
-        <v>6.25</v>
+        <v>6.26</v>
       </c>
       <c r="F273" s="2">
-        <v>1833</v>
+        <v>2039</v>
       </c>
       <c r="G273" s="2">
-        <v>7.97</v>
+        <v>7.98</v>
       </c>
       <c r="H273" s="2">
-        <v>4710</v>
+        <v>5353</v>
       </c>
       <c r="I273" s="1">
         <v>0.56599999999999995</v>
@@ -5589,22 +5589,22 @@
         <v>11</v>
       </c>
       <c r="D275" s="2">
-        <v>8875</v>
+        <v>9927</v>
       </c>
       <c r="E275" s="2">
-        <v>4.97</v>
+        <v>4.99</v>
       </c>
       <c r="F275" s="2">
-        <v>2850</v>
+        <v>3205</v>
       </c>
       <c r="G275" s="2">
-        <v>6.03</v>
+        <v>6.02</v>
       </c>
       <c r="H275" s="2">
-        <v>8523</v>
+        <v>9607</v>
       </c>
       <c r="I275" s="1">
-        <v>0.56499999999999995</v>
+        <v>0.56599999999999995</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
@@ -5621,22 +5621,22 @@
         <v>30</v>
       </c>
       <c r="D277" s="2">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="E277" s="2">
         <v>1.52</v>
       </c>
       <c r="F277" s="2">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="G277" s="2">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="H277" s="2">
-        <v>491</v>
+        <v>549</v>
       </c>
       <c r="I277" s="1">
-        <v>0.59699999999999998</v>
+        <v>0.58499999999999996</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
@@ -5653,22 +5653,22 @@
         <v>11</v>
       </c>
       <c r="D279" s="2">
-        <v>3747</v>
+        <v>4222</v>
       </c>
       <c r="E279" s="2">
-        <v>2.29</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F279" s="2">
-        <v>1316</v>
+        <v>1482</v>
       </c>
       <c r="G279" s="2">
-        <v>2.74</v>
+        <v>2.75</v>
       </c>
       <c r="H279" s="2">
-        <v>5607</v>
+        <v>6294</v>
       </c>
       <c r="I279" s="1">
-        <v>0.55900000000000005</v>
+        <v>0.55700000000000005</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
@@ -5685,22 +5685,22 @@
         <v>11</v>
       </c>
       <c r="D281" s="2">
-        <v>7162</v>
+        <v>8002</v>
       </c>
       <c r="E281" s="2">
-        <v>3.98</v>
+        <v>4</v>
       </c>
       <c r="F281" s="2">
-        <v>2041</v>
+        <v>2288</v>
       </c>
       <c r="G281" s="2">
-        <v>4.9000000000000004</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="H281" s="2">
-        <v>7701</v>
+        <v>8593</v>
       </c>
       <c r="I281" s="1">
-        <v>0.56100000000000005</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
@@ -5717,22 +5717,22 @@
         <v>11</v>
       </c>
       <c r="D283" s="2">
-        <v>10218</v>
+        <v>11450</v>
       </c>
       <c r="E283" s="2">
         <v>7.02</v>
       </c>
       <c r="F283" s="2">
-        <v>3175</v>
+        <v>3606</v>
       </c>
       <c r="G283" s="2">
-        <v>7.96</v>
+        <v>7.89</v>
       </c>
       <c r="H283" s="2">
-        <v>4406</v>
+        <v>5064</v>
       </c>
       <c r="I283" s="1">
-        <v>0.57599999999999996</v>
+        <v>0.57899999999999996</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
@@ -5749,22 +5749,22 @@
         <v>4</v>
       </c>
       <c r="D285" s="2">
-        <v>3799</v>
+        <v>4220</v>
       </c>
       <c r="E285" s="2">
-        <v>7.12</v>
+        <v>7.18</v>
       </c>
       <c r="F285" s="2">
-        <v>448</v>
+        <v>513</v>
       </c>
       <c r="G285" s="2">
         <v>10.46</v>
       </c>
       <c r="H285" s="2">
-        <v>308</v>
+        <v>365</v>
       </c>
       <c r="I285" s="1">
-        <v>0.55800000000000005</v>
+        <v>0.55900000000000005</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
@@ -5781,22 +5781,22 @@
         <v>4</v>
       </c>
       <c r="D287" s="2">
-        <v>1553</v>
+        <v>1711</v>
       </c>
       <c r="E287" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F287" s="2">
-        <v>738</v>
+        <v>814</v>
       </c>
       <c r="G287" s="2">
-        <v>2.86</v>
+        <v>2.85</v>
       </c>
       <c r="H287" s="2">
-        <v>3706</v>
+        <v>4056</v>
       </c>
       <c r="I287" s="1">
-        <v>0.56699999999999995</v>
+        <v>0.56499999999999995</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
@@ -5813,22 +5813,22 @@
         <v>2</v>
       </c>
       <c r="D289" s="2">
-        <v>298</v>
+        <v>330</v>
       </c>
       <c r="E289" s="2">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="F289" s="2">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="G289" s="2">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="H289" s="2">
-        <v>886</v>
+        <v>981</v>
       </c>
       <c r="I289" s="1">
-        <v>0.53500000000000003</v>
+        <v>0.53700000000000003</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
@@ -5845,22 +5845,22 @@
         <v>4</v>
       </c>
       <c r="D291" s="2">
-        <v>1492</v>
+        <v>1678</v>
       </c>
       <c r="E291" s="2">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="F291" s="2">
-        <v>537</v>
+        <v>614</v>
       </c>
       <c r="G291" s="2">
-        <v>2.72</v>
+        <v>2.73</v>
       </c>
       <c r="H291" s="2">
-        <v>2601</v>
+        <v>2950</v>
       </c>
       <c r="I291" s="1">
-        <v>0.56100000000000005</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
@@ -5877,22 +5877,22 @@
         <v>11</v>
       </c>
       <c r="D293" s="2">
-        <v>9963</v>
+        <v>11125</v>
       </c>
       <c r="E293" s="2">
-        <v>6.44</v>
+        <v>6.43</v>
       </c>
       <c r="F293" s="2">
-        <v>1431</v>
+        <v>1606</v>
       </c>
       <c r="G293" s="2">
-        <v>8.56</v>
+        <v>8.59</v>
       </c>
       <c r="H293" s="2">
-        <v>2768</v>
+        <v>3037</v>
       </c>
       <c r="I293" s="1">
-        <v>0.50600000000000001</v>
+        <v>0.503</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
@@ -5909,22 +5909,22 @@
         <v>2</v>
       </c>
       <c r="D295" s="2">
-        <v>337</v>
+        <v>383</v>
       </c>
       <c r="E295" s="2">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="F295" s="2">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="G295" s="2">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="H295" s="2">
-        <v>1020</v>
+        <v>1153</v>
       </c>
       <c r="I295" s="1">
-        <v>0.58199999999999996</v>
+        <v>0.57799999999999996</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
@@ -5941,22 +5941,22 @@
         <v>11</v>
       </c>
       <c r="D297" s="2">
-        <v>9933</v>
+        <v>11132</v>
       </c>
       <c r="E297" s="2">
-        <v>6.39</v>
+        <v>6.41</v>
       </c>
       <c r="F297" s="2">
-        <v>2157</v>
+        <v>2449</v>
       </c>
       <c r="G297" s="2">
-        <v>7.95</v>
+        <v>7.97</v>
       </c>
       <c r="H297" s="2">
-        <v>6235</v>
+        <v>7107</v>
       </c>
       <c r="I297" s="1">
-        <v>0.56899999999999995</v>
+        <v>0.56699999999999995</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
@@ -5973,19 +5973,19 @@
         <v>4</v>
       </c>
       <c r="D299" s="2">
-        <v>1393</v>
+        <v>1541</v>
       </c>
       <c r="E299" s="2">
         <v>2.21</v>
       </c>
       <c r="F299" s="2">
-        <v>515</v>
+        <v>570</v>
       </c>
       <c r="G299" s="2">
-        <v>2.44</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="H299" s="2">
-        <v>2458</v>
+        <v>2721</v>
       </c>
       <c r="I299" s="1">
         <v>0.56799999999999995</v>
@@ -6005,22 +6005,22 @@
         <v>11</v>
       </c>
       <c r="D301" s="2">
-        <v>9837</v>
+        <v>10978</v>
       </c>
       <c r="E301" s="2">
-        <v>6.27</v>
+        <v>6.26</v>
       </c>
       <c r="F301" s="2">
-        <v>1915</v>
+        <v>2116</v>
       </c>
       <c r="G301" s="2">
         <v>8.06</v>
       </c>
       <c r="H301" s="2">
-        <v>4659</v>
+        <v>5141</v>
       </c>
       <c r="I301" s="1">
-        <v>0.55100000000000005</v>
+        <v>0.54800000000000004</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.25">
@@ -6037,22 +6037,22 @@
         <v>4</v>
       </c>
       <c r="D303" s="2">
-        <v>1880</v>
+        <v>2089</v>
       </c>
       <c r="E303" s="2">
-        <v>2.81</v>
+        <v>2.79</v>
       </c>
       <c r="F303" s="2">
-        <v>654</v>
+        <v>716</v>
       </c>
       <c r="G303" s="2">
-        <v>3.05</v>
+        <v>3.03</v>
       </c>
       <c r="H303" s="2">
-        <v>2618</v>
+        <v>2860</v>
       </c>
       <c r="I303" s="1">
-        <v>0.57999999999999996</v>
+        <v>0.57399999999999995</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.25">
@@ -6069,22 +6069,22 @@
         <v>2</v>
       </c>
       <c r="D305" s="2">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="E305" s="2">
         <v>1</v>
       </c>
       <c r="F305" s="2">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="G305" s="2">
         <v>1</v>
       </c>
       <c r="H305" s="2">
-        <v>688</v>
+        <v>756</v>
       </c>
       <c r="I305" s="1">
-        <v>0.56399999999999995</v>
+        <v>0.56899999999999995</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
@@ -6101,22 +6101,22 @@
         <v>11</v>
       </c>
       <c r="D307" s="2">
-        <v>10425</v>
+        <v>11619</v>
       </c>
       <c r="E307" s="2">
         <v>9.1</v>
       </c>
       <c r="F307" s="2">
-        <v>1541</v>
+        <v>1711</v>
       </c>
       <c r="G307" s="2">
         <v>12.18</v>
       </c>
       <c r="H307" s="2">
-        <v>508</v>
+        <v>602</v>
       </c>
       <c r="I307" s="1">
-        <v>0.56699999999999995</v>
+        <v>0.57099999999999995</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.25">
@@ -6133,22 +6133,22 @@
         <v>11</v>
       </c>
       <c r="D309" s="2">
-        <v>3698</v>
+        <v>4088</v>
       </c>
       <c r="E309" s="2">
-        <v>2.29</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="F309" s="2">
-        <v>994</v>
+        <v>1092</v>
       </c>
       <c r="G309" s="2">
-        <v>2.79</v>
+        <v>2.77</v>
       </c>
       <c r="H309" s="2">
-        <v>4402</v>
+        <v>4822</v>
       </c>
       <c r="I309" s="1">
-        <v>0.57699999999999996</v>
+        <v>0.57799999999999996</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.25">
@@ -6165,22 +6165,22 @@
         <v>4</v>
       </c>
       <c r="D311" s="2">
-        <v>3186</v>
+        <v>3566</v>
       </c>
       <c r="E311" s="2">
-        <v>4.6500000000000004</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="F311" s="2">
-        <v>323</v>
+        <v>369</v>
       </c>
       <c r="G311" s="2">
-        <v>6.71</v>
+        <v>6.7</v>
       </c>
       <c r="H311" s="2">
-        <v>975</v>
+        <v>1085</v>
       </c>
       <c r="I311" s="1">
-        <v>0.56399999999999995</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
@@ -6197,19 +6197,19 @@
         <v>11</v>
       </c>
       <c r="D313" s="2">
-        <v>9399</v>
+        <v>10546</v>
       </c>
       <c r="E313" s="2">
         <v>5.56</v>
       </c>
       <c r="F313" s="2">
-        <v>1771</v>
+        <v>1974</v>
       </c>
       <c r="G313" s="2">
-        <v>7.28</v>
+        <v>7.3</v>
       </c>
       <c r="H313" s="2">
-        <v>5758</v>
+        <v>6341</v>
       </c>
       <c r="I313" s="1">
         <v>0.56599999999999995</v>
@@ -6229,19 +6229,19 @@
         <v>11</v>
       </c>
       <c r="D315" s="2">
-        <v>5934</v>
+        <v>6654</v>
       </c>
       <c r="E315" s="2">
         <v>3.28</v>
       </c>
       <c r="F315" s="2">
-        <v>1159</v>
+        <v>1286</v>
       </c>
       <c r="G315" s="2">
-        <v>4.2699999999999996</v>
+        <v>4.25</v>
       </c>
       <c r="H315" s="2">
-        <v>4879</v>
+        <v>5367</v>
       </c>
       <c r="I315" s="1">
         <v>0.57299999999999995</v>
@@ -6261,19 +6261,19 @@
         <v>11</v>
       </c>
       <c r="D317" s="2">
-        <v>10318</v>
+        <v>11524</v>
       </c>
       <c r="E317" s="2">
-        <v>7.79</v>
+        <v>7.78</v>
       </c>
       <c r="F317" s="2">
-        <v>1532</v>
+        <v>1709</v>
       </c>
       <c r="G317" s="2">
         <v>10.55</v>
       </c>
       <c r="H317" s="2">
-        <v>1691</v>
+        <v>1886</v>
       </c>
       <c r="I317" s="1">
         <v>0.54500000000000004</v>
@@ -6293,22 +6293,22 @@
         <v>4</v>
       </c>
       <c r="D319" s="2">
-        <v>3294</v>
+        <v>3716</v>
       </c>
       <c r="E319" s="2">
         <v>4.8899999999999997</v>
       </c>
       <c r="F319" s="2">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="G319" s="2">
-        <v>6.67</v>
+        <v>6.7</v>
       </c>
       <c r="H319" s="2">
-        <v>829</v>
+        <v>923</v>
       </c>
       <c r="I319" s="1">
-        <v>0.51900000000000002</v>
+        <v>0.52400000000000002</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.25">
@@ -6325,22 +6325,22 @@
         <v>2</v>
       </c>
       <c r="D321" s="2">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="E321" s="2">
         <v>1.34</v>
       </c>
       <c r="F321" s="2">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="G321" s="2">
         <v>1.32</v>
       </c>
       <c r="H321" s="2">
-        <v>765</v>
+        <v>871</v>
       </c>
       <c r="I321" s="1">
-        <v>0.58699999999999997</v>
+        <v>0.57899999999999996</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.25">
@@ -6357,22 +6357,22 @@
         <v>30</v>
       </c>
       <c r="D323" s="2">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="E323" s="2">
         <v>1</v>
       </c>
       <c r="F323" s="2">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="G323" s="2">
         <v>1</v>
       </c>
       <c r="H323" s="2">
-        <v>426</v>
+        <v>473</v>
       </c>
       <c r="I323" s="1">
-        <v>0.57699999999999996</v>
+        <v>0.58099999999999996</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.25">
@@ -6389,22 +6389,22 @@
         <v>11</v>
       </c>
       <c r="D325" s="2">
-        <v>10343</v>
+        <v>11518</v>
       </c>
       <c r="E325" s="2">
-        <v>7.78</v>
+        <v>7.8</v>
       </c>
       <c r="F325" s="2">
-        <v>1700</v>
+        <v>1861</v>
       </c>
       <c r="G325" s="2">
-        <v>10.220000000000001</v>
+        <v>10.23</v>
       </c>
       <c r="H325" s="2">
-        <v>3045</v>
+        <v>3343</v>
       </c>
       <c r="I325" s="1">
-        <v>0.56399999999999995</v>
+        <v>0.56699999999999995</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.25">
@@ -6421,22 +6421,22 @@
         <v>4</v>
       </c>
       <c r="D327" s="2">
-        <v>1353</v>
+        <v>1513</v>
       </c>
       <c r="E327" s="2">
-        <v>2.2599999999999998</v>
+        <v>2.27</v>
       </c>
       <c r="F327" s="2">
-        <v>474</v>
+        <v>530</v>
       </c>
       <c r="G327" s="2">
-        <v>2.4900000000000002</v>
+        <v>2.48</v>
       </c>
       <c r="H327" s="2">
-        <v>2270</v>
+        <v>2509</v>
       </c>
       <c r="I327" s="1">
-        <v>0.55900000000000005</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.25">
@@ -6453,22 +6453,22 @@
         <v>4</v>
       </c>
       <c r="D329" s="2">
-        <v>2935</v>
+        <v>3299</v>
       </c>
       <c r="E329" s="2">
-        <v>4.3</v>
+        <v>4.29</v>
       </c>
       <c r="F329" s="2">
-        <v>478</v>
+        <v>546</v>
       </c>
       <c r="G329" s="2">
-        <v>5.8</v>
+        <v>5.76</v>
       </c>
       <c r="H329" s="2">
-        <v>1882</v>
+        <v>2107</v>
       </c>
       <c r="I329" s="1">
-        <v>0.55500000000000005</v>
+        <v>0.55200000000000005</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.25">
@@ -6485,22 +6485,22 @@
         <v>2</v>
       </c>
       <c r="D331" s="2">
-        <v>319</v>
+        <v>351</v>
       </c>
       <c r="E331" s="2">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="F331" s="2">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="G331" s="2">
         <v>1.33</v>
       </c>
       <c r="H331" s="2">
-        <v>1189</v>
+        <v>1285</v>
       </c>
       <c r="I331" s="1">
-        <v>0.60699999999999998</v>
+        <v>0.60499999999999998</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.25">
@@ -6517,22 +6517,22 @@
         <v>11</v>
       </c>
       <c r="D333" s="2">
-        <v>9648</v>
+        <v>10763</v>
       </c>
       <c r="E333" s="2">
-        <v>6.12</v>
+        <v>6.11</v>
       </c>
       <c r="F333" s="2">
-        <v>2034</v>
+        <v>2267</v>
       </c>
       <c r="G333" s="2">
-        <v>7.77</v>
+        <v>7.74</v>
       </c>
       <c r="H333" s="2">
-        <v>6180</v>
+        <v>6893</v>
       </c>
       <c r="I333" s="1">
-        <v>0.56899999999999995</v>
+        <v>0.56699999999999995</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
@@ -6549,22 +6549,22 @@
         <v>4</v>
       </c>
       <c r="D335" s="2">
-        <v>1629</v>
+        <v>1818</v>
       </c>
       <c r="E335" s="2">
-        <v>2.6</v>
+        <v>2.59</v>
       </c>
       <c r="F335" s="2">
-        <v>608</v>
+        <v>671</v>
       </c>
       <c r="G335" s="2">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="H335" s="2">
-        <v>2996</v>
+        <v>3311</v>
       </c>
       <c r="I335" s="1">
-        <v>0.57299999999999995</v>
+        <v>0.57399999999999995</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.25">
@@ -6581,22 +6581,22 @@
         <v>4</v>
       </c>
       <c r="D337" s="2">
-        <v>3334</v>
+        <v>3718</v>
       </c>
       <c r="E337" s="2">
-        <v>5.22</v>
+        <v>5.21</v>
       </c>
       <c r="F337" s="2">
-        <v>685</v>
+        <v>761</v>
       </c>
       <c r="G337" s="2">
-        <v>6.68</v>
+        <v>6.66</v>
       </c>
       <c r="H337" s="2">
-        <v>2402</v>
+        <v>2693</v>
       </c>
       <c r="I337" s="1">
-        <v>0.55700000000000005</v>
+        <v>0.55300000000000005</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.25">
@@ -6613,22 +6613,22 @@
         <v>2</v>
       </c>
       <c r="D339" s="2">
-        <v>416</v>
+        <v>461</v>
       </c>
       <c r="E339" s="2">
         <v>1.69</v>
       </c>
       <c r="F339" s="2">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="G339" s="2">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="H339" s="2">
-        <v>641</v>
+        <v>711</v>
       </c>
       <c r="I339" s="1">
-        <v>0.56499999999999995</v>
+        <v>0.55800000000000005</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.25">
@@ -6645,22 +6645,22 @@
         <v>11</v>
       </c>
       <c r="D341" s="2">
-        <v>5077</v>
+        <v>5644</v>
       </c>
       <c r="E341" s="2">
         <v>2.87</v>
       </c>
       <c r="F341" s="2">
-        <v>1452</v>
+        <v>1606</v>
       </c>
       <c r="G341" s="2">
-        <v>3.62</v>
+        <v>3.6</v>
       </c>
       <c r="H341" s="2">
-        <v>5742</v>
+        <v>6398</v>
       </c>
       <c r="I341" s="1">
-        <v>0.56899999999999995</v>
+        <v>0.56699999999999995</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.25">
@@ -6677,22 +6677,22 @@
         <v>30</v>
       </c>
       <c r="D343" s="2">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="E343" s="2">
         <v>1.02</v>
       </c>
       <c r="F343" s="2">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="G343" s="2">
         <v>1.01</v>
       </c>
       <c r="H343" s="2">
-        <v>494</v>
+        <v>542</v>
       </c>
       <c r="I343" s="1">
-        <v>0.59699999999999998</v>
+        <v>0.60099999999999998</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.25">
@@ -6709,22 +6709,22 @@
         <v>2</v>
       </c>
       <c r="D345" s="2">
-        <v>310</v>
+        <v>333</v>
       </c>
       <c r="E345" s="2">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="F345" s="2">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="G345" s="2">
         <v>1.36</v>
       </c>
       <c r="H345" s="2">
-        <v>683</v>
+        <v>719</v>
       </c>
       <c r="I345" s="1">
-        <v>0.53100000000000003</v>
+        <v>0.52700000000000002</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.25">
@@ -6741,19 +6741,19 @@
         <v>11</v>
       </c>
       <c r="D347" s="2">
-        <v>10369</v>
+        <v>11602</v>
       </c>
       <c r="E347" s="2">
-        <v>7.81</v>
+        <v>7.8</v>
       </c>
       <c r="F347" s="2">
-        <v>1375</v>
+        <v>1522</v>
       </c>
       <c r="G347" s="2">
-        <v>10.9</v>
+        <v>10.87</v>
       </c>
       <c r="H347" s="2">
-        <v>1889</v>
+        <v>2112</v>
       </c>
       <c r="I347" s="1">
         <v>0.55600000000000005</v>
@@ -6773,19 +6773,19 @@
         <v>11</v>
       </c>
       <c r="D349" s="2">
-        <v>8035</v>
+        <v>8978</v>
       </c>
       <c r="E349" s="2">
         <v>4.41</v>
       </c>
       <c r="F349" s="2">
-        <v>1557</v>
+        <v>1711</v>
       </c>
       <c r="G349" s="2">
-        <v>5.83</v>
+        <v>5.82</v>
       </c>
       <c r="H349" s="2">
-        <v>5533</v>
+        <v>6144</v>
       </c>
       <c r="I349" s="1">
         <v>0.56100000000000005</v>
@@ -6805,22 +6805,22 @@
         <v>11</v>
       </c>
       <c r="D351" s="2">
-        <v>10283</v>
+        <v>11451</v>
       </c>
       <c r="E351" s="2">
-        <v>6.98</v>
+        <v>6.97</v>
       </c>
       <c r="F351" s="2">
-        <v>2227</v>
+        <v>2454</v>
       </c>
       <c r="G351" s="2">
-        <v>8.6300000000000008</v>
+        <v>8.61</v>
       </c>
       <c r="H351" s="2">
-        <v>5370</v>
+        <v>5875</v>
       </c>
       <c r="I351" s="1">
-        <v>0.56899999999999995</v>
+        <v>0.56799999999999995</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.25">
@@ -6837,22 +6837,22 @@
         <v>11</v>
       </c>
       <c r="D353" s="2">
-        <v>9860</v>
+        <v>11014</v>
       </c>
       <c r="E353" s="2">
-        <v>6.28</v>
+        <v>6.29</v>
       </c>
       <c r="F353" s="2">
-        <v>1211</v>
+        <v>1355</v>
       </c>
       <c r="G353" s="2">
-        <v>8.74</v>
+        <v>8.75</v>
       </c>
       <c r="H353" s="2">
-        <v>3040</v>
+        <v>3383</v>
       </c>
       <c r="I353" s="1">
-        <v>0.54100000000000004</v>
+        <v>0.54400000000000004</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.25">
@@ -6869,22 +6869,22 @@
         <v>4</v>
       </c>
       <c r="D355" s="2">
-        <v>1694</v>
+        <v>1859</v>
       </c>
       <c r="E355" s="2">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="F355" s="2">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="G355" s="2">
-        <v>3.28</v>
+        <v>3.26</v>
       </c>
       <c r="H355" s="2">
-        <v>1501</v>
+        <v>1676</v>
       </c>
       <c r="I355" s="1">
-        <v>0.57699999999999996</v>
+        <v>0.58099999999999996</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.25">
@@ -6901,22 +6901,22 @@
         <v>11</v>
       </c>
       <c r="D357" s="2">
-        <v>10430</v>
+        <v>11621</v>
       </c>
       <c r="E357" s="2">
-        <v>9.11</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="F357" s="2">
-        <v>1740</v>
+        <v>1942</v>
       </c>
       <c r="G357" s="2">
-        <v>11.82</v>
+        <v>11.81</v>
       </c>
       <c r="H357" s="2">
-        <v>973</v>
+        <v>1083</v>
       </c>
       <c r="I357" s="1">
-        <v>0.50700000000000001</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.25">
@@ -6933,22 +6933,22 @@
         <v>4</v>
       </c>
       <c r="D359" s="2">
-        <v>1922</v>
+        <v>2138</v>
       </c>
       <c r="E359" s="2">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="F359" s="2">
-        <v>488</v>
+        <v>539</v>
       </c>
       <c r="G359" s="2">
         <v>3.39</v>
       </c>
       <c r="H359" s="2">
-        <v>1743</v>
+        <v>1949</v>
       </c>
       <c r="I359" s="1">
-        <v>0.53500000000000003</v>
+        <v>0.53700000000000003</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.25">
@@ -6965,19 +6965,19 @@
         <v>11</v>
       </c>
       <c r="D361" s="2">
-        <v>9755</v>
+        <v>10849</v>
       </c>
       <c r="E361" s="2">
-        <v>6.21</v>
+        <v>6.2</v>
       </c>
       <c r="F361" s="2">
-        <v>2118</v>
+        <v>2319</v>
       </c>
       <c r="G361" s="2">
-        <v>7.93</v>
+        <v>7.9</v>
       </c>
       <c r="H361" s="2">
-        <v>6728</v>
+        <v>7346</v>
       </c>
       <c r="I361" s="1">
         <v>0.55900000000000005</v>
@@ -6997,22 +6997,22 @@
         <v>2</v>
       </c>
       <c r="D363" s="2">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="E363" s="2">
         <v>1.45</v>
       </c>
       <c r="F363" s="2">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="G363" s="2">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="H363" s="2">
-        <v>1309</v>
+        <v>1449</v>
       </c>
       <c r="I363" s="1">
-        <v>0.58099999999999996</v>
+        <v>0.57699999999999996</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.25">
@@ -7029,22 +7029,22 @@
         <v>2</v>
       </c>
       <c r="D365" s="2">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="E365" s="2">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="F365" s="2">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="G365" s="2">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="H365" s="2">
-        <v>1102</v>
+        <v>1211</v>
       </c>
       <c r="I365" s="1">
-        <v>0.59599999999999997</v>
+        <v>0.59399999999999997</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.25">
@@ -7061,22 +7061,22 @@
         <v>11</v>
       </c>
       <c r="D367" s="2">
-        <v>10188</v>
+        <v>11332</v>
       </c>
       <c r="E367" s="2">
         <v>7.07</v>
       </c>
       <c r="F367" s="2">
-        <v>2148</v>
+        <v>2387</v>
       </c>
       <c r="G367" s="2">
-        <v>8.6999999999999993</v>
+        <v>8.68</v>
       </c>
       <c r="H367" s="2">
-        <v>4390</v>
+        <v>4904</v>
       </c>
       <c r="I367" s="1">
-        <v>0.57699999999999996</v>
+        <v>0.57599999999999996</v>
       </c>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.25">
@@ -7093,22 +7093,22 @@
         <v>11</v>
       </c>
       <c r="D369" s="2">
-        <v>10545</v>
+        <v>11738</v>
       </c>
       <c r="E369" s="2">
         <v>8.52</v>
       </c>
       <c r="F369" s="2">
-        <v>1042</v>
+        <v>1155</v>
       </c>
       <c r="G369" s="2">
-        <v>12.11</v>
+        <v>12.1</v>
       </c>
       <c r="H369" s="2">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="I369" s="1">
-        <v>0.51400000000000001</v>
+        <v>0.50600000000000001</v>
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.25">
@@ -7125,22 +7125,22 @@
         <v>2</v>
       </c>
       <c r="D371" s="2">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="E371" s="2">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="F371" s="2">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="G371" s="2">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="H371" s="2">
-        <v>636</v>
+        <v>694</v>
       </c>
       <c r="I371" s="1">
-        <v>0.55700000000000005</v>
+        <v>0.56299999999999994</v>
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.25">
@@ -7157,22 +7157,22 @@
         <v>2</v>
       </c>
       <c r="D373" s="2">
-        <v>389</v>
+        <v>422</v>
       </c>
       <c r="E373" s="2">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="F373" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G373" s="2">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H373" s="2">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="I373" s="1">
-        <v>0.504</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.25">
@@ -7189,22 +7189,22 @@
         <v>2</v>
       </c>
       <c r="D375" s="2">
-        <v>391</v>
+        <v>443</v>
       </c>
       <c r="E375" s="2">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="F375" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G375" s="2">
         <v>1.5</v>
       </c>
       <c r="H375" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="I375" s="1">
-        <v>0.497</v>
+        <v>0.49099999999999999</v>
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.25">
@@ -7221,22 +7221,22 @@
         <v>4</v>
       </c>
       <c r="D377" s="2">
-        <v>2361</v>
+        <v>2661</v>
       </c>
       <c r="E377" s="2">
         <v>3.36</v>
       </c>
       <c r="F377" s="2">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="G377" s="2">
-        <v>4.46</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="H377" s="2">
-        <v>499</v>
+        <v>561</v>
       </c>
       <c r="I377" s="1">
-        <v>0.48299999999999998</v>
+        <v>0.48099999999999998</v>
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.25">
@@ -7253,22 +7253,22 @@
         <v>2</v>
       </c>
       <c r="D379" s="2">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="E379" s="2">
         <v>1</v>
       </c>
       <c r="F379" s="2">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G379" s="2">
         <v>1</v>
       </c>
       <c r="H379" s="2">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="I379" s="1">
-        <v>0.56799999999999995</v>
+        <v>0.57399999999999995</v>
       </c>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.25">
@@ -7285,22 +7285,22 @@
         <v>2</v>
       </c>
       <c r="D381" s="2">
-        <v>418</v>
+        <v>469</v>
       </c>
       <c r="E381" s="2">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="F381" s="2">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="G381" s="2">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="H381" s="2">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="I381" s="1">
-        <v>0.56799999999999995</v>
+        <v>0.56699999999999995</v>
       </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.25">
@@ -7317,19 +7317,19 @@
         <v>30</v>
       </c>
       <c r="D383" s="2">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E383" s="2">
         <v>1</v>
       </c>
       <c r="F383" s="2">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G383" s="2">
         <v>1</v>
       </c>
       <c r="H383" s="2">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="I383" s="1">
         <v>0.58799999999999997</v>
@@ -7349,22 +7349,22 @@
         <v>4</v>
       </c>
       <c r="D385" s="2">
-        <v>2479</v>
+        <v>2748</v>
       </c>
       <c r="E385" s="2">
         <v>3.47</v>
       </c>
       <c r="F385" s="2">
-        <v>703</v>
+        <v>785</v>
       </c>
       <c r="G385" s="2">
-        <v>3.7</v>
+        <v>3.73</v>
       </c>
       <c r="H385" s="2">
-        <v>2457</v>
+        <v>2782</v>
       </c>
       <c r="I385" s="1">
-        <v>0.57099999999999995</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.25">
@@ -7381,19 +7381,19 @@
         <v>4</v>
       </c>
       <c r="D387" s="2">
-        <v>2673</v>
+        <v>2981</v>
       </c>
       <c r="E387" s="2">
         <v>3.87</v>
       </c>
       <c r="F387" s="2">
-        <v>528</v>
+        <v>577</v>
       </c>
       <c r="G387" s="2">
-        <v>4.21</v>
+        <v>4.18</v>
       </c>
       <c r="H387" s="2">
-        <v>1351</v>
+        <v>1493</v>
       </c>
       <c r="I387" s="1">
         <v>0.50600000000000001</v>
@@ -7413,22 +7413,22 @@
         <v>4</v>
       </c>
       <c r="D389" s="2">
-        <v>2345</v>
+        <v>2629</v>
       </c>
       <c r="E389" s="2">
-        <v>3.4</v>
+        <v>3.41</v>
       </c>
       <c r="F389" s="2">
-        <v>434</v>
+        <v>498</v>
       </c>
       <c r="G389" s="2">
-        <v>3.81</v>
+        <v>3.79</v>
       </c>
       <c r="H389" s="2">
-        <v>1550</v>
+        <v>1736</v>
       </c>
       <c r="I389" s="1">
-        <v>0.53500000000000003</v>
+        <v>0.53600000000000003</v>
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.25">
@@ -7445,22 +7445,22 @@
         <v>2</v>
       </c>
       <c r="D391" s="2">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="E391" s="2">
         <v>1</v>
       </c>
       <c r="F391" s="2">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G391" s="2">
         <v>1</v>
       </c>
       <c r="H391" s="2">
-        <v>555</v>
+        <v>598</v>
       </c>
       <c r="I391" s="1">
-        <v>0.51700000000000002</v>
+        <v>0.52500000000000002</v>
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.25">
@@ -7477,22 +7477,22 @@
         <v>4</v>
       </c>
       <c r="D393" s="2">
-        <v>2544</v>
+        <v>2819</v>
       </c>
       <c r="E393" s="2">
-        <v>3.54</v>
+        <v>3.55</v>
       </c>
       <c r="F393" s="2">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="G393" s="2">
-        <v>4.3099999999999996</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="H393" s="2">
-        <v>464</v>
+        <v>520</v>
       </c>
       <c r="I393" s="1">
-        <v>0.52200000000000002</v>
+        <v>0.53100000000000003</v>
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.25">
@@ -7509,22 +7509,22 @@
         <v>30</v>
       </c>
       <c r="D395" s="2">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E395" s="2">
         <v>1</v>
       </c>
       <c r="F395" s="2">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="G395" s="2">
         <v>1</v>
       </c>
       <c r="H395" s="2">
-        <v>488</v>
+        <v>538</v>
       </c>
       <c r="I395" s="1">
-        <v>0.58799999999999997</v>
+        <v>0.59499999999999997</v>
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.25">
@@ -7541,22 +7541,22 @@
         <v>30</v>
       </c>
       <c r="D397" s="2">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="E397" s="2">
         <v>1</v>
       </c>
       <c r="F397" s="2">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="G397" s="2">
         <v>1</v>
       </c>
       <c r="H397" s="2">
-        <v>316</v>
+        <v>413</v>
       </c>
       <c r="I397" s="1">
-        <v>0.59199999999999997</v>
+        <v>0.57899999999999996</v>
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.25">
@@ -7573,19 +7573,19 @@
         <v>30</v>
       </c>
       <c r="D399" s="2">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="E399" s="2">
         <v>1</v>
       </c>
       <c r="F399" s="2">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="G399" s="2">
         <v>1</v>
       </c>
       <c r="H399" s="2">
-        <v>318</v>
+        <v>340</v>
       </c>
       <c r="I399" s="1">
         <v>0.50900000000000001</v>
@@ -7605,22 +7605,22 @@
         <v>4</v>
       </c>
       <c r="D401" s="2">
-        <v>1596</v>
+        <v>1790</v>
       </c>
       <c r="E401" s="2">
-        <v>2.4500000000000002</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="F401" s="2">
-        <v>362</v>
+        <v>396</v>
       </c>
       <c r="G401" s="2">
-        <v>2.92</v>
+        <v>2.91</v>
       </c>
       <c r="H401" s="2">
-        <v>1282</v>
+        <v>1414</v>
       </c>
       <c r="I401" s="1">
-        <v>0.54600000000000004</v>
+        <v>0.55200000000000005</v>
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.25">
@@ -7637,22 +7637,22 @@
         <v>4</v>
       </c>
       <c r="D403" s="2">
-        <v>3866</v>
+        <v>4301</v>
       </c>
       <c r="E403" s="2">
-        <v>7.72</v>
+        <v>7.71</v>
       </c>
       <c r="F403" s="2">
-        <v>746</v>
+        <v>820</v>
       </c>
       <c r="G403" s="2">
-        <v>9.64</v>
+        <v>9.65</v>
       </c>
       <c r="H403" s="2">
-        <v>716</v>
+        <v>785</v>
       </c>
       <c r="I403" s="1">
-        <v>0.49</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.25">
@@ -7669,22 +7669,22 @@
         <v>4</v>
       </c>
       <c r="D405" s="2">
-        <v>3297</v>
+        <v>3708</v>
       </c>
       <c r="E405" s="2">
-        <v>4.8499999999999996</v>
+        <v>4.87</v>
       </c>
       <c r="F405" s="2">
-        <v>652</v>
+        <v>738</v>
       </c>
       <c r="G405" s="2">
-        <v>5.5</v>
+        <v>5.51</v>
       </c>
       <c r="H405" s="2">
-        <v>1572</v>
+        <v>1770</v>
       </c>
       <c r="I405" s="1">
-        <v>0.53800000000000003</v>
+        <v>0.54100000000000004</v>
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.25">
@@ -7701,22 +7701,22 @@
         <v>2</v>
       </c>
       <c r="D407" s="2">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="E407" s="2">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="F407" s="2">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="G407" s="2">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="H407" s="2">
-        <v>327</v>
+        <v>368</v>
       </c>
       <c r="I407" s="1">
-        <v>0.52</v>
+        <v>0.52400000000000002</v>
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.25">
@@ -7733,22 +7733,22 @@
         <v>4</v>
       </c>
       <c r="D409" s="2">
-        <v>3253</v>
+        <v>3620</v>
       </c>
       <c r="E409" s="2">
-        <v>5</v>
+        <v>5.01</v>
       </c>
       <c r="F409" s="2">
-        <v>492</v>
+        <v>537</v>
       </c>
       <c r="G409" s="2">
-        <v>6.04</v>
+        <v>6.13</v>
       </c>
       <c r="H409" s="2">
-        <v>1165</v>
+        <v>1240</v>
       </c>
       <c r="I409" s="1">
-        <v>0.56599999999999995</v>
+        <v>0.56200000000000006</v>
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.25">
@@ -7765,19 +7765,19 @@
         <v>4</v>
       </c>
       <c r="D411" s="2">
-        <v>2797</v>
+        <v>3108</v>
       </c>
       <c r="E411" s="2">
-        <v>3.89</v>
+        <v>3.88</v>
       </c>
       <c r="F411" s="2">
-        <v>323</v>
+        <v>354</v>
       </c>
       <c r="G411" s="2">
-        <v>4.95</v>
+        <v>4.92</v>
       </c>
       <c r="H411" s="2">
-        <v>783</v>
+        <v>878</v>
       </c>
       <c r="I411" s="1">
         <v>0.52200000000000002</v>
@@ -7797,22 +7797,22 @@
         <v>4</v>
       </c>
       <c r="D413" s="2">
-        <v>1704</v>
+        <v>1901</v>
       </c>
       <c r="E413" s="2">
-        <v>2.5299999999999998</v>
+        <v>2.54</v>
       </c>
       <c r="F413" s="2">
-        <v>374</v>
+        <v>416</v>
       </c>
       <c r="G413" s="2">
         <v>2.94</v>
       </c>
       <c r="H413" s="2">
-        <v>1250</v>
+        <v>1438</v>
       </c>
       <c r="I413" s="1">
-        <v>0.56499999999999995</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.25">
@@ -7829,22 +7829,22 @@
         <v>4</v>
       </c>
       <c r="D415" s="2">
-        <v>1799</v>
+        <v>2002</v>
       </c>
       <c r="E415" s="2">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="F415" s="2">
-        <v>334</v>
+        <v>362</v>
       </c>
       <c r="G415" s="2">
-        <v>3.07</v>
+        <v>3.13</v>
       </c>
       <c r="H415" s="2">
-        <v>1014</v>
+        <v>1082</v>
       </c>
       <c r="I415" s="1">
-        <v>0.497</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.25">
@@ -7861,22 +7861,22 @@
         <v>4</v>
       </c>
       <c r="D417" s="2">
-        <v>2197</v>
+        <v>2432</v>
       </c>
       <c r="E417" s="2">
-        <v>3.05</v>
+        <v>3.06</v>
       </c>
       <c r="F417" s="2">
-        <v>592</v>
+        <v>651</v>
       </c>
       <c r="G417" s="2">
-        <v>3.67</v>
+        <v>3.68</v>
       </c>
       <c r="H417" s="2">
-        <v>2111</v>
+        <v>2356</v>
       </c>
       <c r="I417" s="1">
-        <v>0.55200000000000005</v>
+        <v>0.55500000000000005</v>
       </c>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.25">
@@ -7893,22 +7893,22 @@
         <v>4</v>
       </c>
       <c r="D419" s="2">
-        <v>2472</v>
+        <v>2719</v>
       </c>
       <c r="E419" s="2">
-        <v>3.36</v>
+        <v>3.39</v>
       </c>
       <c r="F419" s="2">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="G419" s="2">
-        <v>4.55</v>
+        <v>4.54</v>
       </c>
       <c r="H419" s="2">
-        <v>462</v>
+        <v>506</v>
       </c>
       <c r="I419" s="1">
-        <v>0.5</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.25">
@@ -7925,22 +7925,22 @@
         <v>4</v>
       </c>
       <c r="D421" s="2">
-        <v>2789</v>
+        <v>3107</v>
       </c>
       <c r="E421" s="2">
-        <v>3.72</v>
+        <v>3.71</v>
       </c>
       <c r="F421" s="2">
-        <v>709</v>
+        <v>813</v>
       </c>
       <c r="G421" s="2">
-        <v>4.41</v>
+        <v>4.38</v>
       </c>
       <c r="H421" s="2">
-        <v>2787</v>
+        <v>3179</v>
       </c>
       <c r="I421" s="1">
-        <v>0.56499999999999995</v>
+        <v>0.56599999999999995</v>
       </c>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.25">
@@ -7957,22 +7957,22 @@
         <v>4</v>
       </c>
       <c r="D423" s="2">
-        <v>1515</v>
+        <v>1671</v>
       </c>
       <c r="E423" s="2">
         <v>2.2999999999999998</v>
       </c>
       <c r="F423" s="2">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="G423" s="2">
         <v>2.64</v>
       </c>
       <c r="H423" s="2">
-        <v>1229</v>
+        <v>1306</v>
       </c>
       <c r="I423" s="1">
-        <v>0.55000000000000004</v>
+        <v>0.54500000000000004</v>
       </c>
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.25">
@@ -7989,22 +7989,22 @@
         <v>4</v>
       </c>
       <c r="D425" s="2">
-        <v>2778</v>
+        <v>3088</v>
       </c>
       <c r="E425" s="2">
-        <v>3.8</v>
+        <v>3.79</v>
       </c>
       <c r="F425" s="2">
-        <v>312</v>
+        <v>361</v>
       </c>
       <c r="G425" s="2">
-        <v>4.95</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="H425" s="2">
-        <v>1169</v>
+        <v>1315</v>
       </c>
       <c r="I425" s="1">
-        <v>0.58899999999999997</v>
+        <v>0.58599999999999997</v>
       </c>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.25">
@@ -8021,22 +8021,22 @@
         <v>4</v>
       </c>
       <c r="D427" s="2">
-        <v>2302</v>
+        <v>2563</v>
       </c>
       <c r="E427" s="2">
         <v>3.33</v>
       </c>
       <c r="F427" s="2">
-        <v>814</v>
+        <v>893</v>
       </c>
       <c r="G427" s="2">
-        <v>3.75</v>
+        <v>3.76</v>
       </c>
       <c r="H427" s="2">
-        <v>3320</v>
+        <v>3647</v>
       </c>
       <c r="I427" s="1">
-        <v>0.59899999999999998</v>
+        <v>0.59799999999999998</v>
       </c>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.25">
@@ -8053,22 +8053,22 @@
         <v>4</v>
       </c>
       <c r="D429" s="2">
-        <v>1538</v>
+        <v>1708</v>
       </c>
       <c r="E429" s="2">
-        <v>2.2799999999999998</v>
+        <v>2.29</v>
       </c>
       <c r="F429" s="2">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="G429" s="2">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="H429" s="2">
-        <v>1127</v>
+        <v>1280</v>
       </c>
       <c r="I429" s="1">
-        <v>0.53600000000000003</v>
+        <v>0.53800000000000003</v>
       </c>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.25">
@@ -8085,22 +8085,22 @@
         <v>4</v>
       </c>
       <c r="D431" s="2">
-        <v>1722</v>
+        <v>1942</v>
       </c>
       <c r="E431" s="2">
-        <v>2.5499999999999998</v>
+        <v>2.54</v>
       </c>
       <c r="F431" s="2">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="G431" s="2">
-        <v>3.21</v>
+        <v>3.2</v>
       </c>
       <c r="H431" s="2">
-        <v>715</v>
+        <v>790</v>
       </c>
       <c r="I431" s="1">
-        <v>0.56399999999999995</v>
+        <v>0.55600000000000005</v>
       </c>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.25">
@@ -8114,22 +8114,22 @@
         <v>4</v>
       </c>
       <c r="D433" s="2">
-        <v>1813</v>
+        <v>2002</v>
       </c>
       <c r="E433" s="2">
         <v>2.63</v>
       </c>
       <c r="F433" s="2">
-        <v>525</v>
+        <v>578</v>
       </c>
       <c r="G433" s="2">
-        <v>3.28</v>
+        <v>3.26</v>
       </c>
       <c r="H433" s="2">
-        <v>2489</v>
+        <v>2770</v>
       </c>
       <c r="I433" s="1">
-        <v>0.56999999999999995</v>
+        <v>0.57099999999999995</v>
       </c>
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.25">
@@ -8143,22 +8143,22 @@
         <v>11</v>
       </c>
       <c r="D435" s="2">
-        <v>10407</v>
+        <v>11587</v>
       </c>
       <c r="E435" s="2">
-        <v>7.53</v>
+        <v>7.54</v>
       </c>
       <c r="F435" s="2">
-        <v>1830</v>
+        <v>2031</v>
       </c>
       <c r="G435" s="2">
-        <v>9.93</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="H435" s="2">
-        <v>3024</v>
+        <v>3422</v>
       </c>
       <c r="I435" s="1">
-        <v>0.52400000000000002</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="436" spans="1:9" x14ac:dyDescent="0.25">
@@ -8172,22 +8172,22 @@
         <v>4</v>
       </c>
       <c r="D437" s="2">
-        <v>1701</v>
+        <v>1896</v>
       </c>
       <c r="E437" s="2">
-        <v>2.5099999999999998</v>
+        <v>2.5</v>
       </c>
       <c r="F437" s="2">
-        <v>364</v>
+        <v>399</v>
       </c>
       <c r="G437" s="2">
         <v>3.05</v>
       </c>
       <c r="H437" s="2">
-        <v>1628</v>
+        <v>1813</v>
       </c>
       <c r="I437" s="1">
-        <v>0.55000000000000004</v>
+        <v>0.54600000000000004</v>
       </c>
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.25">
@@ -8201,19 +8201,19 @@
         <v>11</v>
       </c>
       <c r="D439" s="2">
-        <v>10293</v>
+        <v>11474</v>
       </c>
       <c r="E439" s="2">
-        <v>8</v>
+        <v>7.99</v>
       </c>
       <c r="F439" s="2">
-        <v>4367</v>
+        <v>4873</v>
       </c>
       <c r="G439" s="2">
-        <v>9.3000000000000007</v>
+        <v>9.27</v>
       </c>
       <c r="H439" s="2">
-        <v>11219</v>
+        <v>12519</v>
       </c>
       <c r="I439" s="1">
         <v>0.55500000000000005</v>
@@ -8230,22 +8230,22 @@
         <v>11</v>
       </c>
       <c r="D441" s="2">
-        <v>7049</v>
+        <v>7877</v>
       </c>
       <c r="E441" s="2">
         <v>3.69</v>
       </c>
       <c r="F441" s="2">
-        <v>1476</v>
+        <v>1643</v>
       </c>
       <c r="G441" s="2">
-        <v>5.03</v>
+        <v>5</v>
       </c>
       <c r="H441" s="2">
-        <v>5823</v>
+        <v>6489</v>
       </c>
       <c r="I441" s="1">
-        <v>0.52400000000000002</v>
+        <v>0.52600000000000002</v>
       </c>
     </row>
     <row r="442" spans="1:9" x14ac:dyDescent="0.25">
@@ -8259,22 +8259,22 @@
         <v>11</v>
       </c>
       <c r="D443" s="2">
-        <v>10197</v>
+        <v>11336</v>
       </c>
       <c r="E443" s="2">
-        <v>6.74</v>
+        <v>6.75</v>
       </c>
       <c r="F443" s="2">
-        <v>1883</v>
+        <v>2098</v>
       </c>
       <c r="G443" s="2">
-        <v>8.9600000000000009</v>
+        <v>8.9700000000000006</v>
       </c>
       <c r="H443" s="2">
-        <v>4024</v>
+        <v>4439</v>
       </c>
       <c r="I443" s="1">
-        <v>0.55200000000000005</v>
+        <v>0.55400000000000005</v>
       </c>
     </row>
     <row r="444" spans="1:9" x14ac:dyDescent="0.25">
@@ -8288,22 +8288,22 @@
         <v>4</v>
       </c>
       <c r="D445" s="2">
-        <v>2146</v>
+        <v>2377</v>
       </c>
       <c r="E445" s="2">
-        <v>3.09</v>
+        <v>3.08</v>
       </c>
       <c r="F445" s="2">
-        <v>697</v>
+        <v>768</v>
       </c>
       <c r="G445" s="2">
-        <v>3.77</v>
+        <v>3.76</v>
       </c>
       <c r="H445" s="2">
-        <v>3314</v>
+        <v>3679</v>
       </c>
       <c r="I445" s="1">
-        <v>0.54800000000000004</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="446" spans="1:9" x14ac:dyDescent="0.25">
@@ -8317,22 +8317,22 @@
         <v>4</v>
       </c>
       <c r="D447" s="2">
-        <v>3710</v>
+        <v>4164</v>
       </c>
       <c r="E447" s="2">
         <v>6.72</v>
       </c>
       <c r="F447" s="2">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="G447" s="2">
-        <v>10.14</v>
+        <v>10.119999999999999</v>
       </c>
       <c r="H447" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I447" s="1">
-        <v>0.44600000000000001</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="448" spans="1:9" x14ac:dyDescent="0.25">
@@ -8346,22 +8346,22 @@
         <v>11</v>
       </c>
       <c r="D449" s="2">
-        <v>10477</v>
+        <v>11664</v>
       </c>
       <c r="E449" s="2">
-        <v>7.99</v>
+        <v>7.98</v>
       </c>
       <c r="F449" s="2">
-        <v>3389</v>
+        <v>3772</v>
       </c>
       <c r="G449" s="2">
-        <v>9.7200000000000006</v>
+        <v>9.7100000000000009</v>
       </c>
       <c r="H449" s="2">
-        <v>7989</v>
+        <v>9017</v>
       </c>
       <c r="I449" s="1">
-        <v>0.55100000000000005</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="450" spans="1:9" x14ac:dyDescent="0.25">
@@ -8375,22 +8375,22 @@
         <v>11</v>
       </c>
       <c r="D451" s="2">
-        <v>10473</v>
+        <v>11669</v>
       </c>
       <c r="E451" s="2">
-        <v>8.99</v>
+        <v>9</v>
       </c>
       <c r="F451" s="2">
-        <v>1500</v>
+        <v>1685</v>
       </c>
       <c r="G451" s="2">
         <v>12</v>
       </c>
       <c r="H451" s="2">
-        <v>581</v>
+        <v>654</v>
       </c>
       <c r="I451" s="1">
-        <v>0.496</v>
+        <v>0.503</v>
       </c>
     </row>
     <row r="452" spans="1:9" x14ac:dyDescent="0.25">
@@ -8404,22 +8404,22 @@
         <v>4</v>
       </c>
       <c r="D453" s="2">
-        <v>1396</v>
+        <v>1560</v>
       </c>
       <c r="E453" s="2">
-        <v>2.17</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="F453" s="2">
-        <v>419</v>
+        <v>463</v>
       </c>
       <c r="G453" s="2">
-        <v>2.4900000000000002</v>
+        <v>2.52</v>
       </c>
       <c r="H453" s="2">
-        <v>1361</v>
+        <v>1507</v>
       </c>
       <c r="I453" s="1">
-        <v>0.52300000000000002</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="454" spans="1:9" x14ac:dyDescent="0.25">
@@ -8433,22 +8433,22 @@
         <v>11</v>
       </c>
       <c r="D455" s="2">
-        <v>10263</v>
+        <v>11427</v>
       </c>
       <c r="E455" s="2">
-        <v>6.87</v>
+        <v>6.89</v>
       </c>
       <c r="F455" s="2">
-        <v>1081</v>
+        <v>1212</v>
       </c>
       <c r="G455" s="2">
-        <v>9.9600000000000009</v>
+        <v>9.99</v>
       </c>
       <c r="H455" s="2">
-        <v>1285</v>
+        <v>1454</v>
       </c>
       <c r="I455" s="1">
-        <v>0.51500000000000001</v>
+        <v>0.51800000000000002</v>
       </c>
     </row>
     <row r="456" spans="1:9" x14ac:dyDescent="0.25">
@@ -8462,22 +8462,22 @@
         <v>11</v>
       </c>
       <c r="D457" s="2">
-        <v>10452</v>
+        <v>11653</v>
       </c>
       <c r="E457" s="2">
-        <v>8.58</v>
+        <v>8.57</v>
       </c>
       <c r="F457" s="2">
-        <v>1152</v>
+        <v>1280</v>
       </c>
       <c r="G457" s="2">
-        <v>11.98</v>
+        <v>11.99</v>
       </c>
       <c r="H457" s="2">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="I457" s="1">
-        <v>0.45800000000000002</v>
+        <v>0.45400000000000001</v>
       </c>
     </row>
     <row r="458" spans="1:9" x14ac:dyDescent="0.25">
@@ -8491,22 +8491,22 @@
         <v>11</v>
       </c>
       <c r="D459" s="2">
-        <v>7912</v>
+        <v>8878</v>
       </c>
       <c r="E459" s="2">
-        <v>4.22</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="F459" s="2">
-        <v>1427</v>
+        <v>1629</v>
       </c>
       <c r="G459" s="2">
-        <v>6</v>
+        <v>5.98</v>
       </c>
       <c r="H459" s="2">
-        <v>5757</v>
+        <v>6485</v>
       </c>
       <c r="I459" s="1">
-        <v>0.54200000000000004</v>
+        <v>0.54600000000000004</v>
       </c>
     </row>
     <row r="460" spans="1:9" x14ac:dyDescent="0.25">
@@ -8520,22 +8520,22 @@
         <v>4</v>
       </c>
       <c r="D461" s="2">
-        <v>3658</v>
+        <v>4085</v>
       </c>
       <c r="E461" s="2">
         <v>5.74</v>
       </c>
       <c r="F461" s="2">
-        <v>589</v>
+        <v>675</v>
       </c>
       <c r="G461" s="2">
-        <v>7.58</v>
+        <v>7.51</v>
       </c>
       <c r="H461" s="2">
-        <v>1545</v>
+        <v>1768</v>
       </c>
       <c r="I461" s="1">
-        <v>0.52700000000000002</v>
+        <v>0.52900000000000003</v>
       </c>
     </row>
     <row r="462" spans="1:9" x14ac:dyDescent="0.25">
@@ -8549,22 +8549,22 @@
         <v>11</v>
       </c>
       <c r="D463" s="2">
-        <v>10389</v>
+        <v>11602</v>
       </c>
       <c r="E463" s="2">
-        <v>8.5500000000000007</v>
+        <v>8.56</v>
       </c>
       <c r="F463" s="2">
-        <v>1588</v>
+        <v>1762</v>
       </c>
       <c r="G463" s="2">
-        <v>11.44</v>
+        <v>11.45</v>
       </c>
       <c r="H463" s="2">
-        <v>1053</v>
+        <v>1156</v>
       </c>
       <c r="I463" s="1">
-        <v>0.497</v>
+        <v>0.49399999999999999</v>
       </c>
     </row>
     <row r="464" spans="1:9" x14ac:dyDescent="0.25">
@@ -8578,19 +8578,19 @@
         <v>4</v>
       </c>
       <c r="D465" s="2">
-        <v>3711</v>
+        <v>4169</v>
       </c>
       <c r="E465" s="2">
         <v>5.75</v>
       </c>
       <c r="F465" s="2">
-        <v>1029</v>
+        <v>1143</v>
       </c>
       <c r="G465" s="2">
-        <v>7.07</v>
+        <v>7.06</v>
       </c>
       <c r="H465" s="2">
-        <v>2739</v>
+        <v>3105</v>
       </c>
       <c r="I465" s="1">
         <v>0.53900000000000003</v>
@@ -8607,16 +8607,16 @@
         <v>2</v>
       </c>
       <c r="D467" s="2">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="E467" s="2">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="F467" s="2">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G467" s="2">
-        <v>1.07</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="H467" s="2">
         <v>14</v>
@@ -8636,22 +8636,22 @@
         <v>4</v>
       </c>
       <c r="D469" s="2">
-        <v>2185</v>
+        <v>2430</v>
       </c>
       <c r="E469" s="2">
         <v>3.11</v>
       </c>
       <c r="F469" s="2">
-        <v>354</v>
+        <v>386</v>
       </c>
       <c r="G469" s="2">
-        <v>4.22</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="H469" s="2">
-        <v>1339</v>
+        <v>1475</v>
       </c>
       <c r="I469" s="1">
-        <v>0.52900000000000003</v>
+        <v>0.52500000000000002</v>
       </c>
     </row>
     <row r="470" spans="1:9" x14ac:dyDescent="0.25">
@@ -8665,22 +8665,22 @@
         <v>2</v>
       </c>
       <c r="D471" s="2">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="E471" s="2">
         <v>1.03</v>
       </c>
       <c r="F471" s="2">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="G471" s="2">
         <v>1.03</v>
       </c>
       <c r="H471" s="2">
-        <v>1501</v>
+        <v>1610</v>
       </c>
       <c r="I471" s="1">
-        <v>0.59399999999999997</v>
+        <v>0.58799999999999997</v>
       </c>
     </row>
     <row r="472" spans="1:9" x14ac:dyDescent="0.25">
@@ -8694,22 +8694,22 @@
         <v>11</v>
       </c>
       <c r="D473" s="2">
-        <v>10318</v>
+        <v>11552</v>
       </c>
       <c r="E473" s="2">
-        <v>8.1</v>
+        <v>8.09</v>
       </c>
       <c r="F473" s="2">
-        <v>1185</v>
+        <v>1322</v>
       </c>
       <c r="G473" s="2">
-        <v>11.35</v>
+        <v>11.31</v>
       </c>
       <c r="H473" s="2">
-        <v>625</v>
+        <v>707</v>
       </c>
       <c r="I473" s="1">
-        <v>0.51500000000000001</v>
+        <v>0.51300000000000001</v>
       </c>
     </row>
     <row r="474" spans="1:9" x14ac:dyDescent="0.25">
@@ -8723,22 +8723,22 @@
         <v>4</v>
       </c>
       <c r="D475" s="2">
-        <v>1751</v>
+        <v>1959</v>
       </c>
       <c r="E475" s="2">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="F475" s="2">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="G475" s="2">
-        <v>3.36</v>
+        <v>3.38</v>
       </c>
       <c r="H475" s="2">
-        <v>700</v>
+        <v>813</v>
       </c>
       <c r="I475" s="1">
-        <v>0.49299999999999999</v>
+        <v>0.49399999999999999</v>
       </c>
     </row>
     <row r="476" spans="1:9" x14ac:dyDescent="0.25">
@@ -8755,22 +8755,22 @@
         <v>2</v>
       </c>
       <c r="D477" s="2">
-        <v>320</v>
+        <v>361</v>
       </c>
       <c r="E477" s="2">
         <v>1.54</v>
       </c>
       <c r="F477" s="2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="G477" s="2">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="H477" s="2">
-        <v>321</v>
+        <v>387</v>
       </c>
       <c r="I477" s="1">
-        <v>0.58299999999999996</v>
+        <v>0.59899999999999998</v>
       </c>
     </row>
     <row r="478" spans="1:9" x14ac:dyDescent="0.25">
@@ -8787,22 +8787,22 @@
         <v>2</v>
       </c>
       <c r="D479" s="2">
-        <v>339</v>
+        <v>383</v>
       </c>
       <c r="E479" s="2">
         <v>1.61</v>
       </c>
       <c r="F479" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G479" s="2">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="H479" s="2">
-        <v>338</v>
+        <v>395</v>
       </c>
       <c r="I479" s="1">
-        <v>0.51800000000000002</v>
+        <v>0.52400000000000002</v>
       </c>
     </row>
     <row r="480" spans="1:9" x14ac:dyDescent="0.25">
@@ -8819,22 +8819,22 @@
         <v>2</v>
       </c>
       <c r="D481" s="2">
-        <v>351</v>
+        <v>382</v>
       </c>
       <c r="E481" s="2">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="F481" s="2">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G481" s="2">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="H481" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="I481" s="1">
-        <v>0.624</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="482" spans="1:9" x14ac:dyDescent="0.25">
@@ -8851,22 +8851,22 @@
         <v>2</v>
       </c>
       <c r="D483" s="2">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="E483" s="2">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="F483" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="G483" s="2">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="H483" s="2">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="I483" s="1">
-        <v>0.56100000000000005</v>
+        <v>0.54300000000000004</v>
       </c>
     </row>
     <row r="484" spans="1:9" x14ac:dyDescent="0.25">
@@ -8883,22 +8883,22 @@
         <v>2</v>
       </c>
       <c r="D485" s="2">
-        <v>329</v>
+        <v>360</v>
       </c>
       <c r="E485" s="2">
         <v>1.42</v>
       </c>
       <c r="F485" s="2">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G485" s="2">
         <v>1.41</v>
       </c>
       <c r="H485" s="2">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="I485" s="1">
-        <v>0.44400000000000001</v>
+        <v>0.42799999999999999</v>
       </c>
     </row>
     <row r="486" spans="1:9" x14ac:dyDescent="0.25">
@@ -8915,22 +8915,22 @@
         <v>11</v>
       </c>
       <c r="D487" s="2">
-        <v>10274</v>
+        <v>11504</v>
       </c>
       <c r="E487" s="2">
-        <v>8.18</v>
+        <v>8.17</v>
       </c>
       <c r="F487" s="2">
-        <v>1238</v>
+        <v>1385</v>
       </c>
       <c r="G487" s="2">
-        <v>11.11</v>
+        <v>11.07</v>
       </c>
       <c r="H487" s="2">
-        <v>2048</v>
+        <v>2364</v>
       </c>
       <c r="I487" s="1">
-        <v>0.57999999999999996</v>
+        <v>0.58199999999999996</v>
       </c>
     </row>
     <row r="488" spans="1:9" x14ac:dyDescent="0.25">
@@ -8944,22 +8944,22 @@
         <v>2</v>
       </c>
       <c r="D489" s="2">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="E489" s="2">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="F489" s="2">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="G489" s="2">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="H489" s="2">
-        <v>392</v>
+        <v>464</v>
       </c>
       <c r="I489" s="1">
-        <v>0.51300000000000001</v>
+        <v>0.51100000000000001</v>
       </c>
     </row>
     <row r="490" spans="1:9" x14ac:dyDescent="0.25">
@@ -8976,22 +8976,22 @@
         <v>11</v>
       </c>
       <c r="D491" s="2">
-        <v>10302</v>
+        <v>11480</v>
       </c>
       <c r="E491" s="2">
         <v>7.93</v>
       </c>
       <c r="F491" s="2">
-        <v>1229</v>
+        <v>1358</v>
       </c>
       <c r="G491" s="2">
         <v>10.8</v>
       </c>
       <c r="H491" s="2">
-        <v>2520</v>
+        <v>2743</v>
       </c>
       <c r="I491" s="1">
-        <v>0.55000000000000004</v>
+        <v>0.55100000000000005</v>
       </c>
     </row>
     <row r="492" spans="1:9" x14ac:dyDescent="0.25">
@@ -9008,22 +9008,22 @@
         <v>11</v>
       </c>
       <c r="D493" s="2">
-        <v>10328</v>
+        <v>11524</v>
       </c>
       <c r="E493" s="2">
-        <v>8.06</v>
+        <v>8.08</v>
       </c>
       <c r="F493" s="2">
-        <v>1059</v>
+        <v>1220</v>
       </c>
       <c r="G493" s="2">
-        <v>11.31</v>
+        <v>11.26</v>
       </c>
       <c r="H493" s="2">
-        <v>1700</v>
+        <v>2017</v>
       </c>
       <c r="I493" s="1">
-        <v>0.57199999999999995</v>
+        <v>0.57599999999999996</v>
       </c>
     </row>
     <row r="494" spans="1:9" x14ac:dyDescent="0.25">
@@ -9040,22 +9040,22 @@
         <v>11</v>
       </c>
       <c r="D495" s="2">
-        <v>9792</v>
+        <v>10944</v>
       </c>
       <c r="E495" s="2">
-        <v>6.38</v>
+        <v>6.37</v>
       </c>
       <c r="F495" s="2">
-        <v>552</v>
+        <v>612</v>
       </c>
       <c r="G495" s="2">
-        <v>9.48</v>
+        <v>9.49</v>
       </c>
       <c r="H495" s="2">
-        <v>1373</v>
+        <v>1489</v>
       </c>
       <c r="I495" s="1">
-        <v>0.496</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="496" spans="1:9" x14ac:dyDescent="0.25">
@@ -9072,22 +9072,22 @@
         <v>4</v>
       </c>
       <c r="D497" s="2">
-        <v>3844</v>
+        <v>4280</v>
       </c>
       <c r="E497" s="2">
-        <v>6.65</v>
+        <v>6.66</v>
       </c>
       <c r="F497" s="2">
-        <v>351</v>
+        <v>404</v>
       </c>
       <c r="G497" s="2">
-        <v>9.1300000000000008</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="H497" s="2">
-        <v>499</v>
+        <v>609</v>
       </c>
       <c r="I497" s="1">
-        <v>0.50900000000000001</v>
+        <v>0.50600000000000001</v>
       </c>
     </row>
     <row r="498" spans="1:9" x14ac:dyDescent="0.25">
@@ -9103,22 +9103,22 @@
         <v>11</v>
       </c>
       <c r="D499" s="2">
-        <v>10035</v>
+        <v>11208</v>
       </c>
       <c r="E499" s="2">
-        <v>7.06</v>
+        <v>7.07</v>
       </c>
       <c r="F499" s="2">
-        <v>682</v>
+        <v>755</v>
       </c>
       <c r="G499" s="2">
         <v>10.59</v>
       </c>
       <c r="H499" s="2">
-        <v>1091</v>
+        <v>1184</v>
       </c>
       <c r="I499" s="1">
-        <v>0.51600000000000001</v>
+        <v>0.51100000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/17Lands.xlsx
+++ b/17Lands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\17lands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC92721-674C-44D4-A5AE-1D300B5A2017}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBD8A4C-D572-42CC-BCCB-78645CD7A863}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8943F25A-5914-4368-9FD9-3EAA21A0D66A}"/>
   </bookViews>
@@ -1295,22 +1295,22 @@
         <v>11</v>
       </c>
       <c r="D3" s="2">
-        <v>330</v>
+        <v>476</v>
       </c>
       <c r="E3" s="2">
-        <v>3.64</v>
+        <v>3.67</v>
       </c>
       <c r="F3" s="2">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="G3" s="2">
-        <v>4.75</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="H3" s="2">
-        <v>534</v>
+        <v>768</v>
       </c>
       <c r="I3" s="3">
-        <v>0.59699999999999998</v>
+        <v>0.57699999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1335,22 +1335,22 @@
         <v>11</v>
       </c>
       <c r="D5" s="2">
-        <v>230</v>
+        <v>333</v>
       </c>
       <c r="E5" s="2">
-        <v>2.4500000000000002</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="F5" s="2">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="G5" s="2">
-        <v>2.93</v>
+        <v>3.07</v>
       </c>
       <c r="H5" s="2">
-        <v>366</v>
+        <v>646</v>
       </c>
       <c r="I5" s="3">
-        <v>0.56000000000000005</v>
+        <v>0.54800000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1375,22 +1375,22 @@
         <v>10</v>
       </c>
       <c r="D7" s="2">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
       </c>
       <c r="F7" s="2">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
       </c>
       <c r="H7" s="2">
-        <v>165</v>
+        <v>227</v>
       </c>
       <c r="I7" s="3">
-        <v>0.6</v>
+        <v>0.56799999999999995</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1415,22 +1415,22 @@
         <v>11</v>
       </c>
       <c r="D9" s="2">
-        <v>183</v>
+        <v>270</v>
       </c>
       <c r="E9" s="2">
-        <v>2.02</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="F9" s="2">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="G9" s="2">
-        <v>2.29</v>
+        <v>2.31</v>
       </c>
       <c r="H9" s="2">
-        <v>569</v>
+        <v>865</v>
       </c>
       <c r="I9" s="3">
-        <v>0.56899999999999995</v>
+        <v>0.54900000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1455,22 +1455,22 @@
         <v>11</v>
       </c>
       <c r="D11" s="2">
-        <v>381</v>
+        <v>554</v>
       </c>
       <c r="E11" s="2">
-        <v>3.67</v>
+        <v>3.68</v>
       </c>
       <c r="F11" s="2">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="G11" s="2">
-        <v>4.92</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="H11" s="2">
-        <v>242</v>
+        <v>364</v>
       </c>
       <c r="I11" s="3">
-        <v>0.61199999999999999</v>
+        <v>0.59099999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1495,22 +1495,22 @@
         <v>153</v>
       </c>
       <c r="D13" s="2">
-        <v>902</v>
+        <v>1299</v>
       </c>
       <c r="E13" s="2">
-        <v>3.28</v>
+        <v>3.37</v>
       </c>
       <c r="F13" s="2">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="G13" s="2">
-        <v>5.41</v>
+        <v>5.85</v>
       </c>
       <c r="H13" s="2">
-        <v>271</v>
+        <v>412</v>
       </c>
       <c r="I13" s="3">
-        <v>0.59399999999999997</v>
+        <v>0.57499999999999996</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1535,22 +1535,22 @@
         <v>11</v>
       </c>
       <c r="D15" s="2">
-        <v>510</v>
+        <v>739</v>
       </c>
       <c r="E15" s="2">
-        <v>6.03</v>
+        <v>5.97</v>
       </c>
       <c r="F15" s="2">
-        <v>207</v>
+        <v>307</v>
       </c>
       <c r="G15" s="2">
-        <v>6.56</v>
+        <v>6.45</v>
       </c>
       <c r="H15" s="2">
-        <v>1048</v>
+        <v>1580</v>
       </c>
       <c r="I15" s="3">
-        <v>0.56699999999999995</v>
+        <v>0.55600000000000005</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1575,22 +1575,22 @@
         <v>11</v>
       </c>
       <c r="D17" s="2">
-        <v>527</v>
+        <v>748</v>
       </c>
       <c r="E17" s="2">
-        <v>6.09</v>
+        <v>6.07</v>
       </c>
       <c r="F17" s="2">
-        <v>176</v>
+        <v>240</v>
       </c>
       <c r="G17" s="2">
-        <v>7.01</v>
+        <v>7.22</v>
       </c>
       <c r="H17" s="2">
-        <v>841</v>
+        <v>1078</v>
       </c>
       <c r="I17" s="3">
-        <v>0.53</v>
+        <v>0.52500000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1615,22 +1615,22 @@
         <v>11</v>
       </c>
       <c r="D19" s="2">
-        <v>385</v>
+        <v>539</v>
       </c>
       <c r="E19" s="2">
-        <v>3.45</v>
+        <v>3.41</v>
       </c>
       <c r="F19" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="G19" s="2">
-        <v>3.78</v>
+        <v>3.87</v>
       </c>
       <c r="H19" s="2">
-        <v>596</v>
+        <v>908</v>
       </c>
       <c r="I19" s="3">
-        <v>0.58399999999999996</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1655,22 +1655,22 @@
         <v>153</v>
       </c>
       <c r="D21" s="2">
-        <v>611</v>
+        <v>871</v>
       </c>
       <c r="E21" s="2">
-        <v>2.5099999999999998</v>
+        <v>2.48</v>
       </c>
       <c r="F21" s="2">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="G21" s="2">
-        <v>3.05</v>
+        <v>2.97</v>
       </c>
       <c r="H21" s="2">
-        <v>795</v>
+        <v>1163</v>
       </c>
       <c r="I21" s="3">
-        <v>0.56499999999999995</v>
+        <v>0.53900000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1695,22 +1695,22 @@
         <v>153</v>
       </c>
       <c r="D23" s="2">
-        <v>550</v>
+        <v>817</v>
       </c>
       <c r="E23" s="2">
         <v>2.56</v>
       </c>
       <c r="F23" s="2">
-        <v>182</v>
+        <v>278</v>
       </c>
       <c r="G23" s="2">
-        <v>3.13</v>
+        <v>3.14</v>
       </c>
       <c r="H23" s="2">
-        <v>1162</v>
+        <v>1802</v>
       </c>
       <c r="I23" s="3">
-        <v>0.57399999999999995</v>
+        <v>0.56399999999999995</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1735,22 +1735,22 @@
         <v>10</v>
       </c>
       <c r="D25" s="2">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="E25" s="2">
-        <v>1.89</v>
+        <v>1.81</v>
       </c>
       <c r="F25" s="2">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G25" s="2">
-        <v>2.33</v>
+        <v>2.36</v>
       </c>
       <c r="H25" s="2">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="I25" s="3">
-        <v>0.55500000000000005</v>
+        <v>0.54900000000000004</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1775,22 +1775,22 @@
         <v>10</v>
       </c>
       <c r="D27" s="2">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
       </c>
       <c r="F27" s="2">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
       </c>
       <c r="H27" s="2">
-        <v>174</v>
+        <v>303</v>
       </c>
       <c r="I27" s="3">
-        <v>0.54600000000000004</v>
+        <v>0.55100000000000005</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1815,22 +1815,22 @@
         <v>12</v>
       </c>
       <c r="D29" s="2">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E29" s="2">
         <v>1</v>
       </c>
       <c r="F29" s="2">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
       </c>
       <c r="H29" s="2">
-        <v>71</v>
+        <v>177</v>
       </c>
       <c r="I29" s="3">
-        <v>0.56299999999999994</v>
+        <v>0.59899999999999998</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1855,22 +1855,22 @@
         <v>11</v>
       </c>
       <c r="D31" s="2">
-        <v>519</v>
+        <v>774</v>
       </c>
       <c r="E31" s="2">
-        <v>5.96</v>
+        <v>5.94</v>
       </c>
       <c r="F31" s="2">
-        <v>145</v>
+        <v>208</v>
       </c>
       <c r="G31" s="2">
-        <v>6.9</v>
+        <v>6.95</v>
       </c>
       <c r="H31" s="2">
-        <v>864</v>
+        <v>1210</v>
       </c>
       <c r="I31" s="3">
-        <v>0.55600000000000005</v>
+        <v>0.54800000000000004</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1895,22 +1895,22 @@
         <v>153</v>
       </c>
       <c r="D33" s="2">
-        <v>1607</v>
+        <v>2332</v>
       </c>
       <c r="E33" s="2">
         <v>8.64</v>
       </c>
       <c r="F33" s="2">
-        <v>323</v>
+        <v>459</v>
       </c>
       <c r="G33" s="2">
-        <v>10.84</v>
+        <v>10.9</v>
       </c>
       <c r="H33" s="2">
-        <v>749</v>
+        <v>1005</v>
       </c>
       <c r="I33" s="3">
-        <v>0.54600000000000004</v>
+        <v>0.53300000000000003</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1935,22 +1935,22 @@
         <v>153</v>
       </c>
       <c r="D35" s="2">
-        <v>1370</v>
+        <v>2032</v>
       </c>
       <c r="E35" s="2">
-        <v>6.14</v>
+        <v>6.2</v>
       </c>
       <c r="F35" s="2">
-        <v>161</v>
+        <v>232</v>
       </c>
       <c r="G35" s="2">
-        <v>8.91</v>
+        <v>9.0500000000000007</v>
       </c>
       <c r="H35" s="2">
-        <v>574</v>
+        <v>875</v>
       </c>
       <c r="I35" s="3">
-        <v>0.56100000000000005</v>
+        <v>0.55100000000000005</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -1975,22 +1975,22 @@
         <v>12</v>
       </c>
       <c r="D37" s="2">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E37" s="2">
         <v>1</v>
       </c>
       <c r="F37" s="2">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G37" s="2">
         <v>1</v>
       </c>
       <c r="H37" s="2">
-        <v>174</v>
+        <v>218</v>
       </c>
       <c r="I37" s="3">
-        <v>0.56299999999999994</v>
+        <v>0.57299999999999995</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2015,22 +2015,22 @@
         <v>10</v>
       </c>
       <c r="D39" s="2">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="E39" s="2">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="F39" s="2">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G39" s="2">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="H39" s="2">
-        <v>253</v>
+        <v>370</v>
       </c>
       <c r="I39" s="3">
-        <v>0.56100000000000005</v>
+        <v>0.55400000000000005</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2055,22 +2055,22 @@
         <v>153</v>
       </c>
       <c r="D41" s="2">
-        <v>778</v>
+        <v>1141</v>
       </c>
       <c r="E41" s="2">
-        <v>3.23</v>
+        <v>3.19</v>
       </c>
       <c r="F41" s="2">
-        <v>124</v>
+        <v>178</v>
       </c>
       <c r="G41" s="2">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="H41" s="2">
-        <v>727</v>
+        <v>1110</v>
       </c>
       <c r="I41" s="3">
-        <v>0.57799999999999996</v>
+        <v>0.57599999999999996</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2095,22 +2095,22 @@
         <v>11</v>
       </c>
       <c r="D43" s="2">
-        <v>264</v>
+        <v>381</v>
       </c>
       <c r="E43" s="2">
-        <v>2.92</v>
+        <v>2.91</v>
       </c>
       <c r="F43" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="G43" s="2">
-        <v>3.46</v>
+        <v>3.24</v>
       </c>
       <c r="H43" s="2">
-        <v>225</v>
+        <v>355</v>
       </c>
       <c r="I43" s="3">
-        <v>0.55100000000000005</v>
+        <v>0.51500000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -2135,22 +2135,22 @@
         <v>153</v>
       </c>
       <c r="D45" s="2">
-        <v>1114</v>
+        <v>1588</v>
       </c>
       <c r="E45" s="2">
-        <v>4.0199999999999996</v>
+        <v>4.03</v>
       </c>
       <c r="F45" s="2">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="G45" s="2">
-        <v>5.5</v>
+        <v>5.65</v>
       </c>
       <c r="H45" s="2">
-        <v>571</v>
+        <v>798</v>
       </c>
       <c r="I45" s="3">
-        <v>0.54800000000000004</v>
+        <v>0.54500000000000004</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -2175,22 +2175,22 @@
         <v>11</v>
       </c>
       <c r="D47" s="2">
-        <v>508</v>
+        <v>763</v>
       </c>
       <c r="E47" s="2">
-        <v>5.96</v>
+        <v>6.09</v>
       </c>
       <c r="F47" s="2">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="G47" s="2">
-        <v>7.22</v>
+        <v>7.57</v>
       </c>
       <c r="H47" s="2">
-        <v>369</v>
+        <v>570</v>
       </c>
       <c r="I47" s="3">
-        <v>0.55000000000000004</v>
+        <v>0.53700000000000003</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -2215,10 +2215,10 @@
         <v>10</v>
       </c>
       <c r="D49" s="2">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="E49" s="2">
-        <v>2.09</v>
+        <v>1.95</v>
       </c>
       <c r="F49" s="2">
         <v>6</v>
@@ -2227,10 +2227,10 @@
         <v>2.17</v>
       </c>
       <c r="H49" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I49" s="3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -2255,22 +2255,22 @@
         <v>153</v>
       </c>
       <c r="D51" s="2">
-        <v>1267</v>
+        <v>1840</v>
       </c>
       <c r="E51" s="2">
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F51" s="2">
-        <v>152</v>
+        <v>221</v>
       </c>
       <c r="G51" s="2">
-        <v>6.58</v>
+        <v>6.77</v>
       </c>
       <c r="H51" s="2">
-        <v>856</v>
+        <v>1220</v>
       </c>
       <c r="I51" s="3">
-        <v>0.56999999999999995</v>
+        <v>0.55200000000000005</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -2295,22 +2295,22 @@
         <v>153</v>
       </c>
       <c r="D53" s="2">
-        <v>1153</v>
+        <v>1636</v>
       </c>
       <c r="E53" s="2">
-        <v>4.28</v>
+        <v>4.26</v>
       </c>
       <c r="F53" s="2">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="G53" s="2">
-        <v>6.19</v>
+        <v>6.2</v>
       </c>
       <c r="H53" s="2">
-        <v>700</v>
+        <v>1074</v>
       </c>
       <c r="I53" s="3">
-        <v>0.56999999999999995</v>
+        <v>0.56599999999999995</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2335,22 +2335,22 @@
         <v>11</v>
       </c>
       <c r="D55" s="2">
-        <v>419</v>
+        <v>601</v>
       </c>
       <c r="E55" s="2">
-        <v>4.0999999999999996</v>
+        <v>4.12</v>
       </c>
       <c r="F55" s="2">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="G55" s="2">
-        <v>5.25</v>
+        <v>5.37</v>
       </c>
       <c r="H55" s="2">
-        <v>489</v>
+        <v>811</v>
       </c>
       <c r="I55" s="3">
-        <v>0.53</v>
+        <v>0.53600000000000003</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -2375,22 +2375,22 @@
         <v>153</v>
       </c>
       <c r="D57" s="2">
-        <v>1400</v>
+        <v>2016</v>
       </c>
       <c r="E57" s="2">
-        <v>6.1</v>
+        <v>6.18</v>
       </c>
       <c r="F57" s="2">
-        <v>155</v>
+        <v>232</v>
       </c>
       <c r="G57" s="2">
         <v>8.8699999999999992</v>
       </c>
       <c r="H57" s="2">
-        <v>655</v>
+        <v>1013</v>
       </c>
       <c r="I57" s="3">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -2415,22 +2415,22 @@
         <v>153</v>
       </c>
       <c r="D59" s="2">
-        <v>1406</v>
+        <v>2029</v>
       </c>
       <c r="E59" s="2">
-        <v>6.38</v>
+        <v>6.31</v>
       </c>
       <c r="F59" s="2">
-        <v>147</v>
+        <v>207</v>
       </c>
       <c r="G59" s="2">
-        <v>9.34</v>
+        <v>9.17</v>
       </c>
       <c r="H59" s="2">
-        <v>448</v>
+        <v>669</v>
       </c>
       <c r="I59" s="3">
-        <v>0.51800000000000002</v>
+        <v>0.52800000000000002</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -2455,22 +2455,22 @@
         <v>153</v>
       </c>
       <c r="D61" s="2">
-        <v>1512</v>
+        <v>2133</v>
       </c>
       <c r="E61" s="2">
-        <v>6.12</v>
+        <v>6.14</v>
       </c>
       <c r="F61" s="2">
-        <v>239</v>
+        <v>344</v>
       </c>
       <c r="G61" s="2">
-        <v>8.16</v>
+        <v>8.19</v>
       </c>
       <c r="H61" s="2">
-        <v>834</v>
+        <v>1277</v>
       </c>
       <c r="I61" s="3">
-        <v>0.56699999999999995</v>
+        <v>0.55300000000000005</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -2495,19 +2495,19 @@
         <v>11</v>
       </c>
       <c r="D63" s="2">
-        <v>524</v>
+        <v>766</v>
       </c>
       <c r="E63" s="2">
         <v>6.06</v>
       </c>
       <c r="F63" s="2">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="G63" s="2">
         <v>8.2799999999999994</v>
       </c>
       <c r="H63" s="2">
-        <v>199</v>
+        <v>306</v>
       </c>
       <c r="I63" s="3">
         <v>0.52300000000000002</v>
@@ -2535,22 +2535,22 @@
         <v>153</v>
       </c>
       <c r="D65" s="2">
-        <v>1365</v>
+        <v>2016</v>
       </c>
       <c r="E65" s="2">
-        <v>6.48</v>
+        <v>6.52</v>
       </c>
       <c r="F65" s="2">
-        <v>175</v>
+        <v>243</v>
       </c>
       <c r="G65" s="2">
-        <v>8.82</v>
+        <v>8.7899999999999991</v>
       </c>
       <c r="H65" s="2">
-        <v>625</v>
+        <v>850</v>
       </c>
       <c r="I65" s="3">
-        <v>0.56599999999999995</v>
+        <v>0.55400000000000005</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -2575,22 +2575,22 @@
         <v>11</v>
       </c>
       <c r="D67" s="2">
-        <v>322</v>
+        <v>479</v>
       </c>
       <c r="E67" s="2">
-        <v>3.22</v>
+        <v>3.21</v>
       </c>
       <c r="F67" s="2">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="G67" s="2">
-        <v>4.18</v>
+        <v>3.95</v>
       </c>
       <c r="H67" s="2">
-        <v>173</v>
+        <v>283</v>
       </c>
       <c r="I67" s="3">
-        <v>0.58399999999999996</v>
+        <v>0.52300000000000002</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -2615,22 +2615,22 @@
         <v>153</v>
       </c>
       <c r="D69" s="2">
-        <v>889</v>
+        <v>1290</v>
       </c>
       <c r="E69" s="2">
-        <v>3.34</v>
+        <v>3.37</v>
       </c>
       <c r="F69" s="2">
-        <v>98</v>
+        <v>164</v>
       </c>
       <c r="G69" s="2">
         <v>4.71</v>
       </c>
       <c r="H69" s="2">
-        <v>565</v>
+        <v>902</v>
       </c>
       <c r="I69" s="3">
-        <v>0.57299999999999995</v>
+        <v>0.56699999999999995</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -2655,22 +2655,22 @@
         <v>153</v>
       </c>
       <c r="D71" s="2">
-        <v>1541</v>
+        <v>2218</v>
       </c>
       <c r="E71" s="2">
-        <v>8.75</v>
+        <v>8.73</v>
       </c>
       <c r="F71" s="2">
-        <v>209</v>
+        <v>302</v>
       </c>
       <c r="G71" s="2">
-        <v>12.07</v>
+        <v>11.92</v>
       </c>
       <c r="H71" s="2">
-        <v>178</v>
+        <v>296</v>
       </c>
       <c r="I71" s="3">
-        <v>0.60699999999999998</v>
+        <v>0.58399999999999996</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -2695,22 +2695,22 @@
         <v>153</v>
       </c>
       <c r="D73" s="2">
-        <v>1536</v>
+        <v>2236</v>
       </c>
       <c r="E73" s="2">
-        <v>8.58</v>
+        <v>8.59</v>
       </c>
       <c r="F73" s="2">
-        <v>380</v>
+        <v>547</v>
       </c>
       <c r="G73" s="2">
-        <v>10.06</v>
+        <v>10.09</v>
       </c>
       <c r="H73" s="2">
-        <v>1204</v>
+        <v>1799</v>
       </c>
       <c r="I73" s="3">
-        <v>0.55000000000000004</v>
+        <v>0.54500000000000004</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -2735,22 +2735,22 @@
         <v>10</v>
       </c>
       <c r="D75" s="2">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E75" s="2">
         <v>1</v>
       </c>
       <c r="F75" s="2">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="G75" s="2">
         <v>1</v>
       </c>
       <c r="H75" s="2">
-        <v>131</v>
+        <v>200</v>
       </c>
       <c r="I75" s="3">
-        <v>0.51900000000000002</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -2775,22 +2775,22 @@
         <v>153</v>
       </c>
       <c r="D77" s="2">
-        <v>1416</v>
+        <v>2078</v>
       </c>
       <c r="E77" s="2">
-        <v>6.14</v>
+        <v>6.19</v>
       </c>
       <c r="F77" s="2">
-        <v>220</v>
+        <v>342</v>
       </c>
       <c r="G77" s="2">
-        <v>8.5</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="H77" s="2">
-        <v>1052</v>
+        <v>1597</v>
       </c>
       <c r="I77" s="3">
-        <v>0.55900000000000005</v>
+        <v>0.54400000000000004</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -2815,22 +2815,22 @@
         <v>10</v>
       </c>
       <c r="D79" s="2">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="E79" s="2">
         <v>1</v>
       </c>
       <c r="F79" s="2">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G79" s="2">
         <v>1</v>
       </c>
       <c r="H79" s="2">
-        <v>156</v>
+        <v>227</v>
       </c>
       <c r="I79" s="3">
-        <v>0.60299999999999998</v>
+        <v>0.55500000000000005</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -2855,22 +2855,22 @@
         <v>153</v>
       </c>
       <c r="D81" s="2">
-        <v>1543</v>
+        <v>2239</v>
       </c>
       <c r="E81" s="2">
-        <v>8.52</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="F81" s="2">
-        <v>457</v>
+        <v>648</v>
       </c>
       <c r="G81" s="2">
-        <v>9.67</v>
+        <v>9.65</v>
       </c>
       <c r="H81" s="2">
-        <v>1463</v>
+        <v>2149</v>
       </c>
       <c r="I81" s="3">
-        <v>0.55000000000000004</v>
+        <v>0.53600000000000003</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -2895,22 +2895,22 @@
         <v>153</v>
       </c>
       <c r="D83" s="2">
-        <v>1393</v>
+        <v>1964</v>
       </c>
       <c r="E83" s="2">
-        <v>6.25</v>
+        <v>6.19</v>
       </c>
       <c r="F83" s="2">
-        <v>274</v>
+        <v>371</v>
       </c>
       <c r="G83" s="2">
-        <v>7.83</v>
+        <v>7.78</v>
       </c>
       <c r="H83" s="2">
-        <v>834</v>
+        <v>1247</v>
       </c>
       <c r="I83" s="3">
-        <v>0.54</v>
+        <v>0.52600000000000002</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -2935,22 +2935,22 @@
         <v>11</v>
       </c>
       <c r="D85" s="2">
-        <v>299</v>
+        <v>419</v>
       </c>
       <c r="E85" s="2">
-        <v>2.79</v>
+        <v>2.81</v>
       </c>
       <c r="F85" s="2">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="G85" s="2">
-        <v>3.33</v>
+        <v>3.37</v>
       </c>
       <c r="H85" s="2">
-        <v>467</v>
+        <v>656</v>
       </c>
       <c r="I85" s="3">
-        <v>0.56100000000000005</v>
+        <v>0.53400000000000003</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -2975,22 +2975,22 @@
         <v>10</v>
       </c>
       <c r="D87" s="2">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="E87" s="2">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="F87" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G87" s="2">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="H87" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I87" s="3">
-        <v>0.5</v>
+        <v>0.53100000000000003</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -3015,22 +3015,22 @@
         <v>153</v>
       </c>
       <c r="D89" s="2">
-        <v>689</v>
+        <v>1018</v>
       </c>
       <c r="E89" s="2">
-        <v>2.99</v>
+        <v>2.93</v>
       </c>
       <c r="F89" s="2">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G89" s="2">
-        <v>4.3</v>
+        <v>4.37</v>
       </c>
       <c r="H89" s="2">
-        <v>208</v>
+        <v>287</v>
       </c>
       <c r="I89" s="3">
-        <v>0.55800000000000005</v>
+        <v>0.53700000000000003</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -3055,22 +3055,22 @@
         <v>11</v>
       </c>
       <c r="D91" s="2">
-        <v>235</v>
+        <v>345</v>
       </c>
       <c r="E91" s="2">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="F91" s="2">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="G91" s="2">
-        <v>3.69</v>
+        <v>3.51</v>
       </c>
       <c r="H91" s="2">
-        <v>172</v>
+        <v>275</v>
       </c>
       <c r="I91" s="3">
-        <v>0.54700000000000004</v>
+        <v>0.505</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -3095,22 +3095,22 @@
         <v>153</v>
       </c>
       <c r="D93" s="2">
-        <v>1487</v>
+        <v>2130</v>
       </c>
       <c r="E93" s="2">
-        <v>8.98</v>
+        <v>8.99</v>
       </c>
       <c r="F93" s="2">
-        <v>243</v>
+        <v>346</v>
       </c>
       <c r="G93" s="2">
-        <v>11.65</v>
+        <v>11.55</v>
       </c>
       <c r="H93" s="2">
-        <v>190</v>
+        <v>269</v>
       </c>
       <c r="I93" s="3">
-        <v>0.52100000000000002</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -3135,22 +3135,22 @@
         <v>153</v>
       </c>
       <c r="D95" s="2">
-        <v>1449</v>
+        <v>2139</v>
       </c>
       <c r="E95" s="2">
-        <v>6.18</v>
+        <v>6.16</v>
       </c>
       <c r="F95" s="2">
-        <v>167</v>
+        <v>247</v>
       </c>
       <c r="G95" s="2">
-        <v>8.75</v>
+        <v>8.61</v>
       </c>
       <c r="H95" s="2">
-        <v>513</v>
+        <v>815</v>
       </c>
       <c r="I95" s="3">
-        <v>0.55000000000000004</v>
+        <v>0.53400000000000003</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -3175,22 +3175,22 @@
         <v>153</v>
       </c>
       <c r="D97" s="2">
-        <v>1500</v>
+        <v>2192</v>
       </c>
       <c r="E97" s="2">
         <v>8.74</v>
       </c>
       <c r="F97" s="2">
-        <v>240</v>
+        <v>355</v>
       </c>
       <c r="G97" s="2">
-        <v>11.43</v>
+        <v>11.46</v>
       </c>
       <c r="H97" s="2">
-        <v>449</v>
+        <v>643</v>
       </c>
       <c r="I97" s="3">
-        <v>0.57499999999999996</v>
+        <v>0.54400000000000004</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -3215,22 +3215,22 @@
         <v>153</v>
       </c>
       <c r="D99" s="2">
-        <v>1359</v>
+        <v>2041</v>
       </c>
       <c r="E99" s="2">
-        <v>6.34</v>
+        <v>6.24</v>
       </c>
       <c r="F99" s="2">
-        <v>115</v>
+        <v>169</v>
       </c>
       <c r="G99" s="2">
-        <v>9.36</v>
+        <v>9.18</v>
       </c>
       <c r="H99" s="2">
-        <v>344</v>
+        <v>500</v>
       </c>
       <c r="I99" s="3">
-        <v>0.53800000000000003</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -3255,22 +3255,22 @@
         <v>11</v>
       </c>
       <c r="D101" s="2">
-        <v>546</v>
+        <v>786</v>
       </c>
       <c r="E101" s="2">
-        <v>6.06</v>
+        <v>6.13</v>
       </c>
       <c r="F101" s="2">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="G101" s="2">
-        <v>8.65</v>
+        <v>8.93</v>
       </c>
       <c r="H101" s="2">
-        <v>176</v>
+        <v>251</v>
       </c>
       <c r="I101" s="3">
-        <v>0.56299999999999994</v>
+        <v>0.59399999999999997</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -3295,22 +3295,22 @@
         <v>153</v>
       </c>
       <c r="D103" s="2">
-        <v>946</v>
+        <v>1382</v>
       </c>
       <c r="E103" s="2">
-        <v>3.71</v>
+        <v>3.78</v>
       </c>
       <c r="F103" s="2">
-        <v>153</v>
+        <v>228</v>
       </c>
       <c r="G103" s="2">
-        <v>4.71</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="H103" s="2">
-        <v>788</v>
+        <v>1171</v>
       </c>
       <c r="I103" s="3">
-        <v>0.52700000000000002</v>
+        <v>0.51200000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -3335,19 +3335,19 @@
         <v>12</v>
       </c>
       <c r="D105" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E105" s="2">
         <v>1</v>
       </c>
       <c r="F105" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G105" s="2">
         <v>1</v>
       </c>
       <c r="H105" s="2">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="I105" s="3">
         <v>0.57499999999999996</v>
@@ -3375,22 +3375,22 @@
         <v>11</v>
       </c>
       <c r="D107" s="2">
-        <v>257</v>
+        <v>372</v>
       </c>
       <c r="E107" s="2">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="F107" s="2">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="G107" s="2">
-        <v>3.13</v>
+        <v>3.22</v>
       </c>
       <c r="H107" s="2">
-        <v>266</v>
+        <v>392</v>
       </c>
       <c r="I107" s="3">
-        <v>0.58299999999999996</v>
+        <v>0.56100000000000005</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -3415,22 +3415,22 @@
         <v>153</v>
       </c>
       <c r="D109" s="2">
-        <v>1499</v>
+        <v>2217</v>
       </c>
       <c r="E109" s="2">
-        <v>8.99</v>
+        <v>8.93</v>
       </c>
       <c r="F109" s="2">
-        <v>219</v>
+        <v>324</v>
       </c>
       <c r="G109" s="2">
-        <v>11.61</v>
+        <v>11.6</v>
       </c>
       <c r="H109" s="2">
-        <v>311</v>
+        <v>422</v>
       </c>
       <c r="I109" s="3">
-        <v>0.505</v>
+        <v>0.51200000000000001</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -3455,22 +3455,22 @@
         <v>10</v>
       </c>
       <c r="D111" s="2">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="E111" s="2">
         <v>1</v>
       </c>
       <c r="F111" s="2">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G111" s="2">
         <v>1</v>
       </c>
       <c r="H111" s="2">
-        <v>237</v>
+        <v>315</v>
       </c>
       <c r="I111" s="3">
-        <v>0.60299999999999998</v>
+        <v>0.58099999999999996</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -3495,22 +3495,22 @@
         <v>153</v>
       </c>
       <c r="D113" s="2">
-        <v>1476</v>
+        <v>2122</v>
       </c>
       <c r="E113" s="2">
-        <v>6.17</v>
+        <v>6.14</v>
       </c>
       <c r="F113" s="2">
-        <v>214</v>
+        <v>292</v>
       </c>
       <c r="G113" s="2">
-        <v>8.06</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="H113" s="2">
-        <v>909</v>
+        <v>1223</v>
       </c>
       <c r="I113" s="3">
-        <v>0.53700000000000003</v>
+        <v>0.52900000000000003</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -3535,22 +3535,22 @@
         <v>153</v>
       </c>
       <c r="D115" s="2">
-        <v>1515</v>
+        <v>2192</v>
       </c>
       <c r="E115" s="2">
-        <v>8.7100000000000009</v>
+        <v>8.75</v>
       </c>
       <c r="F115" s="2">
-        <v>257</v>
+        <v>379</v>
       </c>
       <c r="G115" s="2">
-        <v>11.17</v>
+        <v>11.16</v>
       </c>
       <c r="H115" s="2">
-        <v>515</v>
+        <v>739</v>
       </c>
       <c r="I115" s="3">
-        <v>0.52400000000000002</v>
+        <v>0.51200000000000001</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -3575,22 +3575,22 @@
         <v>153</v>
       </c>
       <c r="D117" s="2">
-        <v>819</v>
+        <v>1167</v>
       </c>
       <c r="E117" s="2">
-        <v>3.11</v>
+        <v>3.16</v>
       </c>
       <c r="F117" s="2">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="G117" s="2">
-        <v>4.55</v>
+        <v>4.54</v>
       </c>
       <c r="H117" s="2">
-        <v>527</v>
+        <v>800</v>
       </c>
       <c r="I117" s="3">
-        <v>0.56899999999999995</v>
+        <v>0.55800000000000005</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -3615,22 +3615,22 @@
         <v>11</v>
       </c>
       <c r="D119" s="2">
-        <v>323</v>
+        <v>473</v>
       </c>
       <c r="E119" s="2">
-        <v>3.31</v>
+        <v>3.26</v>
       </c>
       <c r="F119" s="2">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="G119" s="2">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="H119" s="2">
-        <v>375</v>
+        <v>522</v>
       </c>
       <c r="I119" s="3">
-        <v>0.53600000000000003</v>
+        <v>0.51700000000000002</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -3655,22 +3655,22 @@
         <v>10</v>
       </c>
       <c r="D121" s="2">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="E121" s="2">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="F121" s="2">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="G121" s="2">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="H121" s="2">
-        <v>160</v>
+        <v>290</v>
       </c>
       <c r="I121" s="3">
-        <v>0.49399999999999999</v>
+        <v>0.47199999999999998</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -3695,22 +3695,22 @@
         <v>153</v>
       </c>
       <c r="D123" s="2">
-        <v>1407</v>
+        <v>2039</v>
       </c>
       <c r="E123" s="2">
-        <v>6.22</v>
+        <v>6.18</v>
       </c>
       <c r="F123" s="2">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="G123" s="2">
-        <v>8.84</v>
+        <v>8.9</v>
       </c>
       <c r="H123" s="2">
-        <v>364</v>
+        <v>602</v>
       </c>
       <c r="I123" s="3">
-        <v>0.52700000000000002</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -3735,22 +3735,22 @@
         <v>11</v>
       </c>
       <c r="D125" s="2">
-        <v>565</v>
+        <v>865</v>
       </c>
       <c r="E125" s="2">
-        <v>7.66</v>
+        <v>7.72</v>
       </c>
       <c r="F125" s="2">
-        <v>87</v>
+        <v>136</v>
       </c>
       <c r="G125" s="2">
-        <v>9.44</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="H125" s="2">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="I125" s="3">
-        <v>0.47399999999999998</v>
+        <v>0.45200000000000001</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -3775,22 +3775,22 @@
         <v>11</v>
       </c>
       <c r="D127" s="2">
-        <v>311</v>
+        <v>444</v>
       </c>
       <c r="E127" s="2">
-        <v>3.27</v>
+        <v>3.26</v>
       </c>
       <c r="F127" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G127" s="2">
-        <v>4.58</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="H127" s="2">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="I127" s="3">
-        <v>0.54300000000000004</v>
+        <v>0.56299999999999994</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -3815,22 +3815,22 @@
         <v>11</v>
       </c>
       <c r="D129" s="2">
-        <v>238</v>
+        <v>325</v>
       </c>
       <c r="E129" s="2">
-        <v>2.46</v>
+        <v>2.39</v>
       </c>
       <c r="F129" s="2">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="G129" s="2">
-        <v>2.84</v>
+        <v>2.69</v>
       </c>
       <c r="H129" s="2">
-        <v>544</v>
+        <v>777</v>
       </c>
       <c r="I129" s="3">
-        <v>0.54</v>
+        <v>0.54200000000000004</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -3855,22 +3855,22 @@
         <v>11</v>
       </c>
       <c r="D131" s="2">
-        <v>549</v>
+        <v>789</v>
       </c>
       <c r="E131" s="2">
-        <v>5.82</v>
+        <v>5.94</v>
       </c>
       <c r="F131" s="2">
-        <v>125</v>
+        <v>174</v>
       </c>
       <c r="G131" s="2">
-        <v>7.09</v>
+        <v>7.43</v>
       </c>
       <c r="H131" s="2">
-        <v>526</v>
+        <v>677</v>
       </c>
       <c r="I131" s="3">
-        <v>0.53800000000000003</v>
+        <v>0.52600000000000002</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -3895,22 +3895,22 @@
         <v>153</v>
       </c>
       <c r="D133" s="2">
-        <v>1427</v>
+        <v>2046</v>
       </c>
       <c r="E133" s="2">
-        <v>6.11</v>
+        <v>6.12</v>
       </c>
       <c r="F133" s="2">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="G133" s="2">
-        <v>10.65</v>
+        <v>10.62</v>
       </c>
       <c r="H133" s="2">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I133" s="3">
-        <v>0.44400000000000001</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -3935,22 +3935,22 @@
         <v>153</v>
       </c>
       <c r="D135" s="2">
-        <v>1481</v>
+        <v>2161</v>
       </c>
       <c r="E135" s="2">
-        <v>8.8699999999999992</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="F135" s="2">
-        <v>374</v>
+        <v>544</v>
       </c>
       <c r="G135" s="2">
-        <v>10.33</v>
+        <v>10.35</v>
       </c>
       <c r="H135" s="2">
-        <v>1009</v>
+        <v>1425</v>
       </c>
       <c r="I135" s="3">
-        <v>0.53800000000000003</v>
+        <v>0.52100000000000002</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -3975,22 +3975,22 @@
         <v>153</v>
       </c>
       <c r="D137" s="2">
-        <v>1365</v>
+        <v>1996</v>
       </c>
       <c r="E137" s="2">
-        <v>6.3</v>
+        <v>6.16</v>
       </c>
       <c r="F137" s="2">
-        <v>162</v>
+        <v>229</v>
       </c>
       <c r="G137" s="2">
-        <v>8.31</v>
+        <v>8.35</v>
       </c>
       <c r="H137" s="2">
-        <v>553</v>
+        <v>811</v>
       </c>
       <c r="I137" s="3">
-        <v>0.54100000000000004</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -4015,22 +4015,22 @@
         <v>11</v>
       </c>
       <c r="D139" s="2">
-        <v>597</v>
+        <v>853</v>
       </c>
       <c r="E139" s="2">
-        <v>8.67</v>
+        <v>8.58</v>
       </c>
       <c r="F139" s="2">
-        <v>219</v>
+        <v>300</v>
       </c>
       <c r="G139" s="2">
-        <v>9.8000000000000007</v>
+        <v>9.59</v>
       </c>
       <c r="H139" s="2">
-        <v>558</v>
+        <v>801</v>
       </c>
       <c r="I139" s="3">
-        <v>0.51300000000000001</v>
+        <v>0.503</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -4055,22 +4055,22 @@
         <v>11</v>
       </c>
       <c r="D141" s="2">
-        <v>587</v>
+        <v>840</v>
       </c>
       <c r="E141" s="2">
-        <v>8.89</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="F141" s="2">
-        <v>132</v>
+        <v>178</v>
       </c>
       <c r="G141" s="2">
-        <v>11.14</v>
+        <v>11.2</v>
       </c>
       <c r="H141" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I141" s="3">
-        <v>0.53300000000000003</v>
+        <v>0.53800000000000003</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
@@ -4095,22 +4095,22 @@
         <v>12</v>
       </c>
       <c r="D143" s="2">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E143" s="2">
         <v>1</v>
       </c>
       <c r="F143" s="2">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G143" s="2">
         <v>1</v>
       </c>
       <c r="H143" s="2">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c r="I143" s="3">
-        <v>0.48499999999999999</v>
+        <v>0.50600000000000001</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -4135,22 +4135,22 @@
         <v>10</v>
       </c>
       <c r="D145" s="2">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="E145" s="2">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="F145" s="2">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G145" s="2">
-        <v>1.79</v>
+        <v>1.74</v>
       </c>
       <c r="H145" s="2">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="I145" s="3">
-        <v>0.52600000000000002</v>
+        <v>0.505</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
@@ -4175,22 +4175,22 @@
         <v>10</v>
       </c>
       <c r="D147" s="2">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="E147" s="2">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="F147" s="2">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G147" s="2">
-        <v>1.58</v>
+        <v>1.71</v>
       </c>
       <c r="H147" s="2">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="I147" s="3">
-        <v>0.42699999999999999</v>
+        <v>0.40600000000000003</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -4215,22 +4215,22 @@
         <v>153</v>
       </c>
       <c r="D149" s="2">
-        <v>677</v>
+        <v>995</v>
       </c>
       <c r="E149" s="2">
-        <v>2.69</v>
+        <v>2.72</v>
       </c>
       <c r="F149" s="2">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="G149" s="2">
-        <v>3.98</v>
+        <v>3.81</v>
       </c>
       <c r="H149" s="2">
-        <v>451</v>
+        <v>615</v>
       </c>
       <c r="I149" s="3">
-        <v>0.59899999999999998</v>
+        <v>0.58199999999999996</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
@@ -4255,22 +4255,22 @@
         <v>11</v>
       </c>
       <c r="D151" s="2">
-        <v>349</v>
+        <v>528</v>
       </c>
       <c r="E151" s="2">
-        <v>3.57</v>
+        <v>3.58</v>
       </c>
       <c r="F151" s="2">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="G151" s="2">
-        <v>4.3099999999999996</v>
+        <v>4.38</v>
       </c>
       <c r="H151" s="2">
-        <v>491</v>
+        <v>704</v>
       </c>
       <c r="I151" s="3">
-        <v>0.54600000000000004</v>
+        <v>0.54300000000000004</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
@@ -4295,22 +4295,22 @@
         <v>10</v>
       </c>
       <c r="D153" s="2">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E153" s="2">
         <v>1</v>
       </c>
       <c r="F153" s="2">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G153" s="2">
         <v>1</v>
       </c>
       <c r="H153" s="2">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="I153" s="3">
-        <v>0.48599999999999999</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
@@ -4335,22 +4335,22 @@
         <v>153</v>
       </c>
       <c r="D155" s="2">
-        <v>1568</v>
+        <v>2215</v>
       </c>
       <c r="E155" s="2">
         <v>8.75</v>
       </c>
       <c r="F155" s="2">
-        <v>224</v>
+        <v>298</v>
       </c>
       <c r="G155" s="2">
-        <v>11.71</v>
+        <v>11.84</v>
       </c>
       <c r="H155" s="2">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="I155" s="3">
-        <v>0.51200000000000001</v>
+        <v>0.51600000000000001</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
@@ -4375,22 +4375,22 @@
         <v>153</v>
       </c>
       <c r="D157" s="2">
-        <v>1425</v>
+        <v>2019</v>
       </c>
       <c r="E157" s="2">
-        <v>6.04</v>
+        <v>6.06</v>
       </c>
       <c r="F157" s="2">
-        <v>150</v>
+        <v>205</v>
       </c>
       <c r="G157" s="2">
-        <v>8.43</v>
+        <v>8.7100000000000009</v>
       </c>
       <c r="H157" s="2">
-        <v>486</v>
+        <v>673</v>
       </c>
       <c r="I157" s="3">
-        <v>0.50600000000000001</v>
+        <v>0.47699999999999998</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
@@ -4415,22 +4415,22 @@
         <v>153</v>
       </c>
       <c r="D159" s="2">
-        <v>1142</v>
+        <v>1624</v>
       </c>
       <c r="E159" s="2">
-        <v>4.4400000000000004</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F159" s="2">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="G159" s="2">
-        <v>6.01</v>
+        <v>6.21</v>
       </c>
       <c r="H159" s="2">
-        <v>760</v>
+        <v>985</v>
       </c>
       <c r="I159" s="3">
-        <v>0.55900000000000005</v>
+        <v>0.53900000000000003</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
@@ -4455,22 +4455,22 @@
         <v>10</v>
       </c>
       <c r="D161" s="2">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E161" s="2">
         <v>1</v>
       </c>
       <c r="F161" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G161" s="2">
         <v>1</v>
       </c>
       <c r="H161" s="2">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="I161" s="3">
-        <v>0.44600000000000001</v>
+        <v>0.40699999999999997</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
@@ -4495,22 +4495,22 @@
         <v>11</v>
       </c>
       <c r="D163" s="2">
-        <v>591</v>
+        <v>856</v>
       </c>
       <c r="E163" s="2">
-        <v>8.74</v>
+        <v>8.69</v>
       </c>
       <c r="F163" s="2">
-        <v>128</v>
+        <v>187</v>
       </c>
       <c r="G163" s="2">
-        <v>11.07</v>
+        <v>10.95</v>
       </c>
       <c r="H163" s="2">
-        <v>151</v>
+        <v>212</v>
       </c>
       <c r="I163" s="3">
-        <v>0.46400000000000002</v>
+        <v>0.44800000000000001</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
@@ -4535,22 +4535,22 @@
         <v>153</v>
       </c>
       <c r="D165" s="2">
-        <v>591</v>
+        <v>897</v>
       </c>
       <c r="E165" s="2">
-        <v>2.67</v>
+        <v>2.68</v>
       </c>
       <c r="F165" s="2">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="G165" s="2">
-        <v>4.1100000000000003</v>
+        <v>4.17</v>
       </c>
       <c r="H165" s="2">
-        <v>378</v>
+        <v>636</v>
       </c>
       <c r="I165" s="3">
-        <v>0.54</v>
+        <v>0.51600000000000001</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
@@ -4575,22 +4575,22 @@
         <v>11</v>
       </c>
       <c r="D167" s="2">
-        <v>545</v>
+        <v>800</v>
       </c>
       <c r="E167" s="2">
-        <v>6.09</v>
+        <v>6.07</v>
       </c>
       <c r="F167" s="2">
-        <v>177</v>
+        <v>255</v>
       </c>
       <c r="G167" s="2">
-        <v>7.15</v>
+        <v>6.98</v>
       </c>
       <c r="H167" s="2">
-        <v>816</v>
+        <v>1375</v>
       </c>
       <c r="I167" s="3">
-        <v>0.52500000000000002</v>
+        <v>0.55100000000000005</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
@@ -4615,22 +4615,22 @@
         <v>10</v>
       </c>
       <c r="D169" s="2">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="E169" s="2">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="F169" s="2">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="G169" s="2">
-        <v>1.19</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="H169" s="2">
-        <v>219</v>
+        <v>418</v>
       </c>
       <c r="I169" s="3">
-        <v>0.59399999999999997</v>
+        <v>0.57899999999999996</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
@@ -4655,22 +4655,22 @@
         <v>153</v>
       </c>
       <c r="D171" s="2">
-        <v>1406</v>
+        <v>2028</v>
       </c>
       <c r="E171" s="2">
-        <v>6.19</v>
+        <v>6.23</v>
       </c>
       <c r="F171" s="2">
-        <v>212</v>
+        <v>297</v>
       </c>
       <c r="G171" s="2">
-        <v>8.81</v>
+        <v>8.86</v>
       </c>
       <c r="H171" s="2">
-        <v>633</v>
+        <v>923</v>
       </c>
       <c r="I171" s="3">
-        <v>0.51500000000000001</v>
+        <v>0.52700000000000002</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -4695,22 +4695,22 @@
         <v>153</v>
       </c>
       <c r="D173" s="2">
-        <v>922</v>
+        <v>1351</v>
       </c>
       <c r="E173" s="2">
-        <v>3.66</v>
+        <v>3.67</v>
       </c>
       <c r="F173" s="2">
-        <v>182</v>
+        <v>289</v>
       </c>
       <c r="G173" s="2">
         <v>4.7300000000000004</v>
       </c>
       <c r="H173" s="2">
-        <v>1026</v>
+        <v>1772</v>
       </c>
       <c r="I173" s="3">
-        <v>0.55400000000000005</v>
+        <v>0.56899999999999995</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
@@ -4735,22 +4735,22 @@
         <v>11</v>
       </c>
       <c r="D175" s="2">
-        <v>493</v>
+        <v>724</v>
       </c>
       <c r="E175" s="2">
-        <v>6.18</v>
+        <v>6.23</v>
       </c>
       <c r="F175" s="2">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="G175" s="2">
-        <v>8.68</v>
+        <v>8.75</v>
       </c>
       <c r="H175" s="2">
-        <v>105</v>
+        <v>199</v>
       </c>
       <c r="I175" s="3">
-        <v>0.59</v>
+        <v>0.58799999999999997</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -4775,22 +4775,22 @@
         <v>153</v>
       </c>
       <c r="D177" s="2">
-        <v>1075</v>
+        <v>1566</v>
       </c>
       <c r="E177" s="2">
-        <v>4.13</v>
+        <v>4.21</v>
       </c>
       <c r="F177" s="2">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c r="G177" s="2">
         <v>6.02</v>
       </c>
       <c r="H177" s="2">
-        <v>503</v>
+        <v>880</v>
       </c>
       <c r="I177" s="3">
-        <v>0.52700000000000002</v>
+        <v>0.54500000000000004</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
@@ -4815,22 +4815,22 @@
         <v>11</v>
       </c>
       <c r="D179" s="2">
-        <v>192</v>
+        <v>278</v>
       </c>
       <c r="E179" s="2">
-        <v>2.2599999999999998</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="F179" s="2">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="G179" s="2">
-        <v>2.5099999999999998</v>
+        <v>2.62</v>
       </c>
       <c r="H179" s="2">
-        <v>614</v>
+        <v>1133</v>
       </c>
       <c r="I179" s="3">
-        <v>0.57299999999999995</v>
+        <v>0.58499999999999996</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
@@ -4855,22 +4855,22 @@
         <v>10</v>
       </c>
       <c r="D181" s="2">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E181" s="2">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="F181" s="2">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G181" s="2">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H181" s="2">
-        <v>258</v>
+        <v>416</v>
       </c>
       <c r="I181" s="3">
-        <v>0.53500000000000003</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
@@ -4895,22 +4895,22 @@
         <v>11</v>
       </c>
       <c r="D183" s="2">
-        <v>414</v>
+        <v>567</v>
       </c>
       <c r="E183" s="2">
-        <v>3.78</v>
+        <v>3.69</v>
       </c>
       <c r="F183" s="2">
-        <v>174</v>
+        <v>241</v>
       </c>
       <c r="G183" s="2">
-        <v>4.25</v>
+        <v>4.32</v>
       </c>
       <c r="H183" s="2">
-        <v>968</v>
+        <v>1619</v>
       </c>
       <c r="I183" s="3">
-        <v>0.57099999999999995</v>
+        <v>0.58499999999999996</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
@@ -4935,22 +4935,22 @@
         <v>11</v>
       </c>
       <c r="D185" s="2">
-        <v>517</v>
+        <v>758</v>
       </c>
       <c r="E185" s="2">
         <v>6.22</v>
       </c>
       <c r="F185" s="2">
-        <v>114</v>
+        <v>165</v>
       </c>
       <c r="G185" s="2">
-        <v>8.0299999999999994</v>
+        <v>7.81</v>
       </c>
       <c r="H185" s="2">
-        <v>449</v>
+        <v>723</v>
       </c>
       <c r="I185" s="3">
-        <v>0.49399999999999999</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
@@ -4975,22 +4975,22 @@
         <v>12</v>
       </c>
       <c r="D187" s="2">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E187" s="2">
         <v>1</v>
       </c>
       <c r="F187" s="2">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G187" s="2">
         <v>1</v>
       </c>
       <c r="H187" s="2">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="I187" s="3">
-        <v>0.51200000000000001</v>
+        <v>0.54900000000000004</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
@@ -5015,22 +5015,22 @@
         <v>10</v>
       </c>
       <c r="D189" s="2">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E189" s="2">
         <v>1</v>
       </c>
       <c r="F189" s="2">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="G189" s="2">
         <v>1</v>
       </c>
       <c r="H189" s="2">
-        <v>189</v>
+        <v>311</v>
       </c>
       <c r="I189" s="3">
-        <v>0.52400000000000002</v>
+        <v>0.53400000000000003</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
@@ -5055,22 +5055,22 @@
         <v>153</v>
       </c>
       <c r="D191" s="2">
-        <v>683</v>
+        <v>1027</v>
       </c>
       <c r="E191" s="2">
-        <v>2.79</v>
+        <v>2.84</v>
       </c>
       <c r="F191" s="2">
-        <v>288</v>
+        <v>443</v>
       </c>
       <c r="G191" s="2">
         <v>3.2</v>
       </c>
       <c r="H191" s="2">
-        <v>1533</v>
+        <v>2536</v>
       </c>
       <c r="I191" s="3">
-        <v>0.55700000000000005</v>
+        <v>0.56899999999999995</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
@@ -5095,22 +5095,22 @@
         <v>153</v>
       </c>
       <c r="D193" s="2">
-        <v>1528</v>
+        <v>2219</v>
       </c>
       <c r="E193" s="2">
-        <v>8.9700000000000006</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="F193" s="2">
-        <v>162</v>
+        <v>245</v>
       </c>
       <c r="G193" s="2">
-        <v>12.81</v>
+        <v>12.65</v>
       </c>
       <c r="H193" s="2">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I193" s="3">
-        <v>0.61899999999999999</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
@@ -5135,22 +5135,22 @@
         <v>153</v>
       </c>
       <c r="D195" s="2">
-        <v>1159</v>
+        <v>1669</v>
       </c>
       <c r="E195" s="2">
-        <v>4.6500000000000004</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="F195" s="2">
-        <v>166</v>
+        <v>238</v>
       </c>
       <c r="G195" s="2">
-        <v>6.58</v>
+        <v>6.48</v>
       </c>
       <c r="H195" s="2">
-        <v>862</v>
+        <v>1379</v>
       </c>
       <c r="I195" s="3">
-        <v>0.55900000000000005</v>
+        <v>0.57599999999999996</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
@@ -5175,22 +5175,22 @@
         <v>10</v>
       </c>
       <c r="D197" s="2">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="E197" s="2">
-        <v>1.67</v>
+        <v>1.76</v>
       </c>
       <c r="F197" s="2">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G197" s="2">
-        <v>1.61</v>
+        <v>1.75</v>
       </c>
       <c r="H197" s="2">
-        <v>241</v>
+        <v>410</v>
       </c>
       <c r="I197" s="3">
-        <v>0.56799999999999995</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
@@ -5215,22 +5215,22 @@
         <v>11</v>
       </c>
       <c r="D199" s="2">
-        <v>246</v>
+        <v>362</v>
       </c>
       <c r="E199" s="2">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="F199" s="2">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="G199" s="2">
-        <v>3.11</v>
+        <v>3.1</v>
       </c>
       <c r="H199" s="2">
-        <v>501</v>
+        <v>909</v>
       </c>
       <c r="I199" s="3">
-        <v>0.56899999999999995</v>
+        <v>0.57899999999999996</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
@@ -5255,22 +5255,22 @@
         <v>153</v>
       </c>
       <c r="D201" s="2">
-        <v>1610</v>
+        <v>2283</v>
       </c>
       <c r="E201" s="2">
-        <v>8.7200000000000006</v>
+        <v>8.84</v>
       </c>
       <c r="F201" s="2">
-        <v>324</v>
+        <v>496</v>
       </c>
       <c r="G201" s="2">
-        <v>10.9</v>
+        <v>10.99</v>
       </c>
       <c r="H201" s="2">
-        <v>550</v>
+        <v>903</v>
       </c>
       <c r="I201" s="3">
-        <v>0.52500000000000002</v>
+        <v>0.53400000000000003</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
@@ -5295,22 +5295,22 @@
         <v>11</v>
       </c>
       <c r="D203" s="2">
-        <v>410</v>
+        <v>599</v>
       </c>
       <c r="E203" s="2">
-        <v>4.1399999999999997</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="F203" s="2">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="G203" s="2">
-        <v>5.27</v>
+        <v>5.45</v>
       </c>
       <c r="H203" s="2">
-        <v>439</v>
+        <v>774</v>
       </c>
       <c r="I203" s="3">
-        <v>0.54400000000000004</v>
+        <v>0.56699999999999995</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
@@ -5335,22 +5335,22 @@
         <v>11</v>
       </c>
       <c r="D205" s="2">
-        <v>277</v>
+        <v>418</v>
       </c>
       <c r="E205" s="2">
-        <v>3.12</v>
+        <v>3.08</v>
       </c>
       <c r="F205" s="2">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="G205" s="2">
-        <v>3.65</v>
+        <v>3.77</v>
       </c>
       <c r="H205" s="2">
-        <v>436</v>
+        <v>752</v>
       </c>
       <c r="I205" s="3">
-        <v>0.56699999999999995</v>
+        <v>0.55700000000000005</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
@@ -5375,22 +5375,22 @@
         <v>153</v>
       </c>
       <c r="D207" s="2">
-        <v>1359</v>
+        <v>2005</v>
       </c>
       <c r="E207" s="2">
-        <v>6.2</v>
+        <v>6.26</v>
       </c>
       <c r="F207" s="2">
-        <v>259</v>
+        <v>404</v>
       </c>
       <c r="G207" s="2">
-        <v>8.1300000000000008</v>
+        <v>8.01</v>
       </c>
       <c r="H207" s="2">
-        <v>1065</v>
+        <v>2002</v>
       </c>
       <c r="I207" s="3">
-        <v>0.55400000000000005</v>
+        <v>0.56799999999999995</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
@@ -5415,22 +5415,22 @@
         <v>11</v>
       </c>
       <c r="D209" s="2">
-        <v>570</v>
+        <v>837</v>
       </c>
       <c r="E209" s="2">
-        <v>8.49</v>
+        <v>8.59</v>
       </c>
       <c r="F209" s="2">
-        <v>139</v>
+        <v>225</v>
       </c>
       <c r="G209" s="2">
-        <v>9.99</v>
+        <v>9.93</v>
       </c>
       <c r="H209" s="2">
-        <v>281</v>
+        <v>437</v>
       </c>
       <c r="I209" s="3">
-        <v>0.52300000000000002</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
@@ -5455,22 +5455,22 @@
         <v>11</v>
       </c>
       <c r="D211" s="2">
-        <v>243</v>
+        <v>361</v>
       </c>
       <c r="E211" s="2">
-        <v>2.66</v>
+        <v>2.65</v>
       </c>
       <c r="F211" s="2">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="G211" s="2">
-        <v>3.46</v>
+        <v>3.45</v>
       </c>
       <c r="H211" s="2">
-        <v>536</v>
+        <v>881</v>
       </c>
       <c r="I211" s="3">
-        <v>0.60099999999999998</v>
+        <v>0.59099999999999997</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
@@ -5495,22 +5495,22 @@
         <v>153</v>
       </c>
       <c r="D213" s="2">
-        <v>587</v>
+        <v>837</v>
       </c>
       <c r="E213" s="2">
-        <v>2.31</v>
+        <v>2.37</v>
       </c>
       <c r="F213" s="2">
-        <v>220</v>
+        <v>340</v>
       </c>
       <c r="G213" s="2">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="H213" s="2">
-        <v>1255</v>
+        <v>2116</v>
       </c>
       <c r="I213" s="3">
-        <v>0.55800000000000005</v>
+        <v>0.57099999999999995</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
@@ -5535,22 +5535,22 @@
         <v>153</v>
       </c>
       <c r="D215" s="2">
-        <v>1435</v>
+        <v>2056</v>
       </c>
       <c r="E215" s="2">
-        <v>6.25</v>
+        <v>6.2</v>
       </c>
       <c r="F215" s="2">
-        <v>265</v>
+        <v>396</v>
       </c>
       <c r="G215" s="2">
-        <v>8.52</v>
+        <v>8.49</v>
       </c>
       <c r="H215" s="2">
-        <v>1087</v>
+        <v>1719</v>
       </c>
       <c r="I215" s="3">
-        <v>0.55100000000000005</v>
+        <v>0.55700000000000005</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
@@ -5575,22 +5575,22 @@
         <v>10</v>
       </c>
       <c r="D217" s="2">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="E217" s="2">
         <v>1</v>
       </c>
       <c r="F217" s="2">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="G217" s="2">
         <v>1</v>
       </c>
       <c r="H217" s="2">
-        <v>213</v>
+        <v>347</v>
       </c>
       <c r="I217" s="3">
-        <v>0.54</v>
+        <v>0.53900000000000003</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
@@ -5615,22 +5615,22 @@
         <v>153</v>
       </c>
       <c r="D219" s="2">
-        <v>1388</v>
+        <v>2045</v>
       </c>
       <c r="E219" s="2">
-        <v>6.19</v>
+        <v>6.33</v>
       </c>
       <c r="F219" s="2">
-        <v>164</v>
+        <v>254</v>
       </c>
       <c r="G219" s="2">
-        <v>8.84</v>
+        <v>8.92</v>
       </c>
       <c r="H219" s="2">
-        <v>526</v>
+        <v>915</v>
       </c>
       <c r="I219" s="3">
-        <v>0.52100000000000002</v>
+        <v>0.53300000000000003</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
@@ -5655,22 +5655,22 @@
         <v>153</v>
       </c>
       <c r="D221" s="2">
-        <v>1420</v>
+        <v>2052</v>
       </c>
       <c r="E221" s="2">
-        <v>6.24</v>
+        <v>6.25</v>
       </c>
       <c r="F221" s="2">
-        <v>269</v>
+        <v>420</v>
       </c>
       <c r="G221" s="2">
-        <v>7.98</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="H221" s="2">
-        <v>1227</v>
+        <v>2028</v>
       </c>
       <c r="I221" s="3">
-        <v>0.56100000000000005</v>
+        <v>0.57299999999999995</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
@@ -5695,22 +5695,22 @@
         <v>153</v>
       </c>
       <c r="D223" s="2">
-        <v>1442</v>
+        <v>2137</v>
       </c>
       <c r="E223" s="2">
-        <v>8.67</v>
+        <v>8.61</v>
       </c>
       <c r="F223" s="2">
-        <v>358</v>
+        <v>562</v>
       </c>
       <c r="G223" s="2">
-        <v>10.53</v>
+        <v>10.43</v>
       </c>
       <c r="H223" s="2">
-        <v>666</v>
+        <v>1159</v>
       </c>
       <c r="I223" s="3">
-        <v>0.53300000000000003</v>
+        <v>0.53800000000000003</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
@@ -5735,22 +5735,22 @@
         <v>11</v>
       </c>
       <c r="D225" s="2">
-        <v>314</v>
+        <v>447</v>
       </c>
       <c r="E225" s="2">
-        <v>2.83</v>
+        <v>2.86</v>
       </c>
       <c r="F225" s="2">
-        <v>140</v>
+        <v>214</v>
       </c>
       <c r="G225" s="2">
-        <v>3.17</v>
+        <v>3.21</v>
       </c>
       <c r="H225" s="2">
-        <v>864</v>
+        <v>1428</v>
       </c>
       <c r="I225" s="3">
-        <v>0.55700000000000005</v>
+        <v>0.57099999999999995</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
@@ -5775,22 +5775,22 @@
         <v>153</v>
       </c>
       <c r="D227" s="2">
-        <v>1466</v>
+        <v>2094</v>
       </c>
       <c r="E227" s="2">
-        <v>6.2</v>
+        <v>6.27</v>
       </c>
       <c r="F227" s="2">
-        <v>164</v>
+        <v>256</v>
       </c>
       <c r="G227" s="2">
-        <v>8.8699999999999992</v>
+        <v>8.82</v>
       </c>
       <c r="H227" s="2">
-        <v>640</v>
+        <v>1070</v>
       </c>
       <c r="I227" s="3">
-        <v>0.55200000000000005</v>
+        <v>0.56899999999999995</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
@@ -5815,22 +5815,22 @@
         <v>153</v>
       </c>
       <c r="D229" s="2">
-        <v>1105</v>
+        <v>1590</v>
       </c>
       <c r="E229" s="2">
-        <v>4.3099999999999996</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="F229" s="2">
-        <v>116</v>
+        <v>189</v>
       </c>
       <c r="G229" s="2">
-        <v>5.95</v>
+        <v>6.32</v>
       </c>
       <c r="H229" s="2">
-        <v>669</v>
+        <v>1133</v>
       </c>
       <c r="I229" s="3">
-        <v>0.56200000000000006</v>
+        <v>0.56399999999999995</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
@@ -5855,22 +5855,22 @@
         <v>153</v>
       </c>
       <c r="D231" s="2">
-        <v>1504</v>
+        <v>2165</v>
       </c>
       <c r="E231" s="2">
-        <v>6.06</v>
+        <v>6.09</v>
       </c>
       <c r="F231" s="2">
-        <v>287</v>
+        <v>441</v>
       </c>
       <c r="G231" s="2">
-        <v>7.91</v>
+        <v>7.83</v>
       </c>
       <c r="H231" s="2">
-        <v>1191</v>
+        <v>2120</v>
       </c>
       <c r="I231" s="3">
-        <v>0.55300000000000005</v>
+        <v>0.56100000000000005</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
@@ -5895,22 +5895,22 @@
         <v>153</v>
       </c>
       <c r="D233" s="2">
-        <v>1582</v>
+        <v>2246</v>
       </c>
       <c r="E233" s="2">
-        <v>8.67</v>
+        <v>8.7200000000000006</v>
       </c>
       <c r="F233" s="2">
-        <v>320</v>
+        <v>487</v>
       </c>
       <c r="G233" s="2">
-        <v>10.83</v>
+        <v>10.78</v>
       </c>
       <c r="H233" s="2">
-        <v>656</v>
+        <v>1121</v>
       </c>
       <c r="I233" s="3">
-        <v>0.55300000000000005</v>
+        <v>0.56499999999999995</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
@@ -5935,22 +5935,22 @@
         <v>10</v>
       </c>
       <c r="D235" s="2">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="E235" s="2">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="F235" s="2">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G235" s="2">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="H235" s="2">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="I235" s="3">
-        <v>0.46700000000000003</v>
+        <v>0.53600000000000003</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
@@ -5975,22 +5975,22 @@
         <v>10</v>
       </c>
       <c r="D237" s="2">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="E237" s="2">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="F237" s="2">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="G237" s="2">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="H237" s="2">
-        <v>165</v>
+        <v>289</v>
       </c>
       <c r="I237" s="3">
-        <v>0.54500000000000004</v>
+        <v>0.57799999999999996</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
@@ -6015,22 +6015,22 @@
         <v>11</v>
       </c>
       <c r="D239" s="2">
-        <v>326</v>
+        <v>498</v>
       </c>
       <c r="E239" s="2">
-        <v>3.55</v>
+        <v>3.66</v>
       </c>
       <c r="F239" s="2">
-        <v>117</v>
+        <v>194</v>
       </c>
       <c r="G239" s="2">
-        <v>3.91</v>
+        <v>4.16</v>
       </c>
       <c r="H239" s="2">
-        <v>758</v>
+        <v>1313</v>
       </c>
       <c r="I239" s="3">
-        <v>0.55900000000000005</v>
+        <v>0.57499999999999996</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
@@ -6055,22 +6055,22 @@
         <v>153</v>
       </c>
       <c r="D241" s="2">
-        <v>1410</v>
+        <v>2077</v>
       </c>
       <c r="E241" s="2">
         <v>6.05</v>
       </c>
       <c r="F241" s="2">
-        <v>345</v>
+        <v>506</v>
       </c>
       <c r="G241" s="2">
-        <v>7.45</v>
+        <v>7.5</v>
       </c>
       <c r="H241" s="2">
-        <v>1401</v>
+        <v>2363</v>
       </c>
       <c r="I241" s="3">
-        <v>0.54800000000000004</v>
+        <v>0.55600000000000005</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
@@ -6095,22 +6095,22 @@
         <v>11</v>
       </c>
       <c r="D243" s="2">
-        <v>558</v>
+        <v>816</v>
       </c>
       <c r="E243" s="2">
-        <v>8.5299999999999994</v>
+        <v>8.57</v>
       </c>
       <c r="F243" s="2">
-        <v>106</v>
+        <v>157</v>
       </c>
       <c r="G243" s="2">
-        <v>10.63</v>
+        <v>10.64</v>
       </c>
       <c r="H243" s="2">
-        <v>121</v>
+        <v>217</v>
       </c>
       <c r="I243" s="3">
-        <v>0.56200000000000006</v>
+        <v>0.55300000000000005</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
@@ -6135,22 +6135,22 @@
         <v>153</v>
       </c>
       <c r="D245" s="2">
-        <v>940</v>
+        <v>1360</v>
       </c>
       <c r="E245" s="2">
-        <v>3.53</v>
+        <v>3.51</v>
       </c>
       <c r="F245" s="2">
-        <v>164</v>
+        <v>256</v>
       </c>
       <c r="G245" s="2">
         <v>4.71</v>
       </c>
       <c r="H245" s="2">
-        <v>993</v>
+        <v>1661</v>
       </c>
       <c r="I245" s="3">
-        <v>0.58499999999999996</v>
+        <v>0.57899999999999996</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
@@ -6175,22 +6175,22 @@
         <v>10</v>
       </c>
       <c r="D247" s="2">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="E247" s="2">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="F247" s="2">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="G247" s="2">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="H247" s="2">
-        <v>266</v>
+        <v>430</v>
       </c>
       <c r="I247" s="3">
-        <v>0.55300000000000005</v>
+        <v>0.58399999999999996</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
@@ -6214,22 +6214,22 @@
         <v>10</v>
       </c>
       <c r="D249">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="E249">
-        <v>1.79</v>
+        <v>1.64</v>
       </c>
       <c r="F249">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="G249">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="H249">
-        <v>109</v>
+        <v>257</v>
       </c>
       <c r="I249" s="4">
-        <v>0.56000000000000005</v>
+        <v>0.55600000000000005</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
@@ -6246,22 +6246,22 @@
         <v>11</v>
       </c>
       <c r="D251">
-        <v>223</v>
+        <v>331</v>
       </c>
       <c r="E251">
-        <v>2.42</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F251">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="G251">
-        <v>2.86</v>
+        <v>2.77</v>
       </c>
       <c r="H251">
-        <v>376</v>
+        <v>520</v>
       </c>
       <c r="I251" s="4">
-        <v>0.54800000000000004</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
@@ -6278,22 +6278,22 @@
         <v>153</v>
       </c>
       <c r="D253">
-        <v>1160</v>
+        <v>1656</v>
       </c>
       <c r="E253">
-        <v>4.3499999999999996</v>
+        <v>4.33</v>
       </c>
       <c r="F253">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="G253">
-        <v>7.95</v>
+        <v>7.43</v>
       </c>
       <c r="H253">
-        <v>144</v>
+        <v>197</v>
       </c>
       <c r="I253" s="4">
-        <v>0.51400000000000001</v>
+        <v>0.52800000000000002</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
@@ -6310,22 +6310,22 @@
         <v>153</v>
       </c>
       <c r="D255">
-        <v>1473</v>
+        <v>2114</v>
       </c>
       <c r="E255">
-        <v>6.49</v>
+        <v>6.48</v>
       </c>
       <c r="F255">
-        <v>156</v>
+        <v>209</v>
       </c>
       <c r="G255">
-        <v>9.2200000000000006</v>
+        <v>9.39</v>
       </c>
       <c r="H255">
-        <v>613</v>
+        <v>728</v>
       </c>
       <c r="I255" s="4">
-        <v>0.55500000000000005</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
@@ -6342,22 +6342,22 @@
         <v>11</v>
       </c>
       <c r="D257">
-        <v>391</v>
+        <v>561</v>
       </c>
       <c r="E257">
-        <v>3.91</v>
+        <v>3.99</v>
       </c>
       <c r="F257">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="G257">
-        <v>5.17</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="H257">
-        <v>277</v>
+        <v>457</v>
       </c>
       <c r="I257" s="4">
-        <v>0.58099999999999996</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
@@ -6374,22 +6374,22 @@
         <v>11</v>
       </c>
       <c r="D259">
-        <v>283</v>
+        <v>401</v>
       </c>
       <c r="E259">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="F259">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="G259">
-        <v>3.65</v>
+        <v>3.63</v>
       </c>
       <c r="H259">
-        <v>386</v>
+        <v>577</v>
       </c>
       <c r="I259" s="4">
-        <v>0.57299999999999995</v>
+        <v>0.56799999999999995</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
@@ -6406,22 +6406,22 @@
         <v>11</v>
       </c>
       <c r="D261">
-        <v>438</v>
+        <v>623</v>
       </c>
       <c r="E261">
-        <v>4.74</v>
+        <v>4.63</v>
       </c>
       <c r="F261">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="G261">
-        <v>7</v>
+        <v>7.09</v>
       </c>
       <c r="H261">
-        <v>267</v>
+        <v>356</v>
       </c>
       <c r="I261" s="4">
-        <v>0.57699999999999996</v>
+        <v>0.56499999999999995</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
@@ -6438,22 +6438,22 @@
         <v>11</v>
       </c>
       <c r="D263">
-        <v>418</v>
+        <v>609</v>
       </c>
       <c r="E263">
-        <v>3.97</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="F263">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="G263">
-        <v>4.8</v>
+        <v>4.95</v>
       </c>
       <c r="H263">
-        <v>369</v>
+        <v>550</v>
       </c>
       <c r="I263" s="4">
-        <v>0.52</v>
+        <v>0.52900000000000003</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
@@ -6470,22 +6470,22 @@
         <v>11</v>
       </c>
       <c r="D265">
-        <v>606</v>
+        <v>882</v>
       </c>
       <c r="E265">
-        <v>8.8800000000000008</v>
+        <v>8.9</v>
       </c>
       <c r="F265">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c r="G265">
-        <v>11.46</v>
+        <v>11.53</v>
       </c>
       <c r="H265">
-        <v>159</v>
+        <v>194</v>
       </c>
       <c r="I265" s="4">
-        <v>0.59699999999999998</v>
+        <v>0.58799999999999997</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
@@ -6502,22 +6502,22 @@
         <v>11</v>
       </c>
       <c r="D267">
-        <v>302</v>
+        <v>433</v>
       </c>
       <c r="E267">
-        <v>3.18</v>
+        <v>3.08</v>
       </c>
       <c r="F267">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="G267">
-        <v>3.91</v>
+        <v>3.79</v>
       </c>
       <c r="H267">
-        <v>492</v>
+        <v>735</v>
       </c>
       <c r="I267" s="4">
-        <v>0.53300000000000003</v>
+        <v>0.54800000000000004</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
@@ -6534,22 +6534,22 @@
         <v>153</v>
       </c>
       <c r="D269">
-        <v>1428</v>
+        <v>2077</v>
       </c>
       <c r="E269">
-        <v>6.3</v>
+        <v>6.32</v>
       </c>
       <c r="F269">
-        <v>212</v>
+        <v>290</v>
       </c>
       <c r="G269">
-        <v>8.91</v>
+        <v>8.64</v>
       </c>
       <c r="H269">
-        <v>815</v>
+        <v>1223</v>
       </c>
       <c r="I269" s="4">
-        <v>0.55200000000000005</v>
+        <v>0.56299999999999994</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
@@ -6566,22 +6566,22 @@
         <v>153</v>
       </c>
       <c r="D271">
-        <v>944</v>
+        <v>1346</v>
       </c>
       <c r="E271">
-        <v>3.57</v>
+        <v>3.53</v>
       </c>
       <c r="F271">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="G271">
-        <v>5.41</v>
+        <v>5.73</v>
       </c>
       <c r="H271">
-        <v>363</v>
+        <v>461</v>
       </c>
       <c r="I271" s="4">
-        <v>0.52900000000000003</v>
+        <v>0.52100000000000002</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
@@ -6598,22 +6598,22 @@
         <v>11</v>
       </c>
       <c r="D273">
-        <v>577</v>
+        <v>819</v>
       </c>
       <c r="E273">
-        <v>6.15</v>
+        <v>6.18</v>
       </c>
       <c r="F273">
-        <v>124</v>
+        <v>171</v>
       </c>
       <c r="G273">
-        <v>6.4</v>
+        <v>6.77</v>
       </c>
       <c r="H273">
-        <v>523</v>
+        <v>663</v>
       </c>
       <c r="I273" s="4">
-        <v>0.57599999999999996</v>
+        <v>0.57899999999999996</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
@@ -6630,19 +6630,19 @@
         <v>153</v>
       </c>
       <c r="D275">
-        <v>1424</v>
+        <v>2105</v>
       </c>
       <c r="E275">
-        <v>6.52</v>
+        <v>6.45</v>
       </c>
       <c r="F275">
-        <v>132</v>
+        <v>191</v>
       </c>
       <c r="G275">
-        <v>9.83</v>
+        <v>9.64</v>
       </c>
       <c r="H275">
-        <v>538</v>
+        <v>727</v>
       </c>
       <c r="I275" s="4">
         <v>0.56899999999999995</v>
@@ -6662,22 +6662,22 @@
         <v>11</v>
       </c>
       <c r="D277">
-        <v>358</v>
+        <v>485</v>
       </c>
       <c r="E277">
-        <v>3.49</v>
+        <v>3.54</v>
       </c>
       <c r="F277">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="G277">
-        <v>4.37</v>
+        <v>4.55</v>
       </c>
       <c r="H277">
-        <v>306</v>
+        <v>408</v>
       </c>
       <c r="I277" s="4">
-        <v>0.51600000000000001</v>
+        <v>0.53900000000000003</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
@@ -6694,22 +6694,22 @@
         <v>11</v>
       </c>
       <c r="D279">
-        <v>545</v>
+        <v>808</v>
       </c>
       <c r="E279">
-        <v>6.54</v>
+        <v>6.48</v>
       </c>
       <c r="F279">
-        <v>115</v>
+        <v>157</v>
       </c>
       <c r="G279">
-        <v>7.91</v>
+        <v>8.08</v>
       </c>
       <c r="H279">
-        <v>483</v>
+        <v>641</v>
       </c>
       <c r="I279" s="4">
-        <v>0.53800000000000003</v>
+        <v>0.53400000000000003</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
@@ -6726,22 +6726,22 @@
         <v>153</v>
       </c>
       <c r="D281">
-        <v>1145</v>
+        <v>1668</v>
       </c>
       <c r="E281">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="F281">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="G281">
-        <v>6.14</v>
+        <v>6.33</v>
       </c>
       <c r="H281">
-        <v>737</v>
+        <v>954</v>
       </c>
       <c r="I281" s="4">
-        <v>0.55100000000000005</v>
+        <v>0.54900000000000004</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
@@ -6758,22 +6758,22 @@
         <v>153</v>
       </c>
       <c r="D283">
-        <v>1021</v>
+        <v>1503</v>
       </c>
       <c r="E283">
-        <v>4.22</v>
+        <v>4.2</v>
       </c>
       <c r="F283">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G283">
-        <v>7.19</v>
+        <v>7.23</v>
       </c>
       <c r="H283">
-        <v>148</v>
+        <v>221</v>
       </c>
       <c r="I283" s="4">
-        <v>0.57399999999999995</v>
+        <v>0.54300000000000004</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
@@ -6790,22 +6790,22 @@
         <v>153</v>
       </c>
       <c r="D285">
-        <v>543</v>
+        <v>766</v>
       </c>
       <c r="E285">
-        <v>2.14</v>
+        <v>2.17</v>
       </c>
       <c r="F285">
-        <v>116</v>
+        <v>163</v>
       </c>
       <c r="G285">
-        <v>2.3199999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="H285">
-        <v>647</v>
+        <v>970</v>
       </c>
       <c r="I285" s="4">
-        <v>0.56699999999999995</v>
+        <v>0.55200000000000005</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
@@ -6822,22 +6822,22 @@
         <v>153</v>
       </c>
       <c r="D287">
-        <v>1479</v>
+        <v>2156</v>
       </c>
       <c r="E287">
-        <v>8.75</v>
+        <v>8.7899999999999991</v>
       </c>
       <c r="F287">
-        <v>199</v>
+        <v>288</v>
       </c>
       <c r="G287">
-        <v>11.57</v>
+        <v>11.74</v>
       </c>
       <c r="H287">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="I287" s="4">
-        <v>0.48299999999999998</v>
+        <v>0.48799999999999999</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
@@ -6854,22 +6854,22 @@
         <v>153</v>
       </c>
       <c r="D289">
-        <v>1592</v>
+        <v>2247</v>
       </c>
       <c r="E289">
-        <v>8.94</v>
+        <v>8.93</v>
       </c>
       <c r="F289">
-        <v>214</v>
+        <v>284</v>
       </c>
       <c r="G289">
-        <v>12.09</v>
+        <v>12.14</v>
       </c>
       <c r="H289">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="I289" s="4">
-        <v>0.52100000000000002</v>
+        <v>0.51300000000000001</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
@@ -6886,22 +6886,22 @@
         <v>153</v>
       </c>
       <c r="D291">
-        <v>757</v>
+        <v>1073</v>
       </c>
       <c r="E291">
-        <v>2.97</v>
+        <v>2.98</v>
       </c>
       <c r="F291">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="G291">
-        <v>3.72</v>
+        <v>3.66</v>
       </c>
       <c r="H291">
-        <v>845</v>
+        <v>1145</v>
       </c>
       <c r="I291" s="4">
-        <v>0.56399999999999995</v>
+        <v>0.56599999999999995</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
@@ -6918,22 +6918,22 @@
         <v>153</v>
       </c>
       <c r="D293">
-        <v>1388</v>
+        <v>2056</v>
       </c>
       <c r="E293">
-        <v>6.47</v>
+        <v>6.48</v>
       </c>
       <c r="F293">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="G293">
-        <v>9.69</v>
+        <v>9.74</v>
       </c>
       <c r="H293">
-        <v>369</v>
+        <v>530</v>
       </c>
       <c r="I293" s="4">
-        <v>0.53900000000000003</v>
+        <v>0.53800000000000003</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
@@ -6950,22 +6950,22 @@
         <v>12</v>
       </c>
       <c r="D295">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E295">
         <v>1</v>
       </c>
       <c r="F295">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G295">
         <v>1</v>
       </c>
       <c r="H295">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="I295" s="4">
-        <v>0.51</v>
+        <v>0.55200000000000005</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
@@ -6982,22 +6982,22 @@
         <v>10</v>
       </c>
       <c r="D297">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E297">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="F297">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G297">
-        <v>1.1399999999999999</v>
+        <v>1.26</v>
       </c>
       <c r="H297">
-        <v>230</v>
+        <v>327</v>
       </c>
       <c r="I297" s="4">
-        <v>0.57399999999999995</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
@@ -7014,22 +7014,22 @@
         <v>153</v>
       </c>
       <c r="D299">
-        <v>1488</v>
+        <v>2152</v>
       </c>
       <c r="E299">
-        <v>8.93</v>
+        <v>8.82</v>
       </c>
       <c r="F299">
-        <v>264</v>
+        <v>383</v>
       </c>
       <c r="G299">
-        <v>11.25</v>
+        <v>11.23</v>
       </c>
       <c r="H299">
-        <v>344</v>
+        <v>586</v>
       </c>
       <c r="I299" s="4">
-        <v>0.53800000000000003</v>
+        <v>0.55600000000000005</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.25">
@@ -7046,16 +7046,16 @@
         <v>12</v>
       </c>
       <c r="D301">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E301">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="F301">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G301">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="H301">
         <v>25</v>
@@ -7078,22 +7078,22 @@
         <v>10</v>
       </c>
       <c r="D303">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="E303">
         <v>1</v>
       </c>
       <c r="F303">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="G303">
         <v>1</v>
       </c>
       <c r="H303">
-        <v>194</v>
+        <v>259</v>
       </c>
       <c r="I303" s="4">
-        <v>0.56699999999999995</v>
+        <v>0.57099999999999995</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.25">
@@ -7110,22 +7110,22 @@
         <v>153</v>
       </c>
       <c r="D305">
-        <v>1561</v>
+        <v>2237</v>
       </c>
       <c r="E305">
-        <v>8.99</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="F305">
-        <v>180</v>
+        <v>231</v>
       </c>
       <c r="G305">
-        <v>12.61</v>
+        <v>12.73</v>
       </c>
       <c r="H305">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I305" s="4">
-        <v>0.57499999999999996</v>
+        <v>0.57799999999999996</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
@@ -7142,22 +7142,22 @@
         <v>11</v>
       </c>
       <c r="D307">
-        <v>564</v>
+        <v>796</v>
       </c>
       <c r="E307">
-        <v>6.63</v>
+        <v>6.5</v>
       </c>
       <c r="F307">
-        <v>123</v>
+        <v>167</v>
       </c>
       <c r="G307">
-        <v>8.59</v>
+        <v>8.24</v>
       </c>
       <c r="H307">
-        <v>511</v>
+        <v>693</v>
       </c>
       <c r="I307" s="4">
-        <v>0.53600000000000003</v>
+        <v>0.54300000000000004</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.25">
@@ -7174,22 +7174,22 @@
         <v>153</v>
       </c>
       <c r="D309">
-        <v>1449</v>
+        <v>2117</v>
       </c>
       <c r="E309">
-        <v>6.48</v>
+        <v>6.35</v>
       </c>
       <c r="F309">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="G309">
-        <v>9.0500000000000007</v>
+        <v>8.99</v>
       </c>
       <c r="H309">
-        <v>633</v>
+        <v>896</v>
       </c>
       <c r="I309" s="4">
-        <v>0.54200000000000004</v>
+        <v>0.55100000000000005</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.25">
@@ -7206,22 +7206,22 @@
         <v>153</v>
       </c>
       <c r="D311">
-        <v>1400</v>
+        <v>2012</v>
       </c>
       <c r="E311">
-        <v>6.48</v>
+        <v>6.49</v>
       </c>
       <c r="F311">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="G311">
-        <v>8.75</v>
+        <v>9.02</v>
       </c>
       <c r="H311">
-        <v>484</v>
+        <v>620</v>
       </c>
       <c r="I311" s="4">
-        <v>0.55000000000000004</v>
+        <v>0.54400000000000004</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
@@ -7238,22 +7238,22 @@
         <v>10</v>
       </c>
       <c r="D313">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="E313">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="F313">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G313">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="H313">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="I313" s="4">
-        <v>0.50800000000000001</v>
+        <v>0.50900000000000001</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.25">
@@ -7270,22 +7270,22 @@
         <v>10</v>
       </c>
       <c r="D315">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E315">
         <v>1</v>
       </c>
       <c r="F315">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G315">
         <v>1</v>
       </c>
       <c r="H315">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="I315" s="4">
-        <v>0.54</v>
+        <v>0.53100000000000003</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
@@ -7302,22 +7302,22 @@
         <v>10</v>
       </c>
       <c r="D317">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E317">
         <v>1</v>
       </c>
       <c r="F317">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G317">
         <v>1</v>
       </c>
       <c r="H317">
-        <v>159</v>
+        <v>219</v>
       </c>
       <c r="I317" s="4">
-        <v>0.53500000000000003</v>
+        <v>0.55300000000000005</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.25">
@@ -7333,22 +7333,22 @@
         <v>153</v>
       </c>
       <c r="D319">
-        <v>1416</v>
+        <v>2061</v>
       </c>
       <c r="E319">
-        <v>6.5</v>
+        <v>6.47</v>
       </c>
       <c r="F319">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="G319">
-        <v>10.01</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="H319">
-        <v>185</v>
+        <v>278</v>
       </c>
       <c r="I319" s="4">
-        <v>0.54100000000000004</v>
+        <v>0.51100000000000001</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.25">
@@ -7365,22 +7365,22 @@
         <v>11</v>
       </c>
       <c r="D321">
-        <v>561</v>
+        <v>815</v>
       </c>
       <c r="E321">
-        <v>6.16</v>
+        <v>6.18</v>
       </c>
       <c r="F321">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="G321">
-        <v>8.6300000000000008</v>
+        <v>8.77</v>
       </c>
       <c r="H321">
-        <v>115</v>
+        <v>198</v>
       </c>
       <c r="I321" s="4">
-        <v>0.51300000000000001</v>
+        <v>0.47499999999999998</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.25">
@@ -7397,10 +7397,10 @@
         <v>10</v>
       </c>
       <c r="D323">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="E323">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="F323">
         <v>4</v>
@@ -7429,22 +7429,22 @@
         <v>11</v>
       </c>
       <c r="D325">
-        <v>606</v>
+        <v>843</v>
       </c>
       <c r="E325">
-        <v>9.06</v>
+        <v>9.08</v>
       </c>
       <c r="F325">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="G325">
-        <v>11.83</v>
+        <v>11.84</v>
       </c>
       <c r="H325">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I325" s="4">
-        <v>0.56799999999999995</v>
+        <v>0.56399999999999995</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.25">
@@ -7461,22 +7461,22 @@
         <v>153</v>
       </c>
       <c r="D327">
-        <v>1435</v>
+        <v>2045</v>
       </c>
       <c r="E327">
-        <v>6.22</v>
+        <v>6.23</v>
       </c>
       <c r="F327">
-        <v>282</v>
+        <v>381</v>
       </c>
       <c r="G327">
-        <v>7.83</v>
+        <v>7.78</v>
       </c>
       <c r="H327">
-        <v>1087</v>
+        <v>1531</v>
       </c>
       <c r="I327" s="4">
-        <v>0.56399999999999995</v>
+        <v>0.55600000000000005</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.25">
@@ -7493,22 +7493,22 @@
         <v>153</v>
       </c>
       <c r="D329">
-        <v>1373</v>
+        <v>1979</v>
       </c>
       <c r="E329">
-        <v>6.49</v>
+        <v>6.37</v>
       </c>
       <c r="F329">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="G329">
-        <v>10.48</v>
+        <v>10.31</v>
       </c>
       <c r="H329">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="I329" s="4">
-        <v>0.59799999999999998</v>
+        <v>0.59199999999999997</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.25">
@@ -7525,22 +7525,22 @@
         <v>10</v>
       </c>
       <c r="D331">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E331">
         <v>1</v>
       </c>
       <c r="F331">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="G331">
         <v>1</v>
       </c>
       <c r="H331">
-        <v>182</v>
+        <v>275</v>
       </c>
       <c r="I331" s="4">
-        <v>0.47299999999999998</v>
+        <v>0.48399999999999999</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.25">
@@ -7557,22 +7557,22 @@
         <v>11</v>
       </c>
       <c r="D333">
-        <v>589</v>
+        <v>873</v>
       </c>
       <c r="E333">
-        <v>8.3800000000000008</v>
+        <v>8.33</v>
       </c>
       <c r="F333">
-        <v>183</v>
+        <v>284</v>
       </c>
       <c r="G333">
-        <v>9.4600000000000009</v>
+        <v>9.19</v>
       </c>
       <c r="H333">
-        <v>480</v>
+        <v>807</v>
       </c>
       <c r="I333" s="4">
-        <v>0.55000000000000004</v>
+        <v>0.57099999999999995</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
@@ -7589,22 +7589,22 @@
         <v>11</v>
       </c>
       <c r="D335">
-        <v>541</v>
+        <v>782</v>
       </c>
       <c r="E335">
-        <v>6.09</v>
+        <v>6.04</v>
       </c>
       <c r="F335">
-        <v>178</v>
+        <v>247</v>
       </c>
       <c r="G335">
-        <v>7.32</v>
+        <v>7.31</v>
       </c>
       <c r="H335">
-        <v>823</v>
+        <v>1252</v>
       </c>
       <c r="I335" s="4">
-        <v>0.56399999999999995</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.25">
@@ -7621,22 +7621,22 @@
         <v>11</v>
       </c>
       <c r="D337">
-        <v>255</v>
+        <v>353</v>
       </c>
       <c r="E337">
         <v>2.5499999999999998</v>
       </c>
       <c r="F337">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="G337">
-        <v>3.18</v>
+        <v>3.16</v>
       </c>
       <c r="H337">
-        <v>638</v>
+        <v>835</v>
       </c>
       <c r="I337" s="4">
-        <v>0.55200000000000005</v>
+        <v>0.55600000000000005</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.25">
@@ -7653,22 +7653,22 @@
         <v>10</v>
       </c>
       <c r="D339">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="E339">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="F339">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="G339">
-        <v>1.38</v>
+        <v>1.69</v>
       </c>
       <c r="H339">
-        <v>149</v>
+        <v>268</v>
       </c>
       <c r="I339" s="4">
-        <v>0.48299999999999998</v>
+        <v>0.51500000000000001</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.25">
@@ -7685,22 +7685,22 @@
         <v>10</v>
       </c>
       <c r="D341">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="E341">
         <v>1</v>
       </c>
       <c r="F341">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G341">
         <v>1</v>
       </c>
       <c r="H341">
-        <v>206</v>
+        <v>297</v>
       </c>
       <c r="I341" s="4">
-        <v>0.56299999999999994</v>
+        <v>0.52900000000000003</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.25">
@@ -7717,22 +7717,22 @@
         <v>153</v>
       </c>
       <c r="D343">
-        <v>1420</v>
+        <v>2062</v>
       </c>
       <c r="E343">
-        <v>6.15</v>
+        <v>6.12</v>
       </c>
       <c r="F343">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="G343">
-        <v>10.19</v>
+        <v>10.18</v>
       </c>
       <c r="H343">
-        <v>168</v>
+        <v>255</v>
       </c>
       <c r="I343" s="4">
-        <v>0.52400000000000002</v>
+        <v>0.51400000000000001</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.25">
@@ -7749,22 +7749,22 @@
         <v>11</v>
       </c>
       <c r="D345">
-        <v>523</v>
+        <v>781</v>
       </c>
       <c r="E345">
-        <v>5.74</v>
+        <v>5.93</v>
       </c>
       <c r="F345">
-        <v>189</v>
+        <v>266</v>
       </c>
       <c r="G345">
-        <v>6.3</v>
+        <v>6.64</v>
       </c>
       <c r="H345">
-        <v>987</v>
+        <v>1376</v>
       </c>
       <c r="I345" s="4">
-        <v>0.52400000000000002</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.25">
@@ -7781,22 +7781,22 @@
         <v>153</v>
       </c>
       <c r="D347">
-        <v>941</v>
+        <v>1357</v>
       </c>
       <c r="E347">
-        <v>3.48</v>
+        <v>3.5</v>
       </c>
       <c r="F347">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="G347">
-        <v>5</v>
+        <v>5.38</v>
       </c>
       <c r="H347">
-        <v>219</v>
+        <v>426</v>
       </c>
       <c r="I347" s="4">
-        <v>0.47899999999999998</v>
+        <v>0.57299999999999995</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.25">
@@ -7813,22 +7813,22 @@
         <v>153</v>
       </c>
       <c r="D349">
-        <v>906</v>
+        <v>1339</v>
       </c>
       <c r="E349">
-        <v>3.56</v>
+        <v>3.51</v>
       </c>
       <c r="F349">
-        <v>217</v>
+        <v>317</v>
       </c>
       <c r="G349">
-        <v>4.38</v>
+        <v>4.5</v>
       </c>
       <c r="H349">
-        <v>1345</v>
+        <v>1977</v>
       </c>
       <c r="I349" s="4">
-        <v>0.54</v>
+        <v>0.54700000000000004</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.25">
@@ -7845,16 +7845,16 @@
         <v>153</v>
       </c>
       <c r="D351">
-        <v>1485</v>
+        <v>2155</v>
       </c>
       <c r="E351">
-        <v>8.68</v>
+        <v>8.73</v>
       </c>
       <c r="F351">
-        <v>139</v>
+        <v>196</v>
       </c>
       <c r="G351">
-        <v>12.5</v>
+        <v>12.64</v>
       </c>
       <c r="H351">
         <v>6</v>
@@ -7877,22 +7877,22 @@
         <v>11</v>
       </c>
       <c r="D353">
-        <v>298</v>
+        <v>423</v>
       </c>
       <c r="E353">
-        <v>2.89</v>
+        <v>2.92</v>
       </c>
       <c r="F353">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G353">
-        <v>3.71</v>
+        <v>4.7</v>
       </c>
       <c r="H353">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I353" s="4">
-        <v>0.44400000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.25">
@@ -7909,22 +7909,22 @@
         <v>153</v>
       </c>
       <c r="D355">
-        <v>1207</v>
+        <v>1728</v>
       </c>
       <c r="E355">
-        <v>4.33</v>
+        <v>4.41</v>
       </c>
       <c r="F355">
-        <v>232</v>
+        <v>348</v>
       </c>
       <c r="G355">
-        <v>5.92</v>
+        <v>5.94</v>
       </c>
       <c r="H355">
-        <v>1326</v>
+        <v>1936</v>
       </c>
       <c r="I355" s="4">
-        <v>0.55300000000000005</v>
+        <v>0.56299999999999994</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.25">
@@ -7941,22 +7941,22 @@
         <v>10</v>
       </c>
       <c r="D357">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="E357">
         <v>1</v>
       </c>
       <c r="F357">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G357">
         <v>1</v>
       </c>
       <c r="H357">
-        <v>155</v>
+        <v>211</v>
       </c>
       <c r="I357" s="4">
-        <v>0.55500000000000005</v>
+        <v>0.58799999999999997</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.25">
@@ -7973,22 +7973,22 @@
         <v>153</v>
       </c>
       <c r="D359">
-        <v>1093</v>
+        <v>1582</v>
       </c>
       <c r="E359">
         <v>4.1900000000000004</v>
       </c>
       <c r="F359">
-        <v>107</v>
+        <v>155</v>
       </c>
       <c r="G359">
-        <v>6.21</v>
+        <v>6.17</v>
       </c>
       <c r="H359">
-        <v>629</v>
+        <v>962</v>
       </c>
       <c r="I359" s="4">
-        <v>0.55500000000000005</v>
+        <v>0.55400000000000005</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.25">
@@ -8005,22 +8005,22 @@
         <v>11</v>
       </c>
       <c r="D361">
-        <v>508</v>
+        <v>750</v>
       </c>
       <c r="E361">
-        <v>5.87</v>
+        <v>5.89</v>
       </c>
       <c r="F361">
-        <v>210</v>
+        <v>297</v>
       </c>
       <c r="G361">
-        <v>6.43</v>
+        <v>6.63</v>
       </c>
       <c r="H361">
-        <v>1269</v>
+        <v>1633</v>
       </c>
       <c r="I361" s="4">
-        <v>0.56499999999999995</v>
+        <v>0.56299999999999994</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.25">
@@ -8037,22 +8037,22 @@
         <v>10</v>
       </c>
       <c r="D363">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="E363">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="F363">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G363">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="H363">
-        <v>253</v>
+        <v>371</v>
       </c>
       <c r="I363" s="4">
-        <v>0.51</v>
+        <v>0.52800000000000002</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.25">
@@ -8069,22 +8069,22 @@
         <v>11</v>
       </c>
       <c r="D365">
-        <v>414</v>
+        <v>611</v>
       </c>
       <c r="E365">
-        <v>4.0199999999999996</v>
+        <v>3.93</v>
       </c>
       <c r="F365">
-        <v>185</v>
+        <v>254</v>
       </c>
       <c r="G365">
-        <v>4.4800000000000004</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H365">
-        <v>1052</v>
+        <v>1508</v>
       </c>
       <c r="I365" s="4">
-        <v>0.53900000000000003</v>
+        <v>0.54600000000000004</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.25">
@@ -8101,22 +8101,22 @@
         <v>11</v>
       </c>
       <c r="D367">
-        <v>447</v>
+        <v>640</v>
       </c>
       <c r="E367">
-        <v>4.26</v>
+        <v>4.22</v>
       </c>
       <c r="F367">
-        <v>158</v>
+        <v>208</v>
       </c>
       <c r="G367">
         <v>4.99</v>
       </c>
       <c r="H367">
-        <v>952</v>
+        <v>1284</v>
       </c>
       <c r="I367" s="4">
-        <v>0.54600000000000004</v>
+        <v>0.54500000000000004</v>
       </c>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.25">
@@ -8133,22 +8133,22 @@
         <v>153</v>
       </c>
       <c r="D369">
-        <v>1390</v>
+        <v>2078</v>
       </c>
       <c r="E369">
         <v>6.17</v>
       </c>
       <c r="F369">
-        <v>200</v>
+        <v>307</v>
       </c>
       <c r="G369">
-        <v>8.89</v>
+        <v>8.7799999999999994</v>
       </c>
       <c r="H369">
-        <v>794</v>
+        <v>1123</v>
       </c>
       <c r="I369" s="4">
-        <v>0.54700000000000004</v>
+        <v>0.53100000000000003</v>
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.25">
@@ -8165,22 +8165,22 @@
         <v>12</v>
       </c>
       <c r="D371">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E371">
         <v>1</v>
       </c>
       <c r="F371">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G371">
         <v>1</v>
       </c>
       <c r="H371">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="I371" s="4">
-        <v>0.46200000000000002</v>
+        <v>0.435</v>
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.25">
@@ -8197,22 +8197,22 @@
         <v>153</v>
       </c>
       <c r="D373">
-        <v>1360</v>
+        <v>1973</v>
       </c>
       <c r="E373">
-        <v>6.16</v>
+        <v>6.14</v>
       </c>
       <c r="F373">
-        <v>319</v>
+        <v>425</v>
       </c>
       <c r="G373">
-        <v>7.89</v>
+        <v>7.95</v>
       </c>
       <c r="H373">
-        <v>1627</v>
+        <v>2245</v>
       </c>
       <c r="I373" s="4">
-        <v>0.53900000000000003</v>
+        <v>0.54700000000000004</v>
       </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.25">
@@ -8229,22 +8229,22 @@
         <v>153</v>
       </c>
       <c r="D375">
-        <v>797</v>
+        <v>1170</v>
       </c>
       <c r="E375">
-        <v>3.02</v>
+        <v>3.09</v>
       </c>
       <c r="F375">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="G375">
-        <v>5</v>
+        <v>4.82</v>
       </c>
       <c r="H375">
-        <v>397</v>
+        <v>559</v>
       </c>
       <c r="I375" s="4">
-        <v>0.56899999999999995</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.25">
@@ -8261,22 +8261,22 @@
         <v>10</v>
       </c>
       <c r="D377">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="E377">
         <v>1.78</v>
       </c>
       <c r="F377">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G377">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="H377">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="I377" s="4">
-        <v>0.56399999999999995</v>
+        <v>0.58799999999999997</v>
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.25">
@@ -8293,22 +8293,22 @@
         <v>11</v>
       </c>
       <c r="D379">
-        <v>317</v>
+        <v>460</v>
       </c>
       <c r="E379">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="F379">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="G379">
-        <v>3.48</v>
+        <v>3.58</v>
       </c>
       <c r="H379">
-        <v>727</v>
+        <v>997</v>
       </c>
       <c r="I379" s="4">
-        <v>0.57099999999999995</v>
+        <v>0.55700000000000005</v>
       </c>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.25">
@@ -8325,16 +8325,16 @@
         <v>12</v>
       </c>
       <c r="D381">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E381">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="F381">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G381">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="H381">
         <v>2</v>
@@ -8357,22 +8357,22 @@
         <v>153</v>
       </c>
       <c r="D383">
-        <v>1409</v>
+        <v>1997</v>
       </c>
       <c r="E383">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="F383">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="G383">
-        <v>9.11</v>
+        <v>9.15</v>
       </c>
       <c r="H383">
-        <v>510</v>
+        <v>687</v>
       </c>
       <c r="I383" s="4">
-        <v>0.53700000000000003</v>
+        <v>0.54100000000000004</v>
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.25">
@@ -8389,22 +8389,22 @@
         <v>153</v>
       </c>
       <c r="D385">
-        <v>1401</v>
+        <v>2059</v>
       </c>
       <c r="E385">
-        <v>6.04</v>
+        <v>6.09</v>
       </c>
       <c r="F385">
-        <v>248</v>
+        <v>363</v>
       </c>
       <c r="G385">
-        <v>7.9</v>
+        <v>7.98</v>
       </c>
       <c r="H385">
-        <v>853</v>
+        <v>1243</v>
       </c>
       <c r="I385" s="4">
-        <v>0.51100000000000001</v>
+        <v>0.50600000000000001</v>
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.25">
@@ -8421,22 +8421,22 @@
         <v>11</v>
       </c>
       <c r="D387">
-        <v>249</v>
+        <v>353</v>
       </c>
       <c r="E387">
-        <v>2.65</v>
+        <v>2.57</v>
       </c>
       <c r="F387">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="G387">
-        <v>3.14</v>
+        <v>3.05</v>
       </c>
       <c r="H387">
-        <v>751</v>
+        <v>991</v>
       </c>
       <c r="I387" s="4">
-        <v>0.56899999999999995</v>
+        <v>0.56599999999999995</v>
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.25">
@@ -8453,22 +8453,22 @@
         <v>153</v>
       </c>
       <c r="D389">
-        <v>1566</v>
+        <v>2260</v>
       </c>
       <c r="E389">
-        <v>8.4600000000000009</v>
+        <v>8.48</v>
       </c>
       <c r="F389">
-        <v>338</v>
+        <v>462</v>
       </c>
       <c r="G389">
-        <v>10.92</v>
+        <v>10.93</v>
       </c>
       <c r="H389">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="I389" s="4">
-        <v>0.53400000000000003</v>
+        <v>0.54800000000000004</v>
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.25">
@@ -8485,22 +8485,22 @@
         <v>153</v>
       </c>
       <c r="D391">
-        <v>1367</v>
+        <v>2038</v>
       </c>
       <c r="E391">
-        <v>6.01</v>
+        <v>6.03</v>
       </c>
       <c r="F391">
-        <v>234</v>
+        <v>336</v>
       </c>
       <c r="G391">
-        <v>7.74</v>
+        <v>7.86</v>
       </c>
       <c r="H391">
-        <v>1024</v>
+        <v>1479</v>
       </c>
       <c r="I391" s="4">
-        <v>0.54600000000000004</v>
+        <v>0.56499999999999995</v>
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.25">
@@ -8517,22 +8517,22 @@
         <v>11</v>
       </c>
       <c r="D393">
-        <v>195</v>
+        <v>274</v>
       </c>
       <c r="E393">
-        <v>2.3199999999999998</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F393">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="G393">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="H393">
-        <v>676</v>
+        <v>992</v>
       </c>
       <c r="I393" s="4">
-        <v>0.57399999999999995</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.25">
@@ -8549,22 +8549,22 @@
         <v>153</v>
       </c>
       <c r="D395">
-        <v>915</v>
+        <v>1333</v>
       </c>
       <c r="E395">
-        <v>3.58</v>
+        <v>3.57</v>
       </c>
       <c r="F395">
-        <v>140</v>
+        <v>203</v>
       </c>
       <c r="G395">
-        <v>5.01</v>
+        <v>5.08</v>
       </c>
       <c r="H395">
-        <v>900</v>
+        <v>1344</v>
       </c>
       <c r="I395" s="4">
-        <v>0.53900000000000003</v>
+        <v>0.53800000000000003</v>
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.25">
@@ -8581,22 +8581,22 @@
         <v>10</v>
       </c>
       <c r="D397">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="E397">
         <v>1</v>
       </c>
       <c r="F397">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G397">
         <v>1</v>
       </c>
       <c r="H397">
-        <v>279</v>
+        <v>378</v>
       </c>
       <c r="I397" s="4">
-        <v>0.505</v>
+        <v>0.51600000000000001</v>
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.25">
@@ -8613,22 +8613,22 @@
         <v>11</v>
       </c>
       <c r="D399">
-        <v>519</v>
+        <v>772</v>
       </c>
       <c r="E399">
-        <v>6.51</v>
+        <v>6.49</v>
       </c>
       <c r="F399">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="G399">
-        <v>8.7799999999999994</v>
+        <v>8.93</v>
       </c>
       <c r="H399">
-        <v>190</v>
+        <v>280</v>
       </c>
       <c r="I399" s="4">
-        <v>0.47899999999999998</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.25">
@@ -8645,22 +8645,22 @@
         <v>153</v>
       </c>
       <c r="D401">
-        <v>1355</v>
+        <v>1963</v>
       </c>
       <c r="E401">
-        <v>6.07</v>
+        <v>6.11</v>
       </c>
       <c r="F401">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="G401">
-        <v>9.14</v>
+        <v>9.36</v>
       </c>
       <c r="H401">
-        <v>389</v>
+        <v>489</v>
       </c>
       <c r="I401" s="4">
-        <v>0.53200000000000003</v>
+        <v>0.52800000000000002</v>
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.25">
@@ -8677,22 +8677,22 @@
         <v>153</v>
       </c>
       <c r="D403">
-        <v>1440</v>
+        <v>2096</v>
       </c>
       <c r="E403">
-        <v>5.92</v>
+        <v>6.03</v>
       </c>
       <c r="F403">
-        <v>304</v>
+        <v>436</v>
       </c>
       <c r="G403">
-        <v>7.69</v>
+        <v>7.87</v>
       </c>
       <c r="H403">
-        <v>1337</v>
+        <v>1871</v>
       </c>
       <c r="I403" s="4">
-        <v>0.54900000000000004</v>
+        <v>0.54500000000000004</v>
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.25">
@@ -8709,22 +8709,22 @@
         <v>153</v>
       </c>
       <c r="D405">
-        <v>1552</v>
+        <v>2226</v>
       </c>
       <c r="E405">
-        <v>8.49</v>
+        <v>8.51</v>
       </c>
       <c r="F405">
-        <v>424</v>
+        <v>596</v>
       </c>
       <c r="G405">
-        <v>9.8800000000000008</v>
+        <v>10.01</v>
       </c>
       <c r="H405">
-        <v>1265</v>
+        <v>1822</v>
       </c>
       <c r="I405" s="4">
-        <v>0.54400000000000004</v>
+        <v>0.54600000000000004</v>
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.25">
@@ -8741,22 +8741,22 @@
         <v>153</v>
       </c>
       <c r="D407">
-        <v>559</v>
+        <v>807</v>
       </c>
       <c r="E407">
         <v>2.27</v>
       </c>
       <c r="F407">
-        <v>116</v>
+        <v>183</v>
       </c>
       <c r="G407">
-        <v>3.03</v>
+        <v>2.97</v>
       </c>
       <c r="H407">
-        <v>799</v>
+        <v>1285</v>
       </c>
       <c r="I407" s="4">
-        <v>0.55200000000000005</v>
+        <v>0.57299999999999995</v>
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.25">
@@ -8773,22 +8773,22 @@
         <v>153</v>
       </c>
       <c r="D409">
-        <v>781</v>
+        <v>1117</v>
       </c>
       <c r="E409">
-        <v>2.97</v>
+        <v>2.96</v>
       </c>
       <c r="F409">
-        <v>235</v>
+        <v>332</v>
       </c>
       <c r="G409">
-        <v>3.77</v>
+        <v>3.71</v>
       </c>
       <c r="H409">
-        <v>1366</v>
+        <v>1994</v>
       </c>
       <c r="I409" s="4">
-        <v>0.55900000000000005</v>
+        <v>0.56299999999999994</v>
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.25">
@@ -8805,22 +8805,22 @@
         <v>11</v>
       </c>
       <c r="D411">
-        <v>325</v>
+        <v>462</v>
       </c>
       <c r="E411">
-        <v>3.52</v>
+        <v>3.53</v>
       </c>
       <c r="F411">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="G411">
-        <v>4.84</v>
+        <v>4.72</v>
       </c>
       <c r="H411">
-        <v>282</v>
+        <v>382</v>
       </c>
       <c r="I411" s="4">
-        <v>0.54600000000000004</v>
+        <v>0.56799999999999995</v>
       </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.25">
@@ -8837,22 +8837,22 @@
         <v>11</v>
       </c>
       <c r="D413">
-        <v>315</v>
+        <v>471</v>
       </c>
       <c r="E413">
-        <v>3.22</v>
+        <v>3.17</v>
       </c>
       <c r="F413">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="G413">
-        <v>3.41</v>
+        <v>3.35</v>
       </c>
       <c r="H413">
-        <v>455</v>
+        <v>738</v>
       </c>
       <c r="I413" s="4">
-        <v>0.57999999999999996</v>
+        <v>0.58299999999999996</v>
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.25">
@@ -8869,16 +8869,16 @@
         <v>10</v>
       </c>
       <c r="D415">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="E415">
         <v>1.54</v>
       </c>
       <c r="F415">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G415">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="H415">
         <v>0</v>
@@ -8901,22 +8901,22 @@
         <v>12</v>
       </c>
       <c r="D417">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E417">
         <v>1</v>
       </c>
       <c r="F417">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G417">
         <v>1</v>
       </c>
       <c r="H417">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="I417" s="4">
-        <v>0.53300000000000003</v>
+        <v>0.54100000000000004</v>
       </c>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.25">
@@ -8933,22 +8933,22 @@
         <v>10</v>
       </c>
       <c r="D419">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E419">
-        <v>1.1299999999999999</v>
+        <v>1.08</v>
       </c>
       <c r="F419">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G419">
-        <v>1.1399999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="H419">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="I419" s="4">
-        <v>0.53500000000000003</v>
+        <v>0.51200000000000001</v>
       </c>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.25">
@@ -8965,22 +8965,22 @@
         <v>10</v>
       </c>
       <c r="D421">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="E421">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="F421">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G421">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="H421">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="I421" s="4">
-        <v>0.52700000000000002</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.25">
@@ -8997,22 +8997,22 @@
         <v>12</v>
       </c>
       <c r="D423">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E423">
         <v>1</v>
       </c>
       <c r="F423">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G423">
         <v>1</v>
       </c>
       <c r="H423">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="I423" s="4">
-        <v>0.58899999999999997</v>
+        <v>0.57299999999999995</v>
       </c>
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.25">
@@ -9029,16 +9029,16 @@
         <v>10</v>
       </c>
       <c r="D425">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="E425">
-        <v>2.0299999999999998</v>
+        <v>2.1</v>
       </c>
       <c r="F425">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G425">
-        <v>2.33</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="H425">
         <v>7</v>
@@ -9061,22 +9061,22 @@
         <v>11</v>
       </c>
       <c r="D427">
-        <v>579</v>
+        <v>822</v>
       </c>
       <c r="E427">
-        <v>5.9</v>
+        <v>5.91</v>
       </c>
       <c r="F427">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="G427">
-        <v>6.97</v>
+        <v>6.85</v>
       </c>
       <c r="H427">
-        <v>330</v>
+        <v>519</v>
       </c>
       <c r="I427" s="4">
-        <v>0.52400000000000002</v>
+        <v>0.52800000000000002</v>
       </c>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.25">
@@ -9093,22 +9093,22 @@
         <v>10</v>
       </c>
       <c r="D429">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="E429">
         <v>1</v>
       </c>
       <c r="F429">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G429">
         <v>1</v>
       </c>
       <c r="H429">
-        <v>239</v>
+        <v>348</v>
       </c>
       <c r="I429" s="4">
-        <v>0.628</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.25">
@@ -9125,22 +9125,22 @@
         <v>10</v>
       </c>
       <c r="D431">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="E431">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="F431">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G431">
-        <v>1.59</v>
+        <v>1.97</v>
       </c>
       <c r="H431">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I431" s="4">
-        <v>0.44400000000000001</v>
+        <v>0.42899999999999999</v>
       </c>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.25">
@@ -9157,22 +9157,22 @@
         <v>11</v>
       </c>
       <c r="D433">
-        <v>274</v>
+        <v>399</v>
       </c>
       <c r="E433">
-        <v>2.93</v>
+        <v>2.94</v>
       </c>
       <c r="F433">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="G433">
-        <v>3.3</v>
+        <v>3.36</v>
       </c>
       <c r="H433">
-        <v>457</v>
+        <v>693</v>
       </c>
       <c r="I433" s="4">
-        <v>0.50800000000000001</v>
+        <v>0.48299999999999998</v>
       </c>
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.25">
@@ -9189,22 +9189,22 @@
         <v>10</v>
       </c>
       <c r="D435">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="E435">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="F435">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G435">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H435">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="I435" s="4">
-        <v>0.53100000000000003</v>
+        <v>0.56399999999999995</v>
       </c>
     </row>
     <row r="436" spans="1:9" x14ac:dyDescent="0.25">
@@ -9221,22 +9221,22 @@
         <v>10</v>
       </c>
       <c r="D437">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="E437">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="F437">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G437">
-        <v>1.97</v>
+        <v>1.8</v>
       </c>
       <c r="H437">
-        <v>132</v>
+        <v>178</v>
       </c>
       <c r="I437" s="4">
-        <v>0.60599999999999998</v>
+        <v>0.58399999999999996</v>
       </c>
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.25">
@@ -9253,22 +9253,22 @@
         <v>11</v>
       </c>
       <c r="D439">
-        <v>350</v>
+        <v>506</v>
       </c>
       <c r="E439">
-        <v>3.47</v>
+        <v>3.44</v>
       </c>
       <c r="F439">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G439">
-        <v>3.88</v>
+        <v>3.86</v>
       </c>
       <c r="H439">
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="I439" s="4">
-        <v>0.57099999999999995</v>
+        <v>0.56699999999999995</v>
       </c>
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.25">
@@ -9285,22 +9285,22 @@
         <v>12</v>
       </c>
       <c r="D441">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E441">
-        <v>1.1299999999999999</v>
+        <v>1.19</v>
       </c>
       <c r="F441">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G441">
-        <v>1.0900000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="H441">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="I441" s="4">
-        <v>0.54200000000000004</v>
+        <v>0.58399999999999996</v>
       </c>
     </row>
     <row r="442" spans="1:9" x14ac:dyDescent="0.25">
@@ -9317,22 +9317,22 @@
         <v>12</v>
       </c>
       <c r="D443">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E443">
         <v>1</v>
       </c>
       <c r="F443">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G443">
         <v>1</v>
       </c>
       <c r="H443">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="I443" s="4">
-        <v>0.58699999999999997</v>
+        <v>0.55300000000000005</v>
       </c>
     </row>
     <row r="444" spans="1:9" x14ac:dyDescent="0.25">
@@ -9349,22 +9349,22 @@
         <v>10</v>
       </c>
       <c r="D445">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="E445">
-        <v>1.0900000000000001</v>
+        <v>1.06</v>
       </c>
       <c r="F445">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G445">
         <v>1</v>
       </c>
       <c r="H445">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="I445" s="4">
-        <v>0.53800000000000003</v>
+        <v>0.52100000000000002</v>
       </c>
     </row>
     <row r="446" spans="1:9" x14ac:dyDescent="0.25">
@@ -9381,22 +9381,22 @@
         <v>11</v>
       </c>
       <c r="D447">
-        <v>381</v>
+        <v>522</v>
       </c>
       <c r="E447">
         <v>3.35</v>
       </c>
       <c r="F447">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G447">
-        <v>4.3899999999999997</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="H447">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I447" s="4">
-        <v>0.48299999999999998</v>
+        <v>0.45300000000000001</v>
       </c>
     </row>
     <row r="448" spans="1:9" x14ac:dyDescent="0.25">
@@ -9413,22 +9413,22 @@
         <v>12</v>
       </c>
       <c r="D449">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E449">
         <v>1</v>
       </c>
       <c r="F449">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G449">
         <v>1</v>
       </c>
       <c r="H449">
-        <v>103</v>
+        <v>204</v>
       </c>
       <c r="I449" s="4">
-        <v>0.57299999999999995</v>
+        <v>0.61799999999999999</v>
       </c>
     </row>
     <row r="450" spans="1:9" x14ac:dyDescent="0.25">
@@ -9445,22 +9445,22 @@
         <v>11</v>
       </c>
       <c r="D451">
-        <v>337</v>
+        <v>496</v>
       </c>
       <c r="E451">
-        <v>3.42</v>
+        <v>3.4</v>
       </c>
       <c r="F451">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="G451">
-        <v>4.0999999999999996</v>
+        <v>4.03</v>
       </c>
       <c r="H451">
-        <v>258</v>
+        <v>366</v>
       </c>
       <c r="I451" s="4">
-        <v>0.58099999999999996</v>
+        <v>0.58199999999999996</v>
       </c>
     </row>
     <row r="452" spans="1:9" x14ac:dyDescent="0.25">
@@ -9477,22 +9477,22 @@
         <v>11</v>
       </c>
       <c r="D453">
-        <v>440</v>
+        <v>627</v>
       </c>
       <c r="E453">
-        <v>4.74</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="F453">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="G453">
-        <v>5.57</v>
+        <v>5.6</v>
       </c>
       <c r="H453">
-        <v>437</v>
+        <v>681</v>
       </c>
       <c r="I453" s="4">
-        <v>0.55400000000000005</v>
+        <v>0.54200000000000004</v>
       </c>
     </row>
     <row r="454" spans="1:9" x14ac:dyDescent="0.25">
@@ -9509,22 +9509,22 @@
         <v>11</v>
       </c>
       <c r="D455">
-        <v>388</v>
+        <v>576</v>
       </c>
       <c r="E455">
-        <v>4.22</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="F455">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="G455">
-        <v>5.23</v>
+        <v>5.44</v>
       </c>
       <c r="H455">
-        <v>258</v>
+        <v>459</v>
       </c>
       <c r="I455" s="4">
-        <v>0.55400000000000005</v>
+        <v>0.58399999999999996</v>
       </c>
     </row>
     <row r="456" spans="1:9" x14ac:dyDescent="0.25">
@@ -9541,22 +9541,22 @@
         <v>11</v>
       </c>
       <c r="D457">
-        <v>333</v>
+        <v>475</v>
       </c>
       <c r="E457">
-        <v>3.39</v>
+        <v>3.29</v>
       </c>
       <c r="F457">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="G457">
-        <v>4.08</v>
+        <v>3.92</v>
       </c>
       <c r="H457">
-        <v>417</v>
+        <v>548</v>
       </c>
       <c r="I457" s="4">
-        <v>0.57799999999999996</v>
+        <v>0.54700000000000004</v>
       </c>
     </row>
     <row r="458" spans="1:9" x14ac:dyDescent="0.25">
@@ -9573,22 +9573,22 @@
         <v>12</v>
       </c>
       <c r="D459">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E459">
         <v>1</v>
       </c>
       <c r="F459">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G459">
         <v>1</v>
       </c>
       <c r="H459">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="I459" s="4">
-        <v>0.48599999999999999</v>
+        <v>0.52700000000000002</v>
       </c>
     </row>
     <row r="460" spans="1:9" x14ac:dyDescent="0.25">
@@ -9605,19 +9605,19 @@
         <v>11</v>
       </c>
       <c r="D461">
-        <v>372</v>
+        <v>527</v>
       </c>
       <c r="E461">
-        <v>3.86</v>
+        <v>3.92</v>
       </c>
       <c r="F461">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="G461">
-        <v>4.8</v>
+        <v>4.88</v>
       </c>
       <c r="H461">
-        <v>351</v>
+        <v>381</v>
       </c>
       <c r="I461" s="4">
         <v>0.56699999999999995</v>
@@ -9634,19 +9634,19 @@
         <v>153</v>
       </c>
       <c r="D463">
-        <v>1562</v>
+        <v>2258</v>
       </c>
       <c r="E463">
-        <v>7.42</v>
+        <v>7.47</v>
       </c>
       <c r="F463">
-        <v>224</v>
+        <v>338</v>
       </c>
       <c r="G463">
-        <v>9.4499999999999993</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="H463">
-        <v>379</v>
+        <v>623</v>
       </c>
       <c r="I463" s="4">
         <v>0.49099999999999999</v>
@@ -9663,22 +9663,22 @@
         <v>153</v>
       </c>
       <c r="D465">
-        <v>1629</v>
+        <v>2336</v>
       </c>
       <c r="E465">
-        <v>7.81</v>
+        <v>7.76</v>
       </c>
       <c r="F465">
-        <v>141</v>
+        <v>203</v>
       </c>
       <c r="G465">
-        <v>11.24</v>
+        <v>11.26</v>
       </c>
       <c r="H465">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="I465" s="4">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="466" spans="1:9" x14ac:dyDescent="0.25">
@@ -9692,22 +9692,22 @@
         <v>11</v>
       </c>
       <c r="D467">
-        <v>332</v>
+        <v>492</v>
       </c>
       <c r="E467">
         <v>2.96</v>
       </c>
       <c r="F467">
-        <v>149</v>
+        <v>239</v>
       </c>
       <c r="G467">
-        <v>3.43</v>
+        <v>3.46</v>
       </c>
       <c r="H467">
-        <v>1076</v>
+        <v>1742</v>
       </c>
       <c r="I467" s="4">
-        <v>0.56899999999999995</v>
+        <v>0.56299999999999994</v>
       </c>
     </row>
     <row r="468" spans="1:9" x14ac:dyDescent="0.25">
@@ -9721,22 +9721,22 @@
         <v>11</v>
       </c>
       <c r="D469">
-        <v>569</v>
+        <v>830</v>
       </c>
       <c r="E469">
-        <v>7.44</v>
+        <v>7.5</v>
       </c>
       <c r="F469">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="G469">
-        <v>10.43</v>
+        <v>10.41</v>
       </c>
       <c r="H469">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="I469" s="4">
-        <v>0.51100000000000001</v>
+        <v>0.47199999999999998</v>
       </c>
     </row>
     <row r="470" spans="1:9" x14ac:dyDescent="0.25">
@@ -9750,22 +9750,22 @@
         <v>10</v>
       </c>
       <c r="D471">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E471">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="F471">
+        <v>10</v>
+      </c>
+      <c r="G471">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H471">
         <v>9</v>
       </c>
-      <c r="G471">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="H471">
-        <v>5</v>
-      </c>
       <c r="I471" s="4">
-        <v>0.4</v>
+        <v>0.66700000000000004</v>
       </c>
     </row>
     <row r="472" spans="1:9" x14ac:dyDescent="0.25">
@@ -9779,22 +9779,22 @@
         <v>10</v>
       </c>
       <c r="D473">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E473">
         <v>1</v>
       </c>
       <c r="F473">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G473">
         <v>1</v>
       </c>
       <c r="H473">
-        <v>267</v>
+        <v>427</v>
       </c>
       <c r="I473" s="4">
-        <v>0.58099999999999996</v>
+        <v>0.58499999999999996</v>
       </c>
     </row>
     <row r="474" spans="1:9" x14ac:dyDescent="0.25">
@@ -9808,22 +9808,22 @@
         <v>11</v>
       </c>
       <c r="D475">
-        <v>588</v>
+        <v>827</v>
       </c>
       <c r="E475">
-        <v>7.57</v>
+        <v>7.59</v>
       </c>
       <c r="F475">
-        <v>126</v>
+        <v>178</v>
       </c>
       <c r="G475">
-        <v>9.75</v>
+        <v>9.69</v>
       </c>
       <c r="H475">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="I475" s="4">
-        <v>0.54700000000000004</v>
+        <v>0.57899999999999996</v>
       </c>
     </row>
     <row r="476" spans="1:9" x14ac:dyDescent="0.25">
@@ -9837,22 +9837,22 @@
         <v>153</v>
       </c>
       <c r="D477">
-        <v>1308</v>
+        <v>1870</v>
       </c>
       <c r="E477">
-        <v>4.96</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="F477">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G477">
-        <v>8.1</v>
+        <v>8.39</v>
       </c>
       <c r="H477">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="I477" s="4">
-        <v>0.54</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="478" spans="1:9" x14ac:dyDescent="0.25">
@@ -9866,22 +9866,22 @@
         <v>11</v>
       </c>
       <c r="D479">
-        <v>495</v>
+        <v>714</v>
       </c>
       <c r="E479">
-        <v>4.9400000000000004</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="F479">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="G479">
-        <v>6.3</v>
+        <v>6.57</v>
       </c>
       <c r="H479">
-        <v>241</v>
+        <v>318</v>
       </c>
       <c r="I479" s="4">
-        <v>0.53500000000000003</v>
+        <v>0.51900000000000002</v>
       </c>
     </row>
     <row r="480" spans="1:9" x14ac:dyDescent="0.25">
@@ -9895,22 +9895,22 @@
         <v>153</v>
       </c>
       <c r="D481">
-        <v>1310</v>
+        <v>1916</v>
       </c>
       <c r="E481">
-        <v>4.74</v>
+        <v>4.75</v>
       </c>
       <c r="F481">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="G481">
-        <v>7.08</v>
+        <v>7.14</v>
       </c>
       <c r="H481">
-        <v>417</v>
+        <v>632</v>
       </c>
       <c r="I481" s="4">
-        <v>0.53200000000000003</v>
+        <v>0.53500000000000003</v>
       </c>
     </row>
     <row r="482" spans="1:9" x14ac:dyDescent="0.25">
@@ -9924,22 +9924,22 @@
         <v>153</v>
       </c>
       <c r="D483">
-        <v>1465</v>
+        <v>2137</v>
       </c>
       <c r="E483">
-        <v>7.5</v>
+        <v>7.49</v>
       </c>
       <c r="F483">
-        <v>191</v>
+        <v>276</v>
       </c>
       <c r="G483">
-        <v>10.210000000000001</v>
+        <v>10.23</v>
       </c>
       <c r="H483">
-        <v>342</v>
+        <v>550</v>
       </c>
       <c r="I483" s="4">
-        <v>0.52900000000000003</v>
+        <v>0.54400000000000004</v>
       </c>
     </row>
     <row r="484" spans="1:9" x14ac:dyDescent="0.25">
@@ -9953,16 +9953,16 @@
         <v>11</v>
       </c>
       <c r="D485">
-        <v>619</v>
+        <v>892</v>
       </c>
       <c r="E485">
-        <v>7.67</v>
+        <v>7.62</v>
       </c>
       <c r="F485">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="G485">
-        <v>11.31</v>
+        <v>11.22</v>
       </c>
       <c r="H485">
         <v>33</v>
@@ -9982,22 +9982,22 @@
         <v>10</v>
       </c>
       <c r="D487">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="E487">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F487">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G487">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="H487">
-        <v>184</v>
+        <v>257</v>
       </c>
       <c r="I487" s="4">
-        <v>0.54300000000000004</v>
+        <v>0.55300000000000005</v>
       </c>
     </row>
     <row r="488" spans="1:9" x14ac:dyDescent="0.25">
@@ -10014,22 +10014,22 @@
         <v>10</v>
       </c>
       <c r="D489">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E489">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="F489">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G489">
         <v>1</v>
       </c>
       <c r="H489">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I489" s="4">
-        <v>0.59199999999999997</v>
+        <v>0.57899999999999996</v>
       </c>
     </row>
     <row r="490" spans="1:9" x14ac:dyDescent="0.25">
@@ -10046,22 +10046,22 @@
         <v>10</v>
       </c>
       <c r="D491">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="E491">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="F491">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G491">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H491">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I491" s="4">
-        <v>0.61899999999999999</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="492" spans="1:9" x14ac:dyDescent="0.25">
@@ -10077,22 +10077,22 @@
         <v>10</v>
       </c>
       <c r="D493">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E493">
         <v>1.0900000000000001</v>
       </c>
       <c r="F493">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G493">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="H493">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I493" s="4">
-        <v>0.54300000000000004</v>
+        <v>0.51400000000000001</v>
       </c>
     </row>
     <row r="494" spans="1:9" x14ac:dyDescent="0.25">
@@ -10109,22 +10109,22 @@
         <v>10</v>
       </c>
       <c r="D495">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="E495">
-        <v>1.1100000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="F495">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G495">
-        <v>1.2</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="H495">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="I495" s="4">
-        <v>0.25800000000000001</v>
+        <v>0.39300000000000002</v>
       </c>
     </row>
     <row r="496" spans="1:9" x14ac:dyDescent="0.25">
@@ -10141,22 +10141,22 @@
         <v>10</v>
       </c>
       <c r="D497">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E497">
-        <v>1.0900000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F497">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G497">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="H497">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="I497" s="4">
-        <v>0.64</v>
+        <v>0.60899999999999999</v>
       </c>
     </row>
     <row r="498" spans="1:9" x14ac:dyDescent="0.25">
@@ -10170,22 +10170,22 @@
         <v>153</v>
       </c>
       <c r="D499">
-        <v>1572</v>
+        <v>2251</v>
       </c>
       <c r="E499">
-        <v>7.62</v>
+        <v>7.68</v>
       </c>
       <c r="F499">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="G499">
-        <v>10.74</v>
+        <v>10.96</v>
       </c>
       <c r="H499">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="I499" s="4">
-        <v>0.39600000000000002</v>
+        <v>0.44700000000000001</v>
       </c>
     </row>
   </sheetData>
